--- a/BackTest/2019-10-19 BackTest QTUM.xlsx
+++ b/BackTest/2019-10-19 BackTest QTUM.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>29</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-30.43478260869566</v>
+      </c>
       <c r="L12" t="n">
         <v>1997.6</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>29</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-23.80952380952381</v>
+      </c>
       <c r="L13" t="n">
         <v>1996.9</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>31</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-15.78947368421053</v>
+      </c>
       <c r="L14" t="n">
         <v>1996.2</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>31</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-5.88235294117647</v>
+      </c>
       <c r="L15" t="n">
         <v>1995.9</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>31</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>6.666666666666667</v>
+      </c>
       <c r="L16" t="n">
         <v>1995.8</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>36</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>-5.88235294117647</v>
+      </c>
       <c r="L17" t="n">
         <v>1995.4</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>37</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
       <c r="L18" t="n">
         <v>1995.2</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>37</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
       <c r="L19" t="n">
         <v>1995.2</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>44</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
       <c r="L20" t="n">
         <v>1995.9</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>45</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-12.5</v>
+      </c>
       <c r="L21" t="n">
         <v>1995.8</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>45</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-12.5</v>
+      </c>
       <c r="L22" t="n">
         <v>1995.6</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>51</v>
       </c>
       <c r="K23" t="n">
-        <v>-33.33333333333333</v>
+        <v>-30</v>
       </c>
       <c r="L23" t="n">
         <v>1994.8</v>
@@ -1466,7 +1488,7 @@
         <v>66</v>
       </c>
       <c r="K24" t="n">
-        <v>3.448275862068965</v>
+        <v>25.71428571428571</v>
       </c>
       <c r="L24" t="n">
         <v>1995.7</v>
@@ -1515,7 +1537,7 @@
         <v>71</v>
       </c>
       <c r="K25" t="n">
-        <v>18.64406779661017</v>
+        <v>35</v>
       </c>
       <c r="L25" t="n">
         <v>1997.1</v>
@@ -1564,7 +1586,7 @@
         <v>73</v>
       </c>
       <c r="K26" t="n">
-        <v>25.42372881355932</v>
+        <v>56.75675675675676</v>
       </c>
       <c r="L26" t="n">
         <v>1998.7</v>
@@ -1613,7 +1635,7 @@
         <v>78</v>
       </c>
       <c r="K27" t="n">
-        <v>19.35483870967742</v>
+        <v>41.46341463414634</v>
       </c>
       <c r="L27" t="n">
         <v>2000.3</v>
@@ -1662,7 +1684,7 @@
         <v>79</v>
       </c>
       <c r="K28" t="n">
-        <v>26.66666666666667</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L28" t="n">
         <v>2002.1</v>
@@ -1711,7 +1733,7 @@
         <v>81</v>
       </c>
       <c r="K29" t="n">
-        <v>26.66666666666667</v>
+        <v>24.32432432432433</v>
       </c>
       <c r="L29" t="n">
         <v>2003.7</v>
@@ -1760,7 +1782,7 @@
         <v>81</v>
       </c>
       <c r="K30" t="n">
-        <v>26.66666666666667</v>
+        <v>27.77777777777778</v>
       </c>
       <c r="L30" t="n">
         <v>2004.6</v>
@@ -1809,7 +1831,7 @@
         <v>85</v>
       </c>
       <c r="K31" t="n">
-        <v>22.80701754385965</v>
+        <v>35</v>
       </c>
       <c r="L31" t="n">
         <v>2006</v>
@@ -1860,7 +1882,7 @@
         <v>89</v>
       </c>
       <c r="K32" t="n">
-        <v>26.66666666666667</v>
+        <v>63.1578947368421</v>
       </c>
       <c r="L32" t="n">
         <v>2007.8</v>
@@ -1911,7 +1933,7 @@
         <v>96</v>
       </c>
       <c r="K33" t="n">
-        <v>13.43283582089552</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L33" t="n">
         <v>2009.5</v>
@@ -1962,7 +1984,7 @@
         <v>106</v>
       </c>
       <c r="K34" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="L34" t="n">
         <v>2010.7</v>
@@ -2013,7 +2035,7 @@
         <v>114</v>
       </c>
       <c r="K35" t="n">
-        <v>15.66265060240964</v>
+        <v>-7.317073170731707</v>
       </c>
       <c r="L35" t="n">
         <v>2010.6</v>
@@ -2064,7 +2086,7 @@
         <v>115</v>
       </c>
       <c r="K36" t="n">
-        <v>14.28571428571428</v>
+        <v>2.702702702702703</v>
       </c>
       <c r="L36" t="n">
         <v>2010.2</v>
@@ -2115,7 +2137,7 @@
         <v>121</v>
       </c>
       <c r="K37" t="n">
-        <v>27.05882352941176</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L37" t="n">
         <v>2010.9</v>
@@ -2166,7 +2188,7 @@
         <v>127</v>
       </c>
       <c r="K38" t="n">
-        <v>20</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="L38" t="n">
         <v>2010.9</v>
@@ -2217,7 +2239,7 @@
         <v>127</v>
       </c>
       <c r="K39" t="n">
-        <v>20</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="L39" t="n">
         <v>2011.1</v>
@@ -2268,7 +2290,7 @@
         <v>128</v>
       </c>
       <c r="K40" t="n">
-        <v>14.28571428571428</v>
+        <v>-2.325581395348837</v>
       </c>
       <c r="L40" t="n">
         <v>2011.4</v>
@@ -2319,7 +2341,7 @@
         <v>128</v>
       </c>
       <c r="K41" t="n">
-        <v>15.66265060240964</v>
+        <v>-12.82051282051282</v>
       </c>
       <c r="L41" t="n">
         <v>2011.3</v>
@@ -2370,7 +2392,7 @@
         <v>128</v>
       </c>
       <c r="K42" t="n">
-        <v>15.66265060240964</v>
+        <v>6.25</v>
       </c>
       <c r="L42" t="n">
         <v>2010.8</v>
@@ -2421,7 +2443,7 @@
         <v>136</v>
       </c>
       <c r="K43" t="n">
-        <v>12.94117647058824</v>
+        <v>-53.33333333333334</v>
       </c>
       <c r="L43" t="n">
         <v>2010.2</v>
@@ -2472,7 +2494,7 @@
         <v>150</v>
       </c>
       <c r="K44" t="n">
-        <v>11.9047619047619</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L44" t="n">
         <v>2010</v>
@@ -2523,7 +2545,7 @@
         <v>163</v>
       </c>
       <c r="K45" t="n">
-        <v>-8.695652173913043</v>
+        <v>-12.5</v>
       </c>
       <c r="L45" t="n">
         <v>2009.3</v>
@@ -2574,7 +2596,7 @@
         <v>165</v>
       </c>
       <c r="K46" t="n">
-        <v>-13.04347826086956</v>
+        <v>-31.81818181818182</v>
       </c>
       <c r="L46" t="n">
         <v>2008.5</v>
@@ -2625,7 +2647,7 @@
         <v>165</v>
       </c>
       <c r="K47" t="n">
-        <v>-8.045977011494253</v>
+        <v>-21.05263157894737</v>
       </c>
       <c r="L47" t="n">
         <v>2007.1</v>
@@ -2676,7 +2698,7 @@
         <v>166</v>
       </c>
       <c r="K48" t="n">
-        <v>-10.3448275862069</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L48" t="n">
         <v>2006.2</v>
@@ -2727,7 +2749,7 @@
         <v>166</v>
       </c>
       <c r="K49" t="n">
-        <v>-8.235294117647058</v>
+        <v>-26.31578947368421</v>
       </c>
       <c r="L49" t="n">
         <v>2005.3</v>
@@ -2778,7 +2800,7 @@
         <v>166</v>
       </c>
       <c r="K50" t="n">
-        <v>-8.235294117647058</v>
+        <v>-26.31578947368421</v>
       </c>
       <c r="L50" t="n">
         <v>2004.3</v>
@@ -2829,7 +2851,7 @@
         <v>166</v>
       </c>
       <c r="K51" t="n">
-        <v>-13.58024691358025</v>
+        <v>-26.31578947368421</v>
       </c>
       <c r="L51" t="n">
         <v>2003.3</v>
@@ -2880,7 +2902,7 @@
         <v>168</v>
       </c>
       <c r="K52" t="n">
-        <v>-16.45569620253164</v>
+        <v>0</v>
       </c>
       <c r="L52" t="n">
         <v>2002.5</v>
@@ -2931,7 +2953,7 @@
         <v>168</v>
       </c>
       <c r="K53" t="n">
-        <v>-8.333333333333332</v>
+        <v>-77.77777777777779</v>
       </c>
       <c r="L53" t="n">
         <v>2002.5</v>
@@ -2982,7 +3004,7 @@
         <v>168</v>
       </c>
       <c r="K54" t="n">
-        <v>-25.80645161290322</v>
+        <v>-20</v>
       </c>
       <c r="L54" t="n">
         <v>2001.1</v>
@@ -3033,7 +3055,7 @@
         <v>170</v>
       </c>
       <c r="K55" t="n">
-        <v>-17.85714285714286</v>
+        <v>-20</v>
       </c>
       <c r="L55" t="n">
         <v>2000.8</v>
@@ -3084,7 +3106,7 @@
         <v>170</v>
       </c>
       <c r="K56" t="n">
-        <v>-16.36363636363636</v>
+        <v>-20</v>
       </c>
       <c r="L56" t="n">
         <v>2000.7</v>
@@ -3135,7 +3157,7 @@
         <v>170</v>
       </c>
       <c r="K57" t="n">
-        <v>-30.61224489795918</v>
+        <v>0</v>
       </c>
       <c r="L57" t="n">
         <v>2000.6</v>
@@ -3186,7 +3208,7 @@
         <v>173</v>
       </c>
       <c r="K58" t="n">
-        <v>-26.08695652173913</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L58" t="n">
         <v>2000.3</v>
@@ -3237,7 +3259,7 @@
         <v>178</v>
       </c>
       <c r="K59" t="n">
-        <v>-13.72549019607843</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L59" t="n">
         <v>2000.5</v>
@@ -3288,7 +3310,7 @@
         <v>183</v>
       </c>
       <c r="K60" t="n">
-        <v>-23.63636363636364</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L60" t="n">
         <v>2000.2</v>
@@ -3339,7 +3361,7 @@
         <v>188</v>
       </c>
       <c r="K61" t="n">
-        <v>-13.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L61" t="n">
         <v>2000.4</v>
@@ -3441,7 +3463,7 @@
         <v>194</v>
       </c>
       <c r="K63" t="n">
-        <v>-6.896551724137931</v>
+        <v>-15.38461538461539</v>
       </c>
       <c r="L63" t="n">
         <v>1999.5</v>
@@ -3492,7 +3514,7 @@
         <v>194</v>
       </c>
       <c r="K64" t="n">
-        <v>-40.90909090909091</v>
+        <v>-8.333333333333332</v>
       </c>
       <c r="L64" t="n">
         <v>1999.1</v>
@@ -3543,7 +3565,7 @@
         <v>194</v>
       </c>
       <c r="K65" t="n">
-        <v>-16.12903225806452</v>
+        <v>-8.333333333333332</v>
       </c>
       <c r="L65" t="n">
         <v>1998.9</v>
@@ -3594,7 +3616,7 @@
         <v>199</v>
       </c>
       <c r="K66" t="n">
-        <v>5.88235294117647</v>
+        <v>10.3448275862069</v>
       </c>
       <c r="L66" t="n">
         <v>1999.2</v>
@@ -3645,7 +3667,7 @@
         <v>203</v>
       </c>
       <c r="K67" t="n">
-        <v>-5.263157894736842</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L67" t="n">
         <v>1999.1</v>
@@ -3696,7 +3718,7 @@
         <v>205</v>
       </c>
       <c r="K68" t="n">
-        <v>2.564102564102564</v>
+        <v>-3.703703703703703</v>
       </c>
       <c r="L68" t="n">
         <v>1999.5</v>
@@ -3747,7 +3769,7 @@
         <v>205</v>
       </c>
       <c r="K69" t="n">
-        <v>2.564102564102564</v>
+        <v>18.18181818181818</v>
       </c>
       <c r="L69" t="n">
         <v>1999.4</v>
@@ -3798,7 +3820,7 @@
         <v>206</v>
       </c>
       <c r="K70" t="n">
-        <v>0</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L70" t="n">
         <v>1999.7</v>
@@ -3849,7 +3871,7 @@
         <v>206</v>
       </c>
       <c r="K71" t="n">
-        <v>0</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L71" t="n">
         <v>1999.5</v>
@@ -3900,7 +3922,7 @@
         <v>206</v>
       </c>
       <c r="K72" t="n">
-        <v>-5.263157894736842</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L72" t="n">
         <v>1999.8</v>
@@ -3951,7 +3973,7 @@
         <v>208</v>
       </c>
       <c r="K73" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="L73" t="n">
         <v>1999.8</v>
@@ -4002,7 +4024,7 @@
         <v>210</v>
       </c>
       <c r="K74" t="n">
-        <v>-4.761904761904762</v>
+        <v>12.5</v>
       </c>
       <c r="L74" t="n">
         <v>2000</v>
@@ -4053,7 +4075,7 @@
         <v>211</v>
       </c>
       <c r="K75" t="n">
-        <v>2.439024390243902</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L75" t="n">
         <v>2000.3</v>
@@ -4104,7 +4126,7 @@
         <v>214</v>
       </c>
       <c r="K76" t="n">
-        <v>-4.545454545454546</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L76" t="n">
         <v>1999.8</v>
@@ -4155,7 +4177,7 @@
         <v>215</v>
       </c>
       <c r="K77" t="n">
-        <v>-6.666666666666667</v>
+        <v>-40</v>
       </c>
       <c r="L77" t="n">
         <v>1999.6</v>
@@ -4206,7 +4228,7 @@
         <v>216</v>
       </c>
       <c r="K78" t="n">
-        <v>2.325581395348837</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L78" t="n">
         <v>1999.3</v>
@@ -4257,7 +4279,7 @@
         <v>218</v>
       </c>
       <c r="K79" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="L79" t="n">
         <v>1999.2</v>
@@ -4308,7 +4330,7 @@
         <v>222</v>
       </c>
       <c r="K80" t="n">
-        <v>17.94871794871795</v>
+        <v>25</v>
       </c>
       <c r="L80" t="n">
         <v>1999.6</v>
@@ -4359,7 +4381,7 @@
         <v>223</v>
       </c>
       <c r="K81" t="n">
-        <v>8.571428571428571</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L81" t="n">
         <v>2000.1</v>
@@ -4410,7 +4432,7 @@
         <v>228</v>
       </c>
       <c r="K82" t="n">
-        <v>37.14285714285715</v>
+        <v>60</v>
       </c>
       <c r="L82" t="n">
         <v>2001.1</v>
@@ -4461,7 +4483,7 @@
         <v>230</v>
       </c>
       <c r="K83" t="n">
-        <v>38.88888888888889</v>
+        <v>60</v>
       </c>
       <c r="L83" t="n">
         <v>2002.5</v>
@@ -4512,7 +4534,7 @@
         <v>235</v>
       </c>
       <c r="K84" t="n">
-        <v>21.95121951219512</v>
+        <v>25</v>
       </c>
       <c r="L84" t="n">
         <v>2003.2</v>
@@ -4563,7 +4585,7 @@
         <v>235</v>
       </c>
       <c r="K85" t="n">
-        <v>21.95121951219512</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L85" t="n">
         <v>2003.8</v>
@@ -4614,7 +4636,7 @@
         <v>238</v>
       </c>
       <c r="K86" t="n">
-        <v>2.564102564102564</v>
+        <v>30.43478260869566</v>
       </c>
       <c r="L86" t="n">
         <v>2004.4</v>
@@ -4665,7 +4687,7 @@
         <v>243</v>
       </c>
       <c r="K87" t="n">
-        <v>25</v>
+        <v>40.74074074074074</v>
       </c>
       <c r="L87" t="n">
         <v>2005.6</v>
@@ -4716,7 +4738,7 @@
         <v>251</v>
       </c>
       <c r="K88" t="n">
-        <v>34.78260869565217</v>
+        <v>51.51515151515152</v>
       </c>
       <c r="L88" t="n">
         <v>2007.5</v>
@@ -4767,7 +4789,7 @@
         <v>253</v>
       </c>
       <c r="K89" t="n">
-        <v>37.5</v>
+        <v>48.38709677419355</v>
       </c>
       <c r="L89" t="n">
         <v>2009.4</v>
@@ -4818,7 +4840,7 @@
         <v>262</v>
       </c>
       <c r="K90" t="n">
-        <v>17.85714285714286</v>
+        <v>12.82051282051282</v>
       </c>
       <c r="L90" t="n">
         <v>2010</v>
@@ -4869,7 +4891,7 @@
         <v>264</v>
       </c>
       <c r="K91" t="n">
-        <v>20.68965517241379</v>
+        <v>5.555555555555555</v>
       </c>
       <c r="L91" t="n">
         <v>2010.7</v>
@@ -4920,7 +4942,7 @@
         <v>268</v>
       </c>
       <c r="K92" t="n">
-        <v>12.90322580645161</v>
+        <v>-10.52631578947368</v>
       </c>
       <c r="L92" t="n">
         <v>2010.5</v>
@@ -4971,7 +4993,7 @@
         <v>270</v>
       </c>
       <c r="K93" t="n">
-        <v>12.90322580645161</v>
+        <v>-2.857142857142857</v>
       </c>
       <c r="L93" t="n">
         <v>2009.9</v>
@@ -5022,7 +5044,7 @@
         <v>273</v>
       </c>
       <c r="K94" t="n">
-        <v>14.28571428571428</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L94" t="n">
         <v>2010.1</v>
@@ -5136,7 +5158,7 @@
         <v>274</v>
       </c>
       <c r="K96" t="n">
-        <v>16.66666666666666</v>
+        <v>-3.225806451612903</v>
       </c>
       <c r="L96" t="n">
         <v>2010.6</v>
@@ -5195,7 +5217,7 @@
         <v>274</v>
       </c>
       <c r="K97" t="n">
-        <v>18.64406779661017</v>
+        <v>-39.1304347826087</v>
       </c>
       <c r="L97" t="n">
         <v>2010.5</v>
@@ -5252,7 +5274,7 @@
         <v>279</v>
       </c>
       <c r="K98" t="n">
-        <v>23.80952380952381</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L98" t="n">
         <v>2010.1</v>
@@ -5309,7 +5331,7 @@
         <v>284</v>
       </c>
       <c r="K99" t="n">
-        <v>12.12121212121212</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L99" t="n">
         <v>2009</v>
@@ -5366,7 +5388,7 @@
         <v>284</v>
       </c>
       <c r="K100" t="n">
-        <v>6.451612903225806</v>
+        <v>-20</v>
       </c>
       <c r="L100" t="n">
         <v>2008.8</v>
@@ -5423,7 +5445,7 @@
         <v>284</v>
       </c>
       <c r="K101" t="n">
-        <v>4.918032786885246</v>
+        <v>0</v>
       </c>
       <c r="L101" t="n">
         <v>2008.4</v>
@@ -5480,7 +5502,7 @@
         <v>284</v>
       </c>
       <c r="K102" t="n">
-        <v>-3.571428571428571</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L102" t="n">
         <v>2008.4</v>
@@ -5537,7 +5559,7 @@
         <v>284</v>
       </c>
       <c r="K103" t="n">
-        <v>-7.407407407407407</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L103" t="n">
         <v>2008.6</v>
@@ -5594,7 +5616,7 @@
         <v>284</v>
       </c>
       <c r="K104" t="n">
-        <v>2.040816326530612</v>
+        <v>0</v>
       </c>
       <c r="L104" t="n">
         <v>2008.5</v>
@@ -5645,7 +5667,7 @@
         <v>284</v>
       </c>
       <c r="K105" t="n">
-        <v>2.040816326530612</v>
+        <v>0</v>
       </c>
       <c r="L105" t="n">
         <v>2008.5</v>
@@ -5696,7 +5718,7 @@
         <v>284</v>
       </c>
       <c r="K106" t="n">
-        <v>8.695652173913043</v>
+        <v>0</v>
       </c>
       <c r="L106" t="n">
         <v>2008.5</v>
@@ -5747,7 +5769,7 @@
         <v>284</v>
       </c>
       <c r="K107" t="n">
-        <v>-2.439024390243902</v>
+        <v>-100</v>
       </c>
       <c r="L107" t="n">
         <v>2008.5</v>
@@ -5798,7 +5820,7 @@
         <v>292</v>
       </c>
       <c r="K108" t="n">
-        <v>-41.46341463414634</v>
+        <v>-100</v>
       </c>
       <c r="L108" t="n">
         <v>2007.2</v>
@@ -5849,7 +5871,7 @@
         <v>295</v>
       </c>
       <c r="K109" t="n">
-        <v>-52.38095238095239</v>
+        <v>-100</v>
       </c>
       <c r="L109" t="n">
         <v>2006.1</v>
@@ -5900,7 +5922,7 @@
         <v>297</v>
       </c>
       <c r="K110" t="n">
-        <v>-42.85714285714285</v>
+        <v>-100</v>
       </c>
       <c r="L110" t="n">
         <v>2004.8</v>
@@ -5951,7 +5973,7 @@
         <v>298</v>
       </c>
       <c r="K111" t="n">
-        <v>-47.05882352941176</v>
+        <v>-85.71428571428571</v>
       </c>
       <c r="L111" t="n">
         <v>2003.6</v>
@@ -6002,7 +6024,7 @@
         <v>304</v>
       </c>
       <c r="K112" t="n">
-        <v>-16.66666666666666</v>
+        <v>-30</v>
       </c>
       <c r="L112" t="n">
         <v>2003</v>
@@ -6053,7 +6075,7 @@
         <v>312</v>
       </c>
       <c r="K113" t="n">
-        <v>-28.57142857142857</v>
+        <v>-50</v>
       </c>
       <c r="L113" t="n">
         <v>2001.6</v>
@@ -6104,7 +6126,7 @@
         <v>319</v>
       </c>
       <c r="K114" t="n">
-        <v>-17.39130434782609</v>
+        <v>-20</v>
       </c>
       <c r="L114" t="n">
         <v>2000.9</v>
@@ -6155,7 +6177,7 @@
         <v>319</v>
       </c>
       <c r="K115" t="n">
-        <v>-15.55555555555556</v>
+        <v>-20</v>
       </c>
       <c r="L115" t="n">
         <v>2000.2</v>
@@ -6206,7 +6228,7 @@
         <v>327</v>
       </c>
       <c r="K116" t="n">
-        <v>-28.30188679245283</v>
+        <v>-34.88372093023256</v>
       </c>
       <c r="L116" t="n">
         <v>1998.7</v>
@@ -6257,7 +6279,7 @@
         <v>331</v>
       </c>
       <c r="K117" t="n">
-        <v>-19.29824561403509</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L117" t="n">
         <v>1997.6</v>
@@ -6308,7 +6330,7 @@
         <v>335</v>
       </c>
       <c r="K118" t="n">
-        <v>-35.71428571428572</v>
+        <v>-10</v>
       </c>
       <c r="L118" t="n">
         <v>1996.9</v>
@@ -6359,7 +6381,7 @@
         <v>343</v>
       </c>
       <c r="K119" t="n">
-        <v>-11.86440677966102</v>
+        <v>13.04347826086956</v>
       </c>
       <c r="L119" t="n">
         <v>1997.3</v>
@@ -6410,7 +6432,7 @@
         <v>344</v>
       </c>
       <c r="K120" t="n">
-        <v>-13.33333333333333</v>
+        <v>8.695652173913043</v>
       </c>
       <c r="L120" t="n">
         <v>1997.8</v>
@@ -6461,7 +6483,7 @@
         <v>346</v>
       </c>
       <c r="K121" t="n">
-        <v>-16.12903225806452</v>
+        <v>-9.523809523809524</v>
       </c>
       <c r="L121" t="n">
         <v>1998</v>
@@ -6512,7 +6534,7 @@
         <v>347</v>
       </c>
       <c r="K122" t="n">
-        <v>-14.28571428571428</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L122" t="n">
         <v>1997.7</v>
@@ -6563,7 +6585,7 @@
         <v>348</v>
       </c>
       <c r="K123" t="n">
-        <v>-12.5</v>
+        <v>-3.448275862068965</v>
       </c>
       <c r="L123" t="n">
         <v>1998.3</v>
@@ -6614,7 +6636,7 @@
         <v>348</v>
       </c>
       <c r="K124" t="n">
-        <v>-12.5</v>
+        <v>-3.448275862068965</v>
       </c>
       <c r="L124" t="n">
         <v>1998.2</v>
@@ -6665,7 +6687,7 @@
         <v>348</v>
       </c>
       <c r="K125" t="n">
-        <v>-12.5</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L125" t="n">
         <v>1998.1</v>
@@ -6716,7 +6738,7 @@
         <v>350</v>
       </c>
       <c r="K126" t="n">
-        <v>-15.15151515151515</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L126" t="n">
         <v>1998.6</v>
@@ -6767,7 +6789,7 @@
         <v>353</v>
       </c>
       <c r="K127" t="n">
-        <v>-18.84057971014493</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L127" t="n">
         <v>1998.4</v>
@@ -6818,7 +6840,7 @@
         <v>355</v>
       </c>
       <c r="K128" t="n">
-        <v>-4.761904761904762</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L128" t="n">
         <v>1998.8</v>
@@ -6869,7 +6891,7 @@
         <v>356</v>
       </c>
       <c r="K129" t="n">
-        <v>1.639344262295082</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L129" t="n">
         <v>1998.5</v>
@@ -6920,7 +6942,7 @@
         <v>362</v>
       </c>
       <c r="K130" t="n">
-        <v>-4.615384615384616</v>
+        <v>-37.5</v>
       </c>
       <c r="L130" t="n">
         <v>1997.7</v>
@@ -6971,7 +6993,7 @@
         <v>363</v>
       </c>
       <c r="K131" t="n">
-        <v>-4.615384615384616</v>
+        <v>-37.5</v>
       </c>
       <c r="L131" t="n">
         <v>1997.2</v>
@@ -7022,7 +7044,7 @@
         <v>372</v>
       </c>
       <c r="K132" t="n">
-        <v>0</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="L132" t="n">
         <v>1997.5</v>
@@ -7073,7 +7095,7 @@
         <v>381</v>
       </c>
       <c r="K133" t="n">
-        <v>-1.449275362318841</v>
+        <v>-21.21212121212121</v>
       </c>
       <c r="L133" t="n">
         <v>1996.8</v>
@@ -7124,7 +7146,7 @@
         <v>383</v>
       </c>
       <c r="K134" t="n">
-        <v>-15.625</v>
+        <v>-25.71428571428571</v>
       </c>
       <c r="L134" t="n">
         <v>1995.9</v>
@@ -7175,7 +7197,7 @@
         <v>384</v>
       </c>
       <c r="K135" t="n">
-        <v>-16.92307692307692</v>
+        <v>-23.52941176470588</v>
       </c>
       <c r="L135" t="n">
         <v>1994.9</v>
@@ -7226,7 +7248,7 @@
         <v>389</v>
       </c>
       <c r="K136" t="n">
-        <v>-12.90322580645161</v>
+        <v>-27.77777777777778</v>
       </c>
       <c r="L136" t="n">
         <v>1993.6</v>
@@ -7277,7 +7299,7 @@
         <v>391</v>
       </c>
       <c r="K137" t="n">
-        <v>-23.33333333333333</v>
+        <v>-38.88888888888889</v>
       </c>
       <c r="L137" t="n">
         <v>1992.4</v>
@@ -7328,7 +7350,7 @@
         <v>396</v>
       </c>
       <c r="K138" t="n">
-        <v>-8.196721311475409</v>
+        <v>-25</v>
       </c>
       <c r="L138" t="n">
         <v>1991.5</v>
@@ -7379,7 +7401,7 @@
         <v>396</v>
       </c>
       <c r="K139" t="n">
-        <v>-24.52830188679245</v>
+        <v>-11.76470588235294</v>
       </c>
       <c r="L139" t="n">
         <v>1990.5</v>
@@ -7430,7 +7452,7 @@
         <v>401</v>
       </c>
       <c r="K140" t="n">
-        <v>-29.82456140350877</v>
+        <v>-26.31578947368421</v>
       </c>
       <c r="L140" t="n">
         <v>1989.6</v>
@@ -7481,7 +7503,7 @@
         <v>403</v>
       </c>
       <c r="K141" t="n">
-        <v>-29.82456140350877</v>
+        <v>-67.74193548387096</v>
       </c>
       <c r="L141" t="n">
         <v>1988.4</v>
@@ -7532,7 +7554,7 @@
         <v>403</v>
       </c>
       <c r="K142" t="n">
-        <v>-32.14285714285715</v>
+        <v>-54.54545454545454</v>
       </c>
       <c r="L142" t="n">
         <v>1986.3</v>
@@ -7583,7 +7605,7 @@
         <v>403</v>
       </c>
       <c r="K143" t="n">
-        <v>-34.54545454545455</v>
+        <v>-50</v>
       </c>
       <c r="L143" t="n">
         <v>1985.1</v>
@@ -7634,7 +7656,7 @@
         <v>407</v>
       </c>
       <c r="K144" t="n">
-        <v>-38.98305084745763</v>
+        <v>-56.52173913043478</v>
       </c>
       <c r="L144" t="n">
         <v>1983.7</v>
@@ -7685,7 +7707,7 @@
         <v>407</v>
       </c>
       <c r="K145" t="n">
-        <v>-38.98305084745763</v>
+        <v>-44.44444444444444</v>
       </c>
       <c r="L145" t="n">
         <v>1982.4</v>
@@ -7736,7 +7758,7 @@
         <v>408</v>
       </c>
       <c r="K146" t="n">
-        <v>-37.93103448275862</v>
+        <v>-41.17647058823529</v>
       </c>
       <c r="L146" t="n">
         <v>1981.5</v>
@@ -7787,7 +7809,7 @@
         <v>415</v>
       </c>
       <c r="K147" t="n">
-        <v>-19.35483870967742</v>
+        <v>-26.31578947368421</v>
       </c>
       <c r="L147" t="n">
         <v>1981.5</v>
@@ -7838,7 +7860,7 @@
         <v>416</v>
       </c>
       <c r="K148" t="n">
-        <v>-21.31147540983606</v>
+        <v>-20</v>
       </c>
       <c r="L148" t="n">
         <v>1981.1</v>
@@ -7889,7 +7911,7 @@
         <v>421</v>
       </c>
       <c r="K149" t="n">
-        <v>-29.23076923076923</v>
+        <v>-20</v>
       </c>
       <c r="L149" t="n">
         <v>1980.2</v>
@@ -7940,7 +7962,7 @@
         <v>426</v>
       </c>
       <c r="K150" t="n">
-        <v>-12.5</v>
+        <v>13.04347826086956</v>
       </c>
       <c r="L150" t="n">
         <v>1980.3</v>
@@ -7995,7 +8017,7 @@
         <v>449</v>
       </c>
       <c r="K151" t="n">
-        <v>16.27906976744186</v>
+        <v>56.52173913043478</v>
       </c>
       <c r="L151" t="n">
         <v>1982.9</v>
@@ -8054,7 +8076,7 @@
         <v>452</v>
       </c>
       <c r="K152" t="n">
-        <v>10</v>
+        <v>59.18367346938776</v>
       </c>
       <c r="L152" t="n">
         <v>1985.8</v>
@@ -8113,7 +8135,7 @@
         <v>453</v>
       </c>
       <c r="K153" t="n">
-        <v>22.22222222222222</v>
+        <v>69.56521739130434</v>
       </c>
       <c r="L153" t="n">
         <v>1988.6</v>
@@ -8172,7 +8194,7 @@
         <v>458</v>
       </c>
       <c r="K154" t="n">
-        <v>30.66666666666666</v>
+        <v>72.54901960784314</v>
       </c>
       <c r="L154" t="n">
         <v>1992.3</v>
@@ -8231,7 +8253,7 @@
         <v>458</v>
       </c>
       <c r="K155" t="n">
-        <v>32.43243243243244</v>
+        <v>76</v>
       </c>
       <c r="L155" t="n">
         <v>1996</v>
@@ -8288,7 +8310,7 @@
         <v>464</v>
       </c>
       <c r="K156" t="n">
-        <v>30.66666666666666</v>
+        <v>51.02040816326531</v>
       </c>
       <c r="L156" t="n">
         <v>1999.2</v>
@@ -8345,7 +8367,7 @@
         <v>468</v>
       </c>
       <c r="K157" t="n">
-        <v>27.27272727272727</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L157" t="n">
         <v>2001.3</v>

--- a/BackTest/2019-10-19 BackTest QTUM.xlsx
+++ b/BackTest/2019-10-19 BackTest QTUM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S157"/>
+  <dimension ref="A1:M136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,60 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>closegap_cunsum</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>closegap_abs_cumsum</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>MA5</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>MA20</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>MA30</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>BuyPrice</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>SPP</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>bprelay</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -483,17 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -523,20 +489,12 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>6</v>
-      </c>
-      <c r="J3" t="n">
-        <v>6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -566,20 +524,12 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
-      </c>
-      <c r="J4" t="n">
-        <v>8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -611,18 +561,10 @@
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>12</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -652,20 +594,12 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J6" t="n">
-        <v>14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -695,20 +629,12 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J7" t="n">
-        <v>16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -738,20 +664,12 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J8" t="n">
-        <v>19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -781,20 +699,12 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J9" t="n">
-        <v>21</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -824,20 +734,12 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J10" t="n">
-        <v>21</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -867,22 +769,12 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J11" t="n">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1997.7</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="n">
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -912,24 +804,12 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J12" t="n">
-        <v>29</v>
-      </c>
-      <c r="K12" t="n">
-        <v>-30.43478260869566</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1997.6</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -959,24 +839,12 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J13" t="n">
-        <v>29</v>
-      </c>
-      <c r="K13" t="n">
-        <v>-23.80952380952381</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1996.9</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1006,24 +874,12 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J14" t="n">
-        <v>31</v>
-      </c>
-      <c r="K14" t="n">
-        <v>-15.78947368421053</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1996.2</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1053,24 +909,12 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J15" t="n">
-        <v>31</v>
-      </c>
-      <c r="K15" t="n">
-        <v>-5.88235294117647</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1995.9</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1100,24 +944,12 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J16" t="n">
-        <v>31</v>
-      </c>
-      <c r="K16" t="n">
-        <v>6.666666666666667</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1995.8</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1147,24 +979,12 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J17" t="n">
-        <v>36</v>
-      </c>
-      <c r="K17" t="n">
-        <v>-5.88235294117647</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1995.4</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1194,24 +1014,12 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J18" t="n">
-        <v>37</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1995.2</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1241,24 +1049,12 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J19" t="n">
-        <v>37</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>1995.2</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1285,27 +1081,21 @@
         <v>2005.25</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>44</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1995.9</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="n">
+        <v>1991</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1332,29 +1122,21 @@
         <v>2005.233333333333</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>45</v>
-      </c>
-      <c r="K21" t="n">
-        <v>-12.5</v>
-      </c>
-      <c r="L21" t="n">
-        <v>1995.8</v>
+        <v>1997</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M21" t="n">
-        <v>1996.75</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1381,29 +1163,21 @@
         <v>2005.266666666667</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45</v>
-      </c>
-      <c r="K22" t="n">
-        <v>-12.5</v>
-      </c>
-      <c r="L22" t="n">
-        <v>1995.6</v>
+        <v>1997</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M22" t="n">
-        <v>1996.6</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1430,29 +1204,21 @@
         <v>2005.133333333333</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>51</v>
-      </c>
-      <c r="K23" t="n">
-        <v>-30</v>
-      </c>
-      <c r="L23" t="n">
-        <v>1994.8</v>
+        <v>1991</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M23" t="n">
-        <v>1995.85</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1479,29 +1245,21 @@
         <v>2005.25</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>66</v>
-      </c>
-      <c r="K24" t="n">
-        <v>25.71428571428571</v>
-      </c>
-      <c r="L24" t="n">
-        <v>1995.7</v>
+        <v>1999</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M24" t="n">
-        <v>1995.95</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1528,29 +1286,21 @@
         <v>2005.233333333333</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>71</v>
-      </c>
-      <c r="K25" t="n">
-        <v>35</v>
-      </c>
-      <c r="L25" t="n">
-        <v>1997.1</v>
+        <v>2011</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M25" t="n">
-        <v>1996.5</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1580,26 +1330,16 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>13</v>
-      </c>
-      <c r="J26" t="n">
-        <v>73</v>
-      </c>
-      <c r="K26" t="n">
-        <v>56.75675675675676</v>
-      </c>
-      <c r="L26" t="n">
-        <v>1998.7</v>
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M26" t="n">
-        <v>1997.25</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1629,26 +1369,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>8</v>
-      </c>
-      <c r="J27" t="n">
-        <v>78</v>
-      </c>
-      <c r="K27" t="n">
-        <v>41.46341463414634</v>
-      </c>
-      <c r="L27" t="n">
-        <v>2000.3</v>
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M27" t="n">
-        <v>1997.85</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1678,26 +1408,16 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>9</v>
-      </c>
-      <c r="J28" t="n">
-        <v>79</v>
-      </c>
-      <c r="K28" t="n">
-        <v>42.85714285714285</v>
-      </c>
-      <c r="L28" t="n">
-        <v>2002.1</v>
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M28" t="n">
-        <v>1998.65</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1727,26 +1447,16 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>7</v>
-      </c>
-      <c r="J29" t="n">
-        <v>81</v>
-      </c>
-      <c r="K29" t="n">
-        <v>24.32432432432433</v>
-      </c>
-      <c r="L29" t="n">
-        <v>2003.7</v>
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M29" t="n">
-        <v>1999.45</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1776,26 +1486,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>7</v>
-      </c>
-      <c r="J30" t="n">
-        <v>81</v>
-      </c>
-      <c r="K30" t="n">
-        <v>27.77777777777778</v>
-      </c>
-      <c r="L30" t="n">
-        <v>2004.6</v>
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M30" t="n">
-        <v>2000.25</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1825,28 +1525,16 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>11</v>
-      </c>
-      <c r="J31" t="n">
-        <v>85</v>
-      </c>
-      <c r="K31" t="n">
-        <v>35</v>
-      </c>
-      <c r="L31" t="n">
-        <v>2006</v>
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M31" t="n">
-        <v>2000.9</v>
-      </c>
-      <c r="N31" t="n">
-        <v>1999.833333333333</v>
-      </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1876,28 +1564,16 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>15</v>
-      </c>
-      <c r="J32" t="n">
-        <v>89</v>
-      </c>
-      <c r="K32" t="n">
-        <v>63.1578947368421</v>
-      </c>
-      <c r="L32" t="n">
-        <v>2007.8</v>
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M32" t="n">
-        <v>2001.7</v>
-      </c>
-      <c r="N32" t="n">
-        <v>2000.333333333333</v>
-      </c>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1927,28 +1603,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>8</v>
-      </c>
-      <c r="J33" t="n">
-        <v>96</v>
-      </c>
-      <c r="K33" t="n">
-        <v>6.666666666666667</v>
-      </c>
-      <c r="L33" t="n">
-        <v>2009.5</v>
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M33" t="n">
-        <v>2002.15</v>
-      </c>
-      <c r="N33" t="n">
-        <v>2000.4</v>
-      </c>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1978,28 +1642,16 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>18</v>
-      </c>
-      <c r="J34" t="n">
-        <v>106</v>
-      </c>
-      <c r="K34" t="n">
-        <v>20</v>
-      </c>
-      <c r="L34" t="n">
-        <v>2010.7</v>
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M34" t="n">
-        <v>2003.2</v>
-      </c>
-      <c r="N34" t="n">
-        <v>2000.866666666667</v>
-      </c>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2029,28 +1681,16 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>10</v>
-      </c>
-      <c r="J35" t="n">
-        <v>114</v>
-      </c>
-      <c r="K35" t="n">
-        <v>-7.317073170731707</v>
-      </c>
-      <c r="L35" t="n">
-        <v>2010.6</v>
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M35" t="n">
-        <v>2003.85</v>
-      </c>
-      <c r="N35" t="n">
-        <v>2001.2</v>
-      </c>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2080,28 +1720,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>9</v>
-      </c>
-      <c r="J36" t="n">
-        <v>115</v>
-      </c>
-      <c r="K36" t="n">
-        <v>2.702702702702703</v>
-      </c>
-      <c r="L36" t="n">
-        <v>2010.2</v>
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M36" t="n">
-        <v>2004.45</v>
-      </c>
-      <c r="N36" t="n">
-        <v>2001.566666666667</v>
-      </c>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2131,28 +1759,16 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>15</v>
-      </c>
-      <c r="J37" t="n">
-        <v>121</v>
-      </c>
-      <c r="K37" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L37" t="n">
-        <v>2010.9</v>
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M37" t="n">
-        <v>2005.6</v>
-      </c>
-      <c r="N37" t="n">
-        <v>2002.2</v>
-      </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2182,28 +1798,16 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>9</v>
-      </c>
-      <c r="J38" t="n">
-        <v>127</v>
-      </c>
-      <c r="K38" t="n">
-        <v>4.347826086956522</v>
-      </c>
-      <c r="L38" t="n">
-        <v>2010.9</v>
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M38" t="n">
-        <v>2006.5</v>
-      </c>
-      <c r="N38" t="n">
-        <v>2002.733333333333</v>
-      </c>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,28 +1837,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>9</v>
-      </c>
-      <c r="J39" t="n">
-        <v>127</v>
-      </c>
-      <c r="K39" t="n">
-        <v>4.347826086956522</v>
-      </c>
-      <c r="L39" t="n">
-        <v>2011.1</v>
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M39" t="n">
-        <v>2007.4</v>
-      </c>
-      <c r="N39" t="n">
-        <v>2003.333333333333</v>
-      </c>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2284,28 +1876,16 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>10</v>
-      </c>
-      <c r="J40" t="n">
-        <v>128</v>
-      </c>
-      <c r="K40" t="n">
-        <v>-2.325581395348837</v>
-      </c>
-      <c r="L40" t="n">
-        <v>2011.4</v>
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M40" t="n">
-        <v>2008</v>
-      </c>
-      <c r="N40" t="n">
-        <v>2003.966666666667</v>
-      </c>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2335,28 +1915,16 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>10</v>
-      </c>
-      <c r="J41" t="n">
-        <v>128</v>
-      </c>
-      <c r="K41" t="n">
-        <v>-12.82051282051282</v>
-      </c>
-      <c r="L41" t="n">
-        <v>2011.3</v>
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M41" t="n">
-        <v>2008.65</v>
-      </c>
-      <c r="N41" t="n">
-        <v>2004.366666666667</v>
-      </c>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2386,28 +1954,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>10</v>
-      </c>
-      <c r="J42" t="n">
-        <v>128</v>
-      </c>
-      <c r="K42" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="L42" t="n">
-        <v>2010.8</v>
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M42" t="n">
-        <v>2009.3</v>
-      </c>
-      <c r="N42" t="n">
-        <v>2004.733333333333</v>
-      </c>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2437,28 +1993,16 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>2</v>
-      </c>
-      <c r="J43" t="n">
-        <v>136</v>
-      </c>
-      <c r="K43" t="n">
-        <v>-53.33333333333334</v>
-      </c>
-      <c r="L43" t="n">
-        <v>2010.2</v>
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M43" t="n">
-        <v>2009.85</v>
-      </c>
-      <c r="N43" t="n">
-        <v>2004.833333333333</v>
-      </c>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2488,28 +2032,16 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>16</v>
-      </c>
-      <c r="J44" t="n">
-        <v>150</v>
-      </c>
-      <c r="K44" t="n">
-        <v>16.66666666666666</v>
-      </c>
-      <c r="L44" t="n">
-        <v>2010</v>
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M44" t="n">
-        <v>2010.35</v>
-      </c>
-      <c r="N44" t="n">
-        <v>2005.466666666667</v>
-      </c>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2539,28 +2071,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>3</v>
-      </c>
-      <c r="J45" t="n">
-        <v>163</v>
-      </c>
-      <c r="K45" t="n">
-        <v>-12.5</v>
-      </c>
-      <c r="L45" t="n">
-        <v>2009.3</v>
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M45" t="n">
-        <v>2009.95</v>
-      </c>
-      <c r="N45" t="n">
-        <v>2005.666666666667</v>
-      </c>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2590,28 +2110,16 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
-      </c>
-      <c r="J46" t="n">
-        <v>165</v>
-      </c>
-      <c r="K46" t="n">
-        <v>-31.81818181818182</v>
-      </c>
-      <c r="L46" t="n">
-        <v>2008.5</v>
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M46" t="n">
-        <v>2009.35</v>
-      </c>
-      <c r="N46" t="n">
-        <v>2005.8</v>
-      </c>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2641,28 +2149,16 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
-      </c>
-      <c r="J47" t="n">
-        <v>165</v>
-      </c>
-      <c r="K47" t="n">
-        <v>-21.05263157894737</v>
-      </c>
-      <c r="L47" t="n">
-        <v>2007.1</v>
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M47" t="n">
-        <v>2009</v>
-      </c>
-      <c r="N47" t="n">
-        <v>2006.1</v>
-      </c>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2694,26 +2190,14 @@
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>166</v>
-      </c>
-      <c r="K48" t="n">
-        <v>-23.07692307692308</v>
-      </c>
-      <c r="L48" t="n">
-        <v>2006.2</v>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M48" t="n">
-        <v>2008.55</v>
-      </c>
-      <c r="N48" t="n">
-        <v>2006.4</v>
-      </c>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2745,26 +2229,14 @@
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>166</v>
-      </c>
-      <c r="K49" t="n">
-        <v>-26.31578947368421</v>
-      </c>
-      <c r="L49" t="n">
-        <v>2005.3</v>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M49" t="n">
-        <v>2008.2</v>
-      </c>
-      <c r="N49" t="n">
-        <v>2006.7</v>
-      </c>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2796,26 +2268,14 @@
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>166</v>
-      </c>
-      <c r="K50" t="n">
-        <v>-26.31578947368421</v>
-      </c>
-      <c r="L50" t="n">
-        <v>2004.3</v>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M50" t="n">
-        <v>2007.85</v>
-      </c>
-      <c r="N50" t="n">
-        <v>2006.766666666667</v>
-      </c>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2847,26 +2307,14 @@
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>166</v>
-      </c>
-      <c r="K51" t="n">
-        <v>-26.31578947368421</v>
-      </c>
-      <c r="L51" t="n">
-        <v>2003.3</v>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M51" t="n">
-        <v>2007.3</v>
-      </c>
-      <c r="N51" t="n">
-        <v>2006.866666666667</v>
-      </c>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2896,28 +2344,16 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>2</v>
-      </c>
-      <c r="J52" t="n">
-        <v>168</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0</v>
-      </c>
-      <c r="L52" t="n">
-        <v>2002.5</v>
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M52" t="n">
-        <v>2006.65</v>
-      </c>
-      <c r="N52" t="n">
-        <v>2007.033333333333</v>
-      </c>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2947,28 +2383,16 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>2</v>
-      </c>
-      <c r="J53" t="n">
-        <v>168</v>
-      </c>
-      <c r="K53" t="n">
-        <v>-77.77777777777779</v>
-      </c>
-      <c r="L53" t="n">
-        <v>2002.5</v>
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M53" t="n">
-        <v>2006.35</v>
-      </c>
-      <c r="N53" t="n">
-        <v>2007.4</v>
-      </c>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2998,28 +2422,16 @@
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>2</v>
-      </c>
-      <c r="J54" t="n">
-        <v>168</v>
-      </c>
-      <c r="K54" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L54" t="n">
-        <v>2001.1</v>
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M54" t="n">
-        <v>2005.55</v>
-      </c>
-      <c r="N54" t="n">
-        <v>2007.266666666667</v>
-      </c>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3051,26 +2463,14 @@
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>170</v>
-      </c>
-      <c r="K55" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L55" t="n">
-        <v>2000.8</v>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M55" t="n">
-        <v>2005.05</v>
-      </c>
-      <c r="N55" t="n">
-        <v>2006.9</v>
-      </c>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3102,26 +2502,14 @@
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>170</v>
-      </c>
-      <c r="K56" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L56" t="n">
-        <v>2000.7</v>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M56" t="n">
-        <v>2004.6</v>
-      </c>
-      <c r="N56" t="n">
-        <v>2006.466666666667</v>
-      </c>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3153,26 +2541,14 @@
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>170</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0</v>
-      </c>
-      <c r="L57" t="n">
-        <v>2000.6</v>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M57" t="n">
-        <v>2003.85</v>
-      </c>
-      <c r="N57" t="n">
-        <v>2006.2</v>
-      </c>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3202,28 +2578,16 @@
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J58" t="n">
-        <v>173</v>
-      </c>
-      <c r="K58" t="n">
-        <v>-42.85714285714285</v>
-      </c>
-      <c r="L58" t="n">
-        <v>2000.3</v>
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M58" t="n">
-        <v>2003.25</v>
-      </c>
-      <c r="N58" t="n">
-        <v>2005.8</v>
-      </c>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3253,28 +2617,16 @@
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>2</v>
-      </c>
-      <c r="J59" t="n">
-        <v>178</v>
-      </c>
-      <c r="K59" t="n">
-        <v>16.66666666666666</v>
-      </c>
-      <c r="L59" t="n">
-        <v>2000.5</v>
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M59" t="n">
-        <v>2002.9</v>
-      </c>
-      <c r="N59" t="n">
-        <v>2005.633333333333</v>
-      </c>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3304,28 +2656,16 @@
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J60" t="n">
-        <v>183</v>
-      </c>
-      <c r="K60" t="n">
-        <v>-17.64705882352941</v>
-      </c>
-      <c r="L60" t="n">
-        <v>2000.2</v>
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M60" t="n">
-        <v>2002.25</v>
-      </c>
-      <c r="N60" t="n">
-        <v>2005.3</v>
-      </c>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3355,28 +2695,16 @@
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>2</v>
-      </c>
-      <c r="J61" t="n">
-        <v>188</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0</v>
-      </c>
-      <c r="L61" t="n">
-        <v>2000.4</v>
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M61" t="n">
-        <v>2001.85</v>
-      </c>
-      <c r="N61" t="n">
-        <v>2005</v>
-      </c>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3406,28 +2734,16 @@
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J62" t="n">
-        <v>193</v>
-      </c>
-      <c r="K62" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L62" t="n">
-        <v>1999.9</v>
+        <v>0</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M62" t="n">
-        <v>2001.2</v>
-      </c>
-      <c r="N62" t="n">
-        <v>2004.4</v>
-      </c>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3457,28 +2773,16 @@
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J63" t="n">
-        <v>194</v>
-      </c>
-      <c r="K63" t="n">
-        <v>-15.38461538461539</v>
-      </c>
-      <c r="L63" t="n">
-        <v>1999.5</v>
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M63" t="n">
-        <v>2001</v>
-      </c>
-      <c r="N63" t="n">
-        <v>2004.066666666667</v>
-      </c>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3508,28 +2812,16 @@
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J64" t="n">
-        <v>194</v>
-      </c>
-      <c r="K64" t="n">
-        <v>-8.333333333333332</v>
-      </c>
-      <c r="L64" t="n">
-        <v>1999.1</v>
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M64" t="n">
-        <v>2000.1</v>
-      </c>
-      <c r="N64" t="n">
-        <v>2003.4</v>
-      </c>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3559,28 +2851,16 @@
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J65" t="n">
-        <v>194</v>
-      </c>
-      <c r="K65" t="n">
-        <v>-8.333333333333332</v>
-      </c>
-      <c r="L65" t="n">
-        <v>1998.9</v>
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M65" t="n">
-        <v>1999.85</v>
-      </c>
-      <c r="N65" t="n">
-        <v>2003</v>
-      </c>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3607,31 +2887,21 @@
         <v>2002.183333333333</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>199</v>
-      </c>
-      <c r="K66" t="n">
-        <v>10.3448275862069</v>
-      </c>
-      <c r="L66" t="n">
-        <v>1999.2</v>
+        <v>2003</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M66" t="n">
-        <v>1999.95</v>
-      </c>
-      <c r="N66" t="n">
-        <v>2002.8</v>
-      </c>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3658,31 +2928,21 @@
         <v>2002.233333333333</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>203</v>
-      </c>
-      <c r="K67" t="n">
-        <v>6.666666666666667</v>
-      </c>
-      <c r="L67" t="n">
-        <v>1999.1</v>
+        <v>1999</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M67" t="n">
-        <v>1999.85</v>
-      </c>
-      <c r="N67" t="n">
-        <v>2002.266666666667</v>
-      </c>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3712,28 +2972,16 @@
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>1</v>
-      </c>
-      <c r="J68" t="n">
-        <v>205</v>
-      </c>
-      <c r="K68" t="n">
-        <v>-3.703703703703703</v>
-      </c>
-      <c r="L68" t="n">
-        <v>1999.5</v>
+        <v>0</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M68" t="n">
-        <v>1999.9</v>
-      </c>
-      <c r="N68" t="n">
-        <v>2002</v>
-      </c>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3763,28 +3011,16 @@
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
-      </c>
-      <c r="J69" t="n">
-        <v>205</v>
-      </c>
-      <c r="K69" t="n">
-        <v>18.18181818181818</v>
-      </c>
-      <c r="L69" t="n">
-        <v>1999.4</v>
+        <v>0</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M69" t="n">
-        <v>1999.95</v>
-      </c>
-      <c r="N69" t="n">
-        <v>2001.733333333333</v>
-      </c>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3816,26 +3052,14 @@
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>206</v>
-      </c>
-      <c r="K70" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L70" t="n">
-        <v>1999.7</v>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M70" t="n">
-        <v>1999.95</v>
-      </c>
-      <c r="N70" t="n">
-        <v>2001.4</v>
-      </c>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3867,26 +3091,14 @@
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>206</v>
-      </c>
-      <c r="K71" t="n">
-        <v>23.07692307692308</v>
-      </c>
-      <c r="L71" t="n">
-        <v>1999.5</v>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M71" t="n">
-        <v>1999.95</v>
-      </c>
-      <c r="N71" t="n">
-        <v>2001.066666666667</v>
-      </c>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3918,26 +3130,14 @@
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>206</v>
-      </c>
-      <c r="K72" t="n">
-        <v>16.66666666666666</v>
-      </c>
-      <c r="L72" t="n">
-        <v>1999.8</v>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M72" t="n">
-        <v>1999.85</v>
-      </c>
-      <c r="N72" t="n">
-        <v>2000.733333333333</v>
-      </c>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3967,28 +3167,16 @@
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J73" t="n">
-        <v>208</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0</v>
-      </c>
-      <c r="L73" t="n">
-        <v>1999.8</v>
+        <v>0</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M73" t="n">
-        <v>1999.65</v>
-      </c>
-      <c r="N73" t="n">
-        <v>2000.6</v>
-      </c>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4020,26 +3208,14 @@
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>210</v>
-      </c>
-      <c r="K74" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L74" t="n">
-        <v>2000</v>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M74" t="n">
-        <v>1999.55</v>
-      </c>
-      <c r="N74" t="n">
-        <v>2000.066666666667</v>
-      </c>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4069,28 +3245,16 @@
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>1</v>
-      </c>
-      <c r="J75" t="n">
-        <v>211</v>
-      </c>
-      <c r="K75" t="n">
-        <v>-16.66666666666666</v>
-      </c>
-      <c r="L75" t="n">
-        <v>2000.3</v>
+        <v>0</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M75" t="n">
-        <v>1999.6</v>
-      </c>
-      <c r="N75" t="n">
-        <v>2000</v>
-      </c>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4120,28 +3284,16 @@
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J76" t="n">
-        <v>214</v>
-      </c>
-      <c r="K76" t="n">
-        <v>-9.090909090909092</v>
-      </c>
-      <c r="L76" t="n">
-        <v>1999.8</v>
+        <v>0</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M76" t="n">
-        <v>1999.5</v>
-      </c>
-      <c r="N76" t="n">
-        <v>1999.9</v>
-      </c>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4171,28 +3323,16 @@
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J77" t="n">
-        <v>215</v>
-      </c>
-      <c r="K77" t="n">
-        <v>-40</v>
-      </c>
-      <c r="L77" t="n">
-        <v>1999.6</v>
+        <v>0</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M77" t="n">
-        <v>1999.35</v>
-      </c>
-      <c r="N77" t="n">
-        <v>1999.766666666667</v>
-      </c>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4222,28 +3362,16 @@
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J78" t="n">
-        <v>216</v>
-      </c>
-      <c r="K78" t="n">
-        <v>-27.27272727272727</v>
-      </c>
-      <c r="L78" t="n">
-        <v>1999.3</v>
+        <v>0</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M78" t="n">
-        <v>1999.4</v>
-      </c>
-      <c r="N78" t="n">
-        <v>1999.7</v>
-      </c>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4270,31 +3398,21 @@
         <v>2003.2</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>218</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0</v>
-      </c>
-      <c r="L79" t="n">
-        <v>1999.2</v>
+        <v>2000</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M79" t="n">
-        <v>1999.3</v>
-      </c>
-      <c r="N79" t="n">
-        <v>1999.7</v>
-      </c>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4321,31 +3439,21 @@
         <v>2003.3</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>222</v>
-      </c>
-      <c r="K80" t="n">
-        <v>25</v>
-      </c>
-      <c r="L80" t="n">
-        <v>1999.6</v>
+        <v>2000</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M80" t="n">
-        <v>1999.65</v>
-      </c>
-      <c r="N80" t="n">
-        <v>1999.833333333333</v>
-      </c>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4375,28 +3483,16 @@
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>5</v>
-      </c>
-      <c r="J81" t="n">
-        <v>223</v>
-      </c>
-      <c r="K81" t="n">
-        <v>29.41176470588236</v>
-      </c>
-      <c r="L81" t="n">
-        <v>2000.1</v>
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M81" t="n">
-        <v>1999.8</v>
-      </c>
-      <c r="N81" t="n">
-        <v>2000</v>
-      </c>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4426,28 +3522,16 @@
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>10</v>
-      </c>
-      <c r="J82" t="n">
-        <v>228</v>
-      </c>
-      <c r="K82" t="n">
-        <v>60</v>
-      </c>
-      <c r="L82" t="n">
-        <v>2001.1</v>
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M82" t="n">
-        <v>2000.45</v>
-      </c>
-      <c r="N82" t="n">
-        <v>2000.266666666667</v>
-      </c>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4477,28 +3561,16 @@
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>12</v>
-      </c>
-      <c r="J83" t="n">
-        <v>230</v>
-      </c>
-      <c r="K83" t="n">
-        <v>60</v>
-      </c>
-      <c r="L83" t="n">
-        <v>2002.5</v>
+        <v>0</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M83" t="n">
-        <v>2001.15</v>
-      </c>
-      <c r="N83" t="n">
-        <v>2000.6</v>
-      </c>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4528,28 +3600,16 @@
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>7</v>
-      </c>
-      <c r="J84" t="n">
-        <v>235</v>
-      </c>
-      <c r="K84" t="n">
-        <v>25</v>
-      </c>
-      <c r="L84" t="n">
-        <v>2003.2</v>
+        <v>0</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M84" t="n">
-        <v>2001.6</v>
-      </c>
-      <c r="N84" t="n">
-        <v>2000.766666666667</v>
-      </c>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4579,28 +3639,16 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>7</v>
-      </c>
-      <c r="J85" t="n">
-        <v>235</v>
-      </c>
-      <c r="K85" t="n">
-        <v>42.85714285714285</v>
-      </c>
-      <c r="L85" t="n">
-        <v>2003.8</v>
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M85" t="n">
-        <v>2002.05</v>
-      </c>
-      <c r="N85" t="n">
-        <v>2001</v>
-      </c>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4630,28 +3678,16 @@
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>4</v>
-      </c>
-      <c r="J86" t="n">
-        <v>238</v>
-      </c>
-      <c r="K86" t="n">
-        <v>30.43478260869566</v>
-      </c>
-      <c r="L86" t="n">
-        <v>2004.4</v>
+        <v>0</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M86" t="n">
-        <v>2002.1</v>
-      </c>
-      <c r="N86" t="n">
-        <v>2001.133333333333</v>
-      </c>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4681,28 +3717,16 @@
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>9</v>
-      </c>
-      <c r="J87" t="n">
-        <v>243</v>
-      </c>
-      <c r="K87" t="n">
-        <v>40.74074074074074</v>
-      </c>
-      <c r="L87" t="n">
-        <v>2005.6</v>
+        <v>0</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M87" t="n">
-        <v>2002.6</v>
-      </c>
-      <c r="N87" t="n">
-        <v>2001.433333333333</v>
-      </c>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4732,28 +3756,16 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>17</v>
-      </c>
-      <c r="J88" t="n">
-        <v>251</v>
-      </c>
-      <c r="K88" t="n">
-        <v>51.51515151515152</v>
-      </c>
-      <c r="L88" t="n">
-        <v>2007.5</v>
+        <v>0</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M88" t="n">
-        <v>2003.4</v>
-      </c>
-      <c r="N88" t="n">
-        <v>2002.1</v>
-      </c>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4783,28 +3795,16 @@
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>19</v>
-      </c>
-      <c r="J89" t="n">
-        <v>253</v>
-      </c>
-      <c r="K89" t="n">
-        <v>48.38709677419355</v>
-      </c>
-      <c r="L89" t="n">
-        <v>2009.4</v>
+        <v>0</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M89" t="n">
-        <v>2004.3</v>
-      </c>
-      <c r="N89" t="n">
-        <v>2002.666666666667</v>
-      </c>
-      <c r="O89" t="inlineStr"/>
-      <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
-      <c r="S89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4834,28 +3834,16 @@
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>10</v>
-      </c>
-      <c r="J90" t="n">
-        <v>262</v>
-      </c>
-      <c r="K90" t="n">
-        <v>12.82051282051282</v>
-      </c>
-      <c r="L90" t="n">
-        <v>2010</v>
+        <v>0</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M90" t="n">
-        <v>2004.8</v>
-      </c>
-      <c r="N90" t="n">
-        <v>2003.1</v>
-      </c>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4885,28 +3873,16 @@
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>12</v>
-      </c>
-      <c r="J91" t="n">
-        <v>264</v>
-      </c>
-      <c r="K91" t="n">
-        <v>5.555555555555555</v>
-      </c>
-      <c r="L91" t="n">
-        <v>2010.7</v>
+        <v>0</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M91" t="n">
-        <v>2005.4</v>
-      </c>
-      <c r="N91" t="n">
-        <v>2003.433333333333</v>
-      </c>
-      <c r="O91" t="inlineStr"/>
-      <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4936,28 +3912,16 @@
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>8</v>
-      </c>
-      <c r="J92" t="n">
-        <v>268</v>
-      </c>
-      <c r="K92" t="n">
-        <v>-10.52631578947368</v>
-      </c>
-      <c r="L92" t="n">
-        <v>2010.5</v>
+        <v>0</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M92" t="n">
-        <v>2005.8</v>
-      </c>
-      <c r="N92" t="n">
-        <v>2003.8</v>
-      </c>
-      <c r="O92" t="inlineStr"/>
-      <c r="P92" t="inlineStr"/>
-      <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
-      <c r="S92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4987,30 +3951,16 @@
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>6</v>
-      </c>
-      <c r="J93" t="n">
-        <v>270</v>
-      </c>
-      <c r="K93" t="n">
-        <v>-2.857142857142857</v>
-      </c>
-      <c r="L93" t="n">
-        <v>2009.9</v>
-      </c>
-      <c r="M93" t="n">
-        <v>2006.2</v>
-      </c>
-      <c r="N93" t="n">
-        <v>2004.066666666667</v>
-      </c>
-      <c r="O93" t="inlineStr"/>
-      <c r="P93" t="inlineStr"/>
-      <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr"/>
-      <c r="S93" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -5035,35 +3985,15 @@
         <v>2003.916666666667</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>9</v>
-      </c>
-      <c r="J94" t="n">
-        <v>273</v>
-      </c>
-      <c r="K94" t="n">
-        <v>5.263157894736842</v>
-      </c>
-      <c r="L94" t="n">
-        <v>2010.1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
-        <v>2006.65</v>
-      </c>
-      <c r="N94" t="n">
-        <v>2004.433333333333</v>
-      </c>
-      <c r="O94" t="n">
-        <v>2006</v>
-      </c>
-      <c r="P94" t="inlineStr"/>
-      <c r="Q94" t="n">
-        <v>2006</v>
-      </c>
-      <c r="R94" t="inlineStr"/>
-      <c r="S94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5090,39 +4020,15 @@
         <v>2003.883333333333</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>8</v>
-      </c>
-      <c r="J95" t="n">
-        <v>274</v>
-      </c>
-      <c r="K95" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L95" t="n">
-        <v>2010.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
-        <v>2007</v>
-      </c>
-      <c r="N95" t="n">
-        <v>2004.766666666667</v>
-      </c>
-      <c r="O95" t="n">
-        <v>2009</v>
-      </c>
-      <c r="P95" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q95" t="n">
-        <v>2006</v>
-      </c>
-      <c r="R95" t="inlineStr"/>
-      <c r="S95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5149,39 +4055,15 @@
         <v>2003.866666666667</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>8</v>
-      </c>
-      <c r="J96" t="n">
-        <v>274</v>
-      </c>
-      <c r="K96" t="n">
-        <v>-3.225806451612903</v>
-      </c>
-      <c r="L96" t="n">
-        <v>2010.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
-        <v>2007.5</v>
-      </c>
-      <c r="N96" t="n">
-        <v>2004.933333333333</v>
-      </c>
-      <c r="O96" t="n">
-        <v>2008</v>
-      </c>
-      <c r="P96" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q96" t="n">
-        <v>2006</v>
-      </c>
-      <c r="R96" t="inlineStr"/>
-      <c r="S96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5211,34 +4093,12 @@
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>8</v>
-      </c>
-      <c r="J97" t="n">
-        <v>274</v>
-      </c>
-      <c r="K97" t="n">
-        <v>-39.1304347826087</v>
-      </c>
-      <c r="L97" t="n">
-        <v>2010.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
-        <v>2008.05</v>
-      </c>
-      <c r="N97" t="n">
-        <v>2005.233333333333</v>
-      </c>
-      <c r="O97" t="inlineStr"/>
-      <c r="P97" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q97" t="n">
-        <v>2006</v>
-      </c>
-      <c r="R97" t="inlineStr"/>
-      <c r="S97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5268,34 +4128,12 @@
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>13</v>
-      </c>
-      <c r="J98" t="n">
-        <v>279</v>
-      </c>
-      <c r="K98" t="n">
-        <v>-23.07692307692308</v>
-      </c>
-      <c r="L98" t="n">
-        <v>2010.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
-        <v>2008.8</v>
-      </c>
-      <c r="N98" t="n">
-        <v>2005.633333333333</v>
-      </c>
-      <c r="O98" t="inlineStr"/>
-      <c r="P98" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q98" t="n">
-        <v>2006</v>
-      </c>
-      <c r="R98" t="inlineStr"/>
-      <c r="S98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5325,34 +4163,12 @@
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>8</v>
-      </c>
-      <c r="J99" t="n">
-        <v>284</v>
-      </c>
-      <c r="K99" t="n">
-        <v>-9.090909090909092</v>
-      </c>
-      <c r="L99" t="n">
-        <v>2009</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
-        <v>2009.2</v>
-      </c>
-      <c r="N99" t="n">
-        <v>2005.866666666667</v>
-      </c>
-      <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q99" t="n">
-        <v>2006</v>
-      </c>
-      <c r="R99" t="inlineStr"/>
-      <c r="S99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5382,34 +4198,12 @@
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>8</v>
-      </c>
-      <c r="J100" t="n">
-        <v>284</v>
-      </c>
-      <c r="K100" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L100" t="n">
-        <v>2008.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
-        <v>2009.4</v>
-      </c>
-      <c r="N100" t="n">
-        <v>2006.133333333333</v>
-      </c>
-      <c r="O100" t="inlineStr"/>
-      <c r="P100" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q100" t="n">
-        <v>2006</v>
-      </c>
-      <c r="R100" t="inlineStr"/>
-      <c r="S100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5439,34 +4233,12 @@
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>8</v>
-      </c>
-      <c r="J101" t="n">
-        <v>284</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0</v>
-      </c>
-      <c r="L101" t="n">
-        <v>2008.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
-        <v>2009.55</v>
-      </c>
-      <c r="N101" t="n">
-        <v>2006.4</v>
-      </c>
-      <c r="O101" t="inlineStr"/>
-      <c r="P101" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q101" t="n">
-        <v>2006</v>
-      </c>
-      <c r="R101" t="inlineStr"/>
-      <c r="S101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5496,34 +4268,12 @@
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>8</v>
-      </c>
-      <c r="J102" t="n">
-        <v>284</v>
-      </c>
-      <c r="K102" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L102" t="n">
-        <v>2008.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
-        <v>2009.45</v>
-      </c>
-      <c r="N102" t="n">
-        <v>2006.666666666667</v>
-      </c>
-      <c r="O102" t="inlineStr"/>
-      <c r="P102" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q102" t="n">
-        <v>2006</v>
-      </c>
-      <c r="R102" t="inlineStr"/>
-      <c r="S102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5553,34 +4303,12 @@
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>8</v>
-      </c>
-      <c r="J103" t="n">
-        <v>284</v>
-      </c>
-      <c r="K103" t="n">
-        <v>-9.090909090909092</v>
-      </c>
-      <c r="L103" t="n">
-        <v>2008.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
-        <v>2009.25</v>
-      </c>
-      <c r="N103" t="n">
-        <v>2007</v>
-      </c>
-      <c r="O103" t="inlineStr"/>
-      <c r="P103" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q103" t="n">
-        <v>2006</v>
-      </c>
-      <c r="R103" t="inlineStr"/>
-      <c r="S103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5610,28 +4338,12 @@
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>8</v>
-      </c>
-      <c r="J104" t="n">
-        <v>284</v>
-      </c>
-      <c r="K104" t="n">
-        <v>0</v>
-      </c>
-      <c r="L104" t="n">
-        <v>2008.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
-        <v>2009.3</v>
-      </c>
-      <c r="N104" t="n">
-        <v>2007.266666666667</v>
-      </c>
-      <c r="O104" t="inlineStr"/>
-      <c r="P104" t="inlineStr"/>
-      <c r="Q104" t="inlineStr"/>
-      <c r="R104" t="inlineStr"/>
-      <c r="S104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5661,28 +4373,12 @@
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>8</v>
-      </c>
-      <c r="J105" t="n">
-        <v>284</v>
-      </c>
-      <c r="K105" t="n">
-        <v>0</v>
-      </c>
-      <c r="L105" t="n">
-        <v>2008.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
-        <v>2009.35</v>
-      </c>
-      <c r="N105" t="n">
-        <v>2007.5</v>
-      </c>
-      <c r="O105" t="inlineStr"/>
-      <c r="P105" t="inlineStr"/>
-      <c r="Q105" t="inlineStr"/>
-      <c r="R105" t="inlineStr"/>
-      <c r="S105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5712,28 +4408,12 @@
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>8</v>
-      </c>
-      <c r="J106" t="n">
-        <v>284</v>
-      </c>
-      <c r="K106" t="n">
-        <v>0</v>
-      </c>
-      <c r="L106" t="n">
-        <v>2008.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
-        <v>2009.55</v>
-      </c>
-      <c r="N106" t="n">
-        <v>2007.833333333333</v>
-      </c>
-      <c r="O106" t="inlineStr"/>
-      <c r="P106" t="inlineStr"/>
-      <c r="Q106" t="inlineStr"/>
-      <c r="R106" t="inlineStr"/>
-      <c r="S106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5763,28 +4443,12 @@
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>8</v>
-      </c>
-      <c r="J107" t="n">
-        <v>284</v>
-      </c>
-      <c r="K107" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L107" t="n">
-        <v>2008.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
-        <v>2009.5</v>
-      </c>
-      <c r="N107" t="n">
-        <v>2008.2</v>
-      </c>
-      <c r="O107" t="inlineStr"/>
-      <c r="P107" t="inlineStr"/>
-      <c r="Q107" t="inlineStr"/>
-      <c r="R107" t="inlineStr"/>
-      <c r="S107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5816,26 +4480,10 @@
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>292</v>
-      </c>
-      <c r="K108" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L108" t="n">
-        <v>2007.2</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
-        <v>2008.65</v>
-      </c>
-      <c r="N108" t="n">
-        <v>2008.266666666667</v>
-      </c>
-      <c r="O108" t="inlineStr"/>
-      <c r="P108" t="inlineStr"/>
-      <c r="Q108" t="inlineStr"/>
-      <c r="R108" t="inlineStr"/>
-      <c r="S108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5865,28 +4513,12 @@
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J109" t="n">
-        <v>295</v>
-      </c>
-      <c r="K109" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L109" t="n">
-        <v>2006.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
-        <v>2007.55</v>
-      </c>
-      <c r="N109" t="n">
-        <v>2008.166666666667</v>
-      </c>
-      <c r="O109" t="inlineStr"/>
-      <c r="P109" t="inlineStr"/>
-      <c r="Q109" t="inlineStr"/>
-      <c r="R109" t="inlineStr"/>
-      <c r="S109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5916,28 +4548,12 @@
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J110" t="n">
-        <v>297</v>
-      </c>
-      <c r="K110" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L110" t="n">
-        <v>2004.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
-        <v>2006.8</v>
-      </c>
-      <c r="N110" t="n">
-        <v>2007.866666666667</v>
-      </c>
-      <c r="O110" t="inlineStr"/>
-      <c r="P110" t="inlineStr"/>
-      <c r="Q110" t="inlineStr"/>
-      <c r="R110" t="inlineStr"/>
-      <c r="S110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5967,28 +4583,12 @@
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J111" t="n">
-        <v>298</v>
-      </c>
-      <c r="K111" t="n">
-        <v>-85.71428571428571</v>
-      </c>
-      <c r="L111" t="n">
-        <v>2003.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
-        <v>2006</v>
-      </c>
-      <c r="N111" t="n">
-        <v>2007.566666666667</v>
-      </c>
-      <c r="O111" t="inlineStr"/>
-      <c r="P111" t="inlineStr"/>
-      <c r="Q111" t="inlineStr"/>
-      <c r="R111" t="inlineStr"/>
-      <c r="S111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6018,28 +4618,12 @@
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>2</v>
-      </c>
-      <c r="J112" t="n">
-        <v>304</v>
-      </c>
-      <c r="K112" t="n">
-        <v>-30</v>
-      </c>
-      <c r="L112" t="n">
-        <v>2003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
-        <v>2005.7</v>
-      </c>
-      <c r="N112" t="n">
-        <v>2007.3</v>
-      </c>
-      <c r="O112" t="inlineStr"/>
-      <c r="P112" t="inlineStr"/>
-      <c r="Q112" t="inlineStr"/>
-      <c r="R112" t="inlineStr"/>
-      <c r="S112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6069,28 +4653,12 @@
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J113" t="n">
-        <v>312</v>
-      </c>
-      <c r="K113" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L113" t="n">
-        <v>2001.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
-        <v>2005.1</v>
-      </c>
-      <c r="N113" t="n">
-        <v>2006.7</v>
-      </c>
-      <c r="O113" t="inlineStr"/>
-      <c r="P113" t="inlineStr"/>
-      <c r="Q113" t="inlineStr"/>
-      <c r="R113" t="inlineStr"/>
-      <c r="S113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6120,28 +4688,12 @@
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>1</v>
-      </c>
-      <c r="J114" t="n">
-        <v>319</v>
-      </c>
-      <c r="K114" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L114" t="n">
-        <v>2000.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
-        <v>2004.7</v>
-      </c>
-      <c r="N114" t="n">
-        <v>2006.5</v>
-      </c>
-      <c r="O114" t="inlineStr"/>
-      <c r="P114" t="inlineStr"/>
-      <c r="Q114" t="inlineStr"/>
-      <c r="R114" t="inlineStr"/>
-      <c r="S114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6171,28 +4723,12 @@
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>1</v>
-      </c>
-      <c r="J115" t="n">
-        <v>319</v>
-      </c>
-      <c r="K115" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L115" t="n">
-        <v>2000.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
-        <v>2004.35</v>
-      </c>
-      <c r="N115" t="n">
-        <v>2006.3</v>
-      </c>
-      <c r="O115" t="inlineStr"/>
-      <c r="P115" t="inlineStr"/>
-      <c r="Q115" t="inlineStr"/>
-      <c r="R115" t="inlineStr"/>
-      <c r="S115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6222,28 +4758,12 @@
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J116" t="n">
-        <v>327</v>
-      </c>
-      <c r="K116" t="n">
-        <v>-34.88372093023256</v>
-      </c>
-      <c r="L116" t="n">
-        <v>1998.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
-        <v>2003.6</v>
-      </c>
-      <c r="N116" t="n">
-        <v>2005.933333333333</v>
-      </c>
-      <c r="O116" t="inlineStr"/>
-      <c r="P116" t="inlineStr"/>
-      <c r="Q116" t="inlineStr"/>
-      <c r="R116" t="inlineStr"/>
-      <c r="S116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6273,28 +4793,12 @@
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J117" t="n">
-        <v>331</v>
-      </c>
-      <c r="K117" t="n">
-        <v>-7.692307692307693</v>
-      </c>
-      <c r="L117" t="n">
-        <v>1997.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
-        <v>2003.05</v>
-      </c>
-      <c r="N117" t="n">
-        <v>2005.533333333333</v>
-      </c>
-      <c r="O117" t="inlineStr"/>
-      <c r="P117" t="inlineStr"/>
-      <c r="Q117" t="inlineStr"/>
-      <c r="R117" t="inlineStr"/>
-      <c r="S117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6324,28 +4828,12 @@
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J118" t="n">
-        <v>335</v>
-      </c>
-      <c r="K118" t="n">
-        <v>-10</v>
-      </c>
-      <c r="L118" t="n">
-        <v>1996.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
-        <v>2002.05</v>
-      </c>
-      <c r="N118" t="n">
-        <v>2004.733333333333</v>
-      </c>
-      <c r="O118" t="inlineStr"/>
-      <c r="P118" t="inlineStr"/>
-      <c r="Q118" t="inlineStr"/>
-      <c r="R118" t="inlineStr"/>
-      <c r="S118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6375,28 +4863,12 @@
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>1</v>
-      </c>
-      <c r="J119" t="n">
-        <v>343</v>
-      </c>
-      <c r="K119" t="n">
-        <v>13.04347826086956</v>
-      </c>
-      <c r="L119" t="n">
-        <v>1997.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
-        <v>2001.7</v>
-      </c>
-      <c r="N119" t="n">
-        <v>2004.133333333333</v>
-      </c>
-      <c r="O119" t="inlineStr"/>
-      <c r="P119" t="inlineStr"/>
-      <c r="Q119" t="inlineStr"/>
-      <c r="R119" t="inlineStr"/>
-      <c r="S119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6423,31 +4895,19 @@
         <v>2003.45</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
       <c r="J120" t="n">
-        <v>344</v>
+        <v>2000</v>
       </c>
       <c r="K120" t="n">
-        <v>8.695652173913043</v>
-      </c>
-      <c r="L120" t="n">
-        <v>1997.8</v>
-      </c>
+        <v>2000</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
-        <v>2001.3</v>
-      </c>
-      <c r="N120" t="n">
-        <v>2003.8</v>
-      </c>
-      <c r="O120" t="inlineStr"/>
-      <c r="P120" t="inlineStr"/>
-      <c r="Q120" t="inlineStr"/>
-      <c r="R120" t="inlineStr"/>
-      <c r="S120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6477,28 +4937,18 @@
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J121" t="n">
-        <v>346</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="n">
-        <v>-9.523809523809524</v>
-      </c>
-      <c r="L121" t="n">
-        <v>1998</v>
+        <v>2000</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M121" t="n">
-        <v>2000.8</v>
-      </c>
-      <c r="N121" t="n">
-        <v>2003.333333333333</v>
-      </c>
-      <c r="O121" t="inlineStr"/>
-      <c r="P121" t="inlineStr"/>
-      <c r="Q121" t="inlineStr"/>
-      <c r="R121" t="inlineStr"/>
-      <c r="S121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6528,28 +4978,18 @@
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J122" t="n">
-        <v>347</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L122" t="n">
-        <v>1997.7</v>
+        <v>2000</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M122" t="n">
-        <v>2000.35</v>
-      </c>
-      <c r="N122" t="n">
-        <v>2003.033333333333</v>
-      </c>
-      <c r="O122" t="inlineStr"/>
-      <c r="P122" t="inlineStr"/>
-      <c r="Q122" t="inlineStr"/>
-      <c r="R122" t="inlineStr"/>
-      <c r="S122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6581,26 +5021,10 @@
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>348</v>
-      </c>
-      <c r="K123" t="n">
-        <v>-3.448275862068965</v>
-      </c>
-      <c r="L123" t="n">
-        <v>1998.3</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
-        <v>1999.95</v>
-      </c>
-      <c r="N123" t="n">
-        <v>2002.833333333333</v>
-      </c>
-      <c r="O123" t="inlineStr"/>
-      <c r="P123" t="inlineStr"/>
-      <c r="Q123" t="inlineStr"/>
-      <c r="R123" t="inlineStr"/>
-      <c r="S123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6632,26 +5056,10 @@
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>348</v>
-      </c>
-      <c r="K124" t="n">
-        <v>-3.448275862068965</v>
-      </c>
-      <c r="L124" t="n">
-        <v>1998.2</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
-        <v>1999.55</v>
-      </c>
-      <c r="N124" t="n">
-        <v>2002.533333333333</v>
-      </c>
-      <c r="O124" t="inlineStr"/>
-      <c r="P124" t="inlineStr"/>
-      <c r="Q124" t="inlineStr"/>
-      <c r="R124" t="inlineStr"/>
-      <c r="S124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6683,26 +5091,10 @@
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>348</v>
-      </c>
-      <c r="K125" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L125" t="n">
-        <v>1998.1</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
-        <v>1999.15</v>
-      </c>
-      <c r="N125" t="n">
-        <v>2002.266666666667</v>
-      </c>
-      <c r="O125" t="inlineStr"/>
-      <c r="P125" t="inlineStr"/>
-      <c r="Q125" t="inlineStr"/>
-      <c r="R125" t="inlineStr"/>
-      <c r="S125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6732,28 +5124,12 @@
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J126" t="n">
-        <v>350</v>
-      </c>
-      <c r="K126" t="n">
-        <v>5.263157894736842</v>
-      </c>
-      <c r="L126" t="n">
-        <v>1998.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
-        <v>1998.65</v>
-      </c>
-      <c r="N126" t="n">
-        <v>2001.933333333333</v>
-      </c>
-      <c r="O126" t="inlineStr"/>
-      <c r="P126" t="inlineStr"/>
-      <c r="Q126" t="inlineStr"/>
-      <c r="R126" t="inlineStr"/>
-      <c r="S126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6783,28 +5159,12 @@
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J127" t="n">
-        <v>353</v>
-      </c>
-      <c r="K127" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L127" t="n">
-        <v>1998.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
-        <v>1998</v>
-      </c>
-      <c r="N127" t="n">
-        <v>2001.5</v>
-      </c>
-      <c r="O127" t="inlineStr"/>
-      <c r="P127" t="inlineStr"/>
-      <c r="Q127" t="inlineStr"/>
-      <c r="R127" t="inlineStr"/>
-      <c r="S127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6834,28 +5194,12 @@
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J128" t="n">
-        <v>355</v>
-      </c>
-      <c r="K128" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L128" t="n">
-        <v>1998.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
-        <v>1997.85</v>
-      </c>
-      <c r="N128" t="n">
-        <v>2000.966666666667</v>
-      </c>
-      <c r="O128" t="inlineStr"/>
-      <c r="P128" t="inlineStr"/>
-      <c r="Q128" t="inlineStr"/>
-      <c r="R128" t="inlineStr"/>
-      <c r="S128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6882,31 +5226,19 @@
         <v>2003.25</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I129" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J129" t="n">
-        <v>356</v>
+        <v>1998</v>
       </c>
       <c r="K129" t="n">
-        <v>-16.66666666666666</v>
-      </c>
-      <c r="L129" t="n">
-        <v>1998.5</v>
-      </c>
+        <v>1998</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
-        <v>1997.9</v>
-      </c>
-      <c r="N129" t="n">
-        <v>2000.633333333333</v>
-      </c>
-      <c r="O129" t="inlineStr"/>
-      <c r="P129" t="inlineStr"/>
-      <c r="Q129" t="inlineStr"/>
-      <c r="R129" t="inlineStr"/>
-      <c r="S129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6933,31 +5265,23 @@
         <v>2003.116666666667</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I130" t="n">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="J130" t="n">
-        <v>362</v>
+        <v>1994</v>
       </c>
       <c r="K130" t="n">
-        <v>-37.5</v>
-      </c>
-      <c r="L130" t="n">
-        <v>1997.7</v>
+        <v>1998</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
       </c>
       <c r="M130" t="n">
-        <v>1997.75</v>
-      </c>
-      <c r="N130" t="n">
-        <v>2000.1</v>
-      </c>
-      <c r="O130" t="inlineStr"/>
-      <c r="P130" t="inlineStr"/>
-      <c r="Q130" t="inlineStr"/>
-      <c r="R130" t="inlineStr"/>
-      <c r="S130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6984,31 +5308,23 @@
         <v>2003</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I131" t="n">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="J131" t="n">
-        <v>363</v>
+        <v>1993</v>
       </c>
       <c r="K131" t="n">
-        <v>-37.5</v>
-      </c>
-      <c r="L131" t="n">
-        <v>1997.2</v>
+        <v>1998</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M131" t="n">
-        <v>1997.6</v>
-      </c>
-      <c r="N131" t="n">
-        <v>1999.6</v>
-      </c>
-      <c r="O131" t="inlineStr"/>
-      <c r="P131" t="inlineStr"/>
-      <c r="Q131" t="inlineStr"/>
-      <c r="R131" t="inlineStr"/>
-      <c r="S131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7035,31 +5351,23 @@
         <v>2003.033333333333</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J132" t="n">
-        <v>372</v>
+        <v>1993</v>
       </c>
       <c r="K132" t="n">
-        <v>8.333333333333332</v>
-      </c>
-      <c r="L132" t="n">
-        <v>1997.5</v>
+        <v>1998</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M132" t="n">
-        <v>1997.6</v>
-      </c>
-      <c r="N132" t="n">
-        <v>1999.4</v>
-      </c>
-      <c r="O132" t="inlineStr"/>
-      <c r="P132" t="inlineStr"/>
-      <c r="Q132" t="inlineStr"/>
-      <c r="R132" t="inlineStr"/>
-      <c r="S132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7086,31 +5394,23 @@
         <v>2002.95</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I133" t="n">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="J133" t="n">
-        <v>381</v>
+        <v>1993</v>
       </c>
       <c r="K133" t="n">
-        <v>-21.21212121212121</v>
-      </c>
-      <c r="L133" t="n">
-        <v>1996.8</v>
+        <v>1998</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M133" t="n">
-        <v>1997.55</v>
-      </c>
-      <c r="N133" t="n">
-        <v>1998.9</v>
-      </c>
-      <c r="O133" t="inlineStr"/>
-      <c r="P133" t="inlineStr"/>
-      <c r="Q133" t="inlineStr"/>
-      <c r="R133" t="inlineStr"/>
-      <c r="S133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7137,31 +5437,23 @@
         <v>2002.8</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I134" t="n">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="J134" t="n">
-        <v>383</v>
+        <v>1993</v>
       </c>
       <c r="K134" t="n">
-        <v>-25.71428571428571</v>
-      </c>
-      <c r="L134" t="n">
-        <v>1995.9</v>
+        <v>1998</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M134" t="n">
-        <v>1997.05</v>
-      </c>
-      <c r="N134" t="n">
-        <v>1998.333333333333</v>
-      </c>
-      <c r="O134" t="inlineStr"/>
-      <c r="P134" t="inlineStr"/>
-      <c r="Q134" t="inlineStr"/>
-      <c r="R134" t="inlineStr"/>
-      <c r="S134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7188,31 +5480,23 @@
         <v>2002.616666666667</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I135" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J135" t="n">
-        <v>384</v>
+        <v>1990</v>
       </c>
       <c r="K135" t="n">
-        <v>-23.52941176470588</v>
-      </c>
-      <c r="L135" t="n">
-        <v>1994.9</v>
+        <v>1998</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M135" t="n">
-        <v>1996.5</v>
-      </c>
-      <c r="N135" t="n">
-        <v>1997.733333333333</v>
-      </c>
-      <c r="O135" t="inlineStr"/>
-      <c r="P135" t="inlineStr"/>
-      <c r="Q135" t="inlineStr"/>
-      <c r="R135" t="inlineStr"/>
-      <c r="S135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7239,1156 +5523,23 @@
         <v>2002.4</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I136" t="n">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="J136" t="n">
-        <v>389</v>
+        <v>1990</v>
       </c>
       <c r="K136" t="n">
-        <v>-27.77777777777778</v>
-      </c>
-      <c r="L136" t="n">
-        <v>1993.6</v>
+        <v>1998</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M136" t="n">
-        <v>1996.1</v>
-      </c>
-      <c r="N136" t="n">
-        <v>1996.966666666667</v>
-      </c>
-      <c r="O136" t="inlineStr"/>
-      <c r="P136" t="inlineStr"/>
-      <c r="Q136" t="inlineStr"/>
-      <c r="R136" t="inlineStr"/>
-      <c r="S136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>1985</v>
-      </c>
-      <c r="C137" t="n">
-        <v>1983</v>
-      </c>
-      <c r="D137" t="n">
-        <v>1985</v>
-      </c>
-      <c r="E137" t="n">
-        <v>1983</v>
-      </c>
-      <c r="F137" t="n">
-        <v>290.782</v>
-      </c>
-      <c r="G137" t="n">
-        <v>2002.166666666667</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>-17</v>
-      </c>
-      <c r="J137" t="n">
-        <v>391</v>
-      </c>
-      <c r="K137" t="n">
-        <v>-38.88888888888889</v>
-      </c>
-      <c r="L137" t="n">
-        <v>1992.4</v>
-      </c>
-      <c r="M137" t="n">
-        <v>1995.4</v>
-      </c>
-      <c r="N137" t="n">
-        <v>1996.133333333333</v>
-      </c>
-      <c r="O137" t="inlineStr"/>
-      <c r="P137" t="inlineStr"/>
-      <c r="Q137" t="inlineStr"/>
-      <c r="R137" t="inlineStr"/>
-      <c r="S137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>1988</v>
-      </c>
-      <c r="C138" t="n">
-        <v>1988</v>
-      </c>
-      <c r="D138" t="n">
-        <v>1988</v>
-      </c>
-      <c r="E138" t="n">
-        <v>1988</v>
-      </c>
-      <c r="F138" t="n">
-        <v>198.9015</v>
-      </c>
-      <c r="G138" t="n">
-        <v>2002</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>-12</v>
-      </c>
-      <c r="J138" t="n">
-        <v>396</v>
-      </c>
-      <c r="K138" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L138" t="n">
-        <v>1991.5</v>
-      </c>
-      <c r="M138" t="n">
-        <v>1995.15</v>
-      </c>
-      <c r="N138" t="n">
-        <v>1995.733333333333</v>
-      </c>
-      <c r="O138" t="inlineStr"/>
-      <c r="P138" t="inlineStr"/>
-      <c r="Q138" t="inlineStr"/>
-      <c r="R138" t="inlineStr"/>
-      <c r="S138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>1983</v>
-      </c>
-      <c r="C139" t="n">
-        <v>1988</v>
-      </c>
-      <c r="D139" t="n">
-        <v>1988</v>
-      </c>
-      <c r="E139" t="n">
-        <v>1983</v>
-      </c>
-      <c r="F139" t="n">
-        <v>229.0576</v>
-      </c>
-      <c r="G139" t="n">
-        <v>2001.8</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>-12</v>
-      </c>
-      <c r="J139" t="n">
-        <v>396</v>
-      </c>
-      <c r="K139" t="n">
-        <v>-11.76470588235294</v>
-      </c>
-      <c r="L139" t="n">
-        <v>1990.5</v>
-      </c>
-      <c r="M139" t="n">
-        <v>1994.5</v>
-      </c>
-      <c r="N139" t="n">
-        <v>1995.433333333333</v>
-      </c>
-      <c r="O139" t="inlineStr"/>
-      <c r="P139" t="inlineStr"/>
-      <c r="Q139" t="inlineStr"/>
-      <c r="R139" t="inlineStr"/>
-      <c r="S139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>1983</v>
-      </c>
-      <c r="C140" t="n">
-        <v>1983</v>
-      </c>
-      <c r="D140" t="n">
-        <v>1983</v>
-      </c>
-      <c r="E140" t="n">
-        <v>1983</v>
-      </c>
-      <c r="F140" t="n">
-        <v>43.861</v>
-      </c>
-      <c r="G140" t="n">
-        <v>2001.45</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>-17</v>
-      </c>
-      <c r="J140" t="n">
-        <v>401</v>
-      </c>
-      <c r="K140" t="n">
-        <v>-26.31578947368421</v>
-      </c>
-      <c r="L140" t="n">
-        <v>1989.6</v>
-      </c>
-      <c r="M140" t="n">
-        <v>1993.65</v>
-      </c>
-      <c r="N140" t="n">
-        <v>1995.033333333333</v>
-      </c>
-      <c r="O140" t="inlineStr"/>
-      <c r="P140" t="inlineStr"/>
-      <c r="Q140" t="inlineStr"/>
-      <c r="R140" t="inlineStr"/>
-      <c r="S140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>1983</v>
-      </c>
-      <c r="C141" t="n">
-        <v>1981</v>
-      </c>
-      <c r="D141" t="n">
-        <v>1983</v>
-      </c>
-      <c r="E141" t="n">
-        <v>1981</v>
-      </c>
-      <c r="F141" t="n">
-        <v>500</v>
-      </c>
-      <c r="G141" t="n">
-        <v>2001.05</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>-19</v>
-      </c>
-      <c r="J141" t="n">
-        <v>403</v>
-      </c>
-      <c r="K141" t="n">
-        <v>-67.74193548387096</v>
-      </c>
-      <c r="L141" t="n">
-        <v>1988.4</v>
-      </c>
-      <c r="M141" t="n">
-        <v>1992.8</v>
-      </c>
-      <c r="N141" t="n">
-        <v>1994.533333333333</v>
-      </c>
-      <c r="O141" t="inlineStr"/>
-      <c r="P141" t="inlineStr"/>
-      <c r="Q141" t="inlineStr"/>
-      <c r="R141" t="inlineStr"/>
-      <c r="S141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>1981</v>
-      </c>
-      <c r="C142" t="n">
-        <v>1981</v>
-      </c>
-      <c r="D142" t="n">
-        <v>1981</v>
-      </c>
-      <c r="E142" t="n">
-        <v>1981</v>
-      </c>
-      <c r="F142" t="n">
-        <v>24.8551</v>
-      </c>
-      <c r="G142" t="n">
-        <v>2000.566666666667</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>-19</v>
-      </c>
-      <c r="J142" t="n">
-        <v>403</v>
-      </c>
-      <c r="K142" t="n">
-        <v>-54.54545454545454</v>
-      </c>
-      <c r="L142" t="n">
-        <v>1986.3</v>
-      </c>
-      <c r="M142" t="n">
-        <v>1991.9</v>
-      </c>
-      <c r="N142" t="n">
-        <v>1993.833333333333</v>
-      </c>
-      <c r="O142" t="inlineStr"/>
-      <c r="P142" t="inlineStr"/>
-      <c r="Q142" t="inlineStr"/>
-      <c r="R142" t="inlineStr"/>
-      <c r="S142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>1981</v>
-      </c>
-      <c r="C143" t="n">
-        <v>1981</v>
-      </c>
-      <c r="D143" t="n">
-        <v>1981</v>
-      </c>
-      <c r="E143" t="n">
-        <v>1981</v>
-      </c>
-      <c r="F143" t="n">
-        <v>41.6107</v>
-      </c>
-      <c r="G143" t="n">
-        <v>2000.05</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>-19</v>
-      </c>
-      <c r="J143" t="n">
-        <v>403</v>
-      </c>
-      <c r="K143" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L143" t="n">
-        <v>1985.1</v>
-      </c>
-      <c r="M143" t="n">
-        <v>1990.95</v>
-      </c>
-      <c r="N143" t="n">
-        <v>1993.4</v>
-      </c>
-      <c r="O143" t="inlineStr"/>
-      <c r="P143" t="inlineStr"/>
-      <c r="Q143" t="inlineStr"/>
-      <c r="R143" t="inlineStr"/>
-      <c r="S143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>1981</v>
-      </c>
-      <c r="C144" t="n">
-        <v>1977</v>
-      </c>
-      <c r="D144" t="n">
-        <v>1981</v>
-      </c>
-      <c r="E144" t="n">
-        <v>1976</v>
-      </c>
-      <c r="F144" t="n">
-        <v>1001.0887</v>
-      </c>
-      <c r="G144" t="n">
-        <v>1999.55</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>-23</v>
-      </c>
-      <c r="J144" t="n">
-        <v>407</v>
-      </c>
-      <c r="K144" t="n">
-        <v>-56.52173913043478</v>
-      </c>
-      <c r="L144" t="n">
-        <v>1983.7</v>
-      </c>
-      <c r="M144" t="n">
-        <v>1989.8</v>
-      </c>
-      <c r="N144" t="n">
-        <v>1992.6</v>
-      </c>
-      <c r="O144" t="inlineStr"/>
-      <c r="P144" t="inlineStr"/>
-      <c r="Q144" t="inlineStr"/>
-      <c r="R144" t="inlineStr"/>
-      <c r="S144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>1974</v>
-      </c>
-      <c r="C145" t="n">
-        <v>1977</v>
-      </c>
-      <c r="D145" t="n">
-        <v>1977</v>
-      </c>
-      <c r="E145" t="n">
-        <v>1974</v>
-      </c>
-      <c r="F145" t="n">
-        <v>554.9767000000001</v>
-      </c>
-      <c r="G145" t="n">
-        <v>1999.05</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>-23</v>
-      </c>
-      <c r="J145" t="n">
-        <v>407</v>
-      </c>
-      <c r="K145" t="n">
-        <v>-44.44444444444444</v>
-      </c>
-      <c r="L145" t="n">
-        <v>1982.4</v>
-      </c>
-      <c r="M145" t="n">
-        <v>1988.65</v>
-      </c>
-      <c r="N145" t="n">
-        <v>1991.8</v>
-      </c>
-      <c r="O145" t="inlineStr"/>
-      <c r="P145" t="inlineStr"/>
-      <c r="Q145" t="inlineStr"/>
-      <c r="R145" t="inlineStr"/>
-      <c r="S145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>1976</v>
-      </c>
-      <c r="C146" t="n">
-        <v>1976</v>
-      </c>
-      <c r="D146" t="n">
-        <v>1976</v>
-      </c>
-      <c r="E146" t="n">
-        <v>1976</v>
-      </c>
-      <c r="F146" t="n">
-        <v>24.1493</v>
-      </c>
-      <c r="G146" t="n">
-        <v>1998.583333333333</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>-24</v>
-      </c>
-      <c r="J146" t="n">
-        <v>408</v>
-      </c>
-      <c r="K146" t="n">
-        <v>-41.17647058823529</v>
-      </c>
-      <c r="L146" t="n">
-        <v>1981.5</v>
-      </c>
-      <c r="M146" t="n">
-        <v>1987.55</v>
-      </c>
-      <c r="N146" t="n">
-        <v>1991.233333333333</v>
-      </c>
-      <c r="O146" t="inlineStr"/>
-      <c r="P146" t="inlineStr"/>
-      <c r="Q146" t="inlineStr"/>
-      <c r="R146" t="inlineStr"/>
-      <c r="S146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>1976</v>
-      </c>
-      <c r="C147" t="n">
-        <v>1983</v>
-      </c>
-      <c r="D147" t="n">
-        <v>1983</v>
-      </c>
-      <c r="E147" t="n">
-        <v>1976</v>
-      </c>
-      <c r="F147" t="n">
-        <v>1810.8425</v>
-      </c>
-      <c r="G147" t="n">
-        <v>1998.15</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>-17</v>
-      </c>
-      <c r="J147" t="n">
-        <v>415</v>
-      </c>
-      <c r="K147" t="n">
-        <v>-26.31578947368421</v>
-      </c>
-      <c r="L147" t="n">
-        <v>1981.5</v>
-      </c>
-      <c r="M147" t="n">
-        <v>1986.95</v>
-      </c>
-      <c r="N147" t="n">
-        <v>1990.766666666667</v>
-      </c>
-      <c r="O147" t="inlineStr"/>
-      <c r="P147" t="inlineStr"/>
-      <c r="Q147" t="inlineStr"/>
-      <c r="R147" t="inlineStr"/>
-      <c r="S147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>1984</v>
-      </c>
-      <c r="C148" t="n">
-        <v>1984</v>
-      </c>
-      <c r="D148" t="n">
-        <v>1984</v>
-      </c>
-      <c r="E148" t="n">
-        <v>1984</v>
-      </c>
-      <c r="F148" t="n">
-        <v>44.0418</v>
-      </c>
-      <c r="G148" t="n">
-        <v>1997.6</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J148" t="n">
-        <v>416</v>
-      </c>
-      <c r="K148" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L148" t="n">
-        <v>1981.1</v>
-      </c>
-      <c r="M148" t="n">
-        <v>1986.3</v>
-      </c>
-      <c r="N148" t="n">
-        <v>1990.466666666667</v>
-      </c>
-      <c r="O148" t="inlineStr"/>
-      <c r="P148" t="inlineStr"/>
-      <c r="Q148" t="inlineStr"/>
-      <c r="R148" t="inlineStr"/>
-      <c r="S148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>1979</v>
-      </c>
-      <c r="C149" t="n">
-        <v>1979</v>
-      </c>
-      <c r="D149" t="n">
-        <v>1979</v>
-      </c>
-      <c r="E149" t="n">
-        <v>1979</v>
-      </c>
-      <c r="F149" t="n">
-        <v>1748.5366</v>
-      </c>
-      <c r="G149" t="n">
-        <v>1996.933333333333</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>-21</v>
-      </c>
-      <c r="J149" t="n">
-        <v>421</v>
-      </c>
-      <c r="K149" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L149" t="n">
-        <v>1980.2</v>
-      </c>
-      <c r="M149" t="n">
-        <v>1985.35</v>
-      </c>
-      <c r="N149" t="n">
-        <v>1989.733333333333</v>
-      </c>
-      <c r="O149" t="inlineStr"/>
-      <c r="P149" t="inlineStr"/>
-      <c r="Q149" t="inlineStr"/>
-      <c r="R149" t="inlineStr"/>
-      <c r="S149" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>1984</v>
-      </c>
-      <c r="C150" t="n">
-        <v>1984</v>
-      </c>
-      <c r="D150" t="n">
-        <v>1984</v>
-      </c>
-      <c r="E150" t="n">
-        <v>1984</v>
-      </c>
-      <c r="F150" t="n">
-        <v>154.6</v>
-      </c>
-      <c r="G150" t="n">
-        <v>1996.5</v>
-      </c>
-      <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J150" t="n">
-        <v>426</v>
-      </c>
-      <c r="K150" t="n">
-        <v>13.04347826086956</v>
-      </c>
-      <c r="L150" t="n">
-        <v>1980.3</v>
-      </c>
-      <c r="M150" t="n">
-        <v>1984.95</v>
-      </c>
-      <c r="N150" t="n">
-        <v>1989.2</v>
-      </c>
-      <c r="O150" t="n">
-        <v>1979</v>
-      </c>
-      <c r="P150" t="inlineStr"/>
-      <c r="Q150" t="n">
-        <v>1979</v>
-      </c>
-      <c r="R150" t="inlineStr"/>
-      <c r="S150" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>1987</v>
-      </c>
-      <c r="C151" t="n">
-        <v>2007</v>
-      </c>
-      <c r="D151" t="n">
-        <v>2007</v>
-      </c>
-      <c r="E151" t="n">
-        <v>1987</v>
-      </c>
-      <c r="F151" t="n">
-        <v>2636.892</v>
-      </c>
-      <c r="G151" t="n">
-        <v>1996.416666666667</v>
-      </c>
-      <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>7</v>
-      </c>
-      <c r="J151" t="n">
-        <v>449</v>
-      </c>
-      <c r="K151" t="n">
-        <v>56.52173913043478</v>
-      </c>
-      <c r="L151" t="n">
-        <v>1982.9</v>
-      </c>
-      <c r="M151" t="n">
-        <v>1985.65</v>
-      </c>
-      <c r="N151" t="n">
-        <v>1989.5</v>
-      </c>
-      <c r="O151" t="n">
-        <v>1984</v>
-      </c>
-      <c r="P151" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q151" t="n">
-        <v>1979</v>
-      </c>
-      <c r="R151" t="inlineStr"/>
-      <c r="S151" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>2004</v>
-      </c>
-      <c r="C152" t="n">
-        <v>2010</v>
-      </c>
-      <c r="D152" t="n">
-        <v>2016</v>
-      </c>
-      <c r="E152" t="n">
-        <v>2002</v>
-      </c>
-      <c r="F152" t="n">
-        <v>1216.8998</v>
-      </c>
-      <c r="G152" t="n">
-        <v>1996.45</v>
-      </c>
-      <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>10</v>
-      </c>
-      <c r="J152" t="n">
-        <v>452</v>
-      </c>
-      <c r="K152" t="n">
-        <v>59.18367346938776</v>
-      </c>
-      <c r="L152" t="n">
-        <v>1985.8</v>
-      </c>
-      <c r="M152" t="n">
-        <v>1986.05</v>
-      </c>
-      <c r="N152" t="n">
-        <v>1989.866666666667</v>
-      </c>
-      <c r="O152" t="n">
-        <v>2007</v>
-      </c>
-      <c r="P152" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q152" t="n">
-        <v>1979</v>
-      </c>
-      <c r="R152" t="inlineStr"/>
-      <c r="S152" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>2009</v>
-      </c>
-      <c r="C153" t="n">
-        <v>2009</v>
-      </c>
-      <c r="D153" t="n">
-        <v>2012</v>
-      </c>
-      <c r="E153" t="n">
-        <v>2002</v>
-      </c>
-      <c r="F153" t="n">
-        <v>2143.1868</v>
-      </c>
-      <c r="G153" t="n">
-        <v>1996.5</v>
-      </c>
-      <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>9</v>
-      </c>
-      <c r="J153" t="n">
-        <v>453</v>
-      </c>
-      <c r="K153" t="n">
-        <v>69.56521739130434</v>
-      </c>
-      <c r="L153" t="n">
-        <v>1988.6</v>
-      </c>
-      <c r="M153" t="n">
-        <v>1986.85</v>
-      </c>
-      <c r="N153" t="n">
-        <v>1990.166666666667</v>
-      </c>
-      <c r="O153" t="n">
-        <v>2010</v>
-      </c>
-      <c r="P153" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q153" t="n">
-        <v>1979</v>
-      </c>
-      <c r="R153" t="inlineStr"/>
-      <c r="S153" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>2011</v>
-      </c>
-      <c r="C154" t="n">
-        <v>2014</v>
-      </c>
-      <c r="D154" t="n">
-        <v>2014</v>
-      </c>
-      <c r="E154" t="n">
-        <v>2008</v>
-      </c>
-      <c r="F154" t="n">
-        <v>117.449</v>
-      </c>
-      <c r="G154" t="n">
-        <v>1996.583333333333</v>
-      </c>
-      <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>14</v>
-      </c>
-      <c r="J154" t="n">
-        <v>458</v>
-      </c>
-      <c r="K154" t="n">
-        <v>72.54901960784314</v>
-      </c>
-      <c r="L154" t="n">
-        <v>1992.3</v>
-      </c>
-      <c r="M154" t="n">
-        <v>1988</v>
-      </c>
-      <c r="N154" t="n">
-        <v>1990.633333333333</v>
-      </c>
-      <c r="O154" t="n">
-        <v>2009</v>
-      </c>
-      <c r="P154" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q154" t="n">
-        <v>1979</v>
-      </c>
-      <c r="R154" t="inlineStr"/>
-      <c r="S154" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>2014</v>
-      </c>
-      <c r="C155" t="n">
-        <v>2014</v>
-      </c>
-      <c r="D155" t="n">
-        <v>2014</v>
-      </c>
-      <c r="E155" t="n">
-        <v>2014</v>
-      </c>
-      <c r="F155" t="n">
-        <v>64.0531</v>
-      </c>
-      <c r="G155" t="n">
-        <v>1996.683333333333</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>14</v>
-      </c>
-      <c r="J155" t="n">
-        <v>458</v>
-      </c>
-      <c r="K155" t="n">
-        <v>76</v>
-      </c>
-      <c r="L155" t="n">
-        <v>1996</v>
-      </c>
-      <c r="M155" t="n">
-        <v>1989.2</v>
-      </c>
-      <c r="N155" t="n">
-        <v>1991.1</v>
-      </c>
-      <c r="O155" t="inlineStr"/>
-      <c r="P155" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q155" t="n">
-        <v>1979</v>
-      </c>
-      <c r="R155" t="inlineStr"/>
-      <c r="S155" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>2008</v>
-      </c>
-      <c r="C156" t="n">
-        <v>2008</v>
-      </c>
-      <c r="D156" t="n">
-        <v>2008</v>
-      </c>
-      <c r="E156" t="n">
-        <v>2008</v>
-      </c>
-      <c r="F156" t="n">
-        <v>14.0158</v>
-      </c>
-      <c r="G156" t="n">
-        <v>1996.683333333333</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>8</v>
-      </c>
-      <c r="J156" t="n">
-        <v>464</v>
-      </c>
-      <c r="K156" t="n">
-        <v>51.02040816326531</v>
-      </c>
-      <c r="L156" t="n">
-        <v>1999.2</v>
-      </c>
-      <c r="M156" t="n">
-        <v>1990.35</v>
-      </c>
-      <c r="N156" t="n">
-        <v>1991.433333333333</v>
-      </c>
-      <c r="O156" t="inlineStr"/>
-      <c r="P156" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q156" t="n">
-        <v>1979</v>
-      </c>
-      <c r="R156" t="inlineStr"/>
-      <c r="S156" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>2003</v>
-      </c>
-      <c r="C157" t="n">
-        <v>2004</v>
-      </c>
-      <c r="D157" t="n">
-        <v>2004</v>
-      </c>
-      <c r="E157" t="n">
-        <v>2003</v>
-      </c>
-      <c r="F157" t="n">
-        <v>98.30500000000001</v>
-      </c>
-      <c r="G157" t="n">
-        <v>1996.616666666667</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>4</v>
-      </c>
-      <c r="J157" t="n">
-        <v>468</v>
-      </c>
-      <c r="K157" t="n">
-        <v>38.46153846153847</v>
-      </c>
-      <c r="L157" t="n">
-        <v>2001.3</v>
-      </c>
-      <c r="M157" t="n">
-        <v>1991.4</v>
-      </c>
-      <c r="N157" t="n">
-        <v>1991.733333333333</v>
-      </c>
-      <c r="O157" t="inlineStr"/>
-      <c r="P157" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q157" t="n">
-        <v>1979</v>
-      </c>
-      <c r="R157" t="inlineStr"/>
-      <c r="S157" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-19 BackTest QTUM.xlsx
+++ b/BackTest/2019-10-19 BackTest QTUM.xlsx
@@ -906,13 +906,17 @@
         <v>2006.066666666667</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>1997</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1997</v>
+      </c>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
@@ -947,8 +951,14 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1997</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -982,8 +992,14 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1997</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1081,20 +1097,14 @@
         <v>2005.25</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>1991</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1122,20 +1132,14 @@
         <v>2005.233333333333</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>1997</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1163,20 +1167,14 @@
         <v>2005.266666666667</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>1997</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1204,20 +1202,14 @@
         <v>2005.133333333333</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>1991</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1245,20 +1237,14 @@
         <v>2005.25</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>1999</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1286,20 +1272,14 @@
         <v>2005.233333333333</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>2011</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1334,11 +1314,7 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1373,11 +1349,7 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1412,11 +1384,7 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1451,11 +1419,7 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1490,11 +1454,7 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1529,11 +1489,7 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1568,11 +1524,7 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1607,11 +1559,7 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1646,11 +1594,7 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1685,11 +1629,7 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1724,11 +1664,7 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1763,11 +1699,7 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1802,11 +1734,7 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1841,11 +1769,7 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1880,11 +1804,7 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1919,11 +1839,7 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1958,11 +1874,7 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1997,11 +1909,7 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2036,11 +1944,7 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2075,11 +1979,7 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2114,11 +2014,7 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2153,11 +2049,7 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2192,11 +2084,7 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2231,11 +2119,7 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2270,11 +2154,7 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2309,11 +2189,7 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2348,11 +2224,7 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2387,11 +2259,7 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2426,11 +2294,7 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2465,11 +2329,7 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2504,11 +2364,7 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2543,11 +2399,7 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2582,11 +2434,7 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2621,11 +2469,7 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2660,11 +2504,7 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2699,11 +2539,7 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2738,11 +2574,7 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2777,11 +2609,7 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2816,11 +2644,7 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2855,11 +2679,7 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2887,20 +2707,14 @@
         <v>2002.183333333333</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>2003</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2928,20 +2742,14 @@
         <v>2002.233333333333</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>1999</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2976,11 +2784,7 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3015,11 +2819,7 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3054,11 +2854,7 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3093,11 +2889,7 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3132,11 +2924,7 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3171,11 +2959,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3210,11 +2994,7 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3249,11 +3029,7 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3281,18 +3057,18 @@
         <v>2002.85</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="n">
+        <v>2001</v>
+      </c>
+      <c r="K76" t="n">
+        <v>2001</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3326,10 +3102,12 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>2001</v>
+      </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M77" t="n">
@@ -3365,10 +3143,12 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>2001</v>
+      </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M78" t="n">
@@ -3404,14 +3184,12 @@
         <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>2000</v>
-      </c>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1998</v>
+      </c>
+      <c r="K79" t="n">
+        <v>1998</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3447,10 +3225,12 @@
       <c r="J80" t="n">
         <v>2000</v>
       </c>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1998</v>
+      </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M80" t="n">
@@ -3480,16 +3260,20 @@
         <v>2003.433333333333</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>2004</v>
+      </c>
+      <c r="K81" t="n">
+        <v>1998</v>
+      </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M81" t="n">
@@ -3526,11 +3310,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3565,11 +3345,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3604,11 +3380,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3643,11 +3415,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3682,11 +3450,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3721,11 +3485,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3760,11 +3520,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3799,11 +3555,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3838,11 +3590,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3873,15 +3621,11 @@
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3916,11 +3660,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3955,12 +3695,10 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3988,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
@@ -4198,7 +3936,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
@@ -4895,17 +4633,13 @@
         <v>2003.45</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>2000</v>
-      </c>
-      <c r="K120" t="n">
-        <v>2000</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
@@ -4940,14 +4674,8 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>2000</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4981,14 +4709,8 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>2000</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5226,17 +4948,13 @@
         <v>2003.25</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>1998</v>
-      </c>
-      <c r="K129" t="n">
-        <v>1998</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
@@ -5271,11 +4989,9 @@
         <v>0</v>
       </c>
       <c r="J130" t="n">
-        <v>1994</v>
-      </c>
-      <c r="K130" t="n">
-        <v>1998</v>
-      </c>
+        <v>1998</v>
+      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -5314,11 +5030,9 @@
         <v>0</v>
       </c>
       <c r="J131" t="n">
-        <v>1993</v>
-      </c>
-      <c r="K131" t="n">
-        <v>1998</v>
-      </c>
+        <v>1992</v>
+      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5359,9 +5073,7 @@
       <c r="J132" t="n">
         <v>1993</v>
       </c>
-      <c r="K132" t="n">
-        <v>1998</v>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5400,11 +5112,9 @@
         <v>0</v>
       </c>
       <c r="J133" t="n">
-        <v>1993</v>
-      </c>
-      <c r="K133" t="n">
-        <v>1998</v>
-      </c>
+        <v>2002</v>
+      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5445,9 +5155,7 @@
       <c r="J134" t="n">
         <v>1993</v>
       </c>
-      <c r="K134" t="n">
-        <v>1998</v>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5480,17 +5188,13 @@
         <v>2002.616666666667</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="n">
-        <v>1990</v>
-      </c>
-      <c r="K135" t="n">
-        <v>1998</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5531,9 +5235,7 @@
       <c r="J136" t="n">
         <v>1990</v>
       </c>
-      <c r="K136" t="n">
-        <v>1998</v>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr">
         <is>
           <t>매도 대기</t>

--- a/BackTest/2019-10-19 BackTest QTUM.xlsx
+++ b/BackTest/2019-10-19 BackTest QTUM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M136"/>
+  <dimension ref="A1:M137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,19 +436,19 @@
         <v>2001</v>
       </c>
       <c r="C2" t="n">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="D2" t="n">
         <v>2001</v>
       </c>
       <c r="E2" t="n">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="F2" t="n">
-        <v>136.965</v>
+        <v>93.614</v>
       </c>
       <c r="G2" t="n">
-        <v>2006.3</v>
+        <v>2006.233333333333</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2005</v>
+        <v>2001</v>
       </c>
       <c r="C3" t="n">
-        <v>2006</v>
+        <v>2000</v>
       </c>
       <c r="D3" t="n">
-        <v>2006</v>
+        <v>2001</v>
       </c>
       <c r="E3" t="n">
-        <v>2005</v>
+        <v>2000</v>
       </c>
       <c r="F3" t="n">
-        <v>483.1655</v>
+        <v>136.965</v>
       </c>
       <c r="G3" t="n">
-        <v>2006.483333333333</v>
+        <v>2006.3</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="C4" t="n">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="D4" t="n">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="E4" t="n">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="F4" t="n">
-        <v>90.3622</v>
+        <v>483.1655</v>
       </c>
       <c r="G4" t="n">
-        <v>2006.633333333333</v>
+        <v>2006.483333333333</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2000</v>
+        <v>2004</v>
       </c>
       <c r="C5" t="n">
-        <v>2000</v>
+        <v>2004</v>
       </c>
       <c r="D5" t="n">
-        <v>2000</v>
+        <v>2004</v>
       </c>
       <c r="E5" t="n">
-        <v>2000</v>
+        <v>2004</v>
       </c>
       <c r="F5" t="n">
-        <v>7.04</v>
+        <v>90.3622</v>
       </c>
       <c r="G5" t="n">
-        <v>2006.716666666667</v>
+        <v>2006.633333333333</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -576,19 +576,19 @@
         <v>2000</v>
       </c>
       <c r="C6" t="n">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="D6" t="n">
         <v>2000</v>
       </c>
       <c r="E6" t="n">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="F6" t="n">
-        <v>170.391</v>
+        <v>7.04</v>
       </c>
       <c r="G6" t="n">
-        <v>2006.766666666667</v>
+        <v>2006.716666666667</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1997</v>
+        <v>2000</v>
       </c>
       <c r="C7" t="n">
-        <v>1996</v>
+        <v>1998</v>
       </c>
       <c r="D7" t="n">
-        <v>1997</v>
+        <v>2000</v>
       </c>
       <c r="E7" t="n">
-        <v>1996</v>
+        <v>1998</v>
       </c>
       <c r="F7" t="n">
-        <v>129.5851</v>
+        <v>170.391</v>
       </c>
       <c r="G7" t="n">
-        <v>2006.666666666667</v>
+        <v>2006.766666666667</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
+        <v>1997</v>
+      </c>
+      <c r="C8" t="n">
         <v>1996</v>
       </c>
-      <c r="C8" t="n">
-        <v>1993</v>
-      </c>
       <c r="D8" t="n">
+        <v>1997</v>
+      </c>
+      <c r="E8" t="n">
         <v>1996</v>
       </c>
-      <c r="E8" t="n">
-        <v>1993</v>
-      </c>
       <c r="F8" t="n">
-        <v>1444.0626</v>
+        <v>129.5851</v>
       </c>
       <c r="G8" t="n">
-        <v>2006.616666666667</v>
+        <v>2006.666666666667</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
+        <v>1996</v>
+      </c>
+      <c r="C9" t="n">
         <v>1993</v>
       </c>
-      <c r="C9" t="n">
-        <v>1991</v>
-      </c>
       <c r="D9" t="n">
+        <v>1996</v>
+      </c>
+      <c r="E9" t="n">
         <v>1993</v>
       </c>
-      <c r="E9" t="n">
-        <v>1991</v>
-      </c>
       <c r="F9" t="n">
-        <v>20.42</v>
+        <v>1444.0626</v>
       </c>
       <c r="G9" t="n">
-        <v>2006.483333333333</v>
+        <v>2006.616666666667</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1991</v>
+        <v>1993</v>
       </c>
       <c r="C10" t="n">
         <v>1991</v>
       </c>
       <c r="D10" t="n">
-        <v>1991</v>
+        <v>1993</v>
       </c>
       <c r="E10" t="n">
         <v>1991</v>
       </c>
       <c r="F10" t="n">
-        <v>33.7342</v>
+        <v>20.42</v>
       </c>
       <c r="G10" t="n">
-        <v>2006.35</v>
+        <v>2006.483333333333</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1998</v>
+        <v>1991</v>
       </c>
       <c r="C11" t="n">
-        <v>1998</v>
+        <v>1991</v>
       </c>
       <c r="D11" t="n">
-        <v>1998</v>
+        <v>1991</v>
       </c>
       <c r="E11" t="n">
-        <v>1998</v>
+        <v>1991</v>
       </c>
       <c r="F11" t="n">
-        <v>1.05105105</v>
+        <v>33.7342</v>
       </c>
       <c r="G11" t="n">
-        <v>2006.333333333333</v>
+        <v>2006.35</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="C12" t="n">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="D12" t="n">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="E12" t="n">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>1.05105105</v>
       </c>
       <c r="G12" t="n">
-        <v>2006.35</v>
+        <v>2006.333333333333</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>1999</v>
       </c>
       <c r="F13" t="n">
-        <v>82.67100000000001</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>2006.133333333333</v>
+        <v>2006.35</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1997</v>
+        <v>1999</v>
       </c>
       <c r="C14" t="n">
-        <v>1997</v>
+        <v>1999</v>
       </c>
       <c r="D14" t="n">
-        <v>1997</v>
+        <v>1999</v>
       </c>
       <c r="E14" t="n">
-        <v>1997</v>
+        <v>1999</v>
       </c>
       <c r="F14" t="n">
-        <v>2.6317</v>
+        <v>82.67100000000001</v>
       </c>
       <c r="G14" t="n">
-        <v>2006.1</v>
+        <v>2006.133333333333</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -900,23 +900,19 @@
         <v>1997</v>
       </c>
       <c r="F15" t="n">
-        <v>2.70405608</v>
+        <v>2.6317</v>
       </c>
       <c r="G15" t="n">
-        <v>2006.066666666667</v>
+        <v>2006.1</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>1997</v>
-      </c>
-      <c r="K15" t="n">
-        <v>1997</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
@@ -939,10 +935,10 @@
         <v>1997</v>
       </c>
       <c r="F16" t="n">
-        <v>13.7232</v>
+        <v>2.70405608</v>
       </c>
       <c r="G16" t="n">
-        <v>2005.816666666667</v>
+        <v>2006.066666666667</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -951,14 +947,8 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>1997</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -968,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1992</v>
+        <v>1997</v>
       </c>
       <c r="C17" t="n">
-        <v>1992</v>
+        <v>1997</v>
       </c>
       <c r="D17" t="n">
-        <v>1992</v>
+        <v>1997</v>
       </c>
       <c r="E17" t="n">
-        <v>1992</v>
+        <v>1997</v>
       </c>
       <c r="F17" t="n">
-        <v>98</v>
+        <v>13.7232</v>
       </c>
       <c r="G17" t="n">
-        <v>2005.6</v>
+        <v>2005.816666666667</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -992,14 +982,8 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>1997</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1009,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="C18" t="n">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="D18" t="n">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="E18" t="n">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="F18" t="n">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="G18" t="n">
-        <v>2005.383333333333</v>
+        <v>2005.6</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1056,10 +1040,10 @@
         <v>1991</v>
       </c>
       <c r="F19" t="n">
-        <v>6</v>
+        <v>120</v>
       </c>
       <c r="G19" t="n">
-        <v>2005.2</v>
+        <v>2005.383333333333</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1082,19 +1066,19 @@
         <v>1991</v>
       </c>
       <c r="C20" t="n">
-        <v>1998</v>
+        <v>1991</v>
       </c>
       <c r="D20" t="n">
-        <v>1998</v>
+        <v>1991</v>
       </c>
       <c r="E20" t="n">
         <v>1991</v>
       </c>
       <c r="F20" t="n">
-        <v>532.9772</v>
+        <v>6</v>
       </c>
       <c r="G20" t="n">
-        <v>2005.25</v>
+        <v>2005.2</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1114,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1997</v>
+        <v>1991</v>
       </c>
       <c r="C21" t="n">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="D21" t="n">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="E21" t="n">
-        <v>1997</v>
+        <v>1991</v>
       </c>
       <c r="F21" t="n">
-        <v>5.00751126</v>
+        <v>532.9772</v>
       </c>
       <c r="G21" t="n">
-        <v>2005.233333333333</v>
+        <v>2005.25</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1161,10 +1145,10 @@
         <v>1997</v>
       </c>
       <c r="F22" t="n">
-        <v>37.5563</v>
+        <v>5.00751126</v>
       </c>
       <c r="G22" t="n">
-        <v>2005.266666666667</v>
+        <v>2005.233333333333</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1184,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1991</v>
+        <v>1997</v>
       </c>
       <c r="C23" t="n">
-        <v>1991</v>
+        <v>1997</v>
       </c>
       <c r="D23" t="n">
-        <v>1991</v>
+        <v>1997</v>
       </c>
       <c r="E23" t="n">
-        <v>1991</v>
+        <v>1997</v>
       </c>
       <c r="F23" t="n">
-        <v>26.2335</v>
+        <v>37.5563</v>
       </c>
       <c r="G23" t="n">
-        <v>2005.133333333333</v>
+        <v>2005.266666666667</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1219,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1999</v>
+        <v>1991</v>
       </c>
       <c r="C24" t="n">
-        <v>2006</v>
+        <v>1991</v>
       </c>
       <c r="D24" t="n">
-        <v>2007</v>
+        <v>1991</v>
       </c>
       <c r="E24" t="n">
-        <v>1999</v>
+        <v>1991</v>
       </c>
       <c r="F24" t="n">
-        <v>1059.5598</v>
+        <v>26.2335</v>
       </c>
       <c r="G24" t="n">
-        <v>2005.25</v>
+        <v>2005.133333333333</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1254,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>2011</v>
+        <v>1999</v>
       </c>
       <c r="C25" t="n">
-        <v>2011</v>
+        <v>2006</v>
       </c>
       <c r="D25" t="n">
-        <v>2011</v>
+        <v>2007</v>
       </c>
       <c r="E25" t="n">
-        <v>2011</v>
+        <v>1999</v>
       </c>
       <c r="F25" t="n">
-        <v>127.7</v>
+        <v>1059.5598</v>
       </c>
       <c r="G25" t="n">
-        <v>2005.233333333333</v>
+        <v>2005.25</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1289,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="C26" t="n">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="D26" t="n">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="E26" t="n">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="F26" t="n">
-        <v>79.4545</v>
+        <v>127.7</v>
       </c>
       <c r="G26" t="n">
-        <v>2005.25</v>
+        <v>2005.233333333333</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1324,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="C27" t="n">
-        <v>2008</v>
+        <v>2013</v>
       </c>
       <c r="D27" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="E27" t="n">
-        <v>2008</v>
+        <v>2013</v>
       </c>
       <c r="F27" t="n">
-        <v>1953.5813</v>
+        <v>79.4545</v>
       </c>
       <c r="G27" t="n">
-        <v>2005.183333333333</v>
+        <v>2005.25</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1359,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>2004</v>
+        <v>2011</v>
       </c>
       <c r="C28" t="n">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="D28" t="n">
-        <v>2009</v>
+        <v>2014</v>
       </c>
       <c r="E28" t="n">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="F28" t="n">
-        <v>936.4347</v>
+        <v>1953.5813</v>
       </c>
       <c r="G28" t="n">
-        <v>2005.133333333333</v>
+        <v>2005.183333333333</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1394,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="C29" t="n">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="D29" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="E29" t="n">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="F29" t="n">
-        <v>203.7999</v>
+        <v>936.4347</v>
       </c>
       <c r="G29" t="n">
-        <v>2005.066666666667</v>
+        <v>2005.133333333333</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1429,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="C30" t="n">
         <v>2007</v>
       </c>
       <c r="D30" t="n">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="E30" t="n">
         <v>2007</v>
       </c>
       <c r="F30" t="n">
-        <v>196.5106</v>
+        <v>203.7999</v>
       </c>
       <c r="G30" t="n">
-        <v>2004.9</v>
+        <v>2005.066666666667</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1464,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="C31" t="n">
-        <v>2011</v>
+        <v>2007</v>
       </c>
       <c r="D31" t="n">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="E31" t="n">
-        <v>2011</v>
+        <v>2007</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1</v>
+        <v>196.5106</v>
       </c>
       <c r="G31" t="n">
-        <v>2004.8</v>
+        <v>2004.9</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1499,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>2015</v>
+        <v>2011</v>
       </c>
       <c r="C32" t="n">
-        <v>2015</v>
+        <v>2011</v>
       </c>
       <c r="D32" t="n">
-        <v>2015</v>
+        <v>2011</v>
       </c>
       <c r="E32" t="n">
-        <v>2015</v>
+        <v>2011</v>
       </c>
       <c r="F32" t="n">
-        <v>69.3168</v>
+        <v>0.1</v>
       </c>
       <c r="G32" t="n">
-        <v>2004.766666666667</v>
+        <v>2004.8</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1534,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>2008</v>
+        <v>2015</v>
       </c>
       <c r="C33" t="n">
-        <v>2008</v>
+        <v>2015</v>
       </c>
       <c r="D33" t="n">
-        <v>2008</v>
+        <v>2015</v>
       </c>
       <c r="E33" t="n">
-        <v>2008</v>
+        <v>2015</v>
       </c>
       <c r="F33" t="n">
-        <v>150</v>
+        <v>69.3168</v>
       </c>
       <c r="G33" t="n">
-        <v>2004.616666666667</v>
+        <v>2004.766666666667</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1569,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>2017</v>
+        <v>2008</v>
       </c>
       <c r="C34" t="n">
-        <v>2018</v>
+        <v>2008</v>
       </c>
       <c r="D34" t="n">
-        <v>2018</v>
+        <v>2008</v>
       </c>
       <c r="E34" t="n">
-        <v>2017</v>
+        <v>2008</v>
       </c>
       <c r="F34" t="n">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="G34" t="n">
-        <v>2004.633333333333</v>
+        <v>2004.616666666667</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1604,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>2010</v>
+        <v>2017</v>
       </c>
       <c r="C35" t="n">
-        <v>2010</v>
+        <v>2018</v>
       </c>
       <c r="D35" t="n">
-        <v>2010</v>
+        <v>2018</v>
       </c>
       <c r="E35" t="n">
-        <v>2010</v>
+        <v>2017</v>
       </c>
       <c r="F35" t="n">
-        <v>28.162</v>
+        <v>144</v>
       </c>
       <c r="G35" t="n">
-        <v>2004.416666666667</v>
+        <v>2004.633333333333</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1639,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="C36" t="n">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="D36" t="n">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="E36" t="n">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="F36" t="n">
-        <v>82.30200000000001</v>
+        <v>28.162</v>
       </c>
       <c r="G36" t="n">
-        <v>2004.266666666667</v>
+        <v>2004.416666666667</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1674,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="C37" t="n">
-        <v>2015</v>
+        <v>2009</v>
       </c>
       <c r="D37" t="n">
-        <v>2015</v>
+        <v>2009</v>
       </c>
       <c r="E37" t="n">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="F37" t="n">
-        <v>316.6206</v>
+        <v>82.30200000000001</v>
       </c>
       <c r="G37" t="n">
-        <v>2004.216666666667</v>
+        <v>2004.266666666667</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1709,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="C38" t="n">
-        <v>2009</v>
+        <v>2015</v>
       </c>
       <c r="D38" t="n">
-        <v>2009</v>
+        <v>2015</v>
       </c>
       <c r="E38" t="n">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="F38" t="n">
-        <v>1.0983</v>
+        <v>316.6206</v>
       </c>
       <c r="G38" t="n">
-        <v>2004.083333333333</v>
+        <v>2004.216666666667</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1756,10 +1740,10 @@
         <v>2009</v>
       </c>
       <c r="F39" t="n">
-        <v>219.268</v>
+        <v>1.0983</v>
       </c>
       <c r="G39" t="n">
-        <v>2003.933333333333</v>
+        <v>2004.083333333333</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1779,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="C40" t="n">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="D40" t="n">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="E40" t="n">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="F40" t="n">
-        <v>234.5286</v>
+        <v>219.268</v>
       </c>
       <c r="G40" t="n">
-        <v>2003.816666666667</v>
+        <v>2003.933333333333</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1826,10 +1810,10 @@
         <v>2010</v>
       </c>
       <c r="F41" t="n">
-        <v>35.8208</v>
+        <v>234.5286</v>
       </c>
       <c r="G41" t="n">
-        <v>2003.7</v>
+        <v>2003.816666666667</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1861,10 +1845,10 @@
         <v>2010</v>
       </c>
       <c r="F42" t="n">
-        <v>83.1384</v>
+        <v>35.8208</v>
       </c>
       <c r="G42" t="n">
-        <v>2003.633333333333</v>
+        <v>2003.7</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1884,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>2004</v>
+        <v>2010</v>
       </c>
       <c r="C43" t="n">
-        <v>2002</v>
+        <v>2010</v>
       </c>
       <c r="D43" t="n">
-        <v>2004</v>
+        <v>2010</v>
       </c>
       <c r="E43" t="n">
-        <v>2000</v>
+        <v>2010</v>
       </c>
       <c r="F43" t="n">
-        <v>1175.6072</v>
+        <v>83.1384</v>
       </c>
       <c r="G43" t="n">
-        <v>2003.45</v>
+        <v>2003.633333333333</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1919,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>2012</v>
+        <v>2004</v>
       </c>
       <c r="C44" t="n">
-        <v>2016</v>
+        <v>2002</v>
       </c>
       <c r="D44" t="n">
-        <v>2016</v>
+        <v>2004</v>
       </c>
       <c r="E44" t="n">
-        <v>2012</v>
+        <v>2000</v>
       </c>
       <c r="F44" t="n">
-        <v>955.06994047</v>
+        <v>1175.6072</v>
       </c>
       <c r="G44" t="n">
-        <v>2003.433333333333</v>
+        <v>2003.45</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1954,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>2003</v>
+        <v>2012</v>
       </c>
       <c r="C45" t="n">
-        <v>2003</v>
+        <v>2016</v>
       </c>
       <c r="D45" t="n">
-        <v>2003</v>
+        <v>2016</v>
       </c>
       <c r="E45" t="n">
-        <v>2003</v>
+        <v>2012</v>
       </c>
       <c r="F45" t="n">
-        <v>14.3447</v>
+        <v>955.06994047</v>
       </c>
       <c r="G45" t="n">
-        <v>2003.2</v>
+        <v>2003.433333333333</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1989,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="C46" t="n">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="D46" t="n">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="E46" t="n">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="F46" t="n">
-        <v>316.6108</v>
+        <v>14.3447</v>
       </c>
       <c r="G46" t="n">
-        <v>2003.083333333333</v>
+        <v>2003.2</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2024,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="C47" t="n">
         <v>2001</v>
       </c>
       <c r="D47" t="n">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="E47" t="n">
         <v>2001</v>
       </c>
       <c r="F47" t="n">
-        <v>30.0842</v>
+        <v>316.6108</v>
       </c>
       <c r="G47" t="n">
-        <v>2002.966666666667</v>
+        <v>2003.083333333333</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2062,19 +2046,19 @@
         <v>2001</v>
       </c>
       <c r="C48" t="n">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="D48" t="n">
         <v>2001</v>
       </c>
       <c r="E48" t="n">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="F48" t="n">
-        <v>1383.2054</v>
+        <v>30.0842</v>
       </c>
       <c r="G48" t="n">
-        <v>2002.833333333333</v>
+        <v>2002.966666666667</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2094,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="C49" t="n">
         <v>2000</v>
       </c>
       <c r="D49" t="n">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="E49" t="n">
         <v>2000</v>
       </c>
       <c r="F49" t="n">
-        <v>635.5192</v>
+        <v>1383.2054</v>
       </c>
       <c r="G49" t="n">
-        <v>2002.783333333333</v>
+        <v>2002.833333333333</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2141,10 +2125,10 @@
         <v>2000</v>
       </c>
       <c r="F50" t="n">
-        <v>5.9782</v>
+        <v>635.5192</v>
       </c>
       <c r="G50" t="n">
-        <v>2002.65</v>
+        <v>2002.783333333333</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2176,10 +2160,10 @@
         <v>2000</v>
       </c>
       <c r="F51" t="n">
-        <v>12.8941</v>
+        <v>5.9782</v>
       </c>
       <c r="G51" t="n">
-        <v>2002.633333333333</v>
+        <v>2002.65</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2199,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="C52" t="n">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="D52" t="n">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="E52" t="n">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="F52" t="n">
-        <v>190.1593</v>
+        <v>12.8941</v>
       </c>
       <c r="G52" t="n">
-        <v>2002.683333333333</v>
+        <v>2002.633333333333</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2246,10 +2230,10 @@
         <v>2002</v>
       </c>
       <c r="F53" t="n">
-        <v>282.8809</v>
+        <v>190.1593</v>
       </c>
       <c r="G53" t="n">
-        <v>2002.7</v>
+        <v>2002.683333333333</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2281,10 +2265,10 @@
         <v>2002</v>
       </c>
       <c r="F54" t="n">
-        <v>30.7467</v>
+        <v>282.8809</v>
       </c>
       <c r="G54" t="n">
-        <v>2002.716666666667</v>
+        <v>2002.7</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2304,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>2000</v>
+        <v>2002</v>
       </c>
       <c r="C55" t="n">
-        <v>2000</v>
+        <v>2002</v>
       </c>
       <c r="D55" t="n">
-        <v>2000</v>
+        <v>2002</v>
       </c>
       <c r="E55" t="n">
-        <v>2000</v>
+        <v>2002</v>
       </c>
       <c r="F55" t="n">
-        <v>57.937</v>
+        <v>30.7467</v>
       </c>
       <c r="G55" t="n">
-        <v>2002.666666666667</v>
+        <v>2002.716666666667</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2351,10 +2335,10 @@
         <v>2000</v>
       </c>
       <c r="F56" t="n">
-        <v>79.1688</v>
+        <v>57.937</v>
       </c>
       <c r="G56" t="n">
-        <v>2002.633333333333</v>
+        <v>2002.666666666667</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2386,10 +2370,10 @@
         <v>2000</v>
       </c>
       <c r="F57" t="n">
-        <v>298.7163</v>
+        <v>79.1688</v>
       </c>
       <c r="G57" t="n">
-        <v>2002.6</v>
+        <v>2002.633333333333</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2412,19 +2396,19 @@
         <v>2000</v>
       </c>
       <c r="C58" t="n">
-        <v>1997</v>
+        <v>2000</v>
       </c>
       <c r="D58" t="n">
         <v>2000</v>
       </c>
       <c r="E58" t="n">
-        <v>1997</v>
+        <v>2000</v>
       </c>
       <c r="F58" t="n">
-        <v>231.7795</v>
+        <v>298.7163</v>
       </c>
       <c r="G58" t="n">
-        <v>2002.55</v>
+        <v>2002.6</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2444,22 +2428,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="C59" t="n">
-        <v>2002</v>
+        <v>1997</v>
       </c>
       <c r="D59" t="n">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="E59" t="n">
-        <v>2002</v>
+        <v>1997</v>
       </c>
       <c r="F59" t="n">
-        <v>102.7</v>
+        <v>231.7795</v>
       </c>
       <c r="G59" t="n">
-        <v>2002.516666666667</v>
+        <v>2002.55</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2479,22 +2463,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>1997</v>
+        <v>2002</v>
       </c>
       <c r="C60" t="n">
-        <v>1997</v>
+        <v>2002</v>
       </c>
       <c r="D60" t="n">
-        <v>1997</v>
+        <v>2002</v>
       </c>
       <c r="E60" t="n">
-        <v>1997</v>
+        <v>2002</v>
       </c>
       <c r="F60" t="n">
-        <v>39.242</v>
+        <v>102.7</v>
       </c>
       <c r="G60" t="n">
-        <v>2002.4</v>
+        <v>2002.516666666667</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2514,22 +2498,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>2002</v>
+        <v>1997</v>
       </c>
       <c r="C61" t="n">
-        <v>2002</v>
+        <v>1997</v>
       </c>
       <c r="D61" t="n">
-        <v>2002</v>
+        <v>1997</v>
       </c>
       <c r="E61" t="n">
-        <v>2002</v>
+        <v>1997</v>
       </c>
       <c r="F61" t="n">
-        <v>161.4475</v>
+        <v>39.242</v>
       </c>
       <c r="G61" t="n">
-        <v>2002.416666666667</v>
+        <v>2002.4</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2549,22 +2533,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>1997</v>
+        <v>2002</v>
       </c>
       <c r="C62" t="n">
-        <v>1997</v>
+        <v>2002</v>
       </c>
       <c r="D62" t="n">
-        <v>1997</v>
+        <v>2002</v>
       </c>
       <c r="E62" t="n">
-        <v>1997</v>
+        <v>2002</v>
       </c>
       <c r="F62" t="n">
-        <v>42.7992</v>
+        <v>161.4475</v>
       </c>
       <c r="G62" t="n">
-        <v>2002.366666666667</v>
+        <v>2002.416666666667</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2584,22 +2568,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="C63" t="n">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="D63" t="n">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="E63" t="n">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="F63" t="n">
-        <v>102.466</v>
+        <v>42.7992</v>
       </c>
       <c r="G63" t="n">
-        <v>2002.233333333333</v>
+        <v>2002.366666666667</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2631,10 +2615,10 @@
         <v>1998</v>
       </c>
       <c r="F64" t="n">
-        <v>87.5737</v>
+        <v>102.466</v>
       </c>
       <c r="G64" t="n">
-        <v>2002.133333333333</v>
+        <v>2002.233333333333</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2666,10 +2650,10 @@
         <v>1998</v>
       </c>
       <c r="F65" t="n">
-        <v>39.0897</v>
+        <v>87.5737</v>
       </c>
       <c r="G65" t="n">
-        <v>2002.1</v>
+        <v>2002.133333333333</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2689,22 +2673,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>2003</v>
+        <v>1998</v>
       </c>
       <c r="C66" t="n">
-        <v>2003</v>
+        <v>1998</v>
       </c>
       <c r="D66" t="n">
-        <v>2003</v>
+        <v>1998</v>
       </c>
       <c r="E66" t="n">
-        <v>2003</v>
+        <v>1998</v>
       </c>
       <c r="F66" t="n">
-        <v>0.13</v>
+        <v>39.0897</v>
       </c>
       <c r="G66" t="n">
-        <v>2002.183333333333</v>
+        <v>2002.1</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2724,22 +2708,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>1999</v>
+        <v>2003</v>
       </c>
       <c r="C67" t="n">
-        <v>1999</v>
+        <v>2003</v>
       </c>
       <c r="D67" t="n">
-        <v>1999</v>
+        <v>2003</v>
       </c>
       <c r="E67" t="n">
-        <v>1999</v>
+        <v>2003</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1527</v>
+        <v>0.13</v>
       </c>
       <c r="G67" t="n">
-        <v>2002.233333333333</v>
+        <v>2002.183333333333</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2759,22 +2743,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="C68" t="n">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="D68" t="n">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="E68" t="n">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="F68" t="n">
-        <v>301</v>
+        <v>0.1527</v>
       </c>
       <c r="G68" t="n">
-        <v>2002.366666666667</v>
+        <v>2002.233333333333</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2794,7 +2778,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>2001</v>
+        <v>1998</v>
       </c>
       <c r="C69" t="n">
         <v>2001</v>
@@ -2803,13 +2787,13 @@
         <v>2001</v>
       </c>
       <c r="E69" t="n">
-        <v>2001</v>
+        <v>1998</v>
       </c>
       <c r="F69" t="n">
-        <v>5</v>
+        <v>301</v>
       </c>
       <c r="G69" t="n">
-        <v>2002.533333333333</v>
+        <v>2002.366666666667</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2829,22 +2813,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="C70" t="n">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="D70" t="n">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="E70" t="n">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="F70" t="n">
-        <v>95.0877</v>
+        <v>5</v>
       </c>
       <c r="G70" t="n">
-        <v>2002.683333333333</v>
+        <v>2002.533333333333</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2876,10 +2860,10 @@
         <v>2000</v>
       </c>
       <c r="F71" t="n">
-        <v>200</v>
+        <v>95.0877</v>
       </c>
       <c r="G71" t="n">
-        <v>2002.716666666667</v>
+        <v>2002.683333333333</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2911,10 +2895,10 @@
         <v>2000</v>
       </c>
       <c r="F72" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="G72" t="n">
-        <v>2002.733333333333</v>
+        <v>2002.716666666667</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2934,22 +2918,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="C73" t="n">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="D73" t="n">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="E73" t="n">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="F73" t="n">
-        <v>42.5686</v>
+        <v>50</v>
       </c>
       <c r="G73" t="n">
-        <v>2002.716666666667</v>
+        <v>2002.733333333333</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2972,19 +2956,19 @@
         <v>1998</v>
       </c>
       <c r="C74" t="n">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="D74" t="n">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="E74" t="n">
         <v>1998</v>
       </c>
       <c r="F74" t="n">
-        <v>699.5955</v>
+        <v>42.5686</v>
       </c>
       <c r="G74" t="n">
-        <v>2002.766666666667</v>
+        <v>2002.716666666667</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3004,22 +2988,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>2001</v>
+        <v>1998</v>
       </c>
       <c r="C75" t="n">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="D75" t="n">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="E75" t="n">
-        <v>2001</v>
+        <v>1998</v>
       </c>
       <c r="F75" t="n">
-        <v>198.2865</v>
+        <v>699.5955</v>
       </c>
       <c r="G75" t="n">
-        <v>2002.833333333333</v>
+        <v>2002.766666666667</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3039,35 +3023,31 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>1998</v>
+        <v>2001</v>
       </c>
       <c r="C76" t="n">
-        <v>1998</v>
+        <v>2001</v>
       </c>
       <c r="D76" t="n">
-        <v>1998</v>
+        <v>2001</v>
       </c>
       <c r="E76" t="n">
-        <v>1998</v>
+        <v>2001</v>
       </c>
       <c r="F76" t="n">
-        <v>407.5</v>
+        <v>198.2865</v>
       </c>
       <c r="G76" t="n">
-        <v>2002.85</v>
+        <v>2002.833333333333</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>2001</v>
-      </c>
-      <c r="K76" t="n">
-        <v>2001</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
@@ -3078,22 +3058,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="C77" t="n">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="D77" t="n">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="E77" t="n">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="F77" t="n">
-        <v>3.0984</v>
+        <v>407.5</v>
       </c>
       <c r="G77" t="n">
-        <v>2002.933333333333</v>
+        <v>2002.85</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3102,14 +3082,8 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>2001</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3119,22 +3093,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="C78" t="n">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="D78" t="n">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="E78" t="n">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="F78" t="n">
-        <v>200</v>
+        <v>3.0984</v>
       </c>
       <c r="G78" t="n">
-        <v>2003.05</v>
+        <v>2002.933333333333</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3143,14 +3117,8 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>2001</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3160,35 +3128,31 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="C79" t="n">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="D79" t="n">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="E79" t="n">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="F79" t="n">
-        <v>27.7741</v>
+        <v>200</v>
       </c>
       <c r="G79" t="n">
-        <v>2003.2</v>
+        <v>2003.05</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>1998</v>
-      </c>
-      <c r="K79" t="n">
-        <v>1998</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
@@ -3202,37 +3166,29 @@
         <v>2000</v>
       </c>
       <c r="C80" t="n">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="D80" t="n">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="E80" t="n">
         <v>2000</v>
       </c>
       <c r="F80" t="n">
-        <v>378.7749</v>
+        <v>27.7741</v>
       </c>
       <c r="G80" t="n">
-        <v>2003.3</v>
+        <v>2003.2</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>2000</v>
-      </c>
-      <c r="K80" t="n">
-        <v>1998</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3242,40 +3198,32 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C81" t="n">
         <v>2004</v>
       </c>
-      <c r="C81" t="n">
-        <v>2005</v>
-      </c>
       <c r="D81" t="n">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="E81" t="n">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="F81" t="n">
-        <v>348.772</v>
+        <v>378.7749</v>
       </c>
       <c r="G81" t="n">
-        <v>2003.433333333333</v>
+        <v>2003.3</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>2004</v>
-      </c>
-      <c r="K81" t="n">
-        <v>1998</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3285,22 +3233,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
+        <v>2004</v>
+      </c>
+      <c r="C82" t="n">
         <v>2005</v>
       </c>
-      <c r="C82" t="n">
-        <v>2010</v>
-      </c>
       <c r="D82" t="n">
-        <v>2010</v>
+        <v>2005</v>
       </c>
       <c r="E82" t="n">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="F82" t="n">
-        <v>851</v>
+        <v>348.772</v>
       </c>
       <c r="G82" t="n">
-        <v>2003.65</v>
+        <v>2003.433333333333</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3320,22 +3268,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="C83" t="n">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="D83" t="n">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="E83" t="n">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="F83" t="n">
-        <v>500.1</v>
+        <v>851</v>
       </c>
       <c r="G83" t="n">
-        <v>2004</v>
+        <v>2003.65</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3355,22 +3303,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="C84" t="n">
-        <v>2007</v>
+        <v>2012</v>
       </c>
       <c r="D84" t="n">
-        <v>2007</v>
+        <v>2012</v>
       </c>
       <c r="E84" t="n">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="F84" t="n">
-        <v>200</v>
+        <v>500.1</v>
       </c>
       <c r="G84" t="n">
-        <v>2004.016666666667</v>
+        <v>2004</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3402,10 +3350,10 @@
         <v>2007</v>
       </c>
       <c r="F85" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G85" t="n">
-        <v>2003.95</v>
+        <v>2004.016666666667</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3425,22 +3373,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>2004</v>
+        <v>2007</v>
       </c>
       <c r="C86" t="n">
-        <v>2004</v>
+        <v>2007</v>
       </c>
       <c r="D86" t="n">
-        <v>2004</v>
+        <v>2007</v>
       </c>
       <c r="E86" t="n">
-        <v>2004</v>
+        <v>2007</v>
       </c>
       <c r="F86" t="n">
         <v>100</v>
       </c>
       <c r="G86" t="n">
-        <v>2003.8</v>
+        <v>2003.95</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3463,19 +3411,19 @@
         <v>2004</v>
       </c>
       <c r="C87" t="n">
-        <v>2009</v>
+        <v>2004</v>
       </c>
       <c r="D87" t="n">
-        <v>2012</v>
+        <v>2004</v>
       </c>
       <c r="E87" t="n">
         <v>2004</v>
       </c>
       <c r="F87" t="n">
-        <v>534.0048</v>
+        <v>100</v>
       </c>
       <c r="G87" t="n">
-        <v>2003.816666666667</v>
+        <v>2003.8</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3495,22 +3443,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
+        <v>2004</v>
+      </c>
+      <c r="C88" t="n">
         <v>2009</v>
       </c>
-      <c r="C88" t="n">
-        <v>2017</v>
-      </c>
       <c r="D88" t="n">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="E88" t="n">
-        <v>2009</v>
+        <v>2004</v>
       </c>
       <c r="F88" t="n">
-        <v>1050.9782</v>
+        <v>534.0048</v>
       </c>
       <c r="G88" t="n">
-        <v>2003.95</v>
+        <v>2003.816666666667</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3530,22 +3478,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="C89" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="D89" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="E89" t="n">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="F89" t="n">
-        <v>45.9585</v>
+        <v>1050.9782</v>
       </c>
       <c r="G89" t="n">
-        <v>2004.15</v>
+        <v>2003.95</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3565,28 +3513,28 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="C90" t="n">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="D90" t="n">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="E90" t="n">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="F90" t="n">
-        <v>12.39</v>
+        <v>45.9585</v>
       </c>
       <c r="G90" t="n">
-        <v>2004.2</v>
+        <v>2004.15</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
@@ -3603,19 +3551,19 @@
         <v>2010</v>
       </c>
       <c r="C91" t="n">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="D91" t="n">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="E91" t="n">
         <v>2010</v>
       </c>
       <c r="F91" t="n">
-        <v>597</v>
+        <v>12.39</v>
       </c>
       <c r="G91" t="n">
-        <v>2004.216666666667</v>
+        <v>2004.2</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3635,28 +3583,28 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="C92" t="n">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="D92" t="n">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="E92" t="n">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="F92" t="n">
-        <v>29.6006</v>
+        <v>597</v>
       </c>
       <c r="G92" t="n">
-        <v>2004.1</v>
+        <v>2004.216666666667</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
@@ -3670,22 +3618,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="C93" t="n">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="D93" t="n">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="E93" t="n">
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="F93" t="n">
-        <v>147.9342</v>
+        <v>29.6006</v>
       </c>
       <c r="G93" t="n">
-        <v>2004.066666666667</v>
+        <v>2004.1</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3705,22 +3653,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="C94" t="n">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="D94" t="n">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="E94" t="n">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="F94" t="n">
-        <v>196.5255</v>
+        <v>147.9342</v>
       </c>
       <c r="G94" t="n">
-        <v>2003.916666666667</v>
+        <v>2004.066666666667</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3740,22 +3688,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="C95" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="D95" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="E95" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="F95" t="n">
-        <v>97</v>
+        <v>196.5255</v>
       </c>
       <c r="G95" t="n">
-        <v>2003.883333333333</v>
+        <v>2003.916666666667</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3787,10 +3735,10 @@
         <v>2008</v>
       </c>
       <c r="F96" t="n">
-        <v>149.44</v>
+        <v>97</v>
       </c>
       <c r="G96" t="n">
-        <v>2003.866666666667</v>
+        <v>2003.883333333333</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3822,10 +3770,10 @@
         <v>2008</v>
       </c>
       <c r="F97" t="n">
-        <v>22.9525</v>
+        <v>149.44</v>
       </c>
       <c r="G97" t="n">
-        <v>2003.75</v>
+        <v>2003.866666666667</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3848,19 +3796,19 @@
         <v>2008</v>
       </c>
       <c r="C98" t="n">
-        <v>2013</v>
+        <v>2008</v>
       </c>
       <c r="D98" t="n">
-        <v>2013</v>
+        <v>2008</v>
       </c>
       <c r="E98" t="n">
         <v>2008</v>
       </c>
       <c r="F98" t="n">
-        <v>16.1906</v>
+        <v>22.9525</v>
       </c>
       <c r="G98" t="n">
-        <v>2003.816666666667</v>
+        <v>2003.75</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3883,19 +3831,19 @@
         <v>2008</v>
       </c>
       <c r="C99" t="n">
-        <v>2008</v>
+        <v>2013</v>
       </c>
       <c r="D99" t="n">
-        <v>2008</v>
+        <v>2013</v>
       </c>
       <c r="E99" t="n">
         <v>2008</v>
       </c>
       <c r="F99" t="n">
-        <v>19.679</v>
+        <v>16.1906</v>
       </c>
       <c r="G99" t="n">
-        <v>2003.8</v>
+        <v>2003.816666666667</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3927,10 +3875,10 @@
         <v>2008</v>
       </c>
       <c r="F100" t="n">
-        <v>182.1572</v>
+        <v>19.679</v>
       </c>
       <c r="G100" t="n">
-        <v>2003.766666666667</v>
+        <v>2003.8</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3962,10 +3910,10 @@
         <v>2008</v>
       </c>
       <c r="F101" t="n">
-        <v>214.711</v>
+        <v>182.1572</v>
       </c>
       <c r="G101" t="n">
-        <v>2003.733333333333</v>
+        <v>2003.766666666667</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3997,10 +3945,10 @@
         <v>2008</v>
       </c>
       <c r="F102" t="n">
-        <v>82.86799999999999</v>
+        <v>214.711</v>
       </c>
       <c r="G102" t="n">
-        <v>2003.7</v>
+        <v>2003.733333333333</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4032,10 +3980,10 @@
         <v>2008</v>
       </c>
       <c r="F103" t="n">
-        <v>694.9</v>
+        <v>82.86799999999999</v>
       </c>
       <c r="G103" t="n">
-        <v>2003.8</v>
+        <v>2003.7</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4067,10 +4015,10 @@
         <v>2008</v>
       </c>
       <c r="F104" t="n">
-        <v>79</v>
+        <v>694.9</v>
       </c>
       <c r="G104" t="n">
-        <v>2003.666666666667</v>
+        <v>2003.8</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4102,10 +4050,10 @@
         <v>2008</v>
       </c>
       <c r="F105" t="n">
-        <v>223.1</v>
+        <v>79</v>
       </c>
       <c r="G105" t="n">
-        <v>2003.75</v>
+        <v>2003.666666666667</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4137,10 +4085,10 @@
         <v>2008</v>
       </c>
       <c r="F106" t="n">
-        <v>4</v>
+        <v>223.1</v>
       </c>
       <c r="G106" t="n">
-        <v>2003.866666666667</v>
+        <v>2003.75</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4172,10 +4120,10 @@
         <v>2008</v>
       </c>
       <c r="F107" t="n">
-        <v>75.2641</v>
+        <v>4</v>
       </c>
       <c r="G107" t="n">
-        <v>2003.983333333333</v>
+        <v>2003.866666666667</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4198,16 +4146,16 @@
         <v>2008</v>
       </c>
       <c r="C108" t="n">
-        <v>2000</v>
+        <v>2008</v>
       </c>
       <c r="D108" t="n">
         <v>2008</v>
       </c>
       <c r="E108" t="n">
-        <v>2000</v>
+        <v>2008</v>
       </c>
       <c r="F108" t="n">
-        <v>2549.5961</v>
+        <v>75.2641</v>
       </c>
       <c r="G108" t="n">
         <v>2003.983333333333</v>
@@ -4230,22 +4178,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>1997</v>
+        <v>2008</v>
       </c>
       <c r="C109" t="n">
-        <v>1997</v>
+        <v>2000</v>
       </c>
       <c r="D109" t="n">
-        <v>1997</v>
+        <v>2008</v>
       </c>
       <c r="E109" t="n">
-        <v>1997</v>
+        <v>2000</v>
       </c>
       <c r="F109" t="n">
-        <v>4.4804</v>
+        <v>2549.5961</v>
       </c>
       <c r="G109" t="n">
-        <v>2003.933333333333</v>
+        <v>2003.983333333333</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4265,22 +4213,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>1995</v>
+        <v>1997</v>
       </c>
       <c r="C110" t="n">
-        <v>1995</v>
+        <v>1997</v>
       </c>
       <c r="D110" t="n">
-        <v>1995</v>
+        <v>1997</v>
       </c>
       <c r="E110" t="n">
-        <v>1995</v>
+        <v>1997</v>
       </c>
       <c r="F110" t="n">
-        <v>356.125</v>
+        <v>4.4804</v>
       </c>
       <c r="G110" t="n">
-        <v>2003.85</v>
+        <v>2003.933333333333</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4300,22 +4248,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="C111" t="n">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="D111" t="n">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="E111" t="n">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="F111" t="n">
-        <v>34.2765</v>
+        <v>356.125</v>
       </c>
       <c r="G111" t="n">
-        <v>2003.783333333333</v>
+        <v>2003.85</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4335,19 +4283,19 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>2002</v>
+        <v>1996</v>
       </c>
       <c r="C112" t="n">
-        <v>2002</v>
+        <v>1996</v>
       </c>
       <c r="D112" t="n">
-        <v>2002</v>
+        <v>1996</v>
       </c>
       <c r="E112" t="n">
-        <v>2002</v>
+        <v>1996</v>
       </c>
       <c r="F112" t="n">
-        <v>1</v>
+        <v>34.2765</v>
       </c>
       <c r="G112" t="n">
         <v>2003.783333333333</v>
@@ -4370,22 +4318,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="C113" t="n">
-        <v>1994</v>
+        <v>2002</v>
       </c>
       <c r="D113" t="n">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="E113" t="n">
-        <v>1994</v>
+        <v>2002</v>
       </c>
       <c r="F113" t="n">
-        <v>933.3797</v>
+        <v>1</v>
       </c>
       <c r="G113" t="n">
-        <v>2003.65</v>
+        <v>2003.783333333333</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4408,19 +4356,19 @@
         <v>2001</v>
       </c>
       <c r="C114" t="n">
-        <v>2001</v>
+        <v>1994</v>
       </c>
       <c r="D114" t="n">
         <v>2001</v>
       </c>
       <c r="E114" t="n">
-        <v>2001</v>
+        <v>1994</v>
       </c>
       <c r="F114" t="n">
-        <v>29.1623</v>
+        <v>933.3797</v>
       </c>
       <c r="G114" t="n">
-        <v>2003.633333333333</v>
+        <v>2003.65</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4452,10 +4400,10 @@
         <v>2001</v>
       </c>
       <c r="F115" t="n">
-        <v>18.6842</v>
+        <v>29.1623</v>
       </c>
       <c r="G115" t="n">
-        <v>2003.65</v>
+        <v>2003.633333333333</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4475,22 +4423,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>1994</v>
+        <v>2001</v>
       </c>
       <c r="C116" t="n">
-        <v>1993</v>
+        <v>2001</v>
       </c>
       <c r="D116" t="n">
-        <v>1994</v>
+        <v>2001</v>
       </c>
       <c r="E116" t="n">
-        <v>1993</v>
+        <v>2001</v>
       </c>
       <c r="F116" t="n">
-        <v>324.1783</v>
+        <v>18.6842</v>
       </c>
       <c r="G116" t="n">
-        <v>2003.533333333333</v>
+        <v>2003.65</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4510,22 +4458,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>1997</v>
+        <v>1994</v>
       </c>
       <c r="C117" t="n">
-        <v>1997</v>
+        <v>1993</v>
       </c>
       <c r="D117" t="n">
-        <v>1997</v>
+        <v>1994</v>
       </c>
       <c r="E117" t="n">
-        <v>1997</v>
+        <v>1993</v>
       </c>
       <c r="F117" t="n">
-        <v>96.3999</v>
+        <v>324.1783</v>
       </c>
       <c r="G117" t="n">
-        <v>2003.483333333333</v>
+        <v>2003.533333333333</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4545,22 +4493,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>1993</v>
+        <v>1997</v>
       </c>
       <c r="C118" t="n">
-        <v>1993</v>
+        <v>1997</v>
       </c>
       <c r="D118" t="n">
-        <v>1993</v>
+        <v>1997</v>
       </c>
       <c r="E118" t="n">
-        <v>1993</v>
+        <v>1997</v>
       </c>
       <c r="F118" t="n">
-        <v>50</v>
+        <v>96.3999</v>
       </c>
       <c r="G118" t="n">
-        <v>2003.416666666667</v>
+        <v>2003.483333333333</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4580,22 +4528,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>2001</v>
+        <v>1993</v>
       </c>
       <c r="C119" t="n">
-        <v>2001</v>
+        <v>1993</v>
       </c>
       <c r="D119" t="n">
-        <v>2001</v>
+        <v>1993</v>
       </c>
       <c r="E119" t="n">
-        <v>2001</v>
+        <v>1993</v>
       </c>
       <c r="F119" t="n">
-        <v>6.2093</v>
+        <v>50</v>
       </c>
       <c r="G119" t="n">
-        <v>2003.4</v>
+        <v>2003.416666666667</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4615,22 +4563,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="C120" t="n">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="D120" t="n">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="E120" t="n">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="F120" t="n">
-        <v>25.7318</v>
+        <v>6.2093</v>
       </c>
       <c r="G120" t="n">
-        <v>2003.45</v>
+        <v>2003.4</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4650,22 +4598,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="C121" t="n">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="D121" t="n">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="E121" t="n">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="F121" t="n">
-        <v>20.8636</v>
+        <v>25.7318</v>
       </c>
       <c r="G121" t="n">
-        <v>2003.383333333333</v>
+        <v>2003.45</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4685,22 +4633,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="C122" t="n">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="D122" t="n">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="E122" t="n">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="F122" t="n">
-        <v>15.202</v>
+        <v>20.8636</v>
       </c>
       <c r="G122" t="n">
-        <v>2003.416666666667</v>
+        <v>2003.383333333333</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4720,22 +4668,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="C123" t="n">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="D123" t="n">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="E123" t="n">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="F123" t="n">
-        <v>41.4955</v>
+        <v>15.202</v>
       </c>
       <c r="G123" t="n">
-        <v>2003.45</v>
+        <v>2003.416666666667</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4767,10 +4715,10 @@
         <v>2000</v>
       </c>
       <c r="F124" t="n">
-        <v>13.3925</v>
+        <v>41.4955</v>
       </c>
       <c r="G124" t="n">
-        <v>2003.483333333333</v>
+        <v>2003.45</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4802,10 +4750,10 @@
         <v>2000</v>
       </c>
       <c r="F125" t="n">
-        <v>12.0533</v>
+        <v>13.3925</v>
       </c>
       <c r="G125" t="n">
-        <v>2003.516666666667</v>
+        <v>2003.483333333333</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4825,22 +4773,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="C126" t="n">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="D126" t="n">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="E126" t="n">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="F126" t="n">
-        <v>16.5894</v>
+        <v>12.0533</v>
       </c>
       <c r="G126" t="n">
-        <v>2003.433333333333</v>
+        <v>2003.516666666667</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4860,22 +4808,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
+        <v>1999</v>
+      </c>
+      <c r="C127" t="n">
         <v>1998</v>
       </c>
-      <c r="C127" t="n">
-        <v>1995</v>
-      </c>
       <c r="D127" t="n">
+        <v>1999</v>
+      </c>
+      <c r="E127" t="n">
         <v>1998</v>
       </c>
-      <c r="E127" t="n">
-        <v>1995</v>
-      </c>
       <c r="F127" t="n">
-        <v>468.421</v>
+        <v>16.5894</v>
       </c>
       <c r="G127" t="n">
-        <v>2003.366666666667</v>
+        <v>2003.433333333333</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4898,19 +4846,19 @@
         <v>1998</v>
       </c>
       <c r="C128" t="n">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="D128" t="n">
         <v>1998</v>
       </c>
       <c r="E128" t="n">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="F128" t="n">
-        <v>113.6099</v>
+        <v>468.421</v>
       </c>
       <c r="G128" t="n">
-        <v>2003.3</v>
+        <v>2003.366666666667</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4933,19 +4881,19 @@
         <v>1998</v>
       </c>
       <c r="C129" t="n">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="D129" t="n">
         <v>1998</v>
       </c>
       <c r="E129" t="n">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="F129" t="n">
-        <v>98.212</v>
+        <v>113.6099</v>
       </c>
       <c r="G129" t="n">
-        <v>2003.25</v>
+        <v>2003.3</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4965,241 +4913,235 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
+        <v>1998</v>
+      </c>
+      <c r="C130" t="n">
+        <v>1998</v>
+      </c>
+      <c r="D130" t="n">
+        <v>1998</v>
+      </c>
+      <c r="E130" t="n">
+        <v>1998</v>
+      </c>
+      <c r="F130" t="n">
+        <v>98.212</v>
+      </c>
+      <c r="G130" t="n">
+        <v>2003.25</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
         <v>1994</v>
       </c>
-      <c r="C130" t="n">
+      <c r="C131" t="n">
         <v>1992</v>
       </c>
-      <c r="D130" t="n">
+      <c r="D131" t="n">
         <v>1994</v>
       </c>
-      <c r="E130" t="n">
+      <c r="E131" t="n">
         <v>1992</v>
       </c>
-      <c r="F130" t="n">
+      <c r="F131" t="n">
         <v>2499.1725</v>
       </c>
-      <c r="G130" t="n">
+      <c r="G131" t="n">
         <v>2003.116666666667</v>
       </c>
-      <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="n">
-        <v>1998</v>
-      </c>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>1993</v>
+      </c>
+      <c r="C132" t="n">
+        <v>1993</v>
+      </c>
+      <c r="D132" t="n">
+        <v>1993</v>
+      </c>
+      <c r="E132" t="n">
+        <v>1993</v>
+      </c>
+      <c r="F132" t="n">
+        <v>486.157</v>
+      </c>
+      <c r="G132" t="n">
+        <v>2003</v>
+      </c>
+      <c r="H132" t="n">
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="n">
+        <v>1992</v>
+      </c>
+      <c r="K132" t="n">
+        <v>1992</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>1993</v>
+      </c>
+      <c r="C133" t="n">
+        <v>2002</v>
+      </c>
+      <c r="D133" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E133" t="n">
+        <v>1993</v>
+      </c>
+      <c r="F133" t="n">
+        <v>1868.4807</v>
+      </c>
+      <c r="G133" t="n">
+        <v>2003.033333333333</v>
+      </c>
+      <c r="H133" t="n">
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="n">
+        <v>1993</v>
+      </c>
+      <c r="K133" t="n">
+        <v>1992</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>1993</v>
+      </c>
+      <c r="C134" t="n">
+        <v>1993</v>
+      </c>
+      <c r="D134" t="n">
+        <v>1993</v>
+      </c>
+      <c r="E134" t="n">
+        <v>1993</v>
+      </c>
+      <c r="F134" t="n">
+        <v>67.5478</v>
+      </c>
+      <c r="G134" t="n">
+        <v>2002.95</v>
+      </c>
+      <c r="H134" t="n">
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="n">
+        <v>2002</v>
+      </c>
+      <c r="K134" t="n">
+        <v>1992</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>1993</v>
+      </c>
+      <c r="C135" t="n">
+        <v>1991</v>
+      </c>
+      <c r="D135" t="n">
+        <v>1993</v>
+      </c>
+      <c r="E135" t="n">
+        <v>1991</v>
+      </c>
+      <c r="F135" t="n">
+        <v>98.6191</v>
+      </c>
+      <c r="G135" t="n">
+        <v>2002.8</v>
+      </c>
+      <c r="H135" t="n">
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="n">
+        <v>1993</v>
+      </c>
+      <c r="K135" t="n">
+        <v>1992</v>
+      </c>
+      <c r="L135" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>1993</v>
-      </c>
-      <c r="C131" t="n">
-        <v>1993</v>
-      </c>
-      <c r="D131" t="n">
-        <v>1993</v>
-      </c>
-      <c r="E131" t="n">
-        <v>1993</v>
-      </c>
-      <c r="F131" t="n">
-        <v>486.157</v>
-      </c>
-      <c r="G131" t="n">
-        <v>2003</v>
-      </c>
-      <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="n">
-        <v>1992</v>
-      </c>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>1993</v>
-      </c>
-      <c r="C132" t="n">
-        <v>2002</v>
-      </c>
-      <c r="D132" t="n">
-        <v>2002</v>
-      </c>
-      <c r="E132" t="n">
-        <v>1993</v>
-      </c>
-      <c r="F132" t="n">
-        <v>1868.4807</v>
-      </c>
-      <c r="G132" t="n">
-        <v>2003.033333333333</v>
-      </c>
-      <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="n">
-        <v>1993</v>
-      </c>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>1993</v>
-      </c>
-      <c r="C133" t="n">
-        <v>1993</v>
-      </c>
-      <c r="D133" t="n">
-        <v>1993</v>
-      </c>
-      <c r="E133" t="n">
-        <v>1993</v>
-      </c>
-      <c r="F133" t="n">
-        <v>67.5478</v>
-      </c>
-      <c r="G133" t="n">
-        <v>2002.95</v>
-      </c>
-      <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="n">
-        <v>2002</v>
-      </c>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>1993</v>
-      </c>
-      <c r="C134" t="n">
-        <v>1991</v>
-      </c>
-      <c r="D134" t="n">
-        <v>1993</v>
-      </c>
-      <c r="E134" t="n">
-        <v>1991</v>
-      </c>
-      <c r="F134" t="n">
-        <v>98.6191</v>
-      </c>
-      <c r="G134" t="n">
-        <v>2002.8</v>
-      </c>
-      <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="n">
-        <v>1993</v>
-      </c>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>1990</v>
-      </c>
-      <c r="C135" t="n">
-        <v>1990</v>
-      </c>
-      <c r="D135" t="n">
-        <v>1991</v>
-      </c>
-      <c r="E135" t="n">
-        <v>1990</v>
-      </c>
-      <c r="F135" t="n">
-        <v>8939.282300000001</v>
-      </c>
-      <c r="G135" t="n">
-        <v>2002.616666666667</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5212,19 +5154,19 @@
         <v>1990</v>
       </c>
       <c r="C136" t="n">
-        <v>1985</v>
+        <v>1990</v>
       </c>
       <c r="D136" t="n">
+        <v>1991</v>
+      </c>
+      <c r="E136" t="n">
         <v>1990</v>
       </c>
-      <c r="E136" t="n">
-        <v>1985</v>
-      </c>
       <c r="F136" t="n">
-        <v>1360.1573</v>
+        <v>8939.282300000001</v>
       </c>
       <c r="G136" t="n">
-        <v>2002.4</v>
+        <v>2002.616666666667</v>
       </c>
       <c r="H136" t="n">
         <v>1</v>
@@ -5233,9 +5175,11 @@
         <v>0</v>
       </c>
       <c r="J136" t="n">
-        <v>1990</v>
-      </c>
-      <c r="K136" t="inlineStr"/>
+        <v>1991</v>
+      </c>
+      <c r="K136" t="n">
+        <v>1992</v>
+      </c>
       <c r="L136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5245,6 +5189,47 @@
         <v>1</v>
       </c>
     </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>1990</v>
+      </c>
+      <c r="C137" t="n">
+        <v>1985</v>
+      </c>
+      <c r="D137" t="n">
+        <v>1990</v>
+      </c>
+      <c r="E137" t="n">
+        <v>1985</v>
+      </c>
+      <c r="F137" t="n">
+        <v>1360.1573</v>
+      </c>
+      <c r="G137" t="n">
+        <v>2002.4</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1992</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-10-19 BackTest QTUM.xlsx
+++ b/BackTest/2019-10-19 BackTest QTUM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M137"/>
+  <dimension ref="A1:N147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>93.614</v>
       </c>
       <c r="G2" t="n">
+        <v>2003</v>
+      </c>
+      <c r="H2" t="n">
         <v>2006.233333333333</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>136.965</v>
       </c>
       <c r="G3" t="n">
+        <v>2002.466666666667</v>
+      </c>
+      <c r="H3" t="n">
         <v>2006.3</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>483.1655</v>
       </c>
       <c r="G4" t="n">
+        <v>2002.333333333333</v>
+      </c>
+      <c r="H4" t="n">
         <v>2006.483333333333</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>90.3622</v>
       </c>
       <c r="G5" t="n">
+        <v>2002.4</v>
+      </c>
+      <c r="H5" t="n">
         <v>2006.633333333333</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>7.04</v>
       </c>
       <c r="G6" t="n">
+        <v>2001.866666666667</v>
+      </c>
+      <c r="H6" t="n">
         <v>2006.716666666667</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>170.391</v>
       </c>
       <c r="G7" t="n">
+        <v>2001.666666666667</v>
+      </c>
+      <c r="H7" t="n">
         <v>2006.766666666667</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>129.5851</v>
       </c>
       <c r="G8" t="n">
+        <v>2001.466666666667</v>
+      </c>
+      <c r="H8" t="n">
         <v>2006.666666666667</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>1444.0626</v>
       </c>
       <c r="G9" t="n">
+        <v>2000.933333333333</v>
+      </c>
+      <c r="H9" t="n">
         <v>2006.616666666667</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>20.42</v>
       </c>
       <c r="G10" t="n">
+        <v>2000.266666666667</v>
+      </c>
+      <c r="H10" t="n">
         <v>2006.483333333333</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>33.7342</v>
       </c>
       <c r="G11" t="n">
+        <v>1999.466666666667</v>
+      </c>
+      <c r="H11" t="n">
         <v>2006.35</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>1.05105105</v>
       </c>
       <c r="G12" t="n">
+        <v>1999.2</v>
+      </c>
+      <c r="H12" t="n">
         <v>2006.333333333333</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>1</v>
       </c>
       <c r="G13" t="n">
+        <v>1999</v>
+      </c>
+      <c r="H13" t="n">
         <v>2006.35</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>82.67100000000001</v>
       </c>
       <c r="G14" t="n">
+        <v>1998.933333333333</v>
+      </c>
+      <c r="H14" t="n">
         <v>2006.133333333333</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>2.6317</v>
       </c>
       <c r="G15" t="n">
+        <v>1998.466666666667</v>
+      </c>
+      <c r="H15" t="n">
         <v>2006.1</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>2.70405608</v>
       </c>
       <c r="G16" t="n">
+        <v>1998</v>
+      </c>
+      <c r="H16" t="n">
         <v>2006.066666666667</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>13.7232</v>
       </c>
       <c r="G17" t="n">
+        <v>1997.733333333333</v>
+      </c>
+      <c r="H17" t="n">
         <v>2005.816666666667</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>98</v>
       </c>
       <c r="G18" t="n">
+        <v>1997.2</v>
+      </c>
+      <c r="H18" t="n">
         <v>2005.6</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>120</v>
       </c>
       <c r="G19" t="n">
+        <v>1996.2</v>
+      </c>
+      <c r="H19" t="n">
         <v>2005.383333333333</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>6</v>
       </c>
       <c r="G20" t="n">
+        <v>1995.333333333333</v>
+      </c>
+      <c r="H20" t="n">
         <v>2005.2</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>532.9772</v>
       </c>
       <c r="G21" t="n">
+        <v>1995.2</v>
+      </c>
+      <c r="H21" t="n">
         <v>2005.25</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>5.00751126</v>
       </c>
       <c r="G22" t="n">
+        <v>1995.133333333333</v>
+      </c>
+      <c r="H22" t="n">
         <v>2005.233333333333</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>37.5563</v>
       </c>
       <c r="G23" t="n">
+        <v>1995.2</v>
+      </c>
+      <c r="H23" t="n">
         <v>2005.266666666667</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>26.2335</v>
       </c>
       <c r="G24" t="n">
+        <v>1995.066666666667</v>
+      </c>
+      <c r="H24" t="n">
         <v>2005.133333333333</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>1059.5598</v>
       </c>
       <c r="G25" t="n">
+        <v>1996.066666666667</v>
+      </c>
+      <c r="H25" t="n">
         <v>2005.25</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>127.7</v>
       </c>
       <c r="G26" t="n">
+        <v>1997.4</v>
+      </c>
+      <c r="H26" t="n">
         <v>2005.233333333333</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>79.4545</v>
       </c>
       <c r="G27" t="n">
+        <v>1998.4</v>
+      </c>
+      <c r="H27" t="n">
         <v>2005.25</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>1953.5813</v>
       </c>
       <c r="G28" t="n">
+        <v>1999</v>
+      </c>
+      <c r="H28" t="n">
         <v>2005.183333333333</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>936.4347</v>
       </c>
       <c r="G29" t="n">
+        <v>1999.666666666667</v>
+      </c>
+      <c r="H29" t="n">
         <v>2005.133333333333</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>203.7999</v>
       </c>
       <c r="G30" t="n">
+        <v>2000.333333333333</v>
+      </c>
+      <c r="H30" t="n">
         <v>2005.066666666667</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>196.5106</v>
       </c>
       <c r="G31" t="n">
+        <v>2001</v>
+      </c>
+      <c r="H31" t="n">
         <v>2004.9</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,21 @@
         <v>0.1</v>
       </c>
       <c r="G32" t="n">
+        <v>2001.933333333333</v>
+      </c>
+      <c r="H32" t="n">
         <v>2004.8</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1631,21 @@
         <v>69.3168</v>
       </c>
       <c r="G33" t="n">
+        <v>2003.466666666667</v>
+      </c>
+      <c r="H33" t="n">
         <v>2004.766666666667</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1669,21 @@
         <v>150</v>
       </c>
       <c r="G34" t="n">
+        <v>2004.6</v>
+      </c>
+      <c r="H34" t="n">
         <v>2004.616666666667</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1707,21 @@
         <v>144</v>
       </c>
       <c r="G35" t="n">
+        <v>2006.4</v>
+      </c>
+      <c r="H35" t="n">
         <v>2004.633333333333</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1745,21 @@
         <v>28.162</v>
       </c>
       <c r="G36" t="n">
+        <v>2007.2</v>
+      </c>
+      <c r="H36" t="n">
         <v>2004.416666666667</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1783,21 @@
         <v>82.30200000000001</v>
       </c>
       <c r="G37" t="n">
+        <v>2008</v>
+      </c>
+      <c r="H37" t="n">
         <v>2004.266666666667</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1821,21 @@
         <v>316.6206</v>
       </c>
       <c r="G38" t="n">
+        <v>2009.2</v>
+      </c>
+      <c r="H38" t="n">
         <v>2004.216666666667</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1859,21 @@
         <v>1.0983</v>
       </c>
       <c r="G39" t="n">
+        <v>2010.4</v>
+      </c>
+      <c r="H39" t="n">
         <v>2004.083333333333</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>1</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1897,21 @@
         <v>219.268</v>
       </c>
       <c r="G40" t="n">
+        <v>2010.6</v>
+      </c>
+      <c r="H40" t="n">
         <v>2003.933333333333</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>1</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1935,21 @@
         <v>234.5286</v>
       </c>
       <c r="G41" t="n">
+        <v>2010.533333333333</v>
+      </c>
+      <c r="H41" t="n">
         <v>2003.816666666667</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>1</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +1973,21 @@
         <v>35.8208</v>
       </c>
       <c r="G42" t="n">
+        <v>2010.333333333333</v>
+      </c>
+      <c r="H42" t="n">
         <v>2003.7</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>1</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2011,21 @@
         <v>83.1384</v>
       </c>
       <c r="G43" t="n">
+        <v>2010.466666666667</v>
+      </c>
+      <c r="H43" t="n">
         <v>2003.633333333333</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>1</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2049,21 @@
         <v>1175.6072</v>
       </c>
       <c r="G44" t="n">
+        <v>2010</v>
+      </c>
+      <c r="H44" t="n">
         <v>2003.45</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>1</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2087,21 @@
         <v>955.06994047</v>
       </c>
       <c r="G45" t="n">
+        <v>2010.6</v>
+      </c>
+      <c r="H45" t="n">
         <v>2003.433333333333</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>1</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2125,21 @@
         <v>14.3447</v>
       </c>
       <c r="G46" t="n">
+        <v>2010.333333333333</v>
+      </c>
+      <c r="H46" t="n">
         <v>2003.2</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>1</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2163,21 @@
         <v>316.6108</v>
       </c>
       <c r="G47" t="n">
+        <v>2009.666666666667</v>
+      </c>
+      <c r="H47" t="n">
         <v>2003.083333333333</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>1</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2201,21 @@
         <v>30.0842</v>
       </c>
       <c r="G48" t="n">
+        <v>2008.733333333333</v>
+      </c>
+      <c r="H48" t="n">
         <v>2002.966666666667</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>1</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2239,21 @@
         <v>1383.2054</v>
       </c>
       <c r="G49" t="n">
+        <v>2008.2</v>
+      </c>
+      <c r="H49" t="n">
         <v>2002.833333333333</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>1</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2277,21 @@
         <v>635.5192</v>
       </c>
       <c r="G50" t="n">
+        <v>2007</v>
+      </c>
+      <c r="H50" t="n">
         <v>2002.783333333333</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>1</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2315,21 @@
         <v>5.9782</v>
       </c>
       <c r="G51" t="n">
+        <v>2006.333333333333</v>
+      </c>
+      <c r="H51" t="n">
         <v>2002.65</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>1</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2353,21 @@
         <v>12.8941</v>
       </c>
       <c r="G52" t="n">
+        <v>2005.733333333333</v>
+      </c>
+      <c r="H52" t="n">
         <v>2002.633333333333</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2391,21 @@
         <v>190.1593</v>
       </c>
       <c r="G53" t="n">
+        <v>2004.866666666667</v>
+      </c>
+      <c r="H53" t="n">
         <v>2002.683333333333</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>1</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2429,21 @@
         <v>282.8809</v>
       </c>
       <c r="G54" t="n">
+        <v>2004.4</v>
+      </c>
+      <c r="H54" t="n">
         <v>2002.7</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2467,21 @@
         <v>30.7467</v>
       </c>
       <c r="G55" t="n">
+        <v>2003.933333333333</v>
+      </c>
+      <c r="H55" t="n">
         <v>2002.716666666667</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2505,21 @@
         <v>57.937</v>
       </c>
       <c r="G56" t="n">
+        <v>2003.266666666667</v>
+      </c>
+      <c r="H56" t="n">
         <v>2002.666666666667</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2543,21 @@
         <v>79.1688</v>
       </c>
       <c r="G57" t="n">
+        <v>2002.6</v>
+      </c>
+      <c r="H57" t="n">
         <v>2002.633333333333</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2581,21 @@
         <v>298.7163</v>
       </c>
       <c r="G58" t="n">
+        <v>2001.933333333333</v>
+      </c>
+      <c r="H58" t="n">
         <v>2002.6</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2619,21 @@
         <v>231.7795</v>
       </c>
       <c r="G59" t="n">
+        <v>2001.6</v>
+      </c>
+      <c r="H59" t="n">
         <v>2002.55</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2657,21 @@
         <v>102.7</v>
       </c>
       <c r="G60" t="n">
+        <v>2000.666666666667</v>
+      </c>
+      <c r="H60" t="n">
         <v>2002.516666666667</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2695,21 @@
         <v>39.242</v>
       </c>
       <c r="G61" t="n">
+        <v>2000.266666666667</v>
+      </c>
+      <c r="H61" t="n">
         <v>2002.4</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2733,21 @@
         <v>161.4475</v>
       </c>
       <c r="G62" t="n">
+        <v>2000.333333333333</v>
+      </c>
+      <c r="H62" t="n">
         <v>2002.416666666667</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2771,21 @@
         <v>42.7992</v>
       </c>
       <c r="G63" t="n">
+        <v>2000.066666666667</v>
+      </c>
+      <c r="H63" t="n">
         <v>2002.366666666667</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +2809,21 @@
         <v>102.466</v>
       </c>
       <c r="G64" t="n">
+        <v>1999.933333333333</v>
+      </c>
+      <c r="H64" t="n">
         <v>2002.233333333333</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +2847,21 @@
         <v>87.5737</v>
       </c>
       <c r="G65" t="n">
+        <v>1999.8</v>
+      </c>
+      <c r="H65" t="n">
         <v>2002.133333333333</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +2885,21 @@
         <v>39.0897</v>
       </c>
       <c r="G66" t="n">
+        <v>1999.666666666667</v>
+      </c>
+      <c r="H66" t="n">
         <v>2002.1</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +2923,21 @@
         <v>0.13</v>
       </c>
       <c r="G67" t="n">
+        <v>1999.866666666667</v>
+      </c>
+      <c r="H67" t="n">
         <v>2002.183333333333</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +2961,21 @@
         <v>0.1527</v>
       </c>
       <c r="G68" t="n">
+        <v>1999.666666666667</v>
+      </c>
+      <c r="H68" t="n">
         <v>2002.233333333333</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +2999,21 @@
         <v>301</v>
       </c>
       <c r="G69" t="n">
+        <v>1999.6</v>
+      </c>
+      <c r="H69" t="n">
         <v>2002.366666666667</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3037,21 @@
         <v>5</v>
       </c>
       <c r="G70" t="n">
+        <v>1999.533333333333</v>
+      </c>
+      <c r="H70" t="n">
         <v>2002.533333333333</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3075,21 @@
         <v>95.0877</v>
       </c>
       <c r="G71" t="n">
+        <v>1999.533333333333</v>
+      </c>
+      <c r="H71" t="n">
         <v>2002.683333333333</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3113,21 @@
         <v>200</v>
       </c>
       <c r="G72" t="n">
+        <v>1999.533333333333</v>
+      </c>
+      <c r="H72" t="n">
         <v>2002.716666666667</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3151,21 @@
         <v>50</v>
       </c>
       <c r="G73" t="n">
+        <v>1999.533333333333</v>
+      </c>
+      <c r="H73" t="n">
         <v>2002.733333333333</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3189,21 @@
         <v>42.5686</v>
       </c>
       <c r="G74" t="n">
+        <v>1999.6</v>
+      </c>
+      <c r="H74" t="n">
         <v>2002.716666666667</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3227,21 @@
         <v>699.5955</v>
       </c>
       <c r="G75" t="n">
+        <v>1999.466666666667</v>
+      </c>
+      <c r="H75" t="n">
         <v>2002.766666666667</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3265,21 @@
         <v>198.2865</v>
       </c>
       <c r="G76" t="n">
+        <v>1999.733333333333</v>
+      </c>
+      <c r="H76" t="n">
         <v>2002.833333333333</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3303,21 @@
         <v>407.5</v>
       </c>
       <c r="G77" t="n">
+        <v>1999.466666666667</v>
+      </c>
+      <c r="H77" t="n">
         <v>2002.85</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3341,21 @@
         <v>3.0984</v>
       </c>
       <c r="G78" t="n">
+        <v>1999.466666666667</v>
+      </c>
+      <c r="H78" t="n">
         <v>2002.933333333333</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3379,21 @@
         <v>200</v>
       </c>
       <c r="G79" t="n">
+        <v>1999.466666666667</v>
+      </c>
+      <c r="H79" t="n">
         <v>2003.05</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3417,21 @@
         <v>27.7741</v>
       </c>
       <c r="G80" t="n">
+        <v>1999.6</v>
+      </c>
+      <c r="H80" t="n">
         <v>2003.2</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3455,21 @@
         <v>378.7749</v>
       </c>
       <c r="G81" t="n">
+        <v>2000</v>
+      </c>
+      <c r="H81" t="n">
         <v>2003.3</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,18 +3493,21 @@
         <v>348.772</v>
       </c>
       <c r="G82" t="n">
+        <v>2000.133333333333</v>
+      </c>
+      <c r="H82" t="n">
         <v>2003.433333333333</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,18 +3531,21 @@
         <v>851</v>
       </c>
       <c r="G83" t="n">
+        <v>2000.866666666667</v>
+      </c>
+      <c r="H83" t="n">
         <v>2003.65</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,18 +3569,21 @@
         <v>500.1</v>
       </c>
       <c r="G84" t="n">
+        <v>2001.6</v>
+      </c>
+      <c r="H84" t="n">
         <v>2004</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,18 +3607,21 @@
         <v>200</v>
       </c>
       <c r="G85" t="n">
+        <v>2002</v>
+      </c>
+      <c r="H85" t="n">
         <v>2004.016666666667</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,18 +3645,21 @@
         <v>100</v>
       </c>
       <c r="G86" t="n">
+        <v>2002.466666666667</v>
+      </c>
+      <c r="H86" t="n">
         <v>2003.95</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3423,18 +3683,21 @@
         <v>100</v>
       </c>
       <c r="G87" t="n">
+        <v>2002.733333333333</v>
+      </c>
+      <c r="H87" t="n">
         <v>2003.8</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,18 +3721,21 @@
         <v>534.0048</v>
       </c>
       <c r="G88" t="n">
+        <v>2003.333333333333</v>
+      </c>
+      <c r="H88" t="n">
         <v>2003.816666666667</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3493,18 +3759,21 @@
         <v>1050.9782</v>
       </c>
       <c r="G89" t="n">
+        <v>2004.6</v>
+      </c>
+      <c r="H89" t="n">
         <v>2003.95</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3528,18 +3797,21 @@
         <v>45.9585</v>
       </c>
       <c r="G90" t="n">
+        <v>2005.866666666667</v>
+      </c>
+      <c r="H90" t="n">
         <v>2004.15</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
-        <v>1</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3563,18 +3835,21 @@
         <v>12.39</v>
       </c>
       <c r="G91" t="n">
+        <v>2006.466666666667</v>
+      </c>
+      <c r="H91" t="n">
         <v>2004.2</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
-        <v>1</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3598,18 +3873,21 @@
         <v>597</v>
       </c>
       <c r="G92" t="n">
+        <v>2007.4</v>
+      </c>
+      <c r="H92" t="n">
         <v>2004.216666666667</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
-        <v>1</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3633,18 +3911,21 @@
         <v>29.6006</v>
       </c>
       <c r="G93" t="n">
+        <v>2008.133333333333</v>
+      </c>
+      <c r="H93" t="n">
         <v>2004.1</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
-        <v>1</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J93" t="n">
+        <v>1</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,18 +3949,21 @@
         <v>147.9342</v>
       </c>
       <c r="G94" t="n">
+        <v>2008.666666666667</v>
+      </c>
+      <c r="H94" t="n">
         <v>2004.066666666667</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>1</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3703,18 +3987,21 @@
         <v>196.5255</v>
       </c>
       <c r="G95" t="n">
+        <v>2009.266666666667</v>
+      </c>
+      <c r="H95" t="n">
         <v>2003.916666666667</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>1</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3738,18 +4025,21 @@
         <v>97</v>
       </c>
       <c r="G96" t="n">
+        <v>2009.533333333333</v>
+      </c>
+      <c r="H96" t="n">
         <v>2003.883333333333</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>1</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3773,18 +4063,21 @@
         <v>149.44</v>
       </c>
       <c r="G97" t="n">
+        <v>2009.733333333333</v>
+      </c>
+      <c r="H97" t="n">
         <v>2003.866666666667</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>1</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3808,18 +4101,21 @@
         <v>22.9525</v>
       </c>
       <c r="G98" t="n">
+        <v>2009.6</v>
+      </c>
+      <c r="H98" t="n">
         <v>2003.75</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>1</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3843,18 +4139,21 @@
         <v>16.1906</v>
       </c>
       <c r="G99" t="n">
+        <v>2009.666666666667</v>
+      </c>
+      <c r="H99" t="n">
         <v>2003.816666666667</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>1</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3878,18 +4177,21 @@
         <v>19.679</v>
       </c>
       <c r="G100" t="n">
+        <v>2009.733333333333</v>
+      </c>
+      <c r="H100" t="n">
         <v>2003.8</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>1</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3913,18 +4215,21 @@
         <v>182.1572</v>
       </c>
       <c r="G101" t="n">
+        <v>2009.8</v>
+      </c>
+      <c r="H101" t="n">
         <v>2003.766666666667</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>1</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3948,18 +4253,21 @@
         <v>214.711</v>
       </c>
       <c r="G102" t="n">
+        <v>2010.066666666667</v>
+      </c>
+      <c r="H102" t="n">
         <v>2003.733333333333</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>1</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3983,18 +4291,21 @@
         <v>82.86799999999999</v>
       </c>
       <c r="G103" t="n">
+        <v>2010</v>
+      </c>
+      <c r="H103" t="n">
         <v>2003.7</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>1</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,18 +4329,21 @@
         <v>694.9</v>
       </c>
       <c r="G104" t="n">
+        <v>2009.4</v>
+      </c>
+      <c r="H104" t="n">
         <v>2003.8</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>1</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4053,18 +4367,21 @@
         <v>79</v>
       </c>
       <c r="G105" t="n">
+        <v>2008.666666666667</v>
+      </c>
+      <c r="H105" t="n">
         <v>2003.666666666667</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>1</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4088,18 +4405,21 @@
         <v>223.1</v>
       </c>
       <c r="G106" t="n">
+        <v>2008.533333333333</v>
+      </c>
+      <c r="H106" t="n">
         <v>2003.75</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>1</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4123,18 +4443,21 @@
         <v>4</v>
       </c>
       <c r="G107" t="n">
+        <v>2008.266666666667</v>
+      </c>
+      <c r="H107" t="n">
         <v>2003.866666666667</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>1</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4158,18 +4481,21 @@
         <v>75.2641</v>
       </c>
       <c r="G108" t="n">
+        <v>2008.266666666667</v>
+      </c>
+      <c r="H108" t="n">
         <v>2003.983333333333</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>1</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4193,18 +4519,21 @@
         <v>2549.5961</v>
       </c>
       <c r="G109" t="n">
+        <v>2007.866666666667</v>
+      </c>
+      <c r="H109" t="n">
         <v>2003.983333333333</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>1</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4228,18 +4557,21 @@
         <v>4.4804</v>
       </c>
       <c r="G110" t="n">
+        <v>2007.066666666667</v>
+      </c>
+      <c r="H110" t="n">
         <v>2003.933333333333</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>1</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4263,18 +4595,21 @@
         <v>356.125</v>
       </c>
       <c r="G111" t="n">
+        <v>2006.2</v>
+      </c>
+      <c r="H111" t="n">
         <v>2003.85</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>1</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4298,18 +4633,21 @@
         <v>34.2765</v>
       </c>
       <c r="G112" t="n">
+        <v>2005.4</v>
+      </c>
+      <c r="H112" t="n">
         <v>2003.783333333333</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>1</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4333,18 +4671,21 @@
         <v>1</v>
       </c>
       <c r="G113" t="n">
+        <v>2005</v>
+      </c>
+      <c r="H113" t="n">
         <v>2003.783333333333</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4368,18 +4709,21 @@
         <v>933.3797</v>
       </c>
       <c r="G114" t="n">
+        <v>2003.733333333333</v>
+      </c>
+      <c r="H114" t="n">
         <v>2003.65</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4403,18 +4747,21 @@
         <v>29.1623</v>
       </c>
       <c r="G115" t="n">
+        <v>2003.266666666667</v>
+      </c>
+      <c r="H115" t="n">
         <v>2003.633333333333</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4438,18 +4785,21 @@
         <v>18.6842</v>
       </c>
       <c r="G116" t="n">
+        <v>2002.8</v>
+      </c>
+      <c r="H116" t="n">
         <v>2003.65</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4473,18 +4823,21 @@
         <v>324.1783</v>
       </c>
       <c r="G117" t="n">
+        <v>2001.8</v>
+      </c>
+      <c r="H117" t="n">
         <v>2003.533333333333</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4508,18 +4861,21 @@
         <v>96.3999</v>
       </c>
       <c r="G118" t="n">
+        <v>2001.066666666667</v>
+      </c>
+      <c r="H118" t="n">
         <v>2003.483333333333</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4543,18 +4899,21 @@
         <v>50</v>
       </c>
       <c r="G119" t="n">
+        <v>2000.066666666667</v>
+      </c>
+      <c r="H119" t="n">
         <v>2003.416666666667</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4578,18 +4937,21 @@
         <v>6.2093</v>
       </c>
       <c r="G120" t="n">
+        <v>1999.6</v>
+      </c>
+      <c r="H120" t="n">
         <v>2003.4</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4613,18 +4975,21 @@
         <v>25.7318</v>
       </c>
       <c r="G121" t="n">
+        <v>1999.066666666667</v>
+      </c>
+      <c r="H121" t="n">
         <v>2003.45</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4648,18 +5013,21 @@
         <v>20.8636</v>
       </c>
       <c r="G122" t="n">
+        <v>1998.4</v>
+      </c>
+      <c r="H122" t="n">
         <v>2003.383333333333</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4683,18 +5051,21 @@
         <v>15.202</v>
       </c>
       <c r="G123" t="n">
+        <v>1997.8</v>
+      </c>
+      <c r="H123" t="n">
         <v>2003.416666666667</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4718,18 +5089,21 @@
         <v>41.4955</v>
       </c>
       <c r="G124" t="n">
+        <v>1997.8</v>
+      </c>
+      <c r="H124" t="n">
         <v>2003.45</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4753,18 +5127,21 @@
         <v>13.3925</v>
       </c>
       <c r="G125" t="n">
+        <v>1998</v>
+      </c>
+      <c r="H125" t="n">
         <v>2003.483333333333</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4788,18 +5165,21 @@
         <v>12.0533</v>
       </c>
       <c r="G126" t="n">
+        <v>1998.333333333333</v>
+      </c>
+      <c r="H126" t="n">
         <v>2003.516666666667</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4823,18 +5203,21 @@
         <v>16.5894</v>
       </c>
       <c r="G127" t="n">
+        <v>1998.466666666667</v>
+      </c>
+      <c r="H127" t="n">
         <v>2003.433333333333</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4858,18 +5241,21 @@
         <v>468.421</v>
       </c>
       <c r="G128" t="n">
+        <v>1998</v>
+      </c>
+      <c r="H128" t="n">
         <v>2003.366666666667</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4893,18 +5279,21 @@
         <v>113.6099</v>
       </c>
       <c r="G129" t="n">
+        <v>1998.2</v>
+      </c>
+      <c r="H129" t="n">
         <v>2003.3</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4928,18 +5317,21 @@
         <v>98.212</v>
       </c>
       <c r="G130" t="n">
+        <v>1998</v>
+      </c>
+      <c r="H130" t="n">
         <v>2003.25</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4963,18 +5355,21 @@
         <v>2499.1725</v>
       </c>
       <c r="G131" t="n">
+        <v>1997.4</v>
+      </c>
+      <c r="H131" t="n">
         <v>2003.116666666667</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4998,22 +5393,21 @@
         <v>486.157</v>
       </c>
       <c r="G132" t="n">
+        <v>1997.4</v>
+      </c>
+      <c r="H132" t="n">
         <v>2003</v>
       </c>
-      <c r="H132" t="n">
-        <v>1</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
       <c r="J132" t="n">
-        <v>1992</v>
-      </c>
-      <c r="K132" t="n">
-        <v>1992</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5037,26 +5431,21 @@
         <v>1868.4807</v>
       </c>
       <c r="G133" t="n">
+        <v>1997.733333333333</v>
+      </c>
+      <c r="H133" t="n">
         <v>2003.033333333333</v>
       </c>
-      <c r="H133" t="n">
-        <v>1</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
       <c r="J133" t="n">
-        <v>1993</v>
-      </c>
-      <c r="K133" t="n">
-        <v>1992</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5080,26 +5469,21 @@
         <v>67.5478</v>
       </c>
       <c r="G134" t="n">
+        <v>1997.733333333333</v>
+      </c>
+      <c r="H134" t="n">
         <v>2002.95</v>
       </c>
-      <c r="H134" t="n">
-        <v>1</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
       <c r="J134" t="n">
-        <v>2002</v>
-      </c>
-      <c r="K134" t="n">
-        <v>1992</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5123,110 +5507,495 @@
         <v>98.6191</v>
       </c>
       <c r="G135" t="n">
+        <v>1997.066666666667</v>
+      </c>
+      <c r="H135" t="n">
         <v>2002.8</v>
       </c>
-      <c r="H135" t="n">
-        <v>1</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
       <c r="J135" t="n">
-        <v>1993</v>
-      </c>
-      <c r="K135" t="n">
-        <v>1992</v>
-      </c>
-      <c r="L135" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>1990</v>
+      </c>
+      <c r="C136" t="n">
+        <v>1990</v>
+      </c>
+      <c r="D136" t="n">
+        <v>1991</v>
+      </c>
+      <c r="E136" t="n">
+        <v>1990</v>
+      </c>
+      <c r="F136" t="n">
+        <v>8939.282300000001</v>
+      </c>
+      <c r="G136" t="n">
+        <v>1996.4</v>
+      </c>
+      <c r="H136" t="n">
+        <v>2002.616666666667</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>1990</v>
+      </c>
+      <c r="C137" t="n">
+        <v>1985</v>
+      </c>
+      <c r="D137" t="n">
+        <v>1990</v>
+      </c>
+      <c r="E137" t="n">
+        <v>1985</v>
+      </c>
+      <c r="F137" t="n">
+        <v>1360.1573</v>
+      </c>
+      <c r="G137" t="n">
+        <v>1995.533333333333</v>
+      </c>
+      <c r="H137" t="n">
+        <v>2002.4</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>1985</v>
+      </c>
+      <c r="C138" t="n">
+        <v>1983</v>
+      </c>
+      <c r="D138" t="n">
+        <v>1985</v>
+      </c>
+      <c r="E138" t="n">
+        <v>1983</v>
+      </c>
+      <c r="F138" t="n">
+        <v>290.782</v>
+      </c>
+      <c r="G138" t="n">
+        <v>1994.466666666667</v>
+      </c>
+      <c r="H138" t="n">
+        <v>2002.166666666667</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>1988</v>
+      </c>
+      <c r="C139" t="n">
+        <v>1988</v>
+      </c>
+      <c r="D139" t="n">
+        <v>1988</v>
+      </c>
+      <c r="E139" t="n">
+        <v>1988</v>
+      </c>
+      <c r="F139" t="n">
+        <v>198.9015</v>
+      </c>
+      <c r="G139" t="n">
+        <v>1993.666666666667</v>
+      </c>
+      <c r="H139" t="n">
+        <v>2002</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>1983</v>
+      </c>
+      <c r="C140" t="n">
+        <v>1988</v>
+      </c>
+      <c r="D140" t="n">
+        <v>1988</v>
+      </c>
+      <c r="E140" t="n">
+        <v>1983</v>
+      </c>
+      <c r="F140" t="n">
+        <v>229.0576</v>
+      </c>
+      <c r="G140" t="n">
+        <v>1992.866666666667</v>
+      </c>
+      <c r="H140" t="n">
+        <v>2001.8</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>1983</v>
+      </c>
+      <c r="C141" t="n">
+        <v>1983</v>
+      </c>
+      <c r="D141" t="n">
+        <v>1983</v>
+      </c>
+      <c r="E141" t="n">
+        <v>1983</v>
+      </c>
+      <c r="F141" t="n">
+        <v>43.861</v>
+      </c>
+      <c r="G141" t="n">
+        <v>1991.733333333333</v>
+      </c>
+      <c r="H141" t="n">
+        <v>2001.45</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>1983</v>
+      </c>
+      <c r="C142" t="n">
+        <v>1981</v>
+      </c>
+      <c r="D142" t="n">
+        <v>1983</v>
+      </c>
+      <c r="E142" t="n">
+        <v>1981</v>
+      </c>
+      <c r="F142" t="n">
+        <v>500</v>
+      </c>
+      <c r="G142" t="n">
+        <v>1990.6</v>
+      </c>
+      <c r="H142" t="n">
+        <v>2001.05</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>1981</v>
+      </c>
+      <c r="C143" t="n">
+        <v>1981</v>
+      </c>
+      <c r="D143" t="n">
+        <v>1981</v>
+      </c>
+      <c r="E143" t="n">
+        <v>1981</v>
+      </c>
+      <c r="F143" t="n">
+        <v>24.8551</v>
+      </c>
+      <c r="G143" t="n">
+        <v>1989.666666666667</v>
+      </c>
+      <c r="H143" t="n">
+        <v>2000.566666666667</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>1981</v>
+      </c>
+      <c r="C144" t="n">
+        <v>1981</v>
+      </c>
+      <c r="D144" t="n">
+        <v>1981</v>
+      </c>
+      <c r="E144" t="n">
+        <v>1981</v>
+      </c>
+      <c r="F144" t="n">
+        <v>41.6107</v>
+      </c>
+      <c r="G144" t="n">
+        <v>1988.6</v>
+      </c>
+      <c r="H144" t="n">
+        <v>2000.05</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>1981</v>
+      </c>
+      <c r="C145" t="n">
+        <v>1977</v>
+      </c>
+      <c r="D145" t="n">
+        <v>1981</v>
+      </c>
+      <c r="E145" t="n">
+        <v>1976</v>
+      </c>
+      <c r="F145" t="n">
+        <v>1001.0887</v>
+      </c>
+      <c r="G145" t="n">
+        <v>1987.2</v>
+      </c>
+      <c r="H145" t="n">
+        <v>1999.55</v>
+      </c>
+      <c r="I145" t="n">
+        <v>1</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
+      <c r="K145" t="n">
+        <v>1981</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>1990</v>
-      </c>
-      <c r="C136" t="n">
-        <v>1990</v>
-      </c>
-      <c r="D136" t="n">
-        <v>1991</v>
-      </c>
-      <c r="E136" t="n">
-        <v>1990</v>
-      </c>
-      <c r="F136" t="n">
-        <v>8939.282300000001</v>
-      </c>
-      <c r="G136" t="n">
-        <v>2002.616666666667</v>
-      </c>
-      <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="n">
-        <v>1991</v>
-      </c>
-      <c r="K136" t="n">
-        <v>1992</v>
-      </c>
-      <c r="L136" t="inlineStr">
+      <c r="N145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>1974</v>
+      </c>
+      <c r="C146" t="n">
+        <v>1977</v>
+      </c>
+      <c r="D146" t="n">
+        <v>1977</v>
+      </c>
+      <c r="E146" t="n">
+        <v>1974</v>
+      </c>
+      <c r="F146" t="n">
+        <v>554.9767000000001</v>
+      </c>
+      <c r="G146" t="n">
+        <v>1986.2</v>
+      </c>
+      <c r="H146" t="n">
+        <v>1999.05</v>
+      </c>
+      <c r="I146" t="n">
+        <v>1</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
+      <c r="K146" t="n">
+        <v>1977</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>1990</v>
-      </c>
-      <c r="C137" t="n">
-        <v>1985</v>
-      </c>
-      <c r="D137" t="n">
-        <v>1990</v>
-      </c>
-      <c r="E137" t="n">
-        <v>1985</v>
-      </c>
-      <c r="F137" t="n">
-        <v>1360.1573</v>
-      </c>
-      <c r="G137" t="n">
-        <v>2002.4</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>1992</v>
-      </c>
-      <c r="L137" t="inlineStr">
+      <c r="N146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>1976</v>
+      </c>
+      <c r="C147" t="n">
+        <v>1976</v>
+      </c>
+      <c r="D147" t="n">
+        <v>1976</v>
+      </c>
+      <c r="E147" t="n">
+        <v>1976</v>
+      </c>
+      <c r="F147" t="n">
+        <v>24.1493</v>
+      </c>
+      <c r="G147" t="n">
+        <v>1985.066666666667</v>
+      </c>
+      <c r="H147" t="n">
+        <v>1998.583333333333</v>
+      </c>
+      <c r="I147" t="n">
+        <v>1</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
+      <c r="K147" t="n">
+        <v>1977</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M137" t="n">
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-19 BackTest QTUM.xlsx
+++ b/BackTest/2019-10-19 BackTest QTUM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N147"/>
+  <dimension ref="A1:M176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>MA60</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2001</v>
+        <v>2017</v>
       </c>
       <c r="C2" t="n">
-        <v>2001</v>
+        <v>2017</v>
       </c>
       <c r="D2" t="n">
-        <v>2001</v>
+        <v>2017</v>
       </c>
       <c r="E2" t="n">
-        <v>2001</v>
+        <v>2017</v>
       </c>
       <c r="F2" t="n">
-        <v>93.614</v>
+        <v>173.525</v>
       </c>
       <c r="G2" t="n">
-        <v>2003</v>
+        <v>-2643.20034859</v>
       </c>
       <c r="H2" t="n">
-        <v>2006.233333333333</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,36 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2001</v>
+        <v>2017</v>
       </c>
       <c r="C3" t="n">
-        <v>2000</v>
+        <v>2017</v>
       </c>
       <c r="D3" t="n">
-        <v>2001</v>
+        <v>2017</v>
       </c>
       <c r="E3" t="n">
-        <v>2000</v>
+        <v>2017</v>
       </c>
       <c r="F3" t="n">
-        <v>136.965</v>
+        <v>90.756</v>
       </c>
       <c r="G3" t="n">
-        <v>2002.466666666667</v>
+        <v>-2643.20034859</v>
       </c>
       <c r="H3" t="n">
-        <v>2006.3</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -514,36 +503,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2005</v>
+        <v>2017</v>
       </c>
       <c r="C4" t="n">
-        <v>2006</v>
+        <v>2017</v>
       </c>
       <c r="D4" t="n">
-        <v>2006</v>
+        <v>2017</v>
       </c>
       <c r="E4" t="n">
-        <v>2005</v>
+        <v>2017</v>
       </c>
       <c r="F4" t="n">
-        <v>483.1655</v>
+        <v>2478.1505</v>
       </c>
       <c r="G4" t="n">
-        <v>2002.333333333333</v>
+        <v>-2643.20034859</v>
       </c>
       <c r="H4" t="n">
-        <v>2006.483333333333</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -552,36 +538,33 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2004</v>
+        <v>2018</v>
       </c>
       <c r="C5" t="n">
-        <v>2004</v>
+        <v>2023</v>
       </c>
       <c r="D5" t="n">
-        <v>2004</v>
+        <v>2023</v>
       </c>
       <c r="E5" t="n">
-        <v>2004</v>
+        <v>2018</v>
       </c>
       <c r="F5" t="n">
-        <v>90.3622</v>
+        <v>129.8568</v>
       </c>
       <c r="G5" t="n">
-        <v>2002.4</v>
+        <v>-2513.34354859</v>
       </c>
       <c r="H5" t="n">
-        <v>2006.633333333333</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -590,36 +573,33 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2000</v>
+        <v>2017</v>
       </c>
       <c r="C6" t="n">
-        <v>2000</v>
+        <v>2018</v>
       </c>
       <c r="D6" t="n">
-        <v>2000</v>
+        <v>2018</v>
       </c>
       <c r="E6" t="n">
-        <v>2000</v>
+        <v>2017</v>
       </c>
       <c r="F6" t="n">
-        <v>7.04</v>
+        <v>33.6161</v>
       </c>
       <c r="G6" t="n">
-        <v>2001.866666666667</v>
+        <v>-2546.95964859</v>
       </c>
       <c r="H6" t="n">
-        <v>2006.716666666667</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -628,36 +608,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2000</v>
+        <v>2018</v>
       </c>
       <c r="C7" t="n">
-        <v>1998</v>
+        <v>2018</v>
       </c>
       <c r="D7" t="n">
-        <v>2000</v>
+        <v>2018</v>
       </c>
       <c r="E7" t="n">
-        <v>1998</v>
+        <v>2018</v>
       </c>
       <c r="F7" t="n">
-        <v>170.391</v>
+        <v>2.5566</v>
       </c>
       <c r="G7" t="n">
-        <v>2001.666666666667</v>
+        <v>-2546.95964859</v>
       </c>
       <c r="H7" t="n">
-        <v>2006.766666666667</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -666,36 +643,33 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1997</v>
+        <v>2017</v>
       </c>
       <c r="C8" t="n">
-        <v>1996</v>
+        <v>2017</v>
       </c>
       <c r="D8" t="n">
-        <v>1997</v>
+        <v>2017</v>
       </c>
       <c r="E8" t="n">
-        <v>1996</v>
+        <v>2017</v>
       </c>
       <c r="F8" t="n">
-        <v>129.5851</v>
+        <v>70.7303</v>
       </c>
       <c r="G8" t="n">
-        <v>2001.466666666667</v>
+        <v>-2617.68994859</v>
       </c>
       <c r="H8" t="n">
-        <v>2006.666666666667</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -704,36 +678,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1996</v>
+        <v>2018</v>
       </c>
       <c r="C9" t="n">
-        <v>1993</v>
+        <v>2018</v>
       </c>
       <c r="D9" t="n">
-        <v>1996</v>
+        <v>2018</v>
       </c>
       <c r="E9" t="n">
-        <v>1993</v>
+        <v>2018</v>
       </c>
       <c r="F9" t="n">
-        <v>1444.0626</v>
+        <v>17.5113</v>
       </c>
       <c r="G9" t="n">
-        <v>2000.933333333333</v>
+        <v>-2600.17864859</v>
       </c>
       <c r="H9" t="n">
-        <v>2006.616666666667</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -742,36 +713,33 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1993</v>
+        <v>2017</v>
       </c>
       <c r="C10" t="n">
-        <v>1991</v>
+        <v>2017</v>
       </c>
       <c r="D10" t="n">
-        <v>1993</v>
+        <v>2017</v>
       </c>
       <c r="E10" t="n">
-        <v>1991</v>
+        <v>2017</v>
       </c>
       <c r="F10" t="n">
-        <v>20.42</v>
+        <v>163.54</v>
       </c>
       <c r="G10" t="n">
-        <v>2000.266666666667</v>
+        <v>-2763.71864859</v>
       </c>
       <c r="H10" t="n">
-        <v>2006.483333333333</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -780,36 +748,33 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1991</v>
+        <v>2017</v>
       </c>
       <c r="C11" t="n">
-        <v>1991</v>
+        <v>2017</v>
       </c>
       <c r="D11" t="n">
-        <v>1991</v>
+        <v>2017</v>
       </c>
       <c r="E11" t="n">
-        <v>1991</v>
+        <v>2017</v>
       </c>
       <c r="F11" t="n">
-        <v>33.7342</v>
+        <v>44.89</v>
       </c>
       <c r="G11" t="n">
-        <v>1999.466666666667</v>
+        <v>-2763.71864859</v>
       </c>
       <c r="H11" t="n">
-        <v>2006.35</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -818,36 +783,33 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1998</v>
+        <v>2014</v>
       </c>
       <c r="C12" t="n">
-        <v>1998</v>
+        <v>2014</v>
       </c>
       <c r="D12" t="n">
-        <v>1998</v>
+        <v>2014</v>
       </c>
       <c r="E12" t="n">
-        <v>1998</v>
+        <v>2014</v>
       </c>
       <c r="F12" t="n">
-        <v>1.05105105</v>
+        <v>77.1969</v>
       </c>
       <c r="G12" t="n">
-        <v>1999.2</v>
+        <v>-2840.91554859</v>
       </c>
       <c r="H12" t="n">
-        <v>2006.333333333333</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -856,36 +818,33 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1999</v>
+        <v>2013</v>
       </c>
       <c r="C13" t="n">
-        <v>1999</v>
+        <v>2013</v>
       </c>
       <c r="D13" t="n">
-        <v>1999</v>
+        <v>2013</v>
       </c>
       <c r="E13" t="n">
-        <v>1999</v>
+        <v>2013</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>115.7954</v>
       </c>
       <c r="G13" t="n">
-        <v>1999</v>
+        <v>-2956.71094859</v>
       </c>
       <c r="H13" t="n">
-        <v>2006.35</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -894,36 +853,33 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1999</v>
+        <v>2017</v>
       </c>
       <c r="C14" t="n">
-        <v>1999</v>
+        <v>2017</v>
       </c>
       <c r="D14" t="n">
-        <v>1999</v>
+        <v>2017</v>
       </c>
       <c r="E14" t="n">
-        <v>1999</v>
+        <v>2017</v>
       </c>
       <c r="F14" t="n">
-        <v>82.67100000000001</v>
+        <v>110.8986</v>
       </c>
       <c r="G14" t="n">
-        <v>1998.933333333333</v>
+        <v>-2845.81234859</v>
       </c>
       <c r="H14" t="n">
-        <v>2006.133333333333</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -932,36 +888,33 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1997</v>
+        <v>2017</v>
       </c>
       <c r="C15" t="n">
-        <v>1997</v>
+        <v>2017</v>
       </c>
       <c r="D15" t="n">
-        <v>1997</v>
+        <v>2017</v>
       </c>
       <c r="E15" t="n">
-        <v>1997</v>
+        <v>2017</v>
       </c>
       <c r="F15" t="n">
-        <v>2.6317</v>
+        <v>83.5446</v>
       </c>
       <c r="G15" t="n">
-        <v>1998.466666666667</v>
+        <v>-2845.81234859</v>
       </c>
       <c r="H15" t="n">
-        <v>2006.1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -970,36 +923,33 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1997</v>
+        <v>2008</v>
       </c>
       <c r="C16" t="n">
-        <v>1997</v>
+        <v>2008</v>
       </c>
       <c r="D16" t="n">
-        <v>1997</v>
+        <v>2008</v>
       </c>
       <c r="E16" t="n">
-        <v>1997</v>
+        <v>2008</v>
       </c>
       <c r="F16" t="n">
-        <v>2.70405608</v>
+        <v>26.062</v>
       </c>
       <c r="G16" t="n">
-        <v>1998</v>
+        <v>-2871.87434859</v>
       </c>
       <c r="H16" t="n">
-        <v>2006.066666666667</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,36 +958,33 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1997</v>
+        <v>2008</v>
       </c>
       <c r="C17" t="n">
-        <v>1997</v>
+        <v>2008</v>
       </c>
       <c r="D17" t="n">
-        <v>1997</v>
+        <v>2008</v>
       </c>
       <c r="E17" t="n">
-        <v>1997</v>
+        <v>2008</v>
       </c>
       <c r="F17" t="n">
-        <v>13.7232</v>
+        <v>12.4892</v>
       </c>
       <c r="G17" t="n">
-        <v>1997.733333333333</v>
+        <v>-2871.87434859</v>
       </c>
       <c r="H17" t="n">
-        <v>2005.816666666667</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1046,36 +993,33 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1992</v>
+        <v>2008</v>
       </c>
       <c r="C18" t="n">
-        <v>1992</v>
+        <v>2008</v>
       </c>
       <c r="D18" t="n">
-        <v>1992</v>
+        <v>2008</v>
       </c>
       <c r="E18" t="n">
-        <v>1992</v>
+        <v>2008</v>
       </c>
       <c r="F18" t="n">
-        <v>98</v>
+        <v>24.7883</v>
       </c>
       <c r="G18" t="n">
-        <v>1997.2</v>
+        <v>-2871.87434859</v>
       </c>
       <c r="H18" t="n">
-        <v>2005.6</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1084,36 +1028,33 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1991</v>
+        <v>2003</v>
       </c>
       <c r="C19" t="n">
-        <v>1991</v>
+        <v>2003</v>
       </c>
       <c r="D19" t="n">
-        <v>1991</v>
+        <v>2003</v>
       </c>
       <c r="E19" t="n">
-        <v>1991</v>
+        <v>2002</v>
       </c>
       <c r="F19" t="n">
-        <v>120</v>
+        <v>1359.519</v>
       </c>
       <c r="G19" t="n">
-        <v>1996.2</v>
+        <v>-4231.39334859</v>
       </c>
       <c r="H19" t="n">
-        <v>2005.383333333333</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1122,36 +1063,33 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1991</v>
+        <v>2007</v>
       </c>
       <c r="C20" t="n">
-        <v>1991</v>
+        <v>2008</v>
       </c>
       <c r="D20" t="n">
-        <v>1991</v>
+        <v>2008</v>
       </c>
       <c r="E20" t="n">
-        <v>1991</v>
+        <v>2007</v>
       </c>
       <c r="F20" t="n">
-        <v>6</v>
+        <v>175.437</v>
       </c>
       <c r="G20" t="n">
-        <v>1995.333333333333</v>
+        <v>-4055.95634859</v>
       </c>
       <c r="H20" t="n">
-        <v>2005.2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1160,36 +1098,33 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1991</v>
+        <v>2001</v>
       </c>
       <c r="C21" t="n">
-        <v>1998</v>
+        <v>2001</v>
       </c>
       <c r="D21" t="n">
-        <v>1998</v>
+        <v>2001</v>
       </c>
       <c r="E21" t="n">
-        <v>1991</v>
+        <v>2001</v>
       </c>
       <c r="F21" t="n">
-        <v>532.9772</v>
+        <v>241.0922</v>
       </c>
       <c r="G21" t="n">
-        <v>1995.2</v>
+        <v>-4297.04854859</v>
       </c>
       <c r="H21" t="n">
-        <v>2005.25</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1198,36 +1133,33 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1997</v>
+        <v>1999</v>
       </c>
       <c r="C22" t="n">
-        <v>1997</v>
+        <v>1999</v>
       </c>
       <c r="D22" t="n">
-        <v>1997</v>
+        <v>1999</v>
       </c>
       <c r="E22" t="n">
-        <v>1997</v>
+        <v>1999</v>
       </c>
       <c r="F22" t="n">
-        <v>5.00751126</v>
+        <v>73.5446</v>
       </c>
       <c r="G22" t="n">
-        <v>1995.133333333333</v>
+        <v>-4370.59314859</v>
       </c>
       <c r="H22" t="n">
-        <v>2005.233333333333</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1236,36 +1168,33 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1997</v>
+        <v>2001</v>
       </c>
       <c r="C23" t="n">
-        <v>1997</v>
+        <v>2001</v>
       </c>
       <c r="D23" t="n">
-        <v>1997</v>
+        <v>2001</v>
       </c>
       <c r="E23" t="n">
-        <v>1997</v>
+        <v>2001</v>
       </c>
       <c r="F23" t="n">
-        <v>37.5563</v>
+        <v>200</v>
       </c>
       <c r="G23" t="n">
-        <v>1995.2</v>
+        <v>-4170.59314859</v>
       </c>
       <c r="H23" t="n">
-        <v>2005.266666666667</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="n">
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1274,36 +1203,33 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1991</v>
+        <v>2001</v>
       </c>
       <c r="C24" t="n">
-        <v>1991</v>
+        <v>2001</v>
       </c>
       <c r="D24" t="n">
-        <v>1991</v>
+        <v>2001</v>
       </c>
       <c r="E24" t="n">
-        <v>1991</v>
+        <v>2001</v>
       </c>
       <c r="F24" t="n">
-        <v>26.2335</v>
+        <v>684.177</v>
       </c>
       <c r="G24" t="n">
-        <v>1995.066666666667</v>
+        <v>-4170.59314859</v>
       </c>
       <c r="H24" t="n">
-        <v>2005.133333333333</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="n">
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1312,36 +1238,33 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="C25" t="n">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="D25" t="n">
-        <v>2007</v>
+        <v>2003</v>
       </c>
       <c r="E25" t="n">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="F25" t="n">
-        <v>1059.5598</v>
+        <v>589.0821</v>
       </c>
       <c r="G25" t="n">
-        <v>1996.066666666667</v>
+        <v>-3581.51104859</v>
       </c>
       <c r="H25" t="n">
-        <v>2005.25</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="n">
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1350,36 +1273,33 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>2011</v>
+        <v>2007</v>
       </c>
       <c r="C26" t="n">
-        <v>2011</v>
+        <v>2002</v>
       </c>
       <c r="D26" t="n">
-        <v>2011</v>
+        <v>2007</v>
       </c>
       <c r="E26" t="n">
-        <v>2011</v>
+        <v>2002</v>
       </c>
       <c r="F26" t="n">
-        <v>127.7</v>
+        <v>294.3026</v>
       </c>
       <c r="G26" t="n">
-        <v>1997.4</v>
+        <v>-3875.81364859</v>
       </c>
       <c r="H26" t="n">
-        <v>2005.233333333333</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="n">
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1388,36 +1308,33 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>2013</v>
+        <v>2002</v>
       </c>
       <c r="C27" t="n">
-        <v>2013</v>
+        <v>2002</v>
       </c>
       <c r="D27" t="n">
-        <v>2013</v>
+        <v>2002</v>
       </c>
       <c r="E27" t="n">
-        <v>2013</v>
+        <v>2002</v>
       </c>
       <c r="F27" t="n">
-        <v>79.4545</v>
+        <v>23.6139</v>
       </c>
       <c r="G27" t="n">
-        <v>1998.4</v>
+        <v>-3875.81364859</v>
       </c>
       <c r="H27" t="n">
-        <v>2005.25</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="n">
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1426,36 +1343,33 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>2011</v>
+        <v>2001</v>
       </c>
       <c r="C28" t="n">
-        <v>2008</v>
+        <v>2000</v>
       </c>
       <c r="D28" t="n">
-        <v>2014</v>
+        <v>2001</v>
       </c>
       <c r="E28" t="n">
-        <v>2008</v>
+        <v>2000</v>
       </c>
       <c r="F28" t="n">
-        <v>1953.5813</v>
+        <v>85.679</v>
       </c>
       <c r="G28" t="n">
-        <v>1999</v>
+        <v>-3961.49264859</v>
       </c>
       <c r="H28" t="n">
-        <v>2005.183333333333</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="n">
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1467,33 +1381,30 @@
         <v>2004</v>
       </c>
       <c r="C29" t="n">
-        <v>2009</v>
+        <v>2004</v>
       </c>
       <c r="D29" t="n">
-        <v>2009</v>
+        <v>2004</v>
       </c>
       <c r="E29" t="n">
         <v>2004</v>
       </c>
       <c r="F29" t="n">
-        <v>936.4347</v>
+        <v>1524.1219</v>
       </c>
       <c r="G29" t="n">
-        <v>1999.666666666667</v>
+        <v>-2437.37074859</v>
       </c>
       <c r="H29" t="n">
-        <v>2005.133333333333</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="n">
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1502,36 +1413,33 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="C30" t="n">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="D30" t="n">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="E30" t="n">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="F30" t="n">
-        <v>203.7999</v>
+        <v>970.888</v>
       </c>
       <c r="G30" t="n">
-        <v>2000.333333333333</v>
+        <v>-2437.37074859</v>
       </c>
       <c r="H30" t="n">
-        <v>2005.066666666667</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="n">
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1540,36 +1448,33 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>2012</v>
+        <v>2001</v>
       </c>
       <c r="C31" t="n">
-        <v>2007</v>
+        <v>2001</v>
       </c>
       <c r="D31" t="n">
-        <v>2012</v>
+        <v>2001</v>
       </c>
       <c r="E31" t="n">
-        <v>2007</v>
+        <v>2001</v>
       </c>
       <c r="F31" t="n">
-        <v>196.5106</v>
+        <v>93.614</v>
       </c>
       <c r="G31" t="n">
-        <v>2001</v>
+        <v>-2530.98474859</v>
       </c>
       <c r="H31" t="n">
-        <v>2004.9</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="n">
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1578,36 +1483,33 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>2011</v>
+        <v>2001</v>
       </c>
       <c r="C32" t="n">
-        <v>2011</v>
+        <v>2000</v>
       </c>
       <c r="D32" t="n">
-        <v>2011</v>
+        <v>2001</v>
       </c>
       <c r="E32" t="n">
-        <v>2011</v>
+        <v>2000</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1</v>
+        <v>136.965</v>
       </c>
       <c r="G32" t="n">
-        <v>2001.933333333333</v>
+        <v>-2667.94974859</v>
       </c>
       <c r="H32" t="n">
-        <v>2004.8</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="n">
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1616,36 +1518,33 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>2015</v>
+        <v>2005</v>
       </c>
       <c r="C33" t="n">
-        <v>2015</v>
+        <v>2006</v>
       </c>
       <c r="D33" t="n">
-        <v>2015</v>
+        <v>2006</v>
       </c>
       <c r="E33" t="n">
-        <v>2015</v>
+        <v>2005</v>
       </c>
       <c r="F33" t="n">
-        <v>69.3168</v>
+        <v>483.1655</v>
       </c>
       <c r="G33" t="n">
-        <v>2003.466666666667</v>
+        <v>-2184.78424859</v>
       </c>
       <c r="H33" t="n">
-        <v>2004.766666666667</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="n">
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1654,36 +1553,33 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="C34" t="n">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="D34" t="n">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="E34" t="n">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="F34" t="n">
-        <v>150</v>
+        <v>90.3622</v>
       </c>
       <c r="G34" t="n">
-        <v>2004.6</v>
+        <v>-2275.14644859</v>
       </c>
       <c r="H34" t="n">
-        <v>2004.616666666667</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="n">
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1692,36 +1588,33 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>2017</v>
+        <v>2000</v>
       </c>
       <c r="C35" t="n">
-        <v>2018</v>
+        <v>2000</v>
       </c>
       <c r="D35" t="n">
-        <v>2018</v>
+        <v>2000</v>
       </c>
       <c r="E35" t="n">
-        <v>2017</v>
+        <v>2000</v>
       </c>
       <c r="F35" t="n">
-        <v>144</v>
+        <v>7.04</v>
       </c>
       <c r="G35" t="n">
-        <v>2006.4</v>
+        <v>-2282.18644859</v>
       </c>
       <c r="H35" t="n">
-        <v>2004.633333333333</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="n">
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1730,36 +1623,33 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>2010</v>
+        <v>2000</v>
       </c>
       <c r="C36" t="n">
-        <v>2010</v>
+        <v>1998</v>
       </c>
       <c r="D36" t="n">
-        <v>2010</v>
+        <v>2000</v>
       </c>
       <c r="E36" t="n">
-        <v>2010</v>
+        <v>1998</v>
       </c>
       <c r="F36" t="n">
-        <v>28.162</v>
+        <v>170.391</v>
       </c>
       <c r="G36" t="n">
-        <v>2007.2</v>
+        <v>-2452.57744859</v>
       </c>
       <c r="H36" t="n">
-        <v>2004.416666666667</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="n">
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1768,36 +1658,33 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>2009</v>
+        <v>1997</v>
       </c>
       <c r="C37" t="n">
-        <v>2009</v>
+        <v>1996</v>
       </c>
       <c r="D37" t="n">
-        <v>2009</v>
+        <v>1997</v>
       </c>
       <c r="E37" t="n">
-        <v>2009</v>
+        <v>1996</v>
       </c>
       <c r="F37" t="n">
-        <v>82.30200000000001</v>
+        <v>129.5851</v>
       </c>
       <c r="G37" t="n">
-        <v>2008</v>
+        <v>-2582.16254859</v>
       </c>
       <c r="H37" t="n">
-        <v>2004.266666666667</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="n">
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1806,36 +1693,33 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>2007</v>
+        <v>1996</v>
       </c>
       <c r="C38" t="n">
-        <v>2015</v>
+        <v>1993</v>
       </c>
       <c r="D38" t="n">
-        <v>2015</v>
+        <v>1996</v>
       </c>
       <c r="E38" t="n">
-        <v>2007</v>
+        <v>1993</v>
       </c>
       <c r="F38" t="n">
-        <v>316.6206</v>
+        <v>1444.0626</v>
       </c>
       <c r="G38" t="n">
-        <v>2009.2</v>
+        <v>-4026.225148590001</v>
       </c>
       <c r="H38" t="n">
-        <v>2004.216666666667</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="n">
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1844,36 +1728,33 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>2009</v>
+        <v>1993</v>
       </c>
       <c r="C39" t="n">
-        <v>2009</v>
+        <v>1991</v>
       </c>
       <c r="D39" t="n">
-        <v>2009</v>
+        <v>1993</v>
       </c>
       <c r="E39" t="n">
-        <v>2009</v>
+        <v>1991</v>
       </c>
       <c r="F39" t="n">
-        <v>1.0983</v>
+        <v>20.42</v>
       </c>
       <c r="G39" t="n">
-        <v>2010.4</v>
+        <v>-4046.645148590001</v>
       </c>
       <c r="H39" t="n">
-        <v>2004.083333333333</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>1</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="n">
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1882,36 +1763,33 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>2009</v>
+        <v>1991</v>
       </c>
       <c r="C40" t="n">
-        <v>2009</v>
+        <v>1991</v>
       </c>
       <c r="D40" t="n">
-        <v>2009</v>
+        <v>1991</v>
       </c>
       <c r="E40" t="n">
-        <v>2009</v>
+        <v>1991</v>
       </c>
       <c r="F40" t="n">
-        <v>219.268</v>
+        <v>33.7342</v>
       </c>
       <c r="G40" t="n">
-        <v>2010.6</v>
+        <v>-4046.645148590001</v>
       </c>
       <c r="H40" t="n">
-        <v>2003.933333333333</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>1</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="n">
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1920,36 +1798,33 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>2010</v>
+        <v>1998</v>
       </c>
       <c r="C41" t="n">
-        <v>2010</v>
+        <v>1998</v>
       </c>
       <c r="D41" t="n">
-        <v>2010</v>
+        <v>1998</v>
       </c>
       <c r="E41" t="n">
-        <v>2010</v>
+        <v>1998</v>
       </c>
       <c r="F41" t="n">
-        <v>234.5286</v>
+        <v>1.05105105</v>
       </c>
       <c r="G41" t="n">
-        <v>2010.533333333333</v>
+        <v>-4045.594097540001</v>
       </c>
       <c r="H41" t="n">
-        <v>2003.816666666667</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>1</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="n">
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1958,36 +1833,33 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>2010</v>
+        <v>1999</v>
       </c>
       <c r="C42" t="n">
-        <v>2010</v>
+        <v>1999</v>
       </c>
       <c r="D42" t="n">
-        <v>2010</v>
+        <v>1999</v>
       </c>
       <c r="E42" t="n">
-        <v>2010</v>
+        <v>1999</v>
       </c>
       <c r="F42" t="n">
-        <v>35.8208</v>
+        <v>1</v>
       </c>
       <c r="G42" t="n">
-        <v>2010.333333333333</v>
+        <v>-4044.594097540001</v>
       </c>
       <c r="H42" t="n">
-        <v>2003.7</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>1</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="n">
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1996,36 +1868,33 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>2010</v>
+        <v>1999</v>
       </c>
       <c r="C43" t="n">
-        <v>2010</v>
+        <v>1999</v>
       </c>
       <c r="D43" t="n">
-        <v>2010</v>
+        <v>1999</v>
       </c>
       <c r="E43" t="n">
-        <v>2010</v>
+        <v>1999</v>
       </c>
       <c r="F43" t="n">
-        <v>83.1384</v>
+        <v>82.67100000000001</v>
       </c>
       <c r="G43" t="n">
-        <v>2010.466666666667</v>
+        <v>-4044.594097540001</v>
       </c>
       <c r="H43" t="n">
-        <v>2003.633333333333</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>1</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="n">
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2034,36 +1903,33 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>2004</v>
+        <v>1997</v>
       </c>
       <c r="C44" t="n">
-        <v>2002</v>
+        <v>1997</v>
       </c>
       <c r="D44" t="n">
-        <v>2004</v>
+        <v>1997</v>
       </c>
       <c r="E44" t="n">
-        <v>2000</v>
+        <v>1997</v>
       </c>
       <c r="F44" t="n">
-        <v>1175.6072</v>
+        <v>2.6317</v>
       </c>
       <c r="G44" t="n">
-        <v>2010</v>
+        <v>-4047.225797540001</v>
       </c>
       <c r="H44" t="n">
-        <v>2003.45</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>1</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2072,36 +1938,33 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>2012</v>
+        <v>1997</v>
       </c>
       <c r="C45" t="n">
-        <v>2016</v>
+        <v>1997</v>
       </c>
       <c r="D45" t="n">
-        <v>2016</v>
+        <v>1997</v>
       </c>
       <c r="E45" t="n">
-        <v>2012</v>
+        <v>1997</v>
       </c>
       <c r="F45" t="n">
-        <v>955.06994047</v>
+        <v>2.70405608</v>
       </c>
       <c r="G45" t="n">
-        <v>2010.6</v>
+        <v>-4047.225797540001</v>
       </c>
       <c r="H45" t="n">
-        <v>2003.433333333333</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>1</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="n">
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2110,36 +1973,33 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>2003</v>
+        <v>1997</v>
       </c>
       <c r="C46" t="n">
-        <v>2003</v>
+        <v>1997</v>
       </c>
       <c r="D46" t="n">
-        <v>2003</v>
+        <v>1997</v>
       </c>
       <c r="E46" t="n">
-        <v>2003</v>
+        <v>1997</v>
       </c>
       <c r="F46" t="n">
-        <v>14.3447</v>
+        <v>13.7232</v>
       </c>
       <c r="G46" t="n">
-        <v>2010.333333333333</v>
+        <v>-4047.225797540001</v>
       </c>
       <c r="H46" t="n">
-        <v>2003.2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>1</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="n">
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2148,36 +2008,33 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>2002</v>
+        <v>1992</v>
       </c>
       <c r="C47" t="n">
-        <v>2001</v>
+        <v>1992</v>
       </c>
       <c r="D47" t="n">
-        <v>2002</v>
+        <v>1992</v>
       </c>
       <c r="E47" t="n">
-        <v>2001</v>
+        <v>1992</v>
       </c>
       <c r="F47" t="n">
-        <v>316.6108</v>
+        <v>98</v>
       </c>
       <c r="G47" t="n">
-        <v>2009.666666666667</v>
+        <v>-4145.225797540001</v>
       </c>
       <c r="H47" t="n">
-        <v>2003.083333333333</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>1</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="n">
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2186,36 +2043,33 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>2001</v>
+        <v>1991</v>
       </c>
       <c r="C48" t="n">
-        <v>2001</v>
+        <v>1991</v>
       </c>
       <c r="D48" t="n">
-        <v>2001</v>
+        <v>1991</v>
       </c>
       <c r="E48" t="n">
-        <v>2001</v>
+        <v>1991</v>
       </c>
       <c r="F48" t="n">
-        <v>30.0842</v>
+        <v>120</v>
       </c>
       <c r="G48" t="n">
-        <v>2008.733333333333</v>
+        <v>-4265.225797540001</v>
       </c>
       <c r="H48" t="n">
-        <v>2002.966666666667</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>1</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="n">
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2224,36 +2078,33 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>2001</v>
+        <v>1991</v>
       </c>
       <c r="C49" t="n">
-        <v>2000</v>
+        <v>1991</v>
       </c>
       <c r="D49" t="n">
-        <v>2001</v>
+        <v>1991</v>
       </c>
       <c r="E49" t="n">
-        <v>2000</v>
+        <v>1991</v>
       </c>
       <c r="F49" t="n">
-        <v>1383.2054</v>
+        <v>6</v>
       </c>
       <c r="G49" t="n">
-        <v>2008.2</v>
+        <v>-4265.225797540001</v>
       </c>
       <c r="H49" t="n">
-        <v>2002.833333333333</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>1</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="n">
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2262,36 +2113,33 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>2000</v>
+        <v>1991</v>
       </c>
       <c r="C50" t="n">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="D50" t="n">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="E50" t="n">
-        <v>2000</v>
+        <v>1991</v>
       </c>
       <c r="F50" t="n">
-        <v>635.5192</v>
+        <v>532.9772</v>
       </c>
       <c r="G50" t="n">
-        <v>2007</v>
+        <v>-3732.24859754</v>
       </c>
       <c r="H50" t="n">
-        <v>2002.783333333333</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>1</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="n">
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2300,36 +2148,33 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>2000</v>
+        <v>1997</v>
       </c>
       <c r="C51" t="n">
-        <v>2000</v>
+        <v>1997</v>
       </c>
       <c r="D51" t="n">
-        <v>2000</v>
+        <v>1997</v>
       </c>
       <c r="E51" t="n">
-        <v>2000</v>
+        <v>1997</v>
       </c>
       <c r="F51" t="n">
-        <v>5.9782</v>
+        <v>5.00751126</v>
       </c>
       <c r="G51" t="n">
-        <v>2006.333333333333</v>
+        <v>-3737.2561088</v>
       </c>
       <c r="H51" t="n">
-        <v>2002.65</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>1</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="n">
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,36 +2183,33 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>2000</v>
+        <v>1997</v>
       </c>
       <c r="C52" t="n">
-        <v>2000</v>
+        <v>1997</v>
       </c>
       <c r="D52" t="n">
-        <v>2000</v>
+        <v>1997</v>
       </c>
       <c r="E52" t="n">
-        <v>2000</v>
+        <v>1997</v>
       </c>
       <c r="F52" t="n">
-        <v>12.8941</v>
+        <v>37.5563</v>
       </c>
       <c r="G52" t="n">
-        <v>2005.733333333333</v>
+        <v>-3737.2561088</v>
       </c>
       <c r="H52" t="n">
-        <v>2002.633333333333</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="n">
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2376,36 +2218,33 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>2002</v>
+        <v>1991</v>
       </c>
       <c r="C53" t="n">
-        <v>2002</v>
+        <v>1991</v>
       </c>
       <c r="D53" t="n">
-        <v>2002</v>
+        <v>1991</v>
       </c>
       <c r="E53" t="n">
-        <v>2002</v>
+        <v>1991</v>
       </c>
       <c r="F53" t="n">
-        <v>190.1593</v>
+        <v>26.2335</v>
       </c>
       <c r="G53" t="n">
-        <v>2004.866666666667</v>
+        <v>-3763.4896088</v>
       </c>
       <c r="H53" t="n">
-        <v>2002.683333333333</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>1</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="n">
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2414,36 +2253,33 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>2002</v>
+        <v>1999</v>
       </c>
       <c r="C54" t="n">
-        <v>2002</v>
+        <v>2006</v>
       </c>
       <c r="D54" t="n">
-        <v>2002</v>
+        <v>2007</v>
       </c>
       <c r="E54" t="n">
-        <v>2002</v>
+        <v>1999</v>
       </c>
       <c r="F54" t="n">
-        <v>282.8809</v>
+        <v>1059.5598</v>
       </c>
       <c r="G54" t="n">
-        <v>2004.4</v>
+        <v>-2703.9298088</v>
       </c>
       <c r="H54" t="n">
-        <v>2002.7</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="n">
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2452,36 +2288,33 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>2002</v>
+        <v>2011</v>
       </c>
       <c r="C55" t="n">
-        <v>2002</v>
+        <v>2011</v>
       </c>
       <c r="D55" t="n">
-        <v>2002</v>
+        <v>2011</v>
       </c>
       <c r="E55" t="n">
-        <v>2002</v>
+        <v>2011</v>
       </c>
       <c r="F55" t="n">
-        <v>30.7467</v>
+        <v>127.7</v>
       </c>
       <c r="G55" t="n">
-        <v>2003.933333333333</v>
+        <v>-2576.2298088</v>
       </c>
       <c r="H55" t="n">
-        <v>2002.716666666667</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="n">
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2490,36 +2323,33 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>2000</v>
+        <v>2013</v>
       </c>
       <c r="C56" t="n">
-        <v>2000</v>
+        <v>2013</v>
       </c>
       <c r="D56" t="n">
-        <v>2000</v>
+        <v>2013</v>
       </c>
       <c r="E56" t="n">
-        <v>2000</v>
+        <v>2013</v>
       </c>
       <c r="F56" t="n">
-        <v>57.937</v>
+        <v>79.4545</v>
       </c>
       <c r="G56" t="n">
-        <v>2003.266666666667</v>
+        <v>-2496.7753088</v>
       </c>
       <c r="H56" t="n">
-        <v>2002.666666666667</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="n">
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2528,36 +2358,33 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>2000</v>
+        <v>2011</v>
       </c>
       <c r="C57" t="n">
-        <v>2000</v>
+        <v>2008</v>
       </c>
       <c r="D57" t="n">
-        <v>2000</v>
+        <v>2014</v>
       </c>
       <c r="E57" t="n">
-        <v>2000</v>
+        <v>2008</v>
       </c>
       <c r="F57" t="n">
-        <v>79.1688</v>
+        <v>1953.5813</v>
       </c>
       <c r="G57" t="n">
-        <v>2002.6</v>
+        <v>-4450.356608800001</v>
       </c>
       <c r="H57" t="n">
-        <v>2002.633333333333</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="n">
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2566,36 +2393,33 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>2000</v>
+        <v>2004</v>
       </c>
       <c r="C58" t="n">
-        <v>2000</v>
+        <v>2009</v>
       </c>
       <c r="D58" t="n">
-        <v>2000</v>
+        <v>2009</v>
       </c>
       <c r="E58" t="n">
-        <v>2000</v>
+        <v>2004</v>
       </c>
       <c r="F58" t="n">
-        <v>298.7163</v>
+        <v>936.4347</v>
       </c>
       <c r="G58" t="n">
-        <v>2001.933333333333</v>
+        <v>-3513.921908800001</v>
       </c>
       <c r="H58" t="n">
-        <v>2002.6</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="n">
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2604,36 +2428,33 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>2000</v>
+        <v>2008</v>
       </c>
       <c r="C59" t="n">
-        <v>1997</v>
+        <v>2007</v>
       </c>
       <c r="D59" t="n">
-        <v>2000</v>
+        <v>2008</v>
       </c>
       <c r="E59" t="n">
-        <v>1997</v>
+        <v>2007</v>
       </c>
       <c r="F59" t="n">
-        <v>231.7795</v>
+        <v>203.7999</v>
       </c>
       <c r="G59" t="n">
-        <v>2001.6</v>
+        <v>-3717.721808800001</v>
       </c>
       <c r="H59" t="n">
-        <v>2002.55</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="n">
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2642,36 +2463,33 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>2002</v>
+        <v>2012</v>
       </c>
       <c r="C60" t="n">
-        <v>2002</v>
+        <v>2007</v>
       </c>
       <c r="D60" t="n">
-        <v>2002</v>
+        <v>2012</v>
       </c>
       <c r="E60" t="n">
-        <v>2002</v>
+        <v>2007</v>
       </c>
       <c r="F60" t="n">
-        <v>102.7</v>
+        <v>196.5106</v>
       </c>
       <c r="G60" t="n">
-        <v>2000.666666666667</v>
+        <v>-3717.721808800001</v>
       </c>
       <c r="H60" t="n">
-        <v>2002.516666666667</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="n">
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2680,36 +2498,33 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>1997</v>
+        <v>2011</v>
       </c>
       <c r="C61" t="n">
-        <v>1997</v>
+        <v>2011</v>
       </c>
       <c r="D61" t="n">
-        <v>1997</v>
+        <v>2011</v>
       </c>
       <c r="E61" t="n">
-        <v>1997</v>
+        <v>2011</v>
       </c>
       <c r="F61" t="n">
-        <v>39.242</v>
+        <v>0.1</v>
       </c>
       <c r="G61" t="n">
-        <v>2000.266666666667</v>
+        <v>-3717.621808800001</v>
       </c>
       <c r="H61" t="n">
-        <v>2002.4</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="n">
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2718,36 +2533,33 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>2002</v>
+        <v>2015</v>
       </c>
       <c r="C62" t="n">
-        <v>2002</v>
+        <v>2015</v>
       </c>
       <c r="D62" t="n">
-        <v>2002</v>
+        <v>2015</v>
       </c>
       <c r="E62" t="n">
-        <v>2002</v>
+        <v>2015</v>
       </c>
       <c r="F62" t="n">
-        <v>161.4475</v>
+        <v>69.3168</v>
       </c>
       <c r="G62" t="n">
-        <v>2000.333333333333</v>
+        <v>-3648.305008800001</v>
       </c>
       <c r="H62" t="n">
-        <v>2002.416666666667</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="n">
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2756,36 +2568,33 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>1997</v>
+        <v>2008</v>
       </c>
       <c r="C63" t="n">
-        <v>1997</v>
+        <v>2008</v>
       </c>
       <c r="D63" t="n">
-        <v>1997</v>
+        <v>2008</v>
       </c>
       <c r="E63" t="n">
-        <v>1997</v>
+        <v>2008</v>
       </c>
       <c r="F63" t="n">
-        <v>42.7992</v>
+        <v>150</v>
       </c>
       <c r="G63" t="n">
-        <v>2000.066666666667</v>
+        <v>-3798.305008800001</v>
       </c>
       <c r="H63" t="n">
-        <v>2002.366666666667</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="n">
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2794,36 +2603,33 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>1998</v>
+        <v>2017</v>
       </c>
       <c r="C64" t="n">
-        <v>1998</v>
+        <v>2018</v>
       </c>
       <c r="D64" t="n">
-        <v>1998</v>
+        <v>2018</v>
       </c>
       <c r="E64" t="n">
-        <v>1998</v>
+        <v>2017</v>
       </c>
       <c r="F64" t="n">
-        <v>102.466</v>
+        <v>144</v>
       </c>
       <c r="G64" t="n">
-        <v>1999.933333333333</v>
+        <v>-3654.305008800001</v>
       </c>
       <c r="H64" t="n">
-        <v>2002.233333333333</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="n">
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2832,36 +2638,33 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>1998</v>
+        <v>2010</v>
       </c>
       <c r="C65" t="n">
-        <v>1998</v>
+        <v>2010</v>
       </c>
       <c r="D65" t="n">
-        <v>1998</v>
+        <v>2010</v>
       </c>
       <c r="E65" t="n">
-        <v>1998</v>
+        <v>2010</v>
       </c>
       <c r="F65" t="n">
-        <v>87.5737</v>
+        <v>28.162</v>
       </c>
       <c r="G65" t="n">
-        <v>1999.8</v>
+        <v>-3682.467008800001</v>
       </c>
       <c r="H65" t="n">
-        <v>2002.133333333333</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="n">
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2870,36 +2673,33 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>1998</v>
+        <v>2009</v>
       </c>
       <c r="C66" t="n">
-        <v>1998</v>
+        <v>2009</v>
       </c>
       <c r="D66" t="n">
-        <v>1998</v>
+        <v>2009</v>
       </c>
       <c r="E66" t="n">
-        <v>1998</v>
+        <v>2009</v>
       </c>
       <c r="F66" t="n">
-        <v>39.0897</v>
+        <v>82.30200000000001</v>
       </c>
       <c r="G66" t="n">
-        <v>1999.666666666667</v>
+        <v>-3764.769008800001</v>
       </c>
       <c r="H66" t="n">
-        <v>2002.1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="n">
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2908,36 +2708,33 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>2003</v>
+        <v>2007</v>
       </c>
       <c r="C67" t="n">
-        <v>2003</v>
+        <v>2015</v>
       </c>
       <c r="D67" t="n">
-        <v>2003</v>
+        <v>2015</v>
       </c>
       <c r="E67" t="n">
-        <v>2003</v>
+        <v>2007</v>
       </c>
       <c r="F67" t="n">
-        <v>0.13</v>
+        <v>316.6206</v>
       </c>
       <c r="G67" t="n">
-        <v>1999.866666666667</v>
+        <v>-3448.148408800001</v>
       </c>
       <c r="H67" t="n">
-        <v>2002.183333333333</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="n">
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2946,36 +2743,33 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>1999</v>
+        <v>2009</v>
       </c>
       <c r="C68" t="n">
-        <v>1999</v>
+        <v>2009</v>
       </c>
       <c r="D68" t="n">
-        <v>1999</v>
+        <v>2009</v>
       </c>
       <c r="E68" t="n">
-        <v>1999</v>
+        <v>2009</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1527</v>
+        <v>1.0983</v>
       </c>
       <c r="G68" t="n">
-        <v>1999.666666666667</v>
+        <v>-3449.246708800001</v>
       </c>
       <c r="H68" t="n">
-        <v>2002.233333333333</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="n">
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2984,36 +2778,33 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>1998</v>
+        <v>2009</v>
       </c>
       <c r="C69" t="n">
-        <v>2001</v>
+        <v>2009</v>
       </c>
       <c r="D69" t="n">
-        <v>2001</v>
+        <v>2009</v>
       </c>
       <c r="E69" t="n">
-        <v>1998</v>
+        <v>2009</v>
       </c>
       <c r="F69" t="n">
-        <v>301</v>
+        <v>219.268</v>
       </c>
       <c r="G69" t="n">
-        <v>1999.6</v>
+        <v>-3449.246708800001</v>
       </c>
       <c r="H69" t="n">
-        <v>2002.366666666667</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="n">
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3022,36 +2813,33 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>2001</v>
+        <v>2010</v>
       </c>
       <c r="C70" t="n">
-        <v>2001</v>
+        <v>2010</v>
       </c>
       <c r="D70" t="n">
-        <v>2001</v>
+        <v>2010</v>
       </c>
       <c r="E70" t="n">
-        <v>2001</v>
+        <v>2010</v>
       </c>
       <c r="F70" t="n">
-        <v>5</v>
+        <v>234.5286</v>
       </c>
       <c r="G70" t="n">
-        <v>1999.533333333333</v>
+        <v>-3214.718108800001</v>
       </c>
       <c r="H70" t="n">
-        <v>2002.533333333333</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="n">
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3060,36 +2848,33 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>2000</v>
+        <v>2010</v>
       </c>
       <c r="C71" t="n">
-        <v>2000</v>
+        <v>2010</v>
       </c>
       <c r="D71" t="n">
-        <v>2000</v>
+        <v>2010</v>
       </c>
       <c r="E71" t="n">
-        <v>2000</v>
+        <v>2010</v>
       </c>
       <c r="F71" t="n">
-        <v>95.0877</v>
+        <v>35.8208</v>
       </c>
       <c r="G71" t="n">
-        <v>1999.533333333333</v>
+        <v>-3214.718108800001</v>
       </c>
       <c r="H71" t="n">
-        <v>2002.683333333333</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="n">
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3098,36 +2883,33 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>2000</v>
+        <v>2010</v>
       </c>
       <c r="C72" t="n">
-        <v>2000</v>
+        <v>2010</v>
       </c>
       <c r="D72" t="n">
-        <v>2000</v>
+        <v>2010</v>
       </c>
       <c r="E72" t="n">
-        <v>2000</v>
+        <v>2010</v>
       </c>
       <c r="F72" t="n">
-        <v>200</v>
+        <v>83.1384</v>
       </c>
       <c r="G72" t="n">
-        <v>1999.533333333333</v>
+        <v>-3214.718108800001</v>
       </c>
       <c r="H72" t="n">
-        <v>2002.716666666667</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="n">
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3136,36 +2918,33 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>2000</v>
+        <v>2004</v>
       </c>
       <c r="C73" t="n">
-        <v>2000</v>
+        <v>2002</v>
       </c>
       <c r="D73" t="n">
-        <v>2000</v>
+        <v>2004</v>
       </c>
       <c r="E73" t="n">
         <v>2000</v>
       </c>
       <c r="F73" t="n">
-        <v>50</v>
+        <v>1175.6072</v>
       </c>
       <c r="G73" t="n">
-        <v>1999.533333333333</v>
+        <v>-4390.3253088</v>
       </c>
       <c r="H73" t="n">
-        <v>2002.733333333333</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="n">
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3174,36 +2953,33 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>1998</v>
+        <v>2012</v>
       </c>
       <c r="C74" t="n">
-        <v>1998</v>
+        <v>2016</v>
       </c>
       <c r="D74" t="n">
-        <v>1998</v>
+        <v>2016</v>
       </c>
       <c r="E74" t="n">
-        <v>1998</v>
+        <v>2012</v>
       </c>
       <c r="F74" t="n">
-        <v>42.5686</v>
+        <v>955.06994047</v>
       </c>
       <c r="G74" t="n">
-        <v>1999.6</v>
+        <v>-3435.25536833</v>
       </c>
       <c r="H74" t="n">
-        <v>2002.716666666667</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="n">
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3212,36 +2988,33 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>1998</v>
+        <v>2003</v>
       </c>
       <c r="C75" t="n">
-        <v>2000</v>
+        <v>2003</v>
       </c>
       <c r="D75" t="n">
-        <v>2000</v>
+        <v>2003</v>
       </c>
       <c r="E75" t="n">
-        <v>1998</v>
+        <v>2003</v>
       </c>
       <c r="F75" t="n">
-        <v>699.5955</v>
+        <v>14.3447</v>
       </c>
       <c r="G75" t="n">
-        <v>1999.466666666667</v>
+        <v>-3449.60006833</v>
       </c>
       <c r="H75" t="n">
-        <v>2002.766666666667</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="n">
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3250,36 +3023,33 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="C76" t="n">
         <v>2001</v>
       </c>
       <c r="D76" t="n">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="E76" t="n">
         <v>2001</v>
       </c>
       <c r="F76" t="n">
-        <v>198.2865</v>
+        <v>316.6108</v>
       </c>
       <c r="G76" t="n">
-        <v>1999.733333333333</v>
+        <v>-3766.21086833</v>
       </c>
       <c r="H76" t="n">
-        <v>2002.833333333333</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="n">
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3288,36 +3058,33 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>1998</v>
+        <v>2001</v>
       </c>
       <c r="C77" t="n">
-        <v>1998</v>
+        <v>2001</v>
       </c>
       <c r="D77" t="n">
-        <v>1998</v>
+        <v>2001</v>
       </c>
       <c r="E77" t="n">
-        <v>1998</v>
+        <v>2001</v>
       </c>
       <c r="F77" t="n">
-        <v>407.5</v>
+        <v>30.0842</v>
       </c>
       <c r="G77" t="n">
-        <v>1999.466666666667</v>
+        <v>-3766.21086833</v>
       </c>
       <c r="H77" t="n">
-        <v>2002.85</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="n">
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3326,36 +3093,33 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>1997</v>
+        <v>2001</v>
       </c>
       <c r="C78" t="n">
-        <v>1997</v>
+        <v>2000</v>
       </c>
       <c r="D78" t="n">
-        <v>1997</v>
+        <v>2001</v>
       </c>
       <c r="E78" t="n">
-        <v>1997</v>
+        <v>2000</v>
       </c>
       <c r="F78" t="n">
-        <v>3.0984</v>
+        <v>1383.2054</v>
       </c>
       <c r="G78" t="n">
-        <v>1999.466666666667</v>
+        <v>-5149.41626833</v>
       </c>
       <c r="H78" t="n">
-        <v>2002.933333333333</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="n">
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3364,36 +3128,33 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="C79" t="n">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="D79" t="n">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="E79" t="n">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="F79" t="n">
-        <v>200</v>
+        <v>635.5192</v>
       </c>
       <c r="G79" t="n">
-        <v>1999.466666666667</v>
+        <v>-5149.41626833</v>
       </c>
       <c r="H79" t="n">
-        <v>2003.05</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="n">
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3414,24 +3175,21 @@
         <v>2000</v>
       </c>
       <c r="F80" t="n">
-        <v>27.7741</v>
+        <v>5.9782</v>
       </c>
       <c r="G80" t="n">
-        <v>1999.6</v>
+        <v>-5149.41626833</v>
       </c>
       <c r="H80" t="n">
-        <v>2003.2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="n">
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3443,33 +3201,30 @@
         <v>2000</v>
       </c>
       <c r="C81" t="n">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="D81" t="n">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="E81" t="n">
         <v>2000</v>
       </c>
       <c r="F81" t="n">
-        <v>378.7749</v>
+        <v>12.8941</v>
       </c>
       <c r="G81" t="n">
-        <v>2000</v>
+        <v>-5149.41626833</v>
       </c>
       <c r="H81" t="n">
-        <v>2003.3</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="n">
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3478,36 +3233,33 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="C82" t="n">
-        <v>2005</v>
+        <v>2002</v>
       </c>
       <c r="D82" t="n">
-        <v>2005</v>
+        <v>2002</v>
       </c>
       <c r="E82" t="n">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="F82" t="n">
-        <v>348.772</v>
+        <v>190.1593</v>
       </c>
       <c r="G82" t="n">
-        <v>2000.133333333333</v>
+        <v>-4959.25696833</v>
       </c>
       <c r="H82" t="n">
-        <v>2003.433333333333</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="n">
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3516,36 +3268,33 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>2005</v>
+        <v>2002</v>
       </c>
       <c r="C83" t="n">
-        <v>2010</v>
+        <v>2002</v>
       </c>
       <c r="D83" t="n">
-        <v>2010</v>
+        <v>2002</v>
       </c>
       <c r="E83" t="n">
-        <v>2005</v>
+        <v>2002</v>
       </c>
       <c r="F83" t="n">
-        <v>851</v>
+        <v>282.8809</v>
       </c>
       <c r="G83" t="n">
-        <v>2000.866666666667</v>
+        <v>-4959.25696833</v>
       </c>
       <c r="H83" t="n">
-        <v>2003.65</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="n">
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3554,36 +3303,33 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="C84" t="n">
-        <v>2012</v>
+        <v>2002</v>
       </c>
       <c r="D84" t="n">
-        <v>2012</v>
+        <v>2002</v>
       </c>
       <c r="E84" t="n">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="F84" t="n">
-        <v>500.1</v>
+        <v>30.7467</v>
       </c>
       <c r="G84" t="n">
-        <v>2001.6</v>
+        <v>-4959.25696833</v>
       </c>
       <c r="H84" t="n">
-        <v>2004</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="n">
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3592,36 +3338,33 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>2007</v>
+        <v>2000</v>
       </c>
       <c r="C85" t="n">
-        <v>2007</v>
+        <v>2000</v>
       </c>
       <c r="D85" t="n">
-        <v>2007</v>
+        <v>2000</v>
       </c>
       <c r="E85" t="n">
-        <v>2007</v>
+        <v>2000</v>
       </c>
       <c r="F85" t="n">
-        <v>200</v>
+        <v>57.937</v>
       </c>
       <c r="G85" t="n">
-        <v>2002</v>
+        <v>-5017.19396833</v>
       </c>
       <c r="H85" t="n">
-        <v>2004.016666666667</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="n">
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3630,36 +3373,33 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>2007</v>
+        <v>2000</v>
       </c>
       <c r="C86" t="n">
-        <v>2007</v>
+        <v>2000</v>
       </c>
       <c r="D86" t="n">
-        <v>2007</v>
+        <v>2000</v>
       </c>
       <c r="E86" t="n">
-        <v>2007</v>
+        <v>2000</v>
       </c>
       <c r="F86" t="n">
-        <v>100</v>
+        <v>79.1688</v>
       </c>
       <c r="G86" t="n">
-        <v>2002.466666666667</v>
+        <v>-5017.19396833</v>
       </c>
       <c r="H86" t="n">
-        <v>2003.95</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>0</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="n">
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,36 +3408,33 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="C87" t="n">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="D87" t="n">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="E87" t="n">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="F87" t="n">
-        <v>100</v>
+        <v>298.7163</v>
       </c>
       <c r="G87" t="n">
-        <v>2002.733333333333</v>
+        <v>-5017.19396833</v>
       </c>
       <c r="H87" t="n">
-        <v>2003.8</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>0</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="n">
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3706,36 +3443,33 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="C88" t="n">
-        <v>2009</v>
+        <v>1997</v>
       </c>
       <c r="D88" t="n">
-        <v>2012</v>
+        <v>2000</v>
       </c>
       <c r="E88" t="n">
-        <v>2004</v>
+        <v>1997</v>
       </c>
       <c r="F88" t="n">
-        <v>534.0048</v>
+        <v>231.7795</v>
       </c>
       <c r="G88" t="n">
-        <v>2003.333333333333</v>
+        <v>-5248.973468329999</v>
       </c>
       <c r="H88" t="n">
-        <v>2003.816666666667</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>0</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="n">
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3744,36 +3478,33 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>2009</v>
+        <v>2002</v>
       </c>
       <c r="C89" t="n">
-        <v>2017</v>
+        <v>2002</v>
       </c>
       <c r="D89" t="n">
-        <v>2017</v>
+        <v>2002</v>
       </c>
       <c r="E89" t="n">
-        <v>2009</v>
+        <v>2002</v>
       </c>
       <c r="F89" t="n">
-        <v>1050.9782</v>
+        <v>102.7</v>
       </c>
       <c r="G89" t="n">
-        <v>2004.6</v>
+        <v>-5146.27346833</v>
       </c>
       <c r="H89" t="n">
-        <v>2003.95</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="n">
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3782,36 +3513,33 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>2011</v>
+        <v>1997</v>
       </c>
       <c r="C90" t="n">
-        <v>2019</v>
+        <v>1997</v>
       </c>
       <c r="D90" t="n">
-        <v>2019</v>
+        <v>1997</v>
       </c>
       <c r="E90" t="n">
-        <v>2011</v>
+        <v>1997</v>
       </c>
       <c r="F90" t="n">
-        <v>45.9585</v>
+        <v>39.242</v>
       </c>
       <c r="G90" t="n">
-        <v>2005.866666666667</v>
+        <v>-5185.51546833</v>
       </c>
       <c r="H90" t="n">
-        <v>2004.15</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="n">
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3820,36 +3548,33 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>2010</v>
+        <v>2002</v>
       </c>
       <c r="C91" t="n">
-        <v>2010</v>
+        <v>2002</v>
       </c>
       <c r="D91" t="n">
-        <v>2010</v>
+        <v>2002</v>
       </c>
       <c r="E91" t="n">
-        <v>2010</v>
+        <v>2002</v>
       </c>
       <c r="F91" t="n">
-        <v>12.39</v>
+        <v>161.4475</v>
       </c>
       <c r="G91" t="n">
-        <v>2006.466666666667</v>
+        <v>-5024.06796833</v>
       </c>
       <c r="H91" t="n">
-        <v>2004.2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="n">
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3858,36 +3583,33 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>2010</v>
+        <v>1997</v>
       </c>
       <c r="C92" t="n">
-        <v>2012</v>
+        <v>1997</v>
       </c>
       <c r="D92" t="n">
-        <v>2012</v>
+        <v>1997</v>
       </c>
       <c r="E92" t="n">
-        <v>2010</v>
+        <v>1997</v>
       </c>
       <c r="F92" t="n">
-        <v>597</v>
+        <v>42.7992</v>
       </c>
       <c r="G92" t="n">
-        <v>2007.4</v>
+        <v>-5066.86716833</v>
       </c>
       <c r="H92" t="n">
-        <v>2004.216666666667</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="n">
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3896,36 +3618,33 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>2008</v>
+        <v>1998</v>
       </c>
       <c r="C93" t="n">
-        <v>2008</v>
+        <v>1998</v>
       </c>
       <c r="D93" t="n">
-        <v>2008</v>
+        <v>1998</v>
       </c>
       <c r="E93" t="n">
-        <v>2008</v>
+        <v>1998</v>
       </c>
       <c r="F93" t="n">
-        <v>29.6006</v>
+        <v>102.466</v>
       </c>
       <c r="G93" t="n">
-        <v>2008.133333333333</v>
+        <v>-4964.40116833</v>
       </c>
       <c r="H93" t="n">
-        <v>2004.1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>1</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="n">
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3934,36 +3653,33 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>2005</v>
+        <v>1998</v>
       </c>
       <c r="C94" t="n">
-        <v>2006</v>
+        <v>1998</v>
       </c>
       <c r="D94" t="n">
-        <v>2006</v>
+        <v>1998</v>
       </c>
       <c r="E94" t="n">
-        <v>2005</v>
+        <v>1998</v>
       </c>
       <c r="F94" t="n">
-        <v>147.9342</v>
+        <v>87.5737</v>
       </c>
       <c r="G94" t="n">
-        <v>2008.666666666667</v>
+        <v>-4964.40116833</v>
       </c>
       <c r="H94" t="n">
-        <v>2004.066666666667</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>1</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="n">
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3972,36 +3688,33 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>2009</v>
+        <v>1998</v>
       </c>
       <c r="C95" t="n">
-        <v>2009</v>
+        <v>1998</v>
       </c>
       <c r="D95" t="n">
-        <v>2009</v>
+        <v>1998</v>
       </c>
       <c r="E95" t="n">
-        <v>2009</v>
+        <v>1998</v>
       </c>
       <c r="F95" t="n">
-        <v>196.5255</v>
+        <v>39.0897</v>
       </c>
       <c r="G95" t="n">
-        <v>2009.266666666667</v>
+        <v>-4964.40116833</v>
       </c>
       <c r="H95" t="n">
-        <v>2003.916666666667</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>1</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="n">
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4010,36 +3723,33 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>2008</v>
+        <v>2003</v>
       </c>
       <c r="C96" t="n">
-        <v>2008</v>
+        <v>2003</v>
       </c>
       <c r="D96" t="n">
-        <v>2008</v>
+        <v>2003</v>
       </c>
       <c r="E96" t="n">
-        <v>2008</v>
+        <v>2003</v>
       </c>
       <c r="F96" t="n">
-        <v>97</v>
+        <v>0.13</v>
       </c>
       <c r="G96" t="n">
-        <v>2009.533333333333</v>
+        <v>-4964.271168329999</v>
       </c>
       <c r="H96" t="n">
-        <v>2003.883333333333</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>1</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="n">
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4048,36 +3758,33 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>2008</v>
+        <v>1999</v>
       </c>
       <c r="C97" t="n">
-        <v>2008</v>
+        <v>1999</v>
       </c>
       <c r="D97" t="n">
-        <v>2008</v>
+        <v>1999</v>
       </c>
       <c r="E97" t="n">
-        <v>2008</v>
+        <v>1999</v>
       </c>
       <c r="F97" t="n">
-        <v>149.44</v>
+        <v>0.1527</v>
       </c>
       <c r="G97" t="n">
-        <v>2009.733333333333</v>
+        <v>-4964.423868329999</v>
       </c>
       <c r="H97" t="n">
-        <v>2003.866666666667</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>1</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="n">
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4086,36 +3793,33 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>2008</v>
+        <v>1998</v>
       </c>
       <c r="C98" t="n">
-        <v>2008</v>
+        <v>2001</v>
       </c>
       <c r="D98" t="n">
-        <v>2008</v>
+        <v>2001</v>
       </c>
       <c r="E98" t="n">
-        <v>2008</v>
+        <v>1998</v>
       </c>
       <c r="F98" t="n">
-        <v>22.9525</v>
+        <v>301</v>
       </c>
       <c r="G98" t="n">
-        <v>2009.6</v>
+        <v>-4663.423868329999</v>
       </c>
       <c r="H98" t="n">
-        <v>2003.75</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>1</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
-      <c r="N98" t="n">
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4124,36 +3828,33 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>2008</v>
+        <v>2001</v>
       </c>
       <c r="C99" t="n">
-        <v>2013</v>
+        <v>2001</v>
       </c>
       <c r="D99" t="n">
-        <v>2013</v>
+        <v>2001</v>
       </c>
       <c r="E99" t="n">
-        <v>2008</v>
+        <v>2001</v>
       </c>
       <c r="F99" t="n">
-        <v>16.1906</v>
+        <v>5</v>
       </c>
       <c r="G99" t="n">
-        <v>2009.666666666667</v>
+        <v>-4663.423868329999</v>
       </c>
       <c r="H99" t="n">
-        <v>2003.816666666667</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>1</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="n">
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4162,36 +3863,33 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>2008</v>
+        <v>2000</v>
       </c>
       <c r="C100" t="n">
-        <v>2008</v>
+        <v>2000</v>
       </c>
       <c r="D100" t="n">
-        <v>2008</v>
+        <v>2000</v>
       </c>
       <c r="E100" t="n">
-        <v>2008</v>
+        <v>2000</v>
       </c>
       <c r="F100" t="n">
-        <v>19.679</v>
+        <v>95.0877</v>
       </c>
       <c r="G100" t="n">
-        <v>2009.733333333333</v>
+        <v>-4758.511568329999</v>
       </c>
       <c r="H100" t="n">
-        <v>2003.8</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>1</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="n">
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4200,36 +3898,33 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>2008</v>
+        <v>2000</v>
       </c>
       <c r="C101" t="n">
-        <v>2008</v>
+        <v>2000</v>
       </c>
       <c r="D101" t="n">
-        <v>2008</v>
+        <v>2000</v>
       </c>
       <c r="E101" t="n">
-        <v>2008</v>
+        <v>2000</v>
       </c>
       <c r="F101" t="n">
-        <v>182.1572</v>
+        <v>200</v>
       </c>
       <c r="G101" t="n">
-        <v>2009.8</v>
+        <v>-4758.511568329999</v>
       </c>
       <c r="H101" t="n">
-        <v>2003.766666666667</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>1</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" t="n">
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4238,36 +3933,33 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>2008</v>
+        <v>2000</v>
       </c>
       <c r="C102" t="n">
-        <v>2008</v>
+        <v>2000</v>
       </c>
       <c r="D102" t="n">
-        <v>2008</v>
+        <v>2000</v>
       </c>
       <c r="E102" t="n">
-        <v>2008</v>
+        <v>2000</v>
       </c>
       <c r="F102" t="n">
-        <v>214.711</v>
+        <v>50</v>
       </c>
       <c r="G102" t="n">
-        <v>2010.066666666667</v>
+        <v>-4758.511568329999</v>
       </c>
       <c r="H102" t="n">
-        <v>2003.733333333333</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>1</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
-      <c r="N102" t="n">
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4276,36 +3968,33 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>2008</v>
+        <v>1998</v>
       </c>
       <c r="C103" t="n">
-        <v>2008</v>
+        <v>1998</v>
       </c>
       <c r="D103" t="n">
-        <v>2008</v>
+        <v>1998</v>
       </c>
       <c r="E103" t="n">
-        <v>2008</v>
+        <v>1998</v>
       </c>
       <c r="F103" t="n">
-        <v>82.86799999999999</v>
+        <v>42.5686</v>
       </c>
       <c r="G103" t="n">
-        <v>2010</v>
+        <v>-4801.080168329999</v>
       </c>
       <c r="H103" t="n">
-        <v>2003.7</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>1</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
-      <c r="N103" t="n">
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4314,36 +4003,33 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>2008</v>
+        <v>1998</v>
       </c>
       <c r="C104" t="n">
-        <v>2008</v>
+        <v>2000</v>
       </c>
       <c r="D104" t="n">
-        <v>2008</v>
+        <v>2000</v>
       </c>
       <c r="E104" t="n">
-        <v>2008</v>
+        <v>1998</v>
       </c>
       <c r="F104" t="n">
-        <v>694.9</v>
+        <v>699.5955</v>
       </c>
       <c r="G104" t="n">
-        <v>2009.4</v>
+        <v>-4101.484668329998</v>
       </c>
       <c r="H104" t="n">
-        <v>2003.8</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>1</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr"/>
-      <c r="N104" t="n">
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4352,36 +4038,33 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>2008</v>
+        <v>2001</v>
       </c>
       <c r="C105" t="n">
-        <v>2008</v>
+        <v>2001</v>
       </c>
       <c r="D105" t="n">
-        <v>2008</v>
+        <v>2001</v>
       </c>
       <c r="E105" t="n">
-        <v>2008</v>
+        <v>2001</v>
       </c>
       <c r="F105" t="n">
-        <v>79</v>
+        <v>198.2865</v>
       </c>
       <c r="G105" t="n">
-        <v>2008.666666666667</v>
+        <v>-3903.198168329998</v>
       </c>
       <c r="H105" t="n">
-        <v>2003.666666666667</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>1</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr"/>
-      <c r="N105" t="n">
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4390,36 +4073,33 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>2008</v>
+        <v>1998</v>
       </c>
       <c r="C106" t="n">
-        <v>2008</v>
+        <v>1998</v>
       </c>
       <c r="D106" t="n">
-        <v>2008</v>
+        <v>1998</v>
       </c>
       <c r="E106" t="n">
-        <v>2008</v>
+        <v>1998</v>
       </c>
       <c r="F106" t="n">
-        <v>223.1</v>
+        <v>407.5</v>
       </c>
       <c r="G106" t="n">
-        <v>2008.533333333333</v>
+        <v>-4310.698168329998</v>
       </c>
       <c r="H106" t="n">
-        <v>2003.75</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>1</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr"/>
-      <c r="N106" t="n">
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4428,36 +4108,33 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>2008</v>
+        <v>1997</v>
       </c>
       <c r="C107" t="n">
-        <v>2008</v>
+        <v>1997</v>
       </c>
       <c r="D107" t="n">
-        <v>2008</v>
+        <v>1997</v>
       </c>
       <c r="E107" t="n">
-        <v>2008</v>
+        <v>1997</v>
       </c>
       <c r="F107" t="n">
-        <v>4</v>
+        <v>3.0984</v>
       </c>
       <c r="G107" t="n">
-        <v>2008.266666666667</v>
+        <v>-4313.796568329998</v>
       </c>
       <c r="H107" t="n">
-        <v>2003.866666666667</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>1</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr"/>
-      <c r="N107" t="n">
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4466,36 +4143,33 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>2008</v>
+        <v>1998</v>
       </c>
       <c r="C108" t="n">
-        <v>2008</v>
+        <v>1998</v>
       </c>
       <c r="D108" t="n">
-        <v>2008</v>
+        <v>1998</v>
       </c>
       <c r="E108" t="n">
-        <v>2008</v>
+        <v>1998</v>
       </c>
       <c r="F108" t="n">
-        <v>75.2641</v>
+        <v>200</v>
       </c>
       <c r="G108" t="n">
-        <v>2008.266666666667</v>
+        <v>-4113.796568329998</v>
       </c>
       <c r="H108" t="n">
-        <v>2003.983333333333</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>1</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr"/>
-      <c r="N108" t="n">
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4504,36 +4178,33 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>2008</v>
+        <v>2000</v>
       </c>
       <c r="C109" t="n">
         <v>2000</v>
       </c>
       <c r="D109" t="n">
-        <v>2008</v>
+        <v>2000</v>
       </c>
       <c r="E109" t="n">
         <v>2000</v>
       </c>
       <c r="F109" t="n">
-        <v>2549.5961</v>
+        <v>27.7741</v>
       </c>
       <c r="G109" t="n">
-        <v>2007.866666666667</v>
+        <v>-4086.022468329998</v>
       </c>
       <c r="H109" t="n">
-        <v>2003.983333333333</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>1</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr"/>
-      <c r="N109" t="n">
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4542,36 +4213,33 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>1997</v>
+        <v>2000</v>
       </c>
       <c r="C110" t="n">
-        <v>1997</v>
+        <v>2004</v>
       </c>
       <c r="D110" t="n">
-        <v>1997</v>
+        <v>2004</v>
       </c>
       <c r="E110" t="n">
-        <v>1997</v>
+        <v>2000</v>
       </c>
       <c r="F110" t="n">
-        <v>4.4804</v>
+        <v>378.7749</v>
       </c>
       <c r="G110" t="n">
-        <v>2007.066666666667</v>
+        <v>-3707.247568329998</v>
       </c>
       <c r="H110" t="n">
-        <v>2003.933333333333</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>1</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr"/>
-      <c r="N110" t="n">
+      <c r="M110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4580,36 +4248,33 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>1995</v>
+        <v>2004</v>
       </c>
       <c r="C111" t="n">
-        <v>1995</v>
+        <v>2005</v>
       </c>
       <c r="D111" t="n">
-        <v>1995</v>
+        <v>2005</v>
       </c>
       <c r="E111" t="n">
-        <v>1995</v>
+        <v>2004</v>
       </c>
       <c r="F111" t="n">
-        <v>356.125</v>
+        <v>348.772</v>
       </c>
       <c r="G111" t="n">
-        <v>2006.2</v>
+        <v>-3358.475568329998</v>
       </c>
       <c r="H111" t="n">
-        <v>2003.85</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>1</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr"/>
-      <c r="N111" t="n">
+      <c r="M111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4618,36 +4283,33 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>1996</v>
+        <v>2005</v>
       </c>
       <c r="C112" t="n">
-        <v>1996</v>
+        <v>2010</v>
       </c>
       <c r="D112" t="n">
-        <v>1996</v>
+        <v>2010</v>
       </c>
       <c r="E112" t="n">
-        <v>1996</v>
+        <v>2005</v>
       </c>
       <c r="F112" t="n">
-        <v>34.2765</v>
+        <v>851</v>
       </c>
       <c r="G112" t="n">
-        <v>2005.4</v>
+        <v>-2507.475568329998</v>
       </c>
       <c r="H112" t="n">
-        <v>2003.783333333333</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>1</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr"/>
-      <c r="N112" t="n">
+      <c r="M112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4656,36 +4318,33 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="C113" t="n">
-        <v>2002</v>
+        <v>2012</v>
       </c>
       <c r="D113" t="n">
-        <v>2002</v>
+        <v>2012</v>
       </c>
       <c r="E113" t="n">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="F113" t="n">
-        <v>1</v>
+        <v>500.1</v>
       </c>
       <c r="G113" t="n">
-        <v>2005</v>
+        <v>-2007.375568329998</v>
       </c>
       <c r="H113" t="n">
-        <v>2003.783333333333</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>0</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr"/>
-      <c r="N113" t="n">
+      <c r="M113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4694,36 +4353,33 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>2001</v>
+        <v>2007</v>
       </c>
       <c r="C114" t="n">
-        <v>1994</v>
+        <v>2007</v>
       </c>
       <c r="D114" t="n">
-        <v>2001</v>
+        <v>2007</v>
       </c>
       <c r="E114" t="n">
-        <v>1994</v>
+        <v>2007</v>
       </c>
       <c r="F114" t="n">
-        <v>933.3797</v>
+        <v>200</v>
       </c>
       <c r="G114" t="n">
-        <v>2003.733333333333</v>
+        <v>-2207.375568329998</v>
       </c>
       <c r="H114" t="n">
-        <v>2003.65</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>0</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="inlineStr"/>
-      <c r="N114" t="n">
+      <c r="M114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4732,36 +4388,33 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>2001</v>
+        <v>2007</v>
       </c>
       <c r="C115" t="n">
-        <v>2001</v>
+        <v>2007</v>
       </c>
       <c r="D115" t="n">
-        <v>2001</v>
+        <v>2007</v>
       </c>
       <c r="E115" t="n">
-        <v>2001</v>
+        <v>2007</v>
       </c>
       <c r="F115" t="n">
-        <v>29.1623</v>
+        <v>100</v>
       </c>
       <c r="G115" t="n">
-        <v>2003.266666666667</v>
+        <v>-2207.375568329998</v>
       </c>
       <c r="H115" t="n">
-        <v>2003.633333333333</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>0</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="inlineStr"/>
-      <c r="N115" t="n">
+      <c r="M115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4770,36 +4423,33 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>2001</v>
+        <v>2004</v>
       </c>
       <c r="C116" t="n">
-        <v>2001</v>
+        <v>2004</v>
       </c>
       <c r="D116" t="n">
-        <v>2001</v>
+        <v>2004</v>
       </c>
       <c r="E116" t="n">
-        <v>2001</v>
+        <v>2004</v>
       </c>
       <c r="F116" t="n">
-        <v>18.6842</v>
+        <v>100</v>
       </c>
       <c r="G116" t="n">
-        <v>2002.8</v>
+        <v>-2307.375568329998</v>
       </c>
       <c r="H116" t="n">
-        <v>2003.65</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>0</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="inlineStr"/>
-      <c r="N116" t="n">
+      <c r="M116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4808,36 +4458,33 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>1994</v>
+        <v>2004</v>
       </c>
       <c r="C117" t="n">
-        <v>1993</v>
+        <v>2009</v>
       </c>
       <c r="D117" t="n">
-        <v>1994</v>
+        <v>2012</v>
       </c>
       <c r="E117" t="n">
-        <v>1993</v>
+        <v>2004</v>
       </c>
       <c r="F117" t="n">
-        <v>324.1783</v>
+        <v>534.0048</v>
       </c>
       <c r="G117" t="n">
-        <v>2001.8</v>
+        <v>-1773.370768329998</v>
       </c>
       <c r="H117" t="n">
-        <v>2003.533333333333</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>0</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
-      <c r="N117" t="n">
+      <c r="M117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4846,36 +4493,33 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>1997</v>
+        <v>2009</v>
       </c>
       <c r="C118" t="n">
-        <v>1997</v>
+        <v>2017</v>
       </c>
       <c r="D118" t="n">
-        <v>1997</v>
+        <v>2017</v>
       </c>
       <c r="E118" t="n">
-        <v>1997</v>
+        <v>2009</v>
       </c>
       <c r="F118" t="n">
-        <v>96.3999</v>
+        <v>1050.9782</v>
       </c>
       <c r="G118" t="n">
-        <v>2001.066666666667</v>
+        <v>-722.3925683299981</v>
       </c>
       <c r="H118" t="n">
-        <v>2003.483333333333</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>0</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="inlineStr"/>
-      <c r="N118" t="n">
+      <c r="M118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4884,36 +4528,33 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>1993</v>
+        <v>2011</v>
       </c>
       <c r="C119" t="n">
-        <v>1993</v>
+        <v>2019</v>
       </c>
       <c r="D119" t="n">
-        <v>1993</v>
+        <v>2019</v>
       </c>
       <c r="E119" t="n">
-        <v>1993</v>
+        <v>2011</v>
       </c>
       <c r="F119" t="n">
-        <v>50</v>
+        <v>45.9585</v>
       </c>
       <c r="G119" t="n">
-        <v>2000.066666666667</v>
+        <v>-676.4340683299981</v>
       </c>
       <c r="H119" t="n">
-        <v>2003.416666666667</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>0</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="inlineStr"/>
-      <c r="N119" t="n">
+      <c r="M119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4922,36 +4563,33 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>2001</v>
+        <v>2010</v>
       </c>
       <c r="C120" t="n">
-        <v>2001</v>
+        <v>2010</v>
       </c>
       <c r="D120" t="n">
-        <v>2001</v>
+        <v>2010</v>
       </c>
       <c r="E120" t="n">
-        <v>2001</v>
+        <v>2010</v>
       </c>
       <c r="F120" t="n">
-        <v>6.2093</v>
+        <v>12.39</v>
       </c>
       <c r="G120" t="n">
-        <v>1999.6</v>
+        <v>-688.8240683299981</v>
       </c>
       <c r="H120" t="n">
-        <v>2003.4</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>0</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="inlineStr"/>
-      <c r="N120" t="n">
+      <c r="M120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4960,36 +4598,33 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>2000</v>
+        <v>2010</v>
       </c>
       <c r="C121" t="n">
-        <v>2000</v>
+        <v>2012</v>
       </c>
       <c r="D121" t="n">
-        <v>2000</v>
+        <v>2012</v>
       </c>
       <c r="E121" t="n">
-        <v>2000</v>
+        <v>2010</v>
       </c>
       <c r="F121" t="n">
-        <v>25.7318</v>
+        <v>597</v>
       </c>
       <c r="G121" t="n">
-        <v>1999.066666666667</v>
+        <v>-91.82406832999811</v>
       </c>
       <c r="H121" t="n">
-        <v>2003.45</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>0</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="inlineStr"/>
-      <c r="N121" t="n">
+      <c r="M121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4998,36 +4633,33 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>1998</v>
+        <v>2008</v>
       </c>
       <c r="C122" t="n">
-        <v>1998</v>
+        <v>2008</v>
       </c>
       <c r="D122" t="n">
-        <v>1998</v>
+        <v>2008</v>
       </c>
       <c r="E122" t="n">
-        <v>1998</v>
+        <v>2008</v>
       </c>
       <c r="F122" t="n">
-        <v>20.8636</v>
+        <v>29.6006</v>
       </c>
       <c r="G122" t="n">
-        <v>1998.4</v>
+        <v>-121.4246683299981</v>
       </c>
       <c r="H122" t="n">
-        <v>2003.383333333333</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>0</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="inlineStr"/>
-      <c r="N122" t="n">
+      <c r="M122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5036,36 +4668,33 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>1999</v>
+        <v>2005</v>
       </c>
       <c r="C123" t="n">
-        <v>1999</v>
+        <v>2006</v>
       </c>
       <c r="D123" t="n">
-        <v>1999</v>
+        <v>2006</v>
       </c>
       <c r="E123" t="n">
-        <v>1999</v>
+        <v>2005</v>
       </c>
       <c r="F123" t="n">
-        <v>15.202</v>
+        <v>147.9342</v>
       </c>
       <c r="G123" t="n">
-        <v>1997.8</v>
+        <v>-269.3588683299981</v>
       </c>
       <c r="H123" t="n">
-        <v>2003.416666666667</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>0</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="inlineStr"/>
-      <c r="N123" t="n">
+      <c r="M123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5074,36 +4703,33 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>2000</v>
+        <v>2009</v>
       </c>
       <c r="C124" t="n">
-        <v>2000</v>
+        <v>2009</v>
       </c>
       <c r="D124" t="n">
-        <v>2000</v>
+        <v>2009</v>
       </c>
       <c r="E124" t="n">
-        <v>2000</v>
+        <v>2009</v>
       </c>
       <c r="F124" t="n">
-        <v>41.4955</v>
+        <v>196.5255</v>
       </c>
       <c r="G124" t="n">
-        <v>1997.8</v>
+        <v>-72.83336832999814</v>
       </c>
       <c r="H124" t="n">
-        <v>2003.45</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>0</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="inlineStr"/>
-      <c r="N124" t="n">
+      <c r="M124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5112,36 +4738,33 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>2000</v>
+        <v>2008</v>
       </c>
       <c r="C125" t="n">
-        <v>2000</v>
+        <v>2008</v>
       </c>
       <c r="D125" t="n">
-        <v>2000</v>
+        <v>2008</v>
       </c>
       <c r="E125" t="n">
-        <v>2000</v>
+        <v>2008</v>
       </c>
       <c r="F125" t="n">
-        <v>13.3925</v>
+        <v>97</v>
       </c>
       <c r="G125" t="n">
-        <v>1998</v>
+        <v>-169.8333683299981</v>
       </c>
       <c r="H125" t="n">
-        <v>2003.483333333333</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>0</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="inlineStr"/>
-      <c r="N125" t="n">
+      <c r="M125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5150,36 +4773,33 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>2000</v>
+        <v>2008</v>
       </c>
       <c r="C126" t="n">
-        <v>2000</v>
+        <v>2008</v>
       </c>
       <c r="D126" t="n">
-        <v>2000</v>
+        <v>2008</v>
       </c>
       <c r="E126" t="n">
-        <v>2000</v>
+        <v>2008</v>
       </c>
       <c r="F126" t="n">
-        <v>12.0533</v>
+        <v>149.44</v>
       </c>
       <c r="G126" t="n">
-        <v>1998.333333333333</v>
+        <v>-169.8333683299981</v>
       </c>
       <c r="H126" t="n">
-        <v>2003.516666666667</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>0</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="inlineStr"/>
-      <c r="N126" t="n">
+      <c r="M126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5188,36 +4808,33 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>1999</v>
+        <v>2008</v>
       </c>
       <c r="C127" t="n">
-        <v>1998</v>
+        <v>2008</v>
       </c>
       <c r="D127" t="n">
-        <v>1999</v>
+        <v>2008</v>
       </c>
       <c r="E127" t="n">
-        <v>1998</v>
+        <v>2008</v>
       </c>
       <c r="F127" t="n">
-        <v>16.5894</v>
+        <v>22.9525</v>
       </c>
       <c r="G127" t="n">
-        <v>1998.466666666667</v>
+        <v>-169.8333683299981</v>
       </c>
       <c r="H127" t="n">
-        <v>2003.433333333333</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>0</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="inlineStr"/>
-      <c r="N127" t="n">
+      <c r="M127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5226,36 +4843,33 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>1998</v>
+        <v>2008</v>
       </c>
       <c r="C128" t="n">
-        <v>1995</v>
+        <v>2013</v>
       </c>
       <c r="D128" t="n">
-        <v>1998</v>
+        <v>2013</v>
       </c>
       <c r="E128" t="n">
-        <v>1995</v>
+        <v>2008</v>
       </c>
       <c r="F128" t="n">
-        <v>468.421</v>
+        <v>16.1906</v>
       </c>
       <c r="G128" t="n">
-        <v>1998</v>
+        <v>-153.6427683299981</v>
       </c>
       <c r="H128" t="n">
-        <v>2003.366666666667</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="inlineStr"/>
-      <c r="N128" t="n">
+      <c r="M128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5264,36 +4878,33 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>1998</v>
+        <v>2008</v>
       </c>
       <c r="C129" t="n">
-        <v>1997</v>
+        <v>2008</v>
       </c>
       <c r="D129" t="n">
-        <v>1998</v>
+        <v>2008</v>
       </c>
       <c r="E129" t="n">
-        <v>1997</v>
+        <v>2008</v>
       </c>
       <c r="F129" t="n">
-        <v>113.6099</v>
+        <v>19.679</v>
       </c>
       <c r="G129" t="n">
-        <v>1998.2</v>
+        <v>-173.3217683299982</v>
       </c>
       <c r="H129" t="n">
-        <v>2003.3</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="inlineStr"/>
-      <c r="N129" t="n">
+      <c r="M129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5302,36 +4913,33 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>1998</v>
+        <v>2008</v>
       </c>
       <c r="C130" t="n">
-        <v>1998</v>
+        <v>2008</v>
       </c>
       <c r="D130" t="n">
-        <v>1998</v>
+        <v>2008</v>
       </c>
       <c r="E130" t="n">
-        <v>1998</v>
+        <v>2008</v>
       </c>
       <c r="F130" t="n">
-        <v>98.212</v>
+        <v>182.1572</v>
       </c>
       <c r="G130" t="n">
-        <v>1998</v>
+        <v>-173.3217683299982</v>
       </c>
       <c r="H130" t="n">
-        <v>2003.25</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>0</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="inlineStr"/>
-      <c r="N130" t="n">
+      <c r="M130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5340,36 +4948,33 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>1994</v>
+        <v>2008</v>
       </c>
       <c r="C131" t="n">
-        <v>1992</v>
+        <v>2008</v>
       </c>
       <c r="D131" t="n">
-        <v>1994</v>
+        <v>2008</v>
       </c>
       <c r="E131" t="n">
-        <v>1992</v>
+        <v>2008</v>
       </c>
       <c r="F131" t="n">
-        <v>2499.1725</v>
+        <v>214.711</v>
       </c>
       <c r="G131" t="n">
-        <v>1997.4</v>
+        <v>-173.3217683299982</v>
       </c>
       <c r="H131" t="n">
-        <v>2003.116666666667</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>0</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="inlineStr"/>
-      <c r="N131" t="n">
+      <c r="M131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5378,36 +4983,33 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>1993</v>
+        <v>2008</v>
       </c>
       <c r="C132" t="n">
-        <v>1993</v>
+        <v>2008</v>
       </c>
       <c r="D132" t="n">
-        <v>1993</v>
+        <v>2008</v>
       </c>
       <c r="E132" t="n">
-        <v>1993</v>
+        <v>2008</v>
       </c>
       <c r="F132" t="n">
-        <v>486.157</v>
+        <v>82.86799999999999</v>
       </c>
       <c r="G132" t="n">
-        <v>1997.4</v>
+        <v>-173.3217683299982</v>
       </c>
       <c r="H132" t="n">
-        <v>2003</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
-        <v>0</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="inlineStr"/>
-      <c r="N132" t="n">
+      <c r="M132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5416,36 +5018,33 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>1993</v>
+        <v>2008</v>
       </c>
       <c r="C133" t="n">
-        <v>2002</v>
+        <v>2008</v>
       </c>
       <c r="D133" t="n">
-        <v>2002</v>
+        <v>2008</v>
       </c>
       <c r="E133" t="n">
-        <v>1993</v>
+        <v>2008</v>
       </c>
       <c r="F133" t="n">
-        <v>1868.4807</v>
+        <v>694.9</v>
       </c>
       <c r="G133" t="n">
-        <v>1997.733333333333</v>
+        <v>-173.3217683299982</v>
       </c>
       <c r="H133" t="n">
-        <v>2003.033333333333</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="n">
-        <v>0</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="inlineStr"/>
-      <c r="N133" t="n">
+      <c r="M133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5454,36 +5053,33 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>1993</v>
+        <v>2008</v>
       </c>
       <c r="C134" t="n">
-        <v>1993</v>
+        <v>2008</v>
       </c>
       <c r="D134" t="n">
-        <v>1993</v>
+        <v>2008</v>
       </c>
       <c r="E134" t="n">
-        <v>1993</v>
+        <v>2008</v>
       </c>
       <c r="F134" t="n">
-        <v>67.5478</v>
+        <v>79</v>
       </c>
       <c r="G134" t="n">
-        <v>1997.733333333333</v>
+        <v>-173.3217683299982</v>
       </c>
       <c r="H134" t="n">
-        <v>2002.95</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="n">
-        <v>0</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="inlineStr"/>
-      <c r="N134" t="n">
+      <c r="M134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5492,36 +5088,33 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>1993</v>
+        <v>2008</v>
       </c>
       <c r="C135" t="n">
-        <v>1991</v>
+        <v>2008</v>
       </c>
       <c r="D135" t="n">
-        <v>1993</v>
+        <v>2008</v>
       </c>
       <c r="E135" t="n">
-        <v>1991</v>
+        <v>2008</v>
       </c>
       <c r="F135" t="n">
-        <v>98.6191</v>
+        <v>223.1</v>
       </c>
       <c r="G135" t="n">
-        <v>1997.066666666667</v>
+        <v>-173.3217683299982</v>
       </c>
       <c r="H135" t="n">
-        <v>2002.8</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="n">
-        <v>0</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="inlineStr"/>
-      <c r="N135" t="n">
+      <c r="M135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5530,36 +5123,33 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>1990</v>
+        <v>2008</v>
       </c>
       <c r="C136" t="n">
-        <v>1990</v>
+        <v>2008</v>
       </c>
       <c r="D136" t="n">
-        <v>1991</v>
+        <v>2008</v>
       </c>
       <c r="E136" t="n">
-        <v>1990</v>
+        <v>2008</v>
       </c>
       <c r="F136" t="n">
-        <v>8939.282300000001</v>
+        <v>4</v>
       </c>
       <c r="G136" t="n">
-        <v>1996.4</v>
+        <v>-173.3217683299982</v>
       </c>
       <c r="H136" t="n">
-        <v>2002.616666666667</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="n">
-        <v>0</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="inlineStr"/>
-      <c r="N136" t="n">
+      <c r="M136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5568,36 +5158,33 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>1990</v>
+        <v>2008</v>
       </c>
       <c r="C137" t="n">
-        <v>1985</v>
+        <v>2008</v>
       </c>
       <c r="D137" t="n">
-        <v>1990</v>
+        <v>2008</v>
       </c>
       <c r="E137" t="n">
-        <v>1985</v>
+        <v>2008</v>
       </c>
       <c r="F137" t="n">
-        <v>1360.1573</v>
+        <v>75.2641</v>
       </c>
       <c r="G137" t="n">
-        <v>1995.533333333333</v>
+        <v>-173.3217683299982</v>
       </c>
       <c r="H137" t="n">
-        <v>2002.4</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="n">
-        <v>0</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="inlineStr"/>
-      <c r="N137" t="n">
+      <c r="M137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5606,36 +5193,33 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>1985</v>
+        <v>2008</v>
       </c>
       <c r="C138" t="n">
-        <v>1983</v>
+        <v>2000</v>
       </c>
       <c r="D138" t="n">
-        <v>1985</v>
+        <v>2008</v>
       </c>
       <c r="E138" t="n">
-        <v>1983</v>
+        <v>2000</v>
       </c>
       <c r="F138" t="n">
-        <v>290.782</v>
+        <v>2549.5961</v>
       </c>
       <c r="G138" t="n">
-        <v>1994.466666666667</v>
+        <v>-2722.917868329998</v>
       </c>
       <c r="H138" t="n">
-        <v>2002.166666666667</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="n">
-        <v>0</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="inlineStr"/>
-      <c r="N138" t="n">
+      <c r="M138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5644,36 +5228,33 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>1988</v>
+        <v>1997</v>
       </c>
       <c r="C139" t="n">
-        <v>1988</v>
+        <v>1997</v>
       </c>
       <c r="D139" t="n">
-        <v>1988</v>
+        <v>1997</v>
       </c>
       <c r="E139" t="n">
-        <v>1988</v>
+        <v>1997</v>
       </c>
       <c r="F139" t="n">
-        <v>198.9015</v>
+        <v>4.4804</v>
       </c>
       <c r="G139" t="n">
-        <v>1993.666666666667</v>
+        <v>-2727.398268329998</v>
       </c>
       <c r="H139" t="n">
-        <v>2002</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="n">
-        <v>0</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="inlineStr"/>
-      <c r="N139" t="n">
+      <c r="M139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5682,36 +5263,33 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>1983</v>
+        <v>1995</v>
       </c>
       <c r="C140" t="n">
-        <v>1988</v>
+        <v>1995</v>
       </c>
       <c r="D140" t="n">
-        <v>1988</v>
+        <v>1995</v>
       </c>
       <c r="E140" t="n">
-        <v>1983</v>
+        <v>1995</v>
       </c>
       <c r="F140" t="n">
-        <v>229.0576</v>
+        <v>356.125</v>
       </c>
       <c r="G140" t="n">
-        <v>1992.866666666667</v>
+        <v>-3083.523268329998</v>
       </c>
       <c r="H140" t="n">
-        <v>2001.8</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="n">
-        <v>0</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="inlineStr"/>
-      <c r="N140" t="n">
+      <c r="M140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5720,36 +5298,33 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>1983</v>
+        <v>1996</v>
       </c>
       <c r="C141" t="n">
-        <v>1983</v>
+        <v>1996</v>
       </c>
       <c r="D141" t="n">
-        <v>1983</v>
+        <v>1996</v>
       </c>
       <c r="E141" t="n">
-        <v>1983</v>
+        <v>1996</v>
       </c>
       <c r="F141" t="n">
-        <v>43.861</v>
+        <v>34.2765</v>
       </c>
       <c r="G141" t="n">
-        <v>1991.733333333333</v>
+        <v>-3049.246768329998</v>
       </c>
       <c r="H141" t="n">
-        <v>2001.45</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="n">
-        <v>0</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="inlineStr"/>
-      <c r="N141" t="n">
+      <c r="M141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5758,36 +5333,33 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>1983</v>
+        <v>2002</v>
       </c>
       <c r="C142" t="n">
-        <v>1981</v>
+        <v>2002</v>
       </c>
       <c r="D142" t="n">
-        <v>1983</v>
+        <v>2002</v>
       </c>
       <c r="E142" t="n">
-        <v>1981</v>
+        <v>2002</v>
       </c>
       <c r="F142" t="n">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="G142" t="n">
-        <v>1990.6</v>
+        <v>-3048.246768329998</v>
       </c>
       <c r="H142" t="n">
-        <v>2001.05</v>
+        <v>0</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="n">
-        <v>0</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="inlineStr"/>
-      <c r="N142" t="n">
+      <c r="M142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5796,36 +5368,33 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>1981</v>
+        <v>2001</v>
       </c>
       <c r="C143" t="n">
-        <v>1981</v>
+        <v>1994</v>
       </c>
       <c r="D143" t="n">
-        <v>1981</v>
+        <v>2001</v>
       </c>
       <c r="E143" t="n">
-        <v>1981</v>
+        <v>1994</v>
       </c>
       <c r="F143" t="n">
-        <v>24.8551</v>
+        <v>933.3797</v>
       </c>
       <c r="G143" t="n">
-        <v>1989.666666666667</v>
+        <v>-3981.626468329998</v>
       </c>
       <c r="H143" t="n">
-        <v>2000.566666666667</v>
+        <v>0</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="n">
-        <v>0</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="inlineStr"/>
-      <c r="N143" t="n">
+      <c r="M143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5834,36 +5403,33 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>1981</v>
+        <v>2001</v>
       </c>
       <c r="C144" t="n">
-        <v>1981</v>
+        <v>2001</v>
       </c>
       <c r="D144" t="n">
-        <v>1981</v>
+        <v>2001</v>
       </c>
       <c r="E144" t="n">
-        <v>1981</v>
+        <v>2001</v>
       </c>
       <c r="F144" t="n">
-        <v>41.6107</v>
+        <v>29.1623</v>
       </c>
       <c r="G144" t="n">
-        <v>1988.6</v>
+        <v>-3952.464168329998</v>
       </c>
       <c r="H144" t="n">
-        <v>2000.05</v>
+        <v>0</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="n">
-        <v>0</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="inlineStr"/>
-      <c r="N144" t="n">
+      <c r="M144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5872,130 +5438,1152 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
+        <v>2001</v>
+      </c>
+      <c r="C145" t="n">
+        <v>2001</v>
+      </c>
+      <c r="D145" t="n">
+        <v>2001</v>
+      </c>
+      <c r="E145" t="n">
+        <v>2001</v>
+      </c>
+      <c r="F145" t="n">
+        <v>18.6842</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-3952.464168329998</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>1994</v>
+      </c>
+      <c r="C146" t="n">
+        <v>1993</v>
+      </c>
+      <c r="D146" t="n">
+        <v>1994</v>
+      </c>
+      <c r="E146" t="n">
+        <v>1993</v>
+      </c>
+      <c r="F146" t="n">
+        <v>324.1783</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-4276.642468329998</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>1997</v>
+      </c>
+      <c r="C147" t="n">
+        <v>1997</v>
+      </c>
+      <c r="D147" t="n">
+        <v>1997</v>
+      </c>
+      <c r="E147" t="n">
+        <v>1997</v>
+      </c>
+      <c r="F147" t="n">
+        <v>96.3999</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-4180.242568329998</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>1993</v>
+      </c>
+      <c r="C148" t="n">
+        <v>1993</v>
+      </c>
+      <c r="D148" t="n">
+        <v>1993</v>
+      </c>
+      <c r="E148" t="n">
+        <v>1993</v>
+      </c>
+      <c r="F148" t="n">
+        <v>50</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-4230.242568329998</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>2001</v>
+      </c>
+      <c r="C149" t="n">
+        <v>2001</v>
+      </c>
+      <c r="D149" t="n">
+        <v>2001</v>
+      </c>
+      <c r="E149" t="n">
+        <v>2001</v>
+      </c>
+      <c r="F149" t="n">
+        <v>6.2093</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-4224.033268329998</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C150" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D150" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E150" t="n">
+        <v>2000</v>
+      </c>
+      <c r="F150" t="n">
+        <v>25.7318</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-4249.765068329997</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>1998</v>
+      </c>
+      <c r="C151" t="n">
+        <v>1998</v>
+      </c>
+      <c r="D151" t="n">
+        <v>1998</v>
+      </c>
+      <c r="E151" t="n">
+        <v>1998</v>
+      </c>
+      <c r="F151" t="n">
+        <v>20.8636</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-4270.628668329997</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>1999</v>
+      </c>
+      <c r="C152" t="n">
+        <v>1999</v>
+      </c>
+      <c r="D152" t="n">
+        <v>1999</v>
+      </c>
+      <c r="E152" t="n">
+        <v>1999</v>
+      </c>
+      <c r="F152" t="n">
+        <v>15.202</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-4255.426668329997</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C153" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D153" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E153" t="n">
+        <v>2000</v>
+      </c>
+      <c r="F153" t="n">
+        <v>41.4955</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-4213.931168329997</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C154" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D154" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E154" t="n">
+        <v>2000</v>
+      </c>
+      <c r="F154" t="n">
+        <v>13.3925</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-4213.931168329997</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C155" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D155" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E155" t="n">
+        <v>2000</v>
+      </c>
+      <c r="F155" t="n">
+        <v>12.0533</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-4213.931168329997</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>1999</v>
+      </c>
+      <c r="C156" t="n">
+        <v>1998</v>
+      </c>
+      <c r="D156" t="n">
+        <v>1999</v>
+      </c>
+      <c r="E156" t="n">
+        <v>1998</v>
+      </c>
+      <c r="F156" t="n">
+        <v>16.5894</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-4230.520568329996</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>1998</v>
+      </c>
+      <c r="C157" t="n">
+        <v>1995</v>
+      </c>
+      <c r="D157" t="n">
+        <v>1998</v>
+      </c>
+      <c r="E157" t="n">
+        <v>1995</v>
+      </c>
+      <c r="F157" t="n">
+        <v>468.421</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-4698.941568329997</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>1998</v>
+      </c>
+      <c r="C158" t="n">
+        <v>1997</v>
+      </c>
+      <c r="D158" t="n">
+        <v>1998</v>
+      </c>
+      <c r="E158" t="n">
+        <v>1997</v>
+      </c>
+      <c r="F158" t="n">
+        <v>113.6099</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-4585.331668329996</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>1998</v>
+      </c>
+      <c r="C159" t="n">
+        <v>1998</v>
+      </c>
+      <c r="D159" t="n">
+        <v>1998</v>
+      </c>
+      <c r="E159" t="n">
+        <v>1998</v>
+      </c>
+      <c r="F159" t="n">
+        <v>98.212</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-4487.119668329996</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>1994</v>
+      </c>
+      <c r="C160" t="n">
+        <v>1992</v>
+      </c>
+      <c r="D160" t="n">
+        <v>1994</v>
+      </c>
+      <c r="E160" t="n">
+        <v>1992</v>
+      </c>
+      <c r="F160" t="n">
+        <v>2499.1725</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-6986.292168329996</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>1993</v>
+      </c>
+      <c r="C161" t="n">
+        <v>1993</v>
+      </c>
+      <c r="D161" t="n">
+        <v>1993</v>
+      </c>
+      <c r="E161" t="n">
+        <v>1993</v>
+      </c>
+      <c r="F161" t="n">
+        <v>486.157</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-6500.135168329995</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>1993</v>
+      </c>
+      <c r="C162" t="n">
+        <v>2002</v>
+      </c>
+      <c r="D162" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E162" t="n">
+        <v>1993</v>
+      </c>
+      <c r="F162" t="n">
+        <v>1868.4807</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-4631.654468329995</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>1993</v>
+      </c>
+      <c r="C163" t="n">
+        <v>1993</v>
+      </c>
+      <c r="D163" t="n">
+        <v>1993</v>
+      </c>
+      <c r="E163" t="n">
+        <v>1993</v>
+      </c>
+      <c r="F163" t="n">
+        <v>67.5478</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-4699.202268329996</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>1993</v>
+      </c>
+      <c r="C164" t="n">
+        <v>1991</v>
+      </c>
+      <c r="D164" t="n">
+        <v>1993</v>
+      </c>
+      <c r="E164" t="n">
+        <v>1991</v>
+      </c>
+      <c r="F164" t="n">
+        <v>98.6191</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-4797.821368329995</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>1990</v>
+      </c>
+      <c r="C165" t="n">
+        <v>1990</v>
+      </c>
+      <c r="D165" t="n">
+        <v>1991</v>
+      </c>
+      <c r="E165" t="n">
+        <v>1990</v>
+      </c>
+      <c r="F165" t="n">
+        <v>8939.282300000001</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-13737.10366833</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>1990</v>
+      </c>
+      <c r="C166" t="n">
+        <v>1985</v>
+      </c>
+      <c r="D166" t="n">
+        <v>1990</v>
+      </c>
+      <c r="E166" t="n">
+        <v>1985</v>
+      </c>
+      <c r="F166" t="n">
+        <v>1360.1573</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-15097.26096833</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>1985</v>
+      </c>
+      <c r="C167" t="n">
+        <v>1983</v>
+      </c>
+      <c r="D167" t="n">
+        <v>1985</v>
+      </c>
+      <c r="E167" t="n">
+        <v>1983</v>
+      </c>
+      <c r="F167" t="n">
+        <v>290.782</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-15388.04296833</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>1988</v>
+      </c>
+      <c r="C168" t="n">
+        <v>1988</v>
+      </c>
+      <c r="D168" t="n">
+        <v>1988</v>
+      </c>
+      <c r="E168" t="n">
+        <v>1988</v>
+      </c>
+      <c r="F168" t="n">
+        <v>198.9015</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-15189.14146833</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>1983</v>
+      </c>
+      <c r="C169" t="n">
+        <v>1988</v>
+      </c>
+      <c r="D169" t="n">
+        <v>1988</v>
+      </c>
+      <c r="E169" t="n">
+        <v>1983</v>
+      </c>
+      <c r="F169" t="n">
+        <v>229.0576</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-15189.14146833</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>1983</v>
+      </c>
+      <c r="C170" t="n">
+        <v>1983</v>
+      </c>
+      <c r="D170" t="n">
+        <v>1983</v>
+      </c>
+      <c r="E170" t="n">
+        <v>1983</v>
+      </c>
+      <c r="F170" t="n">
+        <v>43.861</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-15233.00246833</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>1983</v>
+      </c>
+      <c r="C171" t="n">
         <v>1981</v>
       </c>
-      <c r="C145" t="n">
+      <c r="D171" t="n">
+        <v>1983</v>
+      </c>
+      <c r="E171" t="n">
+        <v>1981</v>
+      </c>
+      <c r="F171" t="n">
+        <v>500</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-15733.00246833</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>1981</v>
+      </c>
+      <c r="C172" t="n">
+        <v>1981</v>
+      </c>
+      <c r="D172" t="n">
+        <v>1981</v>
+      </c>
+      <c r="E172" t="n">
+        <v>1981</v>
+      </c>
+      <c r="F172" t="n">
+        <v>24.8551</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-15733.00246833</v>
+      </c>
+      <c r="H172" t="n">
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="n">
+        <v>1981</v>
+      </c>
+      <c r="K172" t="n">
+        <v>1981</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>1981</v>
+      </c>
+      <c r="C173" t="n">
+        <v>1981</v>
+      </c>
+      <c r="D173" t="n">
+        <v>1981</v>
+      </c>
+      <c r="E173" t="n">
+        <v>1981</v>
+      </c>
+      <c r="F173" t="n">
+        <v>41.6107</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-15733.00246833</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1981</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>1981</v>
+      </c>
+      <c r="C174" t="n">
         <v>1977</v>
       </c>
-      <c r="D145" t="n">
+      <c r="D174" t="n">
         <v>1981</v>
       </c>
-      <c r="E145" t="n">
+      <c r="E174" t="n">
         <v>1976</v>
       </c>
-      <c r="F145" t="n">
+      <c r="F174" t="n">
         <v>1001.0887</v>
       </c>
-      <c r="G145" t="n">
-        <v>1987.2</v>
-      </c>
-      <c r="H145" t="n">
-        <v>1999.55</v>
-      </c>
-      <c r="I145" t="n">
-        <v>1</v>
-      </c>
-      <c r="J145" t="n">
-        <v>0</v>
-      </c>
-      <c r="K145" t="n">
+      <c r="G174" t="n">
+        <v>-16734.09116833</v>
+      </c>
+      <c r="H174" t="n">
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="n">
         <v>1981</v>
       </c>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="inlineStr">
+      <c r="K174" t="n">
+        <v>1981</v>
+      </c>
+      <c r="L174" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="N145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
         <v>1974</v>
       </c>
-      <c r="C146" t="n">
+      <c r="C175" t="n">
         <v>1977</v>
       </c>
-      <c r="D146" t="n">
+      <c r="D175" t="n">
         <v>1977</v>
       </c>
-      <c r="E146" t="n">
+      <c r="E175" t="n">
         <v>1974</v>
       </c>
-      <c r="F146" t="n">
+      <c r="F175" t="n">
         <v>554.9767000000001</v>
       </c>
-      <c r="G146" t="n">
-        <v>1986.2</v>
-      </c>
-      <c r="H146" t="n">
-        <v>1999.05</v>
-      </c>
-      <c r="I146" t="n">
-        <v>1</v>
-      </c>
-      <c r="J146" t="n">
-        <v>0</v>
-      </c>
-      <c r="K146" t="n">
+      <c r="G175" t="n">
+        <v>-16734.09116833</v>
+      </c>
+      <c r="H175" t="n">
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="n">
         <v>1977</v>
       </c>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="inlineStr">
+      <c r="K175" t="n">
+        <v>1981</v>
+      </c>
+      <c r="L175" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
         <v>1976</v>
       </c>
-      <c r="C147" t="n">
+      <c r="C176" t="n">
         <v>1976</v>
       </c>
-      <c r="D147" t="n">
+      <c r="D176" t="n">
         <v>1976</v>
       </c>
-      <c r="E147" t="n">
+      <c r="E176" t="n">
         <v>1976</v>
       </c>
-      <c r="F147" t="n">
+      <c r="F176" t="n">
         <v>24.1493</v>
       </c>
-      <c r="G147" t="n">
-        <v>1985.066666666667</v>
-      </c>
-      <c r="H147" t="n">
-        <v>1998.583333333333</v>
-      </c>
-      <c r="I147" t="n">
-        <v>1</v>
-      </c>
-      <c r="J147" t="n">
-        <v>0</v>
-      </c>
-      <c r="K147" t="n">
+      <c r="G176" t="n">
+        <v>-16758.24046833</v>
+      </c>
+      <c r="H176" t="n">
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="n">
         <v>1977</v>
       </c>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="inlineStr">
+      <c r="K176" t="n">
+        <v>1981</v>
+      </c>
+      <c r="L176" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N147" t="n">
+      <c r="M176" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-19 BackTest QTUM.xlsx
+++ b/BackTest/2019-10-19 BackTest QTUM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M176"/>
+  <dimension ref="A1:N134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,28 +427,33 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2017</v>
+        <v>1997</v>
       </c>
       <c r="C2" t="n">
-        <v>2017</v>
+        <v>1997</v>
       </c>
       <c r="D2" t="n">
-        <v>2017</v>
+        <v>1997</v>
       </c>
       <c r="E2" t="n">
-        <v>2017</v>
+        <v>1997</v>
       </c>
       <c r="F2" t="n">
-        <v>173.525</v>
+        <v>2.6317</v>
       </c>
       <c r="G2" t="n">
-        <v>-2643.20034859</v>
+        <v>-4047.225797540001</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,28 +467,29 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2017</v>
+        <v>1997</v>
       </c>
       <c r="C3" t="n">
-        <v>2017</v>
+        <v>1997</v>
       </c>
       <c r="D3" t="n">
-        <v>2017</v>
+        <v>1997</v>
       </c>
       <c r="E3" t="n">
-        <v>2017</v>
+        <v>1997</v>
       </c>
       <c r="F3" t="n">
-        <v>90.756</v>
+        <v>2.70405608</v>
       </c>
       <c r="G3" t="n">
-        <v>-2643.20034859</v>
+        <v>-4047.225797540001</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,28 +503,29 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2017</v>
+        <v>1997</v>
       </c>
       <c r="C4" t="n">
-        <v>2017</v>
+        <v>1997</v>
       </c>
       <c r="D4" t="n">
-        <v>2017</v>
+        <v>1997</v>
       </c>
       <c r="E4" t="n">
-        <v>2017</v>
+        <v>1997</v>
       </c>
       <c r="F4" t="n">
-        <v>2478.1505</v>
+        <v>13.7232</v>
       </c>
       <c r="G4" t="n">
-        <v>-2643.20034859</v>
+        <v>-4047.225797540001</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,34 +539,35 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2018</v>
+        <v>1992</v>
       </c>
       <c r="C5" t="n">
-        <v>2023</v>
+        <v>1992</v>
       </c>
       <c r="D5" t="n">
-        <v>2023</v>
+        <v>1992</v>
       </c>
       <c r="E5" t="n">
-        <v>2018</v>
+        <v>1992</v>
       </c>
       <c r="F5" t="n">
-        <v>129.8568</v>
+        <v>98</v>
       </c>
       <c r="G5" t="n">
-        <v>-2513.34354859</v>
+        <v>-4145.225797540001</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -567,34 +575,35 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2017</v>
+        <v>1991</v>
       </c>
       <c r="C6" t="n">
-        <v>2018</v>
+        <v>1991</v>
       </c>
       <c r="D6" t="n">
-        <v>2018</v>
+        <v>1991</v>
       </c>
       <c r="E6" t="n">
-        <v>2017</v>
+        <v>1991</v>
       </c>
       <c r="F6" t="n">
-        <v>33.6161</v>
+        <v>120</v>
       </c>
       <c r="G6" t="n">
-        <v>-2546.95964859</v>
+        <v>-4265.225797540001</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -602,34 +611,35 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2018</v>
+        <v>1991</v>
       </c>
       <c r="C7" t="n">
-        <v>2018</v>
+        <v>1991</v>
       </c>
       <c r="D7" t="n">
-        <v>2018</v>
+        <v>1991</v>
       </c>
       <c r="E7" t="n">
-        <v>2018</v>
+        <v>1991</v>
       </c>
       <c r="F7" t="n">
-        <v>2.5566</v>
+        <v>6</v>
       </c>
       <c r="G7" t="n">
-        <v>-2546.95964859</v>
+        <v>-4265.225797540001</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -637,34 +647,35 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>2017</v>
+        <v>1991</v>
       </c>
       <c r="C8" t="n">
-        <v>2017</v>
+        <v>1998</v>
       </c>
       <c r="D8" t="n">
-        <v>2017</v>
+        <v>1998</v>
       </c>
       <c r="E8" t="n">
-        <v>2017</v>
+        <v>1991</v>
       </c>
       <c r="F8" t="n">
-        <v>70.7303</v>
+        <v>532.9772</v>
       </c>
       <c r="G8" t="n">
-        <v>-2617.68994859</v>
+        <v>-3732.24859754</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -672,34 +683,35 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2018</v>
+        <v>1997</v>
       </c>
       <c r="C9" t="n">
-        <v>2018</v>
+        <v>1997</v>
       </c>
       <c r="D9" t="n">
-        <v>2018</v>
+        <v>1997</v>
       </c>
       <c r="E9" t="n">
-        <v>2018</v>
+        <v>1997</v>
       </c>
       <c r="F9" t="n">
-        <v>17.5113</v>
+        <v>5.00751126</v>
       </c>
       <c r="G9" t="n">
-        <v>-2600.17864859</v>
+        <v>-3737.2561088</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -707,34 +719,35 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2017</v>
+        <v>1997</v>
       </c>
       <c r="C10" t="n">
-        <v>2017</v>
+        <v>1997</v>
       </c>
       <c r="D10" t="n">
-        <v>2017</v>
+        <v>1997</v>
       </c>
       <c r="E10" t="n">
-        <v>2017</v>
+        <v>1997</v>
       </c>
       <c r="F10" t="n">
-        <v>163.54</v>
+        <v>37.5563</v>
       </c>
       <c r="G10" t="n">
-        <v>-2763.71864859</v>
+        <v>-3737.2561088</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -742,34 +755,35 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2017</v>
+        <v>1991</v>
       </c>
       <c r="C11" t="n">
-        <v>2017</v>
+        <v>1991</v>
       </c>
       <c r="D11" t="n">
-        <v>2017</v>
+        <v>1991</v>
       </c>
       <c r="E11" t="n">
-        <v>2017</v>
+        <v>1991</v>
       </c>
       <c r="F11" t="n">
-        <v>44.89</v>
+        <v>26.2335</v>
       </c>
       <c r="G11" t="n">
-        <v>-2763.71864859</v>
+        <v>-3763.4896088</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -777,34 +791,35 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>2014</v>
+        <v>1999</v>
       </c>
       <c r="C12" t="n">
-        <v>2014</v>
+        <v>2006</v>
       </c>
       <c r="D12" t="n">
-        <v>2014</v>
+        <v>2007</v>
       </c>
       <c r="E12" t="n">
-        <v>2014</v>
+        <v>1999</v>
       </c>
       <c r="F12" t="n">
-        <v>77.1969</v>
+        <v>1059.5598</v>
       </c>
       <c r="G12" t="n">
-        <v>-2840.91554859</v>
+        <v>-2703.9298088</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -812,34 +827,35 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="C13" t="n">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="D13" t="n">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="E13" t="n">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="F13" t="n">
-        <v>115.7954</v>
+        <v>127.7</v>
       </c>
       <c r="G13" t="n">
-        <v>-2956.71094859</v>
+        <v>-2576.2298088</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -847,34 +863,35 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="C14" t="n">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="D14" t="n">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="E14" t="n">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="F14" t="n">
-        <v>110.8986</v>
+        <v>79.4545</v>
       </c>
       <c r="G14" t="n">
-        <v>-2845.81234859</v>
+        <v>-2496.7753088</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -882,28 +899,29 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>2017</v>
+        <v>2011</v>
       </c>
       <c r="C15" t="n">
-        <v>2017</v>
+        <v>2008</v>
       </c>
       <c r="D15" t="n">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="E15" t="n">
-        <v>2017</v>
+        <v>2008</v>
       </c>
       <c r="F15" t="n">
-        <v>83.5446</v>
+        <v>1953.5813</v>
       </c>
       <c r="G15" t="n">
-        <v>-2845.81234859</v>
+        <v>-4450.356608800001</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -917,28 +935,29 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="C16" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="D16" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="E16" t="n">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="F16" t="n">
-        <v>26.062</v>
+        <v>936.4347</v>
       </c>
       <c r="G16" t="n">
-        <v>-2871.87434859</v>
+        <v>-3513.921908800001</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -952,6 +971,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -961,25 +981,25 @@
         <v>2008</v>
       </c>
       <c r="C17" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="D17" t="n">
         <v>2008</v>
       </c>
       <c r="E17" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="F17" t="n">
-        <v>12.4892</v>
+        <v>203.7999</v>
       </c>
       <c r="G17" t="n">
-        <v>-2871.87434859</v>
+        <v>-3717.721808800001</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -987,34 +1007,35 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="C18" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="D18" t="n">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="E18" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="F18" t="n">
-        <v>24.7883</v>
+        <v>196.5106</v>
       </c>
       <c r="G18" t="n">
-        <v>-2871.87434859</v>
+        <v>-3717.721808800001</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -1022,34 +1043,35 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>2003</v>
+        <v>2011</v>
       </c>
       <c r="C19" t="n">
-        <v>2003</v>
+        <v>2011</v>
       </c>
       <c r="D19" t="n">
-        <v>2003</v>
+        <v>2011</v>
       </c>
       <c r="E19" t="n">
-        <v>2002</v>
+        <v>2011</v>
       </c>
       <c r="F19" t="n">
-        <v>1359.519</v>
+        <v>0.1</v>
       </c>
       <c r="G19" t="n">
-        <v>-4231.39334859</v>
+        <v>-3717.621808800001</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1057,34 +1079,35 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>2007</v>
+        <v>2015</v>
       </c>
       <c r="C20" t="n">
-        <v>2008</v>
+        <v>2015</v>
       </c>
       <c r="D20" t="n">
-        <v>2008</v>
+        <v>2015</v>
       </c>
       <c r="E20" t="n">
-        <v>2007</v>
+        <v>2015</v>
       </c>
       <c r="F20" t="n">
-        <v>175.437</v>
+        <v>69.3168</v>
       </c>
       <c r="G20" t="n">
-        <v>-4055.95634859</v>
+        <v>-3648.305008800001</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -1092,34 +1115,35 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>2001</v>
+        <v>2008</v>
       </c>
       <c r="C21" t="n">
-        <v>2001</v>
+        <v>2008</v>
       </c>
       <c r="D21" t="n">
-        <v>2001</v>
+        <v>2008</v>
       </c>
       <c r="E21" t="n">
-        <v>2001</v>
+        <v>2008</v>
       </c>
       <c r="F21" t="n">
-        <v>241.0922</v>
+        <v>150</v>
       </c>
       <c r="G21" t="n">
-        <v>-4297.04854859</v>
+        <v>-3798.305008800001</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -1127,34 +1151,35 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1999</v>
+        <v>2017</v>
       </c>
       <c r="C22" t="n">
-        <v>1999</v>
+        <v>2018</v>
       </c>
       <c r="D22" t="n">
-        <v>1999</v>
+        <v>2018</v>
       </c>
       <c r="E22" t="n">
-        <v>1999</v>
+        <v>2017</v>
       </c>
       <c r="F22" t="n">
-        <v>73.5446</v>
+        <v>144</v>
       </c>
       <c r="G22" t="n">
-        <v>-4370.59314859</v>
+        <v>-3654.305008800001</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
@@ -1162,28 +1187,29 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>2001</v>
+        <v>2010</v>
       </c>
       <c r="C23" t="n">
-        <v>2001</v>
+        <v>2010</v>
       </c>
       <c r="D23" t="n">
-        <v>2001</v>
+        <v>2010</v>
       </c>
       <c r="E23" t="n">
-        <v>2001</v>
+        <v>2010</v>
       </c>
       <c r="F23" t="n">
-        <v>200</v>
+        <v>28.162</v>
       </c>
       <c r="G23" t="n">
-        <v>-4170.59314859</v>
+        <v>-3682.467008800001</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1197,34 +1223,35 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>2001</v>
+        <v>2009</v>
       </c>
       <c r="C24" t="n">
-        <v>2001</v>
+        <v>2009</v>
       </c>
       <c r="D24" t="n">
-        <v>2001</v>
+        <v>2009</v>
       </c>
       <c r="E24" t="n">
-        <v>2001</v>
+        <v>2009</v>
       </c>
       <c r="F24" t="n">
-        <v>684.177</v>
+        <v>82.30200000000001</v>
       </c>
       <c r="G24" t="n">
-        <v>-4170.59314859</v>
+        <v>-3764.769008800001</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -1232,28 +1259,29 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>2000</v>
+        <v>2007</v>
       </c>
       <c r="C25" t="n">
-        <v>2003</v>
+        <v>2015</v>
       </c>
       <c r="D25" t="n">
-        <v>2003</v>
+        <v>2015</v>
       </c>
       <c r="E25" t="n">
-        <v>2000</v>
+        <v>2007</v>
       </c>
       <c r="F25" t="n">
-        <v>589.0821</v>
+        <v>316.6206</v>
       </c>
       <c r="G25" t="n">
-        <v>-3581.51104859</v>
+        <v>-3448.148408800001</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1267,28 +1295,29 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="C26" t="n">
-        <v>2002</v>
+        <v>2009</v>
       </c>
       <c r="D26" t="n">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="E26" t="n">
-        <v>2002</v>
+        <v>2009</v>
       </c>
       <c r="F26" t="n">
-        <v>294.3026</v>
+        <v>1.0983</v>
       </c>
       <c r="G26" t="n">
-        <v>-3875.81364859</v>
+        <v>-3449.246708800001</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1302,28 +1331,29 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>2002</v>
+        <v>2009</v>
       </c>
       <c r="C27" t="n">
-        <v>2002</v>
+        <v>2009</v>
       </c>
       <c r="D27" t="n">
-        <v>2002</v>
+        <v>2009</v>
       </c>
       <c r="E27" t="n">
-        <v>2002</v>
+        <v>2009</v>
       </c>
       <c r="F27" t="n">
-        <v>23.6139</v>
+        <v>219.268</v>
       </c>
       <c r="G27" t="n">
-        <v>-3875.81364859</v>
+        <v>-3449.246708800001</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1337,34 +1367,35 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>2001</v>
+        <v>2010</v>
       </c>
       <c r="C28" t="n">
-        <v>2000</v>
+        <v>2010</v>
       </c>
       <c r="D28" t="n">
-        <v>2001</v>
+        <v>2010</v>
       </c>
       <c r="E28" t="n">
-        <v>2000</v>
+        <v>2010</v>
       </c>
       <c r="F28" t="n">
-        <v>85.679</v>
+        <v>234.5286</v>
       </c>
       <c r="G28" t="n">
-        <v>-3961.49264859</v>
+        <v>-3214.718108800001</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -1372,34 +1403,35 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>2004</v>
+        <v>2010</v>
       </c>
       <c r="C29" t="n">
-        <v>2004</v>
+        <v>2010</v>
       </c>
       <c r="D29" t="n">
-        <v>2004</v>
+        <v>2010</v>
       </c>
       <c r="E29" t="n">
-        <v>2004</v>
+        <v>2010</v>
       </c>
       <c r="F29" t="n">
-        <v>1524.1219</v>
+        <v>35.8208</v>
       </c>
       <c r="G29" t="n">
-        <v>-2437.37074859</v>
+        <v>-3214.718108800001</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -1407,34 +1439,35 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>2004</v>
+        <v>2010</v>
       </c>
       <c r="C30" t="n">
-        <v>2004</v>
+        <v>2010</v>
       </c>
       <c r="D30" t="n">
-        <v>2004</v>
+        <v>2010</v>
       </c>
       <c r="E30" t="n">
-        <v>2004</v>
+        <v>2010</v>
       </c>
       <c r="F30" t="n">
-        <v>970.888</v>
+        <v>83.1384</v>
       </c>
       <c r="G30" t="n">
-        <v>-2437.37074859</v>
+        <v>-3214.718108800001</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -1442,28 +1475,29 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>2001</v>
+        <v>2004</v>
       </c>
       <c r="C31" t="n">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="D31" t="n">
-        <v>2001</v>
+        <v>2004</v>
       </c>
       <c r="E31" t="n">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="F31" t="n">
-        <v>93.614</v>
+        <v>1175.6072</v>
       </c>
       <c r="G31" t="n">
-        <v>-2530.98474859</v>
+        <v>-4390.3253088</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1477,28 +1511,29 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>2001</v>
+        <v>2012</v>
       </c>
       <c r="C32" t="n">
-        <v>2000</v>
+        <v>2016</v>
       </c>
       <c r="D32" t="n">
-        <v>2001</v>
+        <v>2016</v>
       </c>
       <c r="E32" t="n">
-        <v>2000</v>
+        <v>2012</v>
       </c>
       <c r="F32" t="n">
-        <v>136.965</v>
+        <v>955.06994047</v>
       </c>
       <c r="G32" t="n">
-        <v>-2667.94974859</v>
+        <v>-3435.25536833</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1512,28 +1547,29 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="C33" t="n">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="D33" t="n">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="E33" t="n">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="F33" t="n">
-        <v>483.1655</v>
+        <v>14.3447</v>
       </c>
       <c r="G33" t="n">
-        <v>-2184.78424859</v>
+        <v>-3449.60006833</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1547,28 +1583,29 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="C34" t="n">
-        <v>2004</v>
+        <v>2001</v>
       </c>
       <c r="D34" t="n">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="E34" t="n">
-        <v>2004</v>
+        <v>2001</v>
       </c>
       <c r="F34" t="n">
-        <v>90.3622</v>
+        <v>316.6108</v>
       </c>
       <c r="G34" t="n">
-        <v>-2275.14644859</v>
+        <v>-3766.21086833</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1582,28 +1619,29 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="C35" t="n">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="D35" t="n">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="E35" t="n">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="F35" t="n">
-        <v>7.04</v>
+        <v>30.0842</v>
       </c>
       <c r="G35" t="n">
-        <v>-2282.18644859</v>
+        <v>-3766.21086833</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1617,28 +1655,29 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="C36" t="n">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="D36" t="n">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="E36" t="n">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="F36" t="n">
-        <v>170.391</v>
+        <v>1383.2054</v>
       </c>
       <c r="G36" t="n">
-        <v>-2452.57744859</v>
+        <v>-5149.41626833</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1652,28 +1691,29 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>1997</v>
+        <v>2000</v>
       </c>
       <c r="C37" t="n">
-        <v>1996</v>
+        <v>2000</v>
       </c>
       <c r="D37" t="n">
-        <v>1997</v>
+        <v>2000</v>
       </c>
       <c r="E37" t="n">
-        <v>1996</v>
+        <v>2000</v>
       </c>
       <c r="F37" t="n">
-        <v>129.5851</v>
+        <v>635.5192</v>
       </c>
       <c r="G37" t="n">
-        <v>-2582.16254859</v>
+        <v>-5149.41626833</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1687,28 +1727,29 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1996</v>
+        <v>2000</v>
       </c>
       <c r="C38" t="n">
-        <v>1993</v>
+        <v>2000</v>
       </c>
       <c r="D38" t="n">
-        <v>1996</v>
+        <v>2000</v>
       </c>
       <c r="E38" t="n">
-        <v>1993</v>
+        <v>2000</v>
       </c>
       <c r="F38" t="n">
-        <v>1444.0626</v>
+        <v>5.9782</v>
       </c>
       <c r="G38" t="n">
-        <v>-4026.225148590001</v>
+        <v>-5149.41626833</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1722,28 +1763,29 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>1993</v>
+        <v>2000</v>
       </c>
       <c r="C39" t="n">
-        <v>1991</v>
+        <v>2000</v>
       </c>
       <c r="D39" t="n">
-        <v>1993</v>
+        <v>2000</v>
       </c>
       <c r="E39" t="n">
-        <v>1991</v>
+        <v>2000</v>
       </c>
       <c r="F39" t="n">
-        <v>20.42</v>
+        <v>12.8941</v>
       </c>
       <c r="G39" t="n">
-        <v>-4046.645148590001</v>
+        <v>-5149.41626833</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1757,28 +1799,29 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>1991</v>
+        <v>2002</v>
       </c>
       <c r="C40" t="n">
-        <v>1991</v>
+        <v>2002</v>
       </c>
       <c r="D40" t="n">
-        <v>1991</v>
+        <v>2002</v>
       </c>
       <c r="E40" t="n">
-        <v>1991</v>
+        <v>2002</v>
       </c>
       <c r="F40" t="n">
-        <v>33.7342</v>
+        <v>190.1593</v>
       </c>
       <c r="G40" t="n">
-        <v>-4046.645148590001</v>
+        <v>-4959.25696833</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1792,28 +1835,29 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>1998</v>
+        <v>2002</v>
       </c>
       <c r="C41" t="n">
-        <v>1998</v>
+        <v>2002</v>
       </c>
       <c r="D41" t="n">
-        <v>1998</v>
+        <v>2002</v>
       </c>
       <c r="E41" t="n">
-        <v>1998</v>
+        <v>2002</v>
       </c>
       <c r="F41" t="n">
-        <v>1.05105105</v>
+        <v>282.8809</v>
       </c>
       <c r="G41" t="n">
-        <v>-4045.594097540001</v>
+        <v>-4959.25696833</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1827,28 +1871,29 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>1999</v>
+        <v>2002</v>
       </c>
       <c r="C42" t="n">
-        <v>1999</v>
+        <v>2002</v>
       </c>
       <c r="D42" t="n">
-        <v>1999</v>
+        <v>2002</v>
       </c>
       <c r="E42" t="n">
-        <v>1999</v>
+        <v>2002</v>
       </c>
       <c r="F42" t="n">
-        <v>1</v>
+        <v>30.7467</v>
       </c>
       <c r="G42" t="n">
-        <v>-4044.594097540001</v>
+        <v>-4959.25696833</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1862,28 +1907,29 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="C43" t="n">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="D43" t="n">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="E43" t="n">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="F43" t="n">
-        <v>82.67100000000001</v>
+        <v>57.937</v>
       </c>
       <c r="G43" t="n">
-        <v>-4044.594097540001</v>
+        <v>-5017.19396833</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1897,28 +1943,29 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>1997</v>
+        <v>2000</v>
       </c>
       <c r="C44" t="n">
-        <v>1997</v>
+        <v>2000</v>
       </c>
       <c r="D44" t="n">
-        <v>1997</v>
+        <v>2000</v>
       </c>
       <c r="E44" t="n">
-        <v>1997</v>
+        <v>2000</v>
       </c>
       <c r="F44" t="n">
-        <v>2.6317</v>
+        <v>79.1688</v>
       </c>
       <c r="G44" t="n">
-        <v>-4047.225797540001</v>
+        <v>-5017.19396833</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1932,28 +1979,29 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>1997</v>
+        <v>2000</v>
       </c>
       <c r="C45" t="n">
-        <v>1997</v>
+        <v>2000</v>
       </c>
       <c r="D45" t="n">
-        <v>1997</v>
+        <v>2000</v>
       </c>
       <c r="E45" t="n">
-        <v>1997</v>
+        <v>2000</v>
       </c>
       <c r="F45" t="n">
-        <v>2.70405608</v>
+        <v>298.7163</v>
       </c>
       <c r="G45" t="n">
-        <v>-4047.225797540001</v>
+        <v>-5017.19396833</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1967,28 +2015,29 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>1997</v>
+        <v>2000</v>
       </c>
       <c r="C46" t="n">
         <v>1997</v>
       </c>
       <c r="D46" t="n">
-        <v>1997</v>
+        <v>2000</v>
       </c>
       <c r="E46" t="n">
         <v>1997</v>
       </c>
       <c r="F46" t="n">
-        <v>13.7232</v>
+        <v>231.7795</v>
       </c>
       <c r="G46" t="n">
-        <v>-4047.225797540001</v>
+        <v>-5248.973468329999</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2002,28 +2051,29 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>1992</v>
+        <v>2002</v>
       </c>
       <c r="C47" t="n">
-        <v>1992</v>
+        <v>2002</v>
       </c>
       <c r="D47" t="n">
-        <v>1992</v>
+        <v>2002</v>
       </c>
       <c r="E47" t="n">
-        <v>1992</v>
+        <v>2002</v>
       </c>
       <c r="F47" t="n">
-        <v>98</v>
+        <v>102.7</v>
       </c>
       <c r="G47" t="n">
-        <v>-4145.225797540001</v>
+        <v>-5146.27346833</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2037,28 +2087,29 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>1991</v>
+        <v>1997</v>
       </c>
       <c r="C48" t="n">
-        <v>1991</v>
+        <v>1997</v>
       </c>
       <c r="D48" t="n">
-        <v>1991</v>
+        <v>1997</v>
       </c>
       <c r="E48" t="n">
-        <v>1991</v>
+        <v>1997</v>
       </c>
       <c r="F48" t="n">
-        <v>120</v>
+        <v>39.242</v>
       </c>
       <c r="G48" t="n">
-        <v>-4265.225797540001</v>
+        <v>-5185.51546833</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2072,28 +2123,29 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>1991</v>
+        <v>2002</v>
       </c>
       <c r="C49" t="n">
-        <v>1991</v>
+        <v>2002</v>
       </c>
       <c r="D49" t="n">
-        <v>1991</v>
+        <v>2002</v>
       </c>
       <c r="E49" t="n">
-        <v>1991</v>
+        <v>2002</v>
       </c>
       <c r="F49" t="n">
-        <v>6</v>
+        <v>161.4475</v>
       </c>
       <c r="G49" t="n">
-        <v>-4265.225797540001</v>
+        <v>-5024.06796833</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2107,28 +2159,29 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>1991</v>
+        <v>1997</v>
       </c>
       <c r="C50" t="n">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="D50" t="n">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="E50" t="n">
-        <v>1991</v>
+        <v>1997</v>
       </c>
       <c r="F50" t="n">
-        <v>532.9772</v>
+        <v>42.7992</v>
       </c>
       <c r="G50" t="n">
-        <v>-3732.24859754</v>
+        <v>-5066.86716833</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2142,28 +2195,29 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="C51" t="n">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="D51" t="n">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="E51" t="n">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="F51" t="n">
-        <v>5.00751126</v>
+        <v>102.466</v>
       </c>
       <c r="G51" t="n">
-        <v>-3737.2561088</v>
+        <v>-4964.40116833</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2177,28 +2231,29 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="C52" t="n">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="D52" t="n">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="E52" t="n">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="F52" t="n">
-        <v>37.5563</v>
+        <v>87.5737</v>
       </c>
       <c r="G52" t="n">
-        <v>-3737.2561088</v>
+        <v>-4964.40116833</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2212,28 +2267,29 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>1991</v>
+        <v>1998</v>
       </c>
       <c r="C53" t="n">
-        <v>1991</v>
+        <v>1998</v>
       </c>
       <c r="D53" t="n">
-        <v>1991</v>
+        <v>1998</v>
       </c>
       <c r="E53" t="n">
-        <v>1991</v>
+        <v>1998</v>
       </c>
       <c r="F53" t="n">
-        <v>26.2335</v>
+        <v>39.0897</v>
       </c>
       <c r="G53" t="n">
-        <v>-3763.4896088</v>
+        <v>-4964.40116833</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2247,34 +2303,35 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>1999</v>
+        <v>2003</v>
       </c>
       <c r="C54" t="n">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="D54" t="n">
-        <v>2007</v>
+        <v>2003</v>
       </c>
       <c r="E54" t="n">
-        <v>1999</v>
+        <v>2003</v>
       </c>
       <c r="F54" t="n">
-        <v>1059.5598</v>
+        <v>0.13</v>
       </c>
       <c r="G54" t="n">
-        <v>-2703.9298088</v>
+        <v>-4964.271168329999</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
@@ -2282,34 +2339,35 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>2011</v>
+        <v>1999</v>
       </c>
       <c r="C55" t="n">
-        <v>2011</v>
+        <v>1999</v>
       </c>
       <c r="D55" t="n">
-        <v>2011</v>
+        <v>1999</v>
       </c>
       <c r="E55" t="n">
-        <v>2011</v>
+        <v>1999</v>
       </c>
       <c r="F55" t="n">
-        <v>127.7</v>
+        <v>0.1527</v>
       </c>
       <c r="G55" t="n">
-        <v>-2576.2298088</v>
+        <v>-4964.423868329999</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
@@ -2317,28 +2375,29 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>2013</v>
+        <v>1998</v>
       </c>
       <c r="C56" t="n">
-        <v>2013</v>
+        <v>2001</v>
       </c>
       <c r="D56" t="n">
-        <v>2013</v>
+        <v>2001</v>
       </c>
       <c r="E56" t="n">
-        <v>2013</v>
+        <v>1998</v>
       </c>
       <c r="F56" t="n">
-        <v>79.4545</v>
+        <v>301</v>
       </c>
       <c r="G56" t="n">
-        <v>-2496.7753088</v>
+        <v>-4663.423868329999</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2352,28 +2411,29 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>2011</v>
+        <v>2001</v>
       </c>
       <c r="C57" t="n">
-        <v>2008</v>
+        <v>2001</v>
       </c>
       <c r="D57" t="n">
-        <v>2014</v>
+        <v>2001</v>
       </c>
       <c r="E57" t="n">
-        <v>2008</v>
+        <v>2001</v>
       </c>
       <c r="F57" t="n">
-        <v>1953.5813</v>
+        <v>5</v>
       </c>
       <c r="G57" t="n">
-        <v>-4450.356608800001</v>
+        <v>-4663.423868329999</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2387,34 +2447,35 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="C58" t="n">
-        <v>2009</v>
+        <v>2000</v>
       </c>
       <c r="D58" t="n">
-        <v>2009</v>
+        <v>2000</v>
       </c>
       <c r="E58" t="n">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="F58" t="n">
-        <v>936.4347</v>
+        <v>95.0877</v>
       </c>
       <c r="G58" t="n">
-        <v>-3513.921908800001</v>
+        <v>-4758.511568329999</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
@@ -2422,28 +2483,29 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>2008</v>
+        <v>2000</v>
       </c>
       <c r="C59" t="n">
-        <v>2007</v>
+        <v>2000</v>
       </c>
       <c r="D59" t="n">
-        <v>2008</v>
+        <v>2000</v>
       </c>
       <c r="E59" t="n">
-        <v>2007</v>
+        <v>2000</v>
       </c>
       <c r="F59" t="n">
-        <v>203.7999</v>
+        <v>200</v>
       </c>
       <c r="G59" t="n">
-        <v>-3717.721808800001</v>
+        <v>-4758.511568329999</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2457,34 +2519,35 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>2012</v>
+        <v>2000</v>
       </c>
       <c r="C60" t="n">
-        <v>2007</v>
+        <v>2000</v>
       </c>
       <c r="D60" t="n">
-        <v>2012</v>
+        <v>2000</v>
       </c>
       <c r="E60" t="n">
-        <v>2007</v>
+        <v>2000</v>
       </c>
       <c r="F60" t="n">
-        <v>196.5106</v>
+        <v>50</v>
       </c>
       <c r="G60" t="n">
-        <v>-3717.721808800001</v>
+        <v>-4758.511568329999</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
@@ -2492,34 +2555,35 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>2011</v>
+        <v>1998</v>
       </c>
       <c r="C61" t="n">
-        <v>2011</v>
+        <v>1998</v>
       </c>
       <c r="D61" t="n">
-        <v>2011</v>
+        <v>1998</v>
       </c>
       <c r="E61" t="n">
-        <v>2011</v>
+        <v>1998</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1</v>
+        <v>42.5686</v>
       </c>
       <c r="G61" t="n">
-        <v>-3717.621808800001</v>
+        <v>-4801.080168329999</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
@@ -2527,34 +2591,35 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>2015</v>
+        <v>1998</v>
       </c>
       <c r="C62" t="n">
-        <v>2015</v>
+        <v>2000</v>
       </c>
       <c r="D62" t="n">
-        <v>2015</v>
+        <v>2000</v>
       </c>
       <c r="E62" t="n">
-        <v>2015</v>
+        <v>1998</v>
       </c>
       <c r="F62" t="n">
-        <v>69.3168</v>
+        <v>699.5955</v>
       </c>
       <c r="G62" t="n">
-        <v>-3648.305008800001</v>
+        <v>-4101.484668329998</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
@@ -2562,28 +2627,29 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>2008</v>
+        <v>2001</v>
       </c>
       <c r="C63" t="n">
-        <v>2008</v>
+        <v>2001</v>
       </c>
       <c r="D63" t="n">
-        <v>2008</v>
+        <v>2001</v>
       </c>
       <c r="E63" t="n">
-        <v>2008</v>
+        <v>2001</v>
       </c>
       <c r="F63" t="n">
-        <v>150</v>
+        <v>198.2865</v>
       </c>
       <c r="G63" t="n">
-        <v>-3798.305008800001</v>
+        <v>-3903.198168329998</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2597,34 +2663,35 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>2017</v>
+        <v>1998</v>
       </c>
       <c r="C64" t="n">
-        <v>2018</v>
+        <v>1998</v>
       </c>
       <c r="D64" t="n">
-        <v>2018</v>
+        <v>1998</v>
       </c>
       <c r="E64" t="n">
-        <v>2017</v>
+        <v>1998</v>
       </c>
       <c r="F64" t="n">
-        <v>144</v>
+        <v>407.5</v>
       </c>
       <c r="G64" t="n">
-        <v>-3654.305008800001</v>
+        <v>-4310.698168329998</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
@@ -2632,28 +2699,29 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>2010</v>
+        <v>1997</v>
       </c>
       <c r="C65" t="n">
-        <v>2010</v>
+        <v>1997</v>
       </c>
       <c r="D65" t="n">
-        <v>2010</v>
+        <v>1997</v>
       </c>
       <c r="E65" t="n">
-        <v>2010</v>
+        <v>1997</v>
       </c>
       <c r="F65" t="n">
-        <v>28.162</v>
+        <v>3.0984</v>
       </c>
       <c r="G65" t="n">
-        <v>-3682.467008800001</v>
+        <v>-4313.796568329998</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2667,28 +2735,29 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>2009</v>
+        <v>1998</v>
       </c>
       <c r="C66" t="n">
-        <v>2009</v>
+        <v>1998</v>
       </c>
       <c r="D66" t="n">
-        <v>2009</v>
+        <v>1998</v>
       </c>
       <c r="E66" t="n">
-        <v>2009</v>
+        <v>1998</v>
       </c>
       <c r="F66" t="n">
-        <v>82.30200000000001</v>
+        <v>200</v>
       </c>
       <c r="G66" t="n">
-        <v>-3764.769008800001</v>
+        <v>-4113.796568329998</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2702,28 +2771,29 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>2007</v>
+        <v>2000</v>
       </c>
       <c r="C67" t="n">
-        <v>2015</v>
+        <v>2000</v>
       </c>
       <c r="D67" t="n">
-        <v>2015</v>
+        <v>2000</v>
       </c>
       <c r="E67" t="n">
-        <v>2007</v>
+        <v>2000</v>
       </c>
       <c r="F67" t="n">
-        <v>316.6206</v>
+        <v>27.7741</v>
       </c>
       <c r="G67" t="n">
-        <v>-3448.148408800001</v>
+        <v>-4086.022468329998</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2737,28 +2807,29 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>2009</v>
+        <v>2000</v>
       </c>
       <c r="C68" t="n">
-        <v>2009</v>
+        <v>2004</v>
       </c>
       <c r="D68" t="n">
-        <v>2009</v>
+        <v>2004</v>
       </c>
       <c r="E68" t="n">
-        <v>2009</v>
+        <v>2000</v>
       </c>
       <c r="F68" t="n">
-        <v>1.0983</v>
+        <v>378.7749</v>
       </c>
       <c r="G68" t="n">
-        <v>-3449.246708800001</v>
+        <v>-3707.247568329998</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2772,28 +2843,29 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>2009</v>
+        <v>2004</v>
       </c>
       <c r="C69" t="n">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="D69" t="n">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="E69" t="n">
-        <v>2009</v>
+        <v>2004</v>
       </c>
       <c r="F69" t="n">
-        <v>219.268</v>
+        <v>348.772</v>
       </c>
       <c r="G69" t="n">
-        <v>-3449.246708800001</v>
+        <v>-3358.475568329998</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2807,13 +2879,14 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>2010</v>
+        <v>2005</v>
       </c>
       <c r="C70" t="n">
         <v>2010</v>
@@ -2822,13 +2895,13 @@
         <v>2010</v>
       </c>
       <c r="E70" t="n">
-        <v>2010</v>
+        <v>2005</v>
       </c>
       <c r="F70" t="n">
-        <v>234.5286</v>
+        <v>851</v>
       </c>
       <c r="G70" t="n">
-        <v>-3214.718108800001</v>
+        <v>-2507.475568329998</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2842,28 +2915,29 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>2010</v>
+        <v>2004</v>
       </c>
       <c r="C71" t="n">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="D71" t="n">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="E71" t="n">
-        <v>2010</v>
+        <v>2004</v>
       </c>
       <c r="F71" t="n">
-        <v>35.8208</v>
+        <v>500.1</v>
       </c>
       <c r="G71" t="n">
-        <v>-3214.718108800001</v>
+        <v>-2007.375568329998</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2877,34 +2951,35 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="C72" t="n">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="D72" t="n">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="E72" t="n">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="F72" t="n">
-        <v>83.1384</v>
+        <v>200</v>
       </c>
       <c r="G72" t="n">
-        <v>-3214.718108800001</v>
+        <v>-2207.375568329998</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
@@ -2912,34 +2987,35 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>2004</v>
+        <v>2007</v>
       </c>
       <c r="C73" t="n">
-        <v>2002</v>
+        <v>2007</v>
       </c>
       <c r="D73" t="n">
-        <v>2004</v>
+        <v>2007</v>
       </c>
       <c r="E73" t="n">
-        <v>2000</v>
+        <v>2007</v>
       </c>
       <c r="F73" t="n">
-        <v>1175.6072</v>
+        <v>100</v>
       </c>
       <c r="G73" t="n">
-        <v>-4390.3253088</v>
+        <v>-2207.375568329998</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
@@ -2947,34 +3023,35 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>2012</v>
+        <v>2004</v>
       </c>
       <c r="C74" t="n">
-        <v>2016</v>
+        <v>2004</v>
       </c>
       <c r="D74" t="n">
-        <v>2016</v>
+        <v>2004</v>
       </c>
       <c r="E74" t="n">
-        <v>2012</v>
+        <v>2004</v>
       </c>
       <c r="F74" t="n">
-        <v>955.06994047</v>
+        <v>100</v>
       </c>
       <c r="G74" t="n">
-        <v>-3435.25536833</v>
+        <v>-2307.375568329998</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
@@ -2982,28 +3059,29 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="C75" t="n">
-        <v>2003</v>
+        <v>2009</v>
       </c>
       <c r="D75" t="n">
-        <v>2003</v>
+        <v>2012</v>
       </c>
       <c r="E75" t="n">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="F75" t="n">
-        <v>14.3447</v>
+        <v>534.0048</v>
       </c>
       <c r="G75" t="n">
-        <v>-3449.60006833</v>
+        <v>-1773.370768329998</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3017,34 +3095,35 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>2002</v>
+        <v>2009</v>
       </c>
       <c r="C76" t="n">
-        <v>2001</v>
+        <v>2017</v>
       </c>
       <c r="D76" t="n">
-        <v>2002</v>
+        <v>2017</v>
       </c>
       <c r="E76" t="n">
-        <v>2001</v>
+        <v>2009</v>
       </c>
       <c r="F76" t="n">
-        <v>316.6108</v>
+        <v>1050.9782</v>
       </c>
       <c r="G76" t="n">
-        <v>-3766.21086833</v>
+        <v>-722.3925683299981</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
@@ -3052,34 +3131,35 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>2001</v>
+        <v>2011</v>
       </c>
       <c r="C77" t="n">
-        <v>2001</v>
+        <v>2019</v>
       </c>
       <c r="D77" t="n">
-        <v>2001</v>
+        <v>2019</v>
       </c>
       <c r="E77" t="n">
-        <v>2001</v>
+        <v>2011</v>
       </c>
       <c r="F77" t="n">
-        <v>30.0842</v>
+        <v>45.9585</v>
       </c>
       <c r="G77" t="n">
-        <v>-3766.21086833</v>
+        <v>-676.4340683299981</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
@@ -3087,34 +3167,35 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>2001</v>
+        <v>2010</v>
       </c>
       <c r="C78" t="n">
-        <v>2000</v>
+        <v>2010</v>
       </c>
       <c r="D78" t="n">
-        <v>2001</v>
+        <v>2010</v>
       </c>
       <c r="E78" t="n">
-        <v>2000</v>
+        <v>2010</v>
       </c>
       <c r="F78" t="n">
-        <v>1383.2054</v>
+        <v>12.39</v>
       </c>
       <c r="G78" t="n">
-        <v>-5149.41626833</v>
+        <v>-688.8240683299981</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
@@ -3122,34 +3203,35 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>2000</v>
+        <v>2010</v>
       </c>
       <c r="C79" t="n">
-        <v>2000</v>
+        <v>2012</v>
       </c>
       <c r="D79" t="n">
-        <v>2000</v>
+        <v>2012</v>
       </c>
       <c r="E79" t="n">
-        <v>2000</v>
+        <v>2010</v>
       </c>
       <c r="F79" t="n">
-        <v>635.5192</v>
+        <v>597</v>
       </c>
       <c r="G79" t="n">
-        <v>-5149.41626833</v>
+        <v>-91.82406832999811</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
@@ -3157,34 +3239,35 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>2000</v>
+        <v>2008</v>
       </c>
       <c r="C80" t="n">
-        <v>2000</v>
+        <v>2008</v>
       </c>
       <c r="D80" t="n">
-        <v>2000</v>
+        <v>2008</v>
       </c>
       <c r="E80" t="n">
-        <v>2000</v>
+        <v>2008</v>
       </c>
       <c r="F80" t="n">
-        <v>5.9782</v>
+        <v>29.6006</v>
       </c>
       <c r="G80" t="n">
-        <v>-5149.41626833</v>
+        <v>-121.4246683299981</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
@@ -3192,34 +3275,35 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>2000</v>
+        <v>2005</v>
       </c>
       <c r="C81" t="n">
-        <v>2000</v>
+        <v>2006</v>
       </c>
       <c r="D81" t="n">
-        <v>2000</v>
+        <v>2006</v>
       </c>
       <c r="E81" t="n">
-        <v>2000</v>
+        <v>2005</v>
       </c>
       <c r="F81" t="n">
-        <v>12.8941</v>
+        <v>147.9342</v>
       </c>
       <c r="G81" t="n">
-        <v>-5149.41626833</v>
+        <v>-269.3588683299981</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
@@ -3227,34 +3311,35 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>2002</v>
+        <v>2009</v>
       </c>
       <c r="C82" t="n">
-        <v>2002</v>
+        <v>2009</v>
       </c>
       <c r="D82" t="n">
-        <v>2002</v>
+        <v>2009</v>
       </c>
       <c r="E82" t="n">
-        <v>2002</v>
+        <v>2009</v>
       </c>
       <c r="F82" t="n">
-        <v>190.1593</v>
+        <v>196.5255</v>
       </c>
       <c r="G82" t="n">
-        <v>-4959.25696833</v>
+        <v>-72.83336832999814</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
@@ -3262,34 +3347,35 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>2002</v>
+        <v>2008</v>
       </c>
       <c r="C83" t="n">
-        <v>2002</v>
+        <v>2008</v>
       </c>
       <c r="D83" t="n">
-        <v>2002</v>
+        <v>2008</v>
       </c>
       <c r="E83" t="n">
-        <v>2002</v>
+        <v>2008</v>
       </c>
       <c r="F83" t="n">
-        <v>282.8809</v>
+        <v>97</v>
       </c>
       <c r="G83" t="n">
-        <v>-4959.25696833</v>
+        <v>-169.8333683299981</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
@@ -3297,34 +3383,35 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>2002</v>
+        <v>2008</v>
       </c>
       <c r="C84" t="n">
-        <v>2002</v>
+        <v>2008</v>
       </c>
       <c r="D84" t="n">
-        <v>2002</v>
+        <v>2008</v>
       </c>
       <c r="E84" t="n">
-        <v>2002</v>
+        <v>2008</v>
       </c>
       <c r="F84" t="n">
-        <v>30.7467</v>
+        <v>149.44</v>
       </c>
       <c r="G84" t="n">
-        <v>-4959.25696833</v>
+        <v>-169.8333683299981</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
@@ -3332,34 +3419,35 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>2000</v>
+        <v>2008</v>
       </c>
       <c r="C85" t="n">
-        <v>2000</v>
+        <v>2008</v>
       </c>
       <c r="D85" t="n">
-        <v>2000</v>
+        <v>2008</v>
       </c>
       <c r="E85" t="n">
-        <v>2000</v>
+        <v>2008</v>
       </c>
       <c r="F85" t="n">
-        <v>57.937</v>
+        <v>22.9525</v>
       </c>
       <c r="G85" t="n">
-        <v>-5017.19396833</v>
+        <v>-169.8333683299981</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
@@ -3367,34 +3455,35 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>2000</v>
+        <v>2008</v>
       </c>
       <c r="C86" t="n">
-        <v>2000</v>
+        <v>2013</v>
       </c>
       <c r="D86" t="n">
-        <v>2000</v>
+        <v>2013</v>
       </c>
       <c r="E86" t="n">
-        <v>2000</v>
+        <v>2008</v>
       </c>
       <c r="F86" t="n">
-        <v>79.1688</v>
+        <v>16.1906</v>
       </c>
       <c r="G86" t="n">
-        <v>-5017.19396833</v>
+        <v>-153.6427683299981</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
@@ -3402,34 +3491,35 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>2000</v>
+        <v>2008</v>
       </c>
       <c r="C87" t="n">
-        <v>2000</v>
+        <v>2008</v>
       </c>
       <c r="D87" t="n">
-        <v>2000</v>
+        <v>2008</v>
       </c>
       <c r="E87" t="n">
-        <v>2000</v>
+        <v>2008</v>
       </c>
       <c r="F87" t="n">
-        <v>298.7163</v>
+        <v>19.679</v>
       </c>
       <c r="G87" t="n">
-        <v>-5017.19396833</v>
+        <v>-173.3217683299982</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
@@ -3437,34 +3527,35 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>2000</v>
+        <v>2008</v>
       </c>
       <c r="C88" t="n">
-        <v>1997</v>
+        <v>2008</v>
       </c>
       <c r="D88" t="n">
-        <v>2000</v>
+        <v>2008</v>
       </c>
       <c r="E88" t="n">
-        <v>1997</v>
+        <v>2008</v>
       </c>
       <c r="F88" t="n">
-        <v>231.7795</v>
+        <v>182.1572</v>
       </c>
       <c r="G88" t="n">
-        <v>-5248.973468329999</v>
+        <v>-173.3217683299982</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
@@ -3472,34 +3563,35 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>2002</v>
+        <v>2008</v>
       </c>
       <c r="C89" t="n">
-        <v>2002</v>
+        <v>2008</v>
       </c>
       <c r="D89" t="n">
-        <v>2002</v>
+        <v>2008</v>
       </c>
       <c r="E89" t="n">
-        <v>2002</v>
+        <v>2008</v>
       </c>
       <c r="F89" t="n">
-        <v>102.7</v>
+        <v>214.711</v>
       </c>
       <c r="G89" t="n">
-        <v>-5146.27346833</v>
+        <v>-173.3217683299982</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
@@ -3507,34 +3599,35 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>1997</v>
+        <v>2008</v>
       </c>
       <c r="C90" t="n">
-        <v>1997</v>
+        <v>2008</v>
       </c>
       <c r="D90" t="n">
-        <v>1997</v>
+        <v>2008</v>
       </c>
       <c r="E90" t="n">
-        <v>1997</v>
+        <v>2008</v>
       </c>
       <c r="F90" t="n">
-        <v>39.242</v>
+        <v>82.86799999999999</v>
       </c>
       <c r="G90" t="n">
-        <v>-5185.51546833</v>
+        <v>-173.3217683299982</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
@@ -3542,34 +3635,35 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>2002</v>
+        <v>2008</v>
       </c>
       <c r="C91" t="n">
-        <v>2002</v>
+        <v>2008</v>
       </c>
       <c r="D91" t="n">
-        <v>2002</v>
+        <v>2008</v>
       </c>
       <c r="E91" t="n">
-        <v>2002</v>
+        <v>2008</v>
       </c>
       <c r="F91" t="n">
-        <v>161.4475</v>
+        <v>694.9</v>
       </c>
       <c r="G91" t="n">
-        <v>-5024.06796833</v>
+        <v>-173.3217683299982</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
@@ -3577,34 +3671,35 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>1997</v>
+        <v>2008</v>
       </c>
       <c r="C92" t="n">
-        <v>1997</v>
+        <v>2008</v>
       </c>
       <c r="D92" t="n">
-        <v>1997</v>
+        <v>2008</v>
       </c>
       <c r="E92" t="n">
-        <v>1997</v>
+        <v>2008</v>
       </c>
       <c r="F92" t="n">
-        <v>42.7992</v>
+        <v>79</v>
       </c>
       <c r="G92" t="n">
-        <v>-5066.86716833</v>
+        <v>-173.3217683299982</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
@@ -3612,34 +3707,35 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>1998</v>
+        <v>2008</v>
       </c>
       <c r="C93" t="n">
-        <v>1998</v>
+        <v>2008</v>
       </c>
       <c r="D93" t="n">
-        <v>1998</v>
+        <v>2008</v>
       </c>
       <c r="E93" t="n">
-        <v>1998</v>
+        <v>2008</v>
       </c>
       <c r="F93" t="n">
-        <v>102.466</v>
+        <v>223.1</v>
       </c>
       <c r="G93" t="n">
-        <v>-4964.40116833</v>
+        <v>-173.3217683299982</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
@@ -3647,34 +3743,35 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>1998</v>
+        <v>2008</v>
       </c>
       <c r="C94" t="n">
-        <v>1998</v>
+        <v>2008</v>
       </c>
       <c r="D94" t="n">
-        <v>1998</v>
+        <v>2008</v>
       </c>
       <c r="E94" t="n">
-        <v>1998</v>
+        <v>2008</v>
       </c>
       <c r="F94" t="n">
-        <v>87.5737</v>
+        <v>4</v>
       </c>
       <c r="G94" t="n">
-        <v>-4964.40116833</v>
+        <v>-173.3217683299982</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
@@ -3682,34 +3779,35 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>1998</v>
+        <v>2008</v>
       </c>
       <c r="C95" t="n">
-        <v>1998</v>
+        <v>2008</v>
       </c>
       <c r="D95" t="n">
-        <v>1998</v>
+        <v>2008</v>
       </c>
       <c r="E95" t="n">
-        <v>1998</v>
+        <v>2008</v>
       </c>
       <c r="F95" t="n">
-        <v>39.0897</v>
+        <v>75.2641</v>
       </c>
       <c r="G95" t="n">
-        <v>-4964.40116833</v>
+        <v>-173.3217683299982</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
@@ -3717,34 +3815,35 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>2003</v>
+        <v>2008</v>
       </c>
       <c r="C96" t="n">
-        <v>2003</v>
+        <v>2000</v>
       </c>
       <c r="D96" t="n">
-        <v>2003</v>
+        <v>2008</v>
       </c>
       <c r="E96" t="n">
-        <v>2003</v>
+        <v>2000</v>
       </c>
       <c r="F96" t="n">
-        <v>0.13</v>
+        <v>2549.5961</v>
       </c>
       <c r="G96" t="n">
-        <v>-4964.271168329999</v>
+        <v>-2722.917868329998</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
@@ -3752,28 +3851,29 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="C97" t="n">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="D97" t="n">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="E97" t="n">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1527</v>
+        <v>4.4804</v>
       </c>
       <c r="G97" t="n">
-        <v>-4964.423868329999</v>
+        <v>-2727.398268329998</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3787,28 +3887,29 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>1998</v>
+        <v>1995</v>
       </c>
       <c r="C98" t="n">
-        <v>2001</v>
+        <v>1995</v>
       </c>
       <c r="D98" t="n">
-        <v>2001</v>
+        <v>1995</v>
       </c>
       <c r="E98" t="n">
-        <v>1998</v>
+        <v>1995</v>
       </c>
       <c r="F98" t="n">
-        <v>301</v>
+        <v>356.125</v>
       </c>
       <c r="G98" t="n">
-        <v>-4663.423868329999</v>
+        <v>-3083.523268329998</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3822,28 +3923,29 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>2001</v>
+        <v>1996</v>
       </c>
       <c r="C99" t="n">
-        <v>2001</v>
+        <v>1996</v>
       </c>
       <c r="D99" t="n">
-        <v>2001</v>
+        <v>1996</v>
       </c>
       <c r="E99" t="n">
-        <v>2001</v>
+        <v>1996</v>
       </c>
       <c r="F99" t="n">
-        <v>5</v>
+        <v>34.2765</v>
       </c>
       <c r="G99" t="n">
-        <v>-4663.423868329999</v>
+        <v>-3049.246768329998</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3857,28 +3959,29 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>2000</v>
+        <v>2002</v>
       </c>
       <c r="C100" t="n">
-        <v>2000</v>
+        <v>2002</v>
       </c>
       <c r="D100" t="n">
-        <v>2000</v>
+        <v>2002</v>
       </c>
       <c r="E100" t="n">
-        <v>2000</v>
+        <v>2002</v>
       </c>
       <c r="F100" t="n">
-        <v>95.0877</v>
+        <v>1</v>
       </c>
       <c r="G100" t="n">
-        <v>-4758.511568329999</v>
+        <v>-3048.246768329998</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3892,28 +3995,29 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="C101" t="n">
-        <v>2000</v>
+        <v>1994</v>
       </c>
       <c r="D101" t="n">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="E101" t="n">
-        <v>2000</v>
+        <v>1994</v>
       </c>
       <c r="F101" t="n">
-        <v>200</v>
+        <v>933.3797</v>
       </c>
       <c r="G101" t="n">
-        <v>-4758.511568329999</v>
+        <v>-3981.626468329998</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3927,28 +4031,29 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="C102" t="n">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="D102" t="n">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="E102" t="n">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="F102" t="n">
-        <v>50</v>
+        <v>29.1623</v>
       </c>
       <c r="G102" t="n">
-        <v>-4758.511568329999</v>
+        <v>-3952.464168329998</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3962,28 +4067,29 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>1998</v>
+        <v>2001</v>
       </c>
       <c r="C103" t="n">
-        <v>1998</v>
+        <v>2001</v>
       </c>
       <c r="D103" t="n">
-        <v>1998</v>
+        <v>2001</v>
       </c>
       <c r="E103" t="n">
-        <v>1998</v>
+        <v>2001</v>
       </c>
       <c r="F103" t="n">
-        <v>42.5686</v>
+        <v>18.6842</v>
       </c>
       <c r="G103" t="n">
-        <v>-4801.080168329999</v>
+        <v>-3952.464168329998</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -3997,34 +4103,35 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>1998</v>
+        <v>1994</v>
       </c>
       <c r="C104" t="n">
-        <v>2000</v>
+        <v>1993</v>
       </c>
       <c r="D104" t="n">
-        <v>2000</v>
+        <v>1994</v>
       </c>
       <c r="E104" t="n">
-        <v>1998</v>
+        <v>1993</v>
       </c>
       <c r="F104" t="n">
-        <v>699.5955</v>
+        <v>324.1783</v>
       </c>
       <c r="G104" t="n">
-        <v>-4101.484668329998</v>
+        <v>-4276.642468329998</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
@@ -4032,28 +4139,29 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>2001</v>
+        <v>1997</v>
       </c>
       <c r="C105" t="n">
-        <v>2001</v>
+        <v>1997</v>
       </c>
       <c r="D105" t="n">
-        <v>2001</v>
+        <v>1997</v>
       </c>
       <c r="E105" t="n">
-        <v>2001</v>
+        <v>1997</v>
       </c>
       <c r="F105" t="n">
-        <v>198.2865</v>
+        <v>96.3999</v>
       </c>
       <c r="G105" t="n">
-        <v>-3903.198168329998</v>
+        <v>-4180.242568329998</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4067,28 +4175,29 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>1998</v>
+        <v>1993</v>
       </c>
       <c r="C106" t="n">
-        <v>1998</v>
+        <v>1993</v>
       </c>
       <c r="D106" t="n">
-        <v>1998</v>
+        <v>1993</v>
       </c>
       <c r="E106" t="n">
-        <v>1998</v>
+        <v>1993</v>
       </c>
       <c r="F106" t="n">
-        <v>407.5</v>
+        <v>50</v>
       </c>
       <c r="G106" t="n">
-        <v>-4310.698168329998</v>
+        <v>-4230.242568329998</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4102,28 +4211,29 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>1997</v>
+        <v>2001</v>
       </c>
       <c r="C107" t="n">
-        <v>1997</v>
+        <v>2001</v>
       </c>
       <c r="D107" t="n">
-        <v>1997</v>
+        <v>2001</v>
       </c>
       <c r="E107" t="n">
-        <v>1997</v>
+        <v>2001</v>
       </c>
       <c r="F107" t="n">
-        <v>3.0984</v>
+        <v>6.2093</v>
       </c>
       <c r="G107" t="n">
-        <v>-4313.796568329998</v>
+        <v>-4224.033268329998</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4137,34 +4247,35 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="C108" t="n">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="D108" t="n">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="E108" t="n">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="F108" t="n">
-        <v>200</v>
+        <v>25.7318</v>
       </c>
       <c r="G108" t="n">
-        <v>-4113.796568329998</v>
+        <v>-4249.765068329997</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
@@ -4172,28 +4283,29 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="C109" t="n">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="D109" t="n">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="E109" t="n">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="F109" t="n">
-        <v>27.7741</v>
+        <v>20.8636</v>
       </c>
       <c r="G109" t="n">
-        <v>-4086.022468329998</v>
+        <v>-4270.628668329997</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4207,28 +4319,29 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="C110" t="n">
-        <v>2004</v>
+        <v>1999</v>
       </c>
       <c r="D110" t="n">
-        <v>2004</v>
+        <v>1999</v>
       </c>
       <c r="E110" t="n">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="F110" t="n">
-        <v>378.7749</v>
+        <v>15.202</v>
       </c>
       <c r="G110" t="n">
-        <v>-3707.247568329998</v>
+        <v>-4255.426668329997</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4242,28 +4355,29 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="C111" t="n">
-        <v>2005</v>
+        <v>2000</v>
       </c>
       <c r="D111" t="n">
-        <v>2005</v>
+        <v>2000</v>
       </c>
       <c r="E111" t="n">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="F111" t="n">
-        <v>348.772</v>
+        <v>41.4955</v>
       </c>
       <c r="G111" t="n">
-        <v>-3358.475568329998</v>
+        <v>-4213.931168329997</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4277,34 +4391,35 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>2005</v>
+        <v>2000</v>
       </c>
       <c r="C112" t="n">
-        <v>2010</v>
+        <v>2000</v>
       </c>
       <c r="D112" t="n">
-        <v>2010</v>
+        <v>2000</v>
       </c>
       <c r="E112" t="n">
-        <v>2005</v>
+        <v>2000</v>
       </c>
       <c r="F112" t="n">
-        <v>851</v>
+        <v>13.3925</v>
       </c>
       <c r="G112" t="n">
-        <v>-2507.475568329998</v>
+        <v>-4213.931168329997</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
@@ -4312,34 +4427,35 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="C113" t="n">
-        <v>2012</v>
+        <v>2000</v>
       </c>
       <c r="D113" t="n">
-        <v>2012</v>
+        <v>2000</v>
       </c>
       <c r="E113" t="n">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="F113" t="n">
-        <v>500.1</v>
+        <v>12.0533</v>
       </c>
       <c r="G113" t="n">
-        <v>-2007.375568329998</v>
+        <v>-4213.931168329997</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
@@ -4347,34 +4463,35 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>2007</v>
+        <v>1999</v>
       </c>
       <c r="C114" t="n">
-        <v>2007</v>
+        <v>1998</v>
       </c>
       <c r="D114" t="n">
-        <v>2007</v>
+        <v>1999</v>
       </c>
       <c r="E114" t="n">
-        <v>2007</v>
+        <v>1998</v>
       </c>
       <c r="F114" t="n">
-        <v>200</v>
+        <v>16.5894</v>
       </c>
       <c r="G114" t="n">
-        <v>-2207.375568329998</v>
+        <v>-4230.520568329996</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
@@ -4382,34 +4499,35 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>2007</v>
+        <v>1998</v>
       </c>
       <c r="C115" t="n">
-        <v>2007</v>
+        <v>1995</v>
       </c>
       <c r="D115" t="n">
-        <v>2007</v>
+        <v>1998</v>
       </c>
       <c r="E115" t="n">
-        <v>2007</v>
+        <v>1995</v>
       </c>
       <c r="F115" t="n">
-        <v>100</v>
+        <v>468.421</v>
       </c>
       <c r="G115" t="n">
-        <v>-2207.375568329998</v>
+        <v>-4698.941568329997</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
@@ -4417,34 +4535,35 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>2004</v>
+        <v>1998</v>
       </c>
       <c r="C116" t="n">
-        <v>2004</v>
+        <v>1997</v>
       </c>
       <c r="D116" t="n">
-        <v>2004</v>
+        <v>1998</v>
       </c>
       <c r="E116" t="n">
-        <v>2004</v>
+        <v>1997</v>
       </c>
       <c r="F116" t="n">
-        <v>100</v>
+        <v>113.6099</v>
       </c>
       <c r="G116" t="n">
-        <v>-2307.375568329998</v>
+        <v>-4585.331668329996</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
@@ -4452,34 +4571,35 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>2004</v>
+        <v>1998</v>
       </c>
       <c r="C117" t="n">
-        <v>2009</v>
+        <v>1998</v>
       </c>
       <c r="D117" t="n">
-        <v>2012</v>
+        <v>1998</v>
       </c>
       <c r="E117" t="n">
-        <v>2004</v>
+        <v>1998</v>
       </c>
       <c r="F117" t="n">
-        <v>534.0048</v>
+        <v>98.212</v>
       </c>
       <c r="G117" t="n">
-        <v>-1773.370768329998</v>
+        <v>-4487.119668329996</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
@@ -4487,34 +4607,35 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>2009</v>
+        <v>1994</v>
       </c>
       <c r="C118" t="n">
-        <v>2017</v>
+        <v>1992</v>
       </c>
       <c r="D118" t="n">
-        <v>2017</v>
+        <v>1994</v>
       </c>
       <c r="E118" t="n">
-        <v>2009</v>
+        <v>1992</v>
       </c>
       <c r="F118" t="n">
-        <v>1050.9782</v>
+        <v>2499.1725</v>
       </c>
       <c r="G118" t="n">
-        <v>-722.3925683299981</v>
+        <v>-6986.292168329996</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
@@ -4522,28 +4643,29 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>2011</v>
+        <v>1993</v>
       </c>
       <c r="C119" t="n">
-        <v>2019</v>
+        <v>1993</v>
       </c>
       <c r="D119" t="n">
-        <v>2019</v>
+        <v>1993</v>
       </c>
       <c r="E119" t="n">
-        <v>2011</v>
+        <v>1993</v>
       </c>
       <c r="F119" t="n">
-        <v>45.9585</v>
+        <v>486.157</v>
       </c>
       <c r="G119" t="n">
-        <v>-676.4340683299981</v>
+        <v>-6500.135168329995</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4557,28 +4679,29 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>2010</v>
+        <v>1993</v>
       </c>
       <c r="C120" t="n">
-        <v>2010</v>
+        <v>2002</v>
       </c>
       <c r="D120" t="n">
-        <v>2010</v>
+        <v>2002</v>
       </c>
       <c r="E120" t="n">
-        <v>2010</v>
+        <v>1993</v>
       </c>
       <c r="F120" t="n">
-        <v>12.39</v>
+        <v>1868.4807</v>
       </c>
       <c r="G120" t="n">
-        <v>-688.8240683299981</v>
+        <v>-4631.654468329995</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4592,28 +4715,29 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>2010</v>
+        <v>1993</v>
       </c>
       <c r="C121" t="n">
-        <v>2012</v>
+        <v>1993</v>
       </c>
       <c r="D121" t="n">
-        <v>2012</v>
+        <v>1993</v>
       </c>
       <c r="E121" t="n">
-        <v>2010</v>
+        <v>1993</v>
       </c>
       <c r="F121" t="n">
-        <v>597</v>
+        <v>67.5478</v>
       </c>
       <c r="G121" t="n">
-        <v>-91.82406832999811</v>
+        <v>-4699.202268329996</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4627,28 +4751,29 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>2008</v>
+        <v>1993</v>
       </c>
       <c r="C122" t="n">
-        <v>2008</v>
+        <v>1991</v>
       </c>
       <c r="D122" t="n">
-        <v>2008</v>
+        <v>1993</v>
       </c>
       <c r="E122" t="n">
-        <v>2008</v>
+        <v>1991</v>
       </c>
       <c r="F122" t="n">
-        <v>29.6006</v>
+        <v>98.6191</v>
       </c>
       <c r="G122" t="n">
-        <v>-121.4246683299981</v>
+        <v>-4797.821368329995</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4662,28 +4787,29 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>2005</v>
+        <v>1990</v>
       </c>
       <c r="C123" t="n">
-        <v>2006</v>
+        <v>1990</v>
       </c>
       <c r="D123" t="n">
-        <v>2006</v>
+        <v>1991</v>
       </c>
       <c r="E123" t="n">
-        <v>2005</v>
+        <v>1990</v>
       </c>
       <c r="F123" t="n">
-        <v>147.9342</v>
+        <v>8939.282300000001</v>
       </c>
       <c r="G123" t="n">
-        <v>-269.3588683299981</v>
+        <v>-13737.10366833</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4697,28 +4823,29 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>2009</v>
+        <v>1990</v>
       </c>
       <c r="C124" t="n">
-        <v>2009</v>
+        <v>1985</v>
       </c>
       <c r="D124" t="n">
-        <v>2009</v>
+        <v>1990</v>
       </c>
       <c r="E124" t="n">
-        <v>2009</v>
+        <v>1985</v>
       </c>
       <c r="F124" t="n">
-        <v>196.5255</v>
+        <v>1360.1573</v>
       </c>
       <c r="G124" t="n">
-        <v>-72.83336832999814</v>
+        <v>-15097.26096833</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4732,28 +4859,29 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>2008</v>
+        <v>1985</v>
       </c>
       <c r="C125" t="n">
-        <v>2008</v>
+        <v>1983</v>
       </c>
       <c r="D125" t="n">
-        <v>2008</v>
+        <v>1985</v>
       </c>
       <c r="E125" t="n">
-        <v>2008</v>
+        <v>1983</v>
       </c>
       <c r="F125" t="n">
-        <v>97</v>
+        <v>290.782</v>
       </c>
       <c r="G125" t="n">
-        <v>-169.8333683299981</v>
+        <v>-15388.04296833</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4767,28 +4895,29 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>2008</v>
+        <v>1988</v>
       </c>
       <c r="C126" t="n">
-        <v>2008</v>
+        <v>1988</v>
       </c>
       <c r="D126" t="n">
-        <v>2008</v>
+        <v>1988</v>
       </c>
       <c r="E126" t="n">
-        <v>2008</v>
+        <v>1988</v>
       </c>
       <c r="F126" t="n">
-        <v>149.44</v>
+        <v>198.9015</v>
       </c>
       <c r="G126" t="n">
-        <v>-169.8333683299981</v>
+        <v>-15189.14146833</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4802,28 +4931,29 @@
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>2008</v>
+        <v>1983</v>
       </c>
       <c r="C127" t="n">
-        <v>2008</v>
+        <v>1988</v>
       </c>
       <c r="D127" t="n">
-        <v>2008</v>
+        <v>1988</v>
       </c>
       <c r="E127" t="n">
-        <v>2008</v>
+        <v>1983</v>
       </c>
       <c r="F127" t="n">
-        <v>22.9525</v>
+        <v>229.0576</v>
       </c>
       <c r="G127" t="n">
-        <v>-169.8333683299981</v>
+        <v>-15189.14146833</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4837,34 +4967,35 @@
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>2008</v>
+        <v>1983</v>
       </c>
       <c r="C128" t="n">
-        <v>2013</v>
+        <v>1983</v>
       </c>
       <c r="D128" t="n">
-        <v>2013</v>
+        <v>1983</v>
       </c>
       <c r="E128" t="n">
-        <v>2008</v>
+        <v>1983</v>
       </c>
       <c r="F128" t="n">
-        <v>16.1906</v>
+        <v>43.861</v>
       </c>
       <c r="G128" t="n">
-        <v>-153.6427683299981</v>
+        <v>-15233.00246833</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
@@ -4872,34 +5003,35 @@
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>2008</v>
+        <v>1983</v>
       </c>
       <c r="C129" t="n">
-        <v>2008</v>
+        <v>1981</v>
       </c>
       <c r="D129" t="n">
-        <v>2008</v>
+        <v>1983</v>
       </c>
       <c r="E129" t="n">
-        <v>2008</v>
+        <v>1981</v>
       </c>
       <c r="F129" t="n">
-        <v>19.679</v>
+        <v>500</v>
       </c>
       <c r="G129" t="n">
-        <v>-173.3217683299982</v>
+        <v>-15733.00246833</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
@@ -4907,28 +5039,29 @@
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>2008</v>
+        <v>1981</v>
       </c>
       <c r="C130" t="n">
-        <v>2008</v>
+        <v>1981</v>
       </c>
       <c r="D130" t="n">
-        <v>2008</v>
+        <v>1981</v>
       </c>
       <c r="E130" t="n">
-        <v>2008</v>
+        <v>1981</v>
       </c>
       <c r="F130" t="n">
-        <v>182.1572</v>
+        <v>24.8551</v>
       </c>
       <c r="G130" t="n">
-        <v>-173.3217683299982</v>
+        <v>-15733.00246833</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4942,28 +5075,29 @@
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>2008</v>
+        <v>1981</v>
       </c>
       <c r="C131" t="n">
-        <v>2008</v>
+        <v>1981</v>
       </c>
       <c r="D131" t="n">
-        <v>2008</v>
+        <v>1981</v>
       </c>
       <c r="E131" t="n">
-        <v>2008</v>
+        <v>1981</v>
       </c>
       <c r="F131" t="n">
-        <v>214.711</v>
+        <v>41.6107</v>
       </c>
       <c r="G131" t="n">
-        <v>-173.3217683299982</v>
+        <v>-15733.00246833</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4977,1615 +5111,133 @@
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>2008</v>
+        <v>1981</v>
       </c>
       <c r="C132" t="n">
-        <v>2008</v>
+        <v>1977</v>
       </c>
       <c r="D132" t="n">
-        <v>2008</v>
+        <v>1981</v>
       </c>
       <c r="E132" t="n">
-        <v>2008</v>
+        <v>1976</v>
       </c>
       <c r="F132" t="n">
-        <v>82.86799999999999</v>
+        <v>1001.0887</v>
       </c>
       <c r="G132" t="n">
-        <v>-173.3217683299982</v>
+        <v>-16734.09116833</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>1981</v>
+      </c>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>2008</v>
+        <v>1974</v>
       </c>
       <c r="C133" t="n">
-        <v>2008</v>
+        <v>1977</v>
       </c>
       <c r="D133" t="n">
-        <v>2008</v>
+        <v>1977</v>
       </c>
       <c r="E133" t="n">
-        <v>2008</v>
+        <v>1974</v>
       </c>
       <c r="F133" t="n">
-        <v>694.9</v>
+        <v>554.9767000000001</v>
       </c>
       <c r="G133" t="n">
-        <v>-173.3217683299982</v>
+        <v>-16734.09116833</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>1977</v>
+      </c>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>2008</v>
+        <v>1976</v>
       </c>
       <c r="C134" t="n">
-        <v>2008</v>
+        <v>1976</v>
       </c>
       <c r="D134" t="n">
-        <v>2008</v>
+        <v>1976</v>
       </c>
       <c r="E134" t="n">
-        <v>2008</v>
+        <v>1976</v>
       </c>
       <c r="F134" t="n">
-        <v>79</v>
+        <v>24.1493</v>
       </c>
       <c r="G134" t="n">
-        <v>-173.3217683299982</v>
+        <v>-16758.24046833</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>1977</v>
+      </c>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>2008</v>
-      </c>
-      <c r="C135" t="n">
-        <v>2008</v>
-      </c>
-      <c r="D135" t="n">
-        <v>2008</v>
-      </c>
-      <c r="E135" t="n">
-        <v>2008</v>
-      </c>
-      <c r="F135" t="n">
-        <v>223.1</v>
-      </c>
-      <c r="G135" t="n">
-        <v>-173.3217683299982</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>2008</v>
-      </c>
-      <c r="C136" t="n">
-        <v>2008</v>
-      </c>
-      <c r="D136" t="n">
-        <v>2008</v>
-      </c>
-      <c r="E136" t="n">
-        <v>2008</v>
-      </c>
-      <c r="F136" t="n">
-        <v>4</v>
-      </c>
-      <c r="G136" t="n">
-        <v>-173.3217683299982</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>2008</v>
-      </c>
-      <c r="C137" t="n">
-        <v>2008</v>
-      </c>
-      <c r="D137" t="n">
-        <v>2008</v>
-      </c>
-      <c r="E137" t="n">
-        <v>2008</v>
-      </c>
-      <c r="F137" t="n">
-        <v>75.2641</v>
-      </c>
-      <c r="G137" t="n">
-        <v>-173.3217683299982</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>2008</v>
-      </c>
-      <c r="C138" t="n">
-        <v>2000</v>
-      </c>
-      <c r="D138" t="n">
-        <v>2008</v>
-      </c>
-      <c r="E138" t="n">
-        <v>2000</v>
-      </c>
-      <c r="F138" t="n">
-        <v>2549.5961</v>
-      </c>
-      <c r="G138" t="n">
-        <v>-2722.917868329998</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>1997</v>
-      </c>
-      <c r="C139" t="n">
-        <v>1997</v>
-      </c>
-      <c r="D139" t="n">
-        <v>1997</v>
-      </c>
-      <c r="E139" t="n">
-        <v>1997</v>
-      </c>
-      <c r="F139" t="n">
-        <v>4.4804</v>
-      </c>
-      <c r="G139" t="n">
-        <v>-2727.398268329998</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>1995</v>
-      </c>
-      <c r="C140" t="n">
-        <v>1995</v>
-      </c>
-      <c r="D140" t="n">
-        <v>1995</v>
-      </c>
-      <c r="E140" t="n">
-        <v>1995</v>
-      </c>
-      <c r="F140" t="n">
-        <v>356.125</v>
-      </c>
-      <c r="G140" t="n">
-        <v>-3083.523268329998</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>1996</v>
-      </c>
-      <c r="C141" t="n">
-        <v>1996</v>
-      </c>
-      <c r="D141" t="n">
-        <v>1996</v>
-      </c>
-      <c r="E141" t="n">
-        <v>1996</v>
-      </c>
-      <c r="F141" t="n">
-        <v>34.2765</v>
-      </c>
-      <c r="G141" t="n">
-        <v>-3049.246768329998</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>2002</v>
-      </c>
-      <c r="C142" t="n">
-        <v>2002</v>
-      </c>
-      <c r="D142" t="n">
-        <v>2002</v>
-      </c>
-      <c r="E142" t="n">
-        <v>2002</v>
-      </c>
-      <c r="F142" t="n">
-        <v>1</v>
-      </c>
-      <c r="G142" t="n">
-        <v>-3048.246768329998</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>2001</v>
-      </c>
-      <c r="C143" t="n">
-        <v>1994</v>
-      </c>
-      <c r="D143" t="n">
-        <v>2001</v>
-      </c>
-      <c r="E143" t="n">
-        <v>1994</v>
-      </c>
-      <c r="F143" t="n">
-        <v>933.3797</v>
-      </c>
-      <c r="G143" t="n">
-        <v>-3981.626468329998</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>2001</v>
-      </c>
-      <c r="C144" t="n">
-        <v>2001</v>
-      </c>
-      <c r="D144" t="n">
-        <v>2001</v>
-      </c>
-      <c r="E144" t="n">
-        <v>2001</v>
-      </c>
-      <c r="F144" t="n">
-        <v>29.1623</v>
-      </c>
-      <c r="G144" t="n">
-        <v>-3952.464168329998</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>2001</v>
-      </c>
-      <c r="C145" t="n">
-        <v>2001</v>
-      </c>
-      <c r="D145" t="n">
-        <v>2001</v>
-      </c>
-      <c r="E145" t="n">
-        <v>2001</v>
-      </c>
-      <c r="F145" t="n">
-        <v>18.6842</v>
-      </c>
-      <c r="G145" t="n">
-        <v>-3952.464168329998</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>1994</v>
-      </c>
-      <c r="C146" t="n">
-        <v>1993</v>
-      </c>
-      <c r="D146" t="n">
-        <v>1994</v>
-      </c>
-      <c r="E146" t="n">
-        <v>1993</v>
-      </c>
-      <c r="F146" t="n">
-        <v>324.1783</v>
-      </c>
-      <c r="G146" t="n">
-        <v>-4276.642468329998</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>1997</v>
-      </c>
-      <c r="C147" t="n">
-        <v>1997</v>
-      </c>
-      <c r="D147" t="n">
-        <v>1997</v>
-      </c>
-      <c r="E147" t="n">
-        <v>1997</v>
-      </c>
-      <c r="F147" t="n">
-        <v>96.3999</v>
-      </c>
-      <c r="G147" t="n">
-        <v>-4180.242568329998</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>1993</v>
-      </c>
-      <c r="C148" t="n">
-        <v>1993</v>
-      </c>
-      <c r="D148" t="n">
-        <v>1993</v>
-      </c>
-      <c r="E148" t="n">
-        <v>1993</v>
-      </c>
-      <c r="F148" t="n">
-        <v>50</v>
-      </c>
-      <c r="G148" t="n">
-        <v>-4230.242568329998</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>2001</v>
-      </c>
-      <c r="C149" t="n">
-        <v>2001</v>
-      </c>
-      <c r="D149" t="n">
-        <v>2001</v>
-      </c>
-      <c r="E149" t="n">
-        <v>2001</v>
-      </c>
-      <c r="F149" t="n">
-        <v>6.2093</v>
-      </c>
-      <c r="G149" t="n">
-        <v>-4224.033268329998</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>2000</v>
-      </c>
-      <c r="C150" t="n">
-        <v>2000</v>
-      </c>
-      <c r="D150" t="n">
-        <v>2000</v>
-      </c>
-      <c r="E150" t="n">
-        <v>2000</v>
-      </c>
-      <c r="F150" t="n">
-        <v>25.7318</v>
-      </c>
-      <c r="G150" t="n">
-        <v>-4249.765068329997</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>1998</v>
-      </c>
-      <c r="C151" t="n">
-        <v>1998</v>
-      </c>
-      <c r="D151" t="n">
-        <v>1998</v>
-      </c>
-      <c r="E151" t="n">
-        <v>1998</v>
-      </c>
-      <c r="F151" t="n">
-        <v>20.8636</v>
-      </c>
-      <c r="G151" t="n">
-        <v>-4270.628668329997</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>1999</v>
-      </c>
-      <c r="C152" t="n">
-        <v>1999</v>
-      </c>
-      <c r="D152" t="n">
-        <v>1999</v>
-      </c>
-      <c r="E152" t="n">
-        <v>1999</v>
-      </c>
-      <c r="F152" t="n">
-        <v>15.202</v>
-      </c>
-      <c r="G152" t="n">
-        <v>-4255.426668329997</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>2000</v>
-      </c>
-      <c r="C153" t="n">
-        <v>2000</v>
-      </c>
-      <c r="D153" t="n">
-        <v>2000</v>
-      </c>
-      <c r="E153" t="n">
-        <v>2000</v>
-      </c>
-      <c r="F153" t="n">
-        <v>41.4955</v>
-      </c>
-      <c r="G153" t="n">
-        <v>-4213.931168329997</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>2000</v>
-      </c>
-      <c r="C154" t="n">
-        <v>2000</v>
-      </c>
-      <c r="D154" t="n">
-        <v>2000</v>
-      </c>
-      <c r="E154" t="n">
-        <v>2000</v>
-      </c>
-      <c r="F154" t="n">
-        <v>13.3925</v>
-      </c>
-      <c r="G154" t="n">
-        <v>-4213.931168329997</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>2000</v>
-      </c>
-      <c r="C155" t="n">
-        <v>2000</v>
-      </c>
-      <c r="D155" t="n">
-        <v>2000</v>
-      </c>
-      <c r="E155" t="n">
-        <v>2000</v>
-      </c>
-      <c r="F155" t="n">
-        <v>12.0533</v>
-      </c>
-      <c r="G155" t="n">
-        <v>-4213.931168329997</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>1999</v>
-      </c>
-      <c r="C156" t="n">
-        <v>1998</v>
-      </c>
-      <c r="D156" t="n">
-        <v>1999</v>
-      </c>
-      <c r="E156" t="n">
-        <v>1998</v>
-      </c>
-      <c r="F156" t="n">
-        <v>16.5894</v>
-      </c>
-      <c r="G156" t="n">
-        <v>-4230.520568329996</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>1998</v>
-      </c>
-      <c r="C157" t="n">
-        <v>1995</v>
-      </c>
-      <c r="D157" t="n">
-        <v>1998</v>
-      </c>
-      <c r="E157" t="n">
-        <v>1995</v>
-      </c>
-      <c r="F157" t="n">
-        <v>468.421</v>
-      </c>
-      <c r="G157" t="n">
-        <v>-4698.941568329997</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>1998</v>
-      </c>
-      <c r="C158" t="n">
-        <v>1997</v>
-      </c>
-      <c r="D158" t="n">
-        <v>1998</v>
-      </c>
-      <c r="E158" t="n">
-        <v>1997</v>
-      </c>
-      <c r="F158" t="n">
-        <v>113.6099</v>
-      </c>
-      <c r="G158" t="n">
-        <v>-4585.331668329996</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>1998</v>
-      </c>
-      <c r="C159" t="n">
-        <v>1998</v>
-      </c>
-      <c r="D159" t="n">
-        <v>1998</v>
-      </c>
-      <c r="E159" t="n">
-        <v>1998</v>
-      </c>
-      <c r="F159" t="n">
-        <v>98.212</v>
-      </c>
-      <c r="G159" t="n">
-        <v>-4487.119668329996</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>1994</v>
-      </c>
-      <c r="C160" t="n">
-        <v>1992</v>
-      </c>
-      <c r="D160" t="n">
-        <v>1994</v>
-      </c>
-      <c r="E160" t="n">
-        <v>1992</v>
-      </c>
-      <c r="F160" t="n">
-        <v>2499.1725</v>
-      </c>
-      <c r="G160" t="n">
-        <v>-6986.292168329996</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>1993</v>
-      </c>
-      <c r="C161" t="n">
-        <v>1993</v>
-      </c>
-      <c r="D161" t="n">
-        <v>1993</v>
-      </c>
-      <c r="E161" t="n">
-        <v>1993</v>
-      </c>
-      <c r="F161" t="n">
-        <v>486.157</v>
-      </c>
-      <c r="G161" t="n">
-        <v>-6500.135168329995</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>1993</v>
-      </c>
-      <c r="C162" t="n">
-        <v>2002</v>
-      </c>
-      <c r="D162" t="n">
-        <v>2002</v>
-      </c>
-      <c r="E162" t="n">
-        <v>1993</v>
-      </c>
-      <c r="F162" t="n">
-        <v>1868.4807</v>
-      </c>
-      <c r="G162" t="n">
-        <v>-4631.654468329995</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>1993</v>
-      </c>
-      <c r="C163" t="n">
-        <v>1993</v>
-      </c>
-      <c r="D163" t="n">
-        <v>1993</v>
-      </c>
-      <c r="E163" t="n">
-        <v>1993</v>
-      </c>
-      <c r="F163" t="n">
-        <v>67.5478</v>
-      </c>
-      <c r="G163" t="n">
-        <v>-4699.202268329996</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>1993</v>
-      </c>
-      <c r="C164" t="n">
-        <v>1991</v>
-      </c>
-      <c r="D164" t="n">
-        <v>1993</v>
-      </c>
-      <c r="E164" t="n">
-        <v>1991</v>
-      </c>
-      <c r="F164" t="n">
-        <v>98.6191</v>
-      </c>
-      <c r="G164" t="n">
-        <v>-4797.821368329995</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>1990</v>
-      </c>
-      <c r="C165" t="n">
-        <v>1990</v>
-      </c>
-      <c r="D165" t="n">
-        <v>1991</v>
-      </c>
-      <c r="E165" t="n">
-        <v>1990</v>
-      </c>
-      <c r="F165" t="n">
-        <v>8939.282300000001</v>
-      </c>
-      <c r="G165" t="n">
-        <v>-13737.10366833</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>1990</v>
-      </c>
-      <c r="C166" t="n">
-        <v>1985</v>
-      </c>
-      <c r="D166" t="n">
-        <v>1990</v>
-      </c>
-      <c r="E166" t="n">
-        <v>1985</v>
-      </c>
-      <c r="F166" t="n">
-        <v>1360.1573</v>
-      </c>
-      <c r="G166" t="n">
-        <v>-15097.26096833</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>1985</v>
-      </c>
-      <c r="C167" t="n">
-        <v>1983</v>
-      </c>
-      <c r="D167" t="n">
-        <v>1985</v>
-      </c>
-      <c r="E167" t="n">
-        <v>1983</v>
-      </c>
-      <c r="F167" t="n">
-        <v>290.782</v>
-      </c>
-      <c r="G167" t="n">
-        <v>-15388.04296833</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>1988</v>
-      </c>
-      <c r="C168" t="n">
-        <v>1988</v>
-      </c>
-      <c r="D168" t="n">
-        <v>1988</v>
-      </c>
-      <c r="E168" t="n">
-        <v>1988</v>
-      </c>
-      <c r="F168" t="n">
-        <v>198.9015</v>
-      </c>
-      <c r="G168" t="n">
-        <v>-15189.14146833</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>1983</v>
-      </c>
-      <c r="C169" t="n">
-        <v>1988</v>
-      </c>
-      <c r="D169" t="n">
-        <v>1988</v>
-      </c>
-      <c r="E169" t="n">
-        <v>1983</v>
-      </c>
-      <c r="F169" t="n">
-        <v>229.0576</v>
-      </c>
-      <c r="G169" t="n">
-        <v>-15189.14146833</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>1983</v>
-      </c>
-      <c r="C170" t="n">
-        <v>1983</v>
-      </c>
-      <c r="D170" t="n">
-        <v>1983</v>
-      </c>
-      <c r="E170" t="n">
-        <v>1983</v>
-      </c>
-      <c r="F170" t="n">
-        <v>43.861</v>
-      </c>
-      <c r="G170" t="n">
-        <v>-15233.00246833</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>1983</v>
-      </c>
-      <c r="C171" t="n">
-        <v>1981</v>
-      </c>
-      <c r="D171" t="n">
-        <v>1983</v>
-      </c>
-      <c r="E171" t="n">
-        <v>1981</v>
-      </c>
-      <c r="F171" t="n">
-        <v>500</v>
-      </c>
-      <c r="G171" t="n">
-        <v>-15733.00246833</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>1981</v>
-      </c>
-      <c r="C172" t="n">
-        <v>1981</v>
-      </c>
-      <c r="D172" t="n">
-        <v>1981</v>
-      </c>
-      <c r="E172" t="n">
-        <v>1981</v>
-      </c>
-      <c r="F172" t="n">
-        <v>24.8551</v>
-      </c>
-      <c r="G172" t="n">
-        <v>-15733.00246833</v>
-      </c>
-      <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="n">
-        <v>1981</v>
-      </c>
-      <c r="K172" t="n">
-        <v>1981</v>
-      </c>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>1981</v>
-      </c>
-      <c r="C173" t="n">
-        <v>1981</v>
-      </c>
-      <c r="D173" t="n">
-        <v>1981</v>
-      </c>
-      <c r="E173" t="n">
-        <v>1981</v>
-      </c>
-      <c r="F173" t="n">
-        <v>41.6107</v>
-      </c>
-      <c r="G173" t="n">
-        <v>-15733.00246833</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>1981</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>1981</v>
-      </c>
-      <c r="C174" t="n">
-        <v>1977</v>
-      </c>
-      <c r="D174" t="n">
-        <v>1981</v>
-      </c>
-      <c r="E174" t="n">
-        <v>1976</v>
-      </c>
-      <c r="F174" t="n">
-        <v>1001.0887</v>
-      </c>
-      <c r="G174" t="n">
-        <v>-16734.09116833</v>
-      </c>
-      <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="n">
-        <v>1981</v>
-      </c>
-      <c r="K174" t="n">
-        <v>1981</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>1974</v>
-      </c>
-      <c r="C175" t="n">
-        <v>1977</v>
-      </c>
-      <c r="D175" t="n">
-        <v>1977</v>
-      </c>
-      <c r="E175" t="n">
-        <v>1974</v>
-      </c>
-      <c r="F175" t="n">
-        <v>554.9767000000001</v>
-      </c>
-      <c r="G175" t="n">
-        <v>-16734.09116833</v>
-      </c>
-      <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="n">
-        <v>1977</v>
-      </c>
-      <c r="K175" t="n">
-        <v>1981</v>
-      </c>
-      <c r="L175" t="inlineStr">
+      <c r="L134" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>1976</v>
-      </c>
-      <c r="C176" t="n">
-        <v>1976</v>
-      </c>
-      <c r="D176" t="n">
-        <v>1976</v>
-      </c>
-      <c r="E176" t="n">
-        <v>1976</v>
-      </c>
-      <c r="F176" t="n">
-        <v>24.1493</v>
-      </c>
-      <c r="G176" t="n">
-        <v>-16758.24046833</v>
-      </c>
-      <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="n">
-        <v>1977</v>
-      </c>
-      <c r="K176" t="n">
-        <v>1981</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-19 BackTest QTUM.xlsx
+++ b/BackTest/2019-10-19 BackTest QTUM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N134"/>
+  <dimension ref="A1:N205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,28 +438,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="C2" t="n">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="D2" t="n">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="E2" t="n">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="F2" t="n">
-        <v>2.6317</v>
+        <v>25.2231</v>
       </c>
       <c r="G2" t="n">
-        <v>-4047.225797540001</v>
+        <v>-3587.326200000001</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -474,28 +474,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="C3" t="n">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="D3" t="n">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="E3" t="n">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="F3" t="n">
-        <v>2.70405608</v>
+        <v>19.2502</v>
       </c>
       <c r="G3" t="n">
-        <v>-4047.225797540001</v>
+        <v>-3587.326200000001</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -510,28 +510,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="C4" t="n">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="D4" t="n">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="E4" t="n">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="F4" t="n">
-        <v>13.7232</v>
+        <v>45.0629</v>
       </c>
       <c r="G4" t="n">
-        <v>-4047.225797540001</v>
+        <v>-3587.326200000001</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -546,22 +546,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1992</v>
+        <v>1996</v>
       </c>
       <c r="C5" t="n">
-        <v>1992</v>
+        <v>1995</v>
       </c>
       <c r="D5" t="n">
-        <v>1992</v>
+        <v>1996</v>
       </c>
       <c r="E5" t="n">
-        <v>1992</v>
+        <v>1995</v>
       </c>
       <c r="F5" t="n">
-        <v>98</v>
+        <v>346.27</v>
       </c>
       <c r="G5" t="n">
-        <v>-4145.225797540001</v>
+        <v>-3587.326200000001</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -582,22 +582,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1991</v>
+        <v>2002</v>
       </c>
       <c r="C6" t="n">
-        <v>1991</v>
+        <v>2002</v>
       </c>
       <c r="D6" t="n">
-        <v>1991</v>
+        <v>2002</v>
       </c>
       <c r="E6" t="n">
-        <v>1991</v>
+        <v>2002</v>
       </c>
       <c r="F6" t="n">
-        <v>120</v>
+        <v>87.718</v>
       </c>
       <c r="G6" t="n">
-        <v>-4265.225797540001</v>
+        <v>-3499.608200000001</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -618,22 +618,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1991</v>
+        <v>2002</v>
       </c>
       <c r="C7" t="n">
-        <v>1991</v>
+        <v>1996</v>
       </c>
       <c r="D7" t="n">
-        <v>1991</v>
+        <v>2002</v>
       </c>
       <c r="E7" t="n">
-        <v>1991</v>
+        <v>1996</v>
       </c>
       <c r="F7" t="n">
-        <v>6</v>
+        <v>507.0422</v>
       </c>
       <c r="G7" t="n">
-        <v>-4265.225797540001</v>
+        <v>-4006.650400000001</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -654,22 +654,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1991</v>
+        <v>1999</v>
       </c>
       <c r="C8" t="n">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="D8" t="n">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="E8" t="n">
-        <v>1991</v>
+        <v>1999</v>
       </c>
       <c r="F8" t="n">
-        <v>532.9772</v>
+        <v>271.673</v>
       </c>
       <c r="G8" t="n">
-        <v>-3732.24859754</v>
+        <v>-3734.977400000001</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,22 +690,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1997</v>
+        <v>1999</v>
       </c>
       <c r="C9" t="n">
-        <v>1997</v>
+        <v>1999</v>
       </c>
       <c r="D9" t="n">
-        <v>1997</v>
+        <v>1999</v>
       </c>
       <c r="E9" t="n">
-        <v>1997</v>
+        <v>1999</v>
       </c>
       <c r="F9" t="n">
-        <v>5.00751126</v>
+        <v>10.1179</v>
       </c>
       <c r="G9" t="n">
-        <v>-3737.2561088</v>
+        <v>-3734.977400000001</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -726,22 +726,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1997</v>
+        <v>1999</v>
       </c>
       <c r="C10" t="n">
-        <v>1997</v>
+        <v>1999</v>
       </c>
       <c r="D10" t="n">
-        <v>1997</v>
+        <v>1999</v>
       </c>
       <c r="E10" t="n">
-        <v>1997</v>
+        <v>1999</v>
       </c>
       <c r="F10" t="n">
-        <v>37.5563</v>
+        <v>78.188</v>
       </c>
       <c r="G10" t="n">
-        <v>-3737.2561088</v>
+        <v>-3734.977400000001</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -762,22 +762,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1991</v>
+        <v>1999</v>
       </c>
       <c r="C11" t="n">
-        <v>1991</v>
+        <v>1998</v>
       </c>
       <c r="D11" t="n">
-        <v>1991</v>
+        <v>1999</v>
       </c>
       <c r="E11" t="n">
-        <v>1991</v>
+        <v>1998</v>
       </c>
       <c r="F11" t="n">
-        <v>26.2335</v>
+        <v>507.2252</v>
       </c>
       <c r="G11" t="n">
-        <v>-3763.4896088</v>
+        <v>-4242.202600000001</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -798,22 +798,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1999</v>
+        <v>2011</v>
       </c>
       <c r="C12" t="n">
-        <v>2006</v>
+        <v>2012</v>
       </c>
       <c r="D12" t="n">
-        <v>2007</v>
+        <v>2016</v>
       </c>
       <c r="E12" t="n">
-        <v>1999</v>
+        <v>2011</v>
       </c>
       <c r="F12" t="n">
-        <v>1059.5598</v>
+        <v>1022.9731</v>
       </c>
       <c r="G12" t="n">
-        <v>-2703.9298088</v>
+        <v>-3219.2295</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -834,22 +834,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>2011</v>
+        <v>2000</v>
       </c>
       <c r="C13" t="n">
-        <v>2011</v>
+        <v>1999</v>
       </c>
       <c r="D13" t="n">
-        <v>2011</v>
+        <v>2000</v>
       </c>
       <c r="E13" t="n">
-        <v>2011</v>
+        <v>1999</v>
       </c>
       <c r="F13" t="n">
-        <v>127.7</v>
+        <v>185</v>
       </c>
       <c r="G13" t="n">
-        <v>-2576.2298088</v>
+        <v>-3404.2295</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>2013</v>
+        <v>2001</v>
       </c>
       <c r="C14" t="n">
-        <v>2013</v>
+        <v>1999</v>
       </c>
       <c r="D14" t="n">
-        <v>2013</v>
+        <v>2001</v>
       </c>
       <c r="E14" t="n">
-        <v>2013</v>
+        <v>1996</v>
       </c>
       <c r="F14" t="n">
-        <v>79.4545</v>
+        <v>1310.9365</v>
       </c>
       <c r="G14" t="n">
-        <v>-2496.7753088</v>
+        <v>-3404.2295</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -906,28 +906,28 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="C15" t="n">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="D15" t="n">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="E15" t="n">
-        <v>2008</v>
+        <v>2000</v>
       </c>
       <c r="F15" t="n">
-        <v>1953.5813</v>
+        <v>2956.057</v>
       </c>
       <c r="G15" t="n">
-        <v>-4450.356608800001</v>
+        <v>-448.1725000000006</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -942,28 +942,28 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>2004</v>
+        <v>2007</v>
       </c>
       <c r="C16" t="n">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="D16" t="n">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="E16" t="n">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="F16" t="n">
-        <v>936.4347</v>
+        <v>149.0807</v>
       </c>
       <c r="G16" t="n">
-        <v>-3513.921908800001</v>
+        <v>-597.2532000000006</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -978,28 +978,28 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>2008</v>
+        <v>2011</v>
       </c>
       <c r="C17" t="n">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="D17" t="n">
-        <v>2008</v>
+        <v>2011</v>
       </c>
       <c r="E17" t="n">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="F17" t="n">
-        <v>203.7999</v>
+        <v>133.5986</v>
       </c>
       <c r="G17" t="n">
-        <v>-3717.721808800001</v>
+        <v>-730.8518000000006</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -1014,28 +1014,28 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>2012</v>
+        <v>2002</v>
       </c>
       <c r="C18" t="n">
-        <v>2007</v>
+        <v>2002</v>
       </c>
       <c r="D18" t="n">
-        <v>2012</v>
+        <v>2002</v>
       </c>
       <c r="E18" t="n">
-        <v>2007</v>
+        <v>2002</v>
       </c>
       <c r="F18" t="n">
-        <v>196.5106</v>
+        <v>75.98439999999999</v>
       </c>
       <c r="G18" t="n">
-        <v>-3717.721808800001</v>
+        <v>-806.8362000000006</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -1050,28 +1050,28 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>2011</v>
+        <v>1999</v>
       </c>
       <c r="C19" t="n">
-        <v>2011</v>
+        <v>1995</v>
       </c>
       <c r="D19" t="n">
-        <v>2011</v>
+        <v>1999</v>
       </c>
       <c r="E19" t="n">
-        <v>2011</v>
+        <v>1995</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1</v>
+        <v>550.0939</v>
       </c>
       <c r="G19" t="n">
-        <v>-3717.621808800001</v>
+        <v>-1356.9301</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1086,28 +1086,28 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>2015</v>
+        <v>1998</v>
       </c>
       <c r="C20" t="n">
-        <v>2015</v>
+        <v>1998</v>
       </c>
       <c r="D20" t="n">
-        <v>2015</v>
+        <v>1998</v>
       </c>
       <c r="E20" t="n">
-        <v>2015</v>
+        <v>1998</v>
       </c>
       <c r="F20" t="n">
-        <v>69.3168</v>
+        <v>127.7986</v>
       </c>
       <c r="G20" t="n">
-        <v>-3648.305008800001</v>
+        <v>-1229.1315</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -1122,28 +1122,28 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>2008</v>
+        <v>1995</v>
       </c>
       <c r="C21" t="n">
-        <v>2008</v>
+        <v>1995</v>
       </c>
       <c r="D21" t="n">
-        <v>2008</v>
+        <v>1995</v>
       </c>
       <c r="E21" t="n">
-        <v>2008</v>
+        <v>1995</v>
       </c>
       <c r="F21" t="n">
-        <v>150</v>
+        <v>1744.369</v>
       </c>
       <c r="G21" t="n">
-        <v>-3798.305008800001</v>
+        <v>-2973.5005</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -1158,28 +1158,28 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>2017</v>
+        <v>1999</v>
       </c>
       <c r="C22" t="n">
-        <v>2018</v>
+        <v>1999</v>
       </c>
       <c r="D22" t="n">
-        <v>2018</v>
+        <v>1999</v>
       </c>
       <c r="E22" t="n">
-        <v>2017</v>
+        <v>1999</v>
       </c>
       <c r="F22" t="n">
-        <v>144</v>
+        <v>10.0901</v>
       </c>
       <c r="G22" t="n">
-        <v>-3654.305008800001</v>
+        <v>-2963.4104</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
@@ -1194,22 +1194,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>2010</v>
+        <v>1999</v>
       </c>
       <c r="C23" t="n">
-        <v>2010</v>
+        <v>1999</v>
       </c>
       <c r="D23" t="n">
-        <v>2010</v>
+        <v>1999</v>
       </c>
       <c r="E23" t="n">
-        <v>2010</v>
+        <v>1999</v>
       </c>
       <c r="F23" t="n">
-        <v>28.162</v>
+        <v>22.2283</v>
       </c>
       <c r="G23" t="n">
-        <v>-3682.467008800001</v>
+        <v>-2963.4104</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1230,28 +1230,28 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>2009</v>
+        <v>2012</v>
       </c>
       <c r="C24" t="n">
-        <v>2009</v>
+        <v>2012</v>
       </c>
       <c r="D24" t="n">
-        <v>2009</v>
+        <v>2012</v>
       </c>
       <c r="E24" t="n">
-        <v>2009</v>
+        <v>2012</v>
       </c>
       <c r="F24" t="n">
-        <v>82.30200000000001</v>
+        <v>184.1731</v>
       </c>
       <c r="G24" t="n">
-        <v>-3764.769008800001</v>
+        <v>-2779.2373</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -1266,22 +1266,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>2007</v>
+        <v>2012</v>
       </c>
       <c r="C25" t="n">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="D25" t="n">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="E25" t="n">
-        <v>2007</v>
+        <v>2012</v>
       </c>
       <c r="F25" t="n">
-        <v>316.6206</v>
+        <v>149.1</v>
       </c>
       <c r="G25" t="n">
-        <v>-3448.148408800001</v>
+        <v>-2779.2373</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1302,22 +1302,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>2009</v>
+        <v>2012</v>
       </c>
       <c r="C26" t="n">
-        <v>2009</v>
+        <v>2012</v>
       </c>
       <c r="D26" t="n">
-        <v>2009</v>
+        <v>2012</v>
       </c>
       <c r="E26" t="n">
-        <v>2009</v>
+        <v>2012</v>
       </c>
       <c r="F26" t="n">
-        <v>1.0983</v>
+        <v>149.1</v>
       </c>
       <c r="G26" t="n">
-        <v>-3449.246708800001</v>
+        <v>-2779.2373</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>2009</v>
+        <v>2012</v>
       </c>
       <c r="C27" t="n">
-        <v>2009</v>
+        <v>2012</v>
       </c>
       <c r="D27" t="n">
-        <v>2009</v>
+        <v>2012</v>
       </c>
       <c r="E27" t="n">
-        <v>2009</v>
+        <v>2012</v>
       </c>
       <c r="F27" t="n">
-        <v>219.268</v>
+        <v>18.8985</v>
       </c>
       <c r="G27" t="n">
-        <v>-3449.246708800001</v>
+        <v>-2779.2373</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1374,28 +1374,28 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="C28" t="n">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="D28" t="n">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="E28" t="n">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="F28" t="n">
-        <v>234.5286</v>
+        <v>24.1526</v>
       </c>
       <c r="G28" t="n">
-        <v>-3214.718108800001</v>
+        <v>-2803.3899</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -1410,28 +1410,28 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="C29" t="n">
-        <v>2010</v>
+        <v>2017</v>
       </c>
       <c r="D29" t="n">
-        <v>2010</v>
+        <v>2017</v>
       </c>
       <c r="E29" t="n">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="F29" t="n">
-        <v>35.8208</v>
+        <v>160.18955141</v>
       </c>
       <c r="G29" t="n">
-        <v>-3214.718108800001</v>
+        <v>-2643.20034859</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -1446,28 +1446,28 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>2010</v>
+        <v>2017</v>
       </c>
       <c r="C30" t="n">
-        <v>2010</v>
+        <v>2017</v>
       </c>
       <c r="D30" t="n">
-        <v>2010</v>
+        <v>2017</v>
       </c>
       <c r="E30" t="n">
-        <v>2010</v>
+        <v>2017</v>
       </c>
       <c r="F30" t="n">
-        <v>83.1384</v>
+        <v>179.7114</v>
       </c>
       <c r="G30" t="n">
-        <v>-3214.718108800001</v>
+        <v>-2643.20034859</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -1482,28 +1482,28 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>2004</v>
+        <v>2017</v>
       </c>
       <c r="C31" t="n">
-        <v>2002</v>
+        <v>2017</v>
       </c>
       <c r="D31" t="n">
-        <v>2004</v>
+        <v>2017</v>
       </c>
       <c r="E31" t="n">
-        <v>2000</v>
+        <v>2017</v>
       </c>
       <c r="F31" t="n">
-        <v>1175.6072</v>
+        <v>173.525</v>
       </c>
       <c r="G31" t="n">
-        <v>-4390.3253088</v>
+        <v>-2643.20034859</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -1518,28 +1518,28 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="C32" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D32" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="E32" t="n">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="F32" t="n">
-        <v>955.06994047</v>
+        <v>90.756</v>
       </c>
       <c r="G32" t="n">
-        <v>-3435.25536833</v>
+        <v>-2643.20034859</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
@@ -1554,28 +1554,28 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>2003</v>
+        <v>2017</v>
       </c>
       <c r="C33" t="n">
-        <v>2003</v>
+        <v>2017</v>
       </c>
       <c r="D33" t="n">
-        <v>2003</v>
+        <v>2017</v>
       </c>
       <c r="E33" t="n">
-        <v>2003</v>
+        <v>2017</v>
       </c>
       <c r="F33" t="n">
-        <v>14.3447</v>
+        <v>2478.1505</v>
       </c>
       <c r="G33" t="n">
-        <v>-3449.60006833</v>
+        <v>-2643.20034859</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
@@ -1590,28 +1590,28 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>2002</v>
+        <v>2018</v>
       </c>
       <c r="C34" t="n">
-        <v>2001</v>
+        <v>2023</v>
       </c>
       <c r="D34" t="n">
-        <v>2002</v>
+        <v>2023</v>
       </c>
       <c r="E34" t="n">
-        <v>2001</v>
+        <v>2018</v>
       </c>
       <c r="F34" t="n">
-        <v>316.6108</v>
+        <v>129.8568</v>
       </c>
       <c r="G34" t="n">
-        <v>-3766.21086833</v>
+        <v>-2513.34354859</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
@@ -1626,28 +1626,28 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>2001</v>
+        <v>2017</v>
       </c>
       <c r="C35" t="n">
-        <v>2001</v>
+        <v>2018</v>
       </c>
       <c r="D35" t="n">
-        <v>2001</v>
+        <v>2018</v>
       </c>
       <c r="E35" t="n">
-        <v>2001</v>
+        <v>2017</v>
       </c>
       <c r="F35" t="n">
-        <v>30.0842</v>
+        <v>33.6161</v>
       </c>
       <c r="G35" t="n">
-        <v>-3766.21086833</v>
+        <v>-2546.95964859</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
@@ -1662,28 +1662,28 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>2001</v>
+        <v>2018</v>
       </c>
       <c r="C36" t="n">
-        <v>2000</v>
+        <v>2018</v>
       </c>
       <c r="D36" t="n">
-        <v>2001</v>
+        <v>2018</v>
       </c>
       <c r="E36" t="n">
-        <v>2000</v>
+        <v>2018</v>
       </c>
       <c r="F36" t="n">
-        <v>1383.2054</v>
+        <v>2.5566</v>
       </c>
       <c r="G36" t="n">
-        <v>-5149.41626833</v>
+        <v>-2546.95964859</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
@@ -1698,28 +1698,28 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>2000</v>
+        <v>2017</v>
       </c>
       <c r="C37" t="n">
-        <v>2000</v>
+        <v>2017</v>
       </c>
       <c r="D37" t="n">
-        <v>2000</v>
+        <v>2017</v>
       </c>
       <c r="E37" t="n">
-        <v>2000</v>
+        <v>2017</v>
       </c>
       <c r="F37" t="n">
-        <v>635.5192</v>
+        <v>70.7303</v>
       </c>
       <c r="G37" t="n">
-        <v>-5149.41626833</v>
+        <v>-2617.68994859</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
@@ -1734,28 +1734,28 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>2000</v>
+        <v>2018</v>
       </c>
       <c r="C38" t="n">
-        <v>2000</v>
+        <v>2018</v>
       </c>
       <c r="D38" t="n">
-        <v>2000</v>
+        <v>2018</v>
       </c>
       <c r="E38" t="n">
-        <v>2000</v>
+        <v>2018</v>
       </c>
       <c r="F38" t="n">
-        <v>5.9782</v>
+        <v>17.5113</v>
       </c>
       <c r="G38" t="n">
-        <v>-5149.41626833</v>
+        <v>-2600.17864859</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
@@ -1770,28 +1770,28 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>2000</v>
+        <v>2017</v>
       </c>
       <c r="C39" t="n">
-        <v>2000</v>
+        <v>2017</v>
       </c>
       <c r="D39" t="n">
-        <v>2000</v>
+        <v>2017</v>
       </c>
       <c r="E39" t="n">
-        <v>2000</v>
+        <v>2017</v>
       </c>
       <c r="F39" t="n">
-        <v>12.8941</v>
+        <v>163.54</v>
       </c>
       <c r="G39" t="n">
-        <v>-5149.41626833</v>
+        <v>-2763.71864859</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
@@ -1806,28 +1806,28 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>2002</v>
+        <v>2017</v>
       </c>
       <c r="C40" t="n">
-        <v>2002</v>
+        <v>2017</v>
       </c>
       <c r="D40" t="n">
-        <v>2002</v>
+        <v>2017</v>
       </c>
       <c r="E40" t="n">
-        <v>2002</v>
+        <v>2017</v>
       </c>
       <c r="F40" t="n">
-        <v>190.1593</v>
+        <v>44.89</v>
       </c>
       <c r="G40" t="n">
-        <v>-4959.25696833</v>
+        <v>-2763.71864859</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
@@ -1842,28 +1842,28 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>2002</v>
+        <v>2014</v>
       </c>
       <c r="C41" t="n">
-        <v>2002</v>
+        <v>2014</v>
       </c>
       <c r="D41" t="n">
-        <v>2002</v>
+        <v>2014</v>
       </c>
       <c r="E41" t="n">
-        <v>2002</v>
+        <v>2014</v>
       </c>
       <c r="F41" t="n">
-        <v>282.8809</v>
+        <v>77.1969</v>
       </c>
       <c r="G41" t="n">
-        <v>-4959.25696833</v>
+        <v>-2840.91554859</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
@@ -1878,28 +1878,28 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>2002</v>
+        <v>2013</v>
       </c>
       <c r="C42" t="n">
-        <v>2002</v>
+        <v>2013</v>
       </c>
       <c r="D42" t="n">
-        <v>2002</v>
+        <v>2013</v>
       </c>
       <c r="E42" t="n">
-        <v>2002</v>
+        <v>2013</v>
       </c>
       <c r="F42" t="n">
-        <v>30.7467</v>
+        <v>115.7954</v>
       </c>
       <c r="G42" t="n">
-        <v>-4959.25696833</v>
+        <v>-2956.71094859</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
@@ -1914,28 +1914,28 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>2000</v>
+        <v>2017</v>
       </c>
       <c r="C43" t="n">
-        <v>2000</v>
+        <v>2017</v>
       </c>
       <c r="D43" t="n">
-        <v>2000</v>
+        <v>2017</v>
       </c>
       <c r="E43" t="n">
-        <v>2000</v>
+        <v>2017</v>
       </c>
       <c r="F43" t="n">
-        <v>57.937</v>
+        <v>110.8986</v>
       </c>
       <c r="G43" t="n">
-        <v>-5017.19396833</v>
+        <v>-2845.81234859</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
@@ -1950,28 +1950,28 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>2000</v>
+        <v>2017</v>
       </c>
       <c r="C44" t="n">
-        <v>2000</v>
+        <v>2017</v>
       </c>
       <c r="D44" t="n">
-        <v>2000</v>
+        <v>2017</v>
       </c>
       <c r="E44" t="n">
-        <v>2000</v>
+        <v>2017</v>
       </c>
       <c r="F44" t="n">
-        <v>79.1688</v>
+        <v>83.5446</v>
       </c>
       <c r="G44" t="n">
-        <v>-5017.19396833</v>
+        <v>-2845.81234859</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
@@ -1986,28 +1986,28 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>2000</v>
+        <v>2008</v>
       </c>
       <c r="C45" t="n">
-        <v>2000</v>
+        <v>2008</v>
       </c>
       <c r="D45" t="n">
-        <v>2000</v>
+        <v>2008</v>
       </c>
       <c r="E45" t="n">
-        <v>2000</v>
+        <v>2008</v>
       </c>
       <c r="F45" t="n">
-        <v>298.7163</v>
+        <v>26.062</v>
       </c>
       <c r="G45" t="n">
-        <v>-5017.19396833</v>
+        <v>-2871.87434859</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
@@ -2022,28 +2022,28 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>2000</v>
+        <v>2008</v>
       </c>
       <c r="C46" t="n">
-        <v>1997</v>
+        <v>2008</v>
       </c>
       <c r="D46" t="n">
-        <v>2000</v>
+        <v>2008</v>
       </c>
       <c r="E46" t="n">
-        <v>1997</v>
+        <v>2008</v>
       </c>
       <c r="F46" t="n">
-        <v>231.7795</v>
+        <v>12.4892</v>
       </c>
       <c r="G46" t="n">
-        <v>-5248.973468329999</v>
+        <v>-2871.87434859</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
@@ -2058,28 +2058,28 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>2002</v>
+        <v>2008</v>
       </c>
       <c r="C47" t="n">
-        <v>2002</v>
+        <v>2008</v>
       </c>
       <c r="D47" t="n">
-        <v>2002</v>
+        <v>2008</v>
       </c>
       <c r="E47" t="n">
-        <v>2002</v>
+        <v>2008</v>
       </c>
       <c r="F47" t="n">
-        <v>102.7</v>
+        <v>24.7883</v>
       </c>
       <c r="G47" t="n">
-        <v>-5146.27346833</v>
+        <v>-2871.87434859</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
@@ -2094,28 +2094,28 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>1997</v>
+        <v>2003</v>
       </c>
       <c r="C48" t="n">
-        <v>1997</v>
+        <v>2003</v>
       </c>
       <c r="D48" t="n">
-        <v>1997</v>
+        <v>2003</v>
       </c>
       <c r="E48" t="n">
-        <v>1997</v>
+        <v>2002</v>
       </c>
       <c r="F48" t="n">
-        <v>39.242</v>
+        <v>1359.519</v>
       </c>
       <c r="G48" t="n">
-        <v>-5185.51546833</v>
+        <v>-4231.39334859</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
@@ -2130,22 +2130,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>2002</v>
+        <v>2007</v>
       </c>
       <c r="C49" t="n">
-        <v>2002</v>
+        <v>2008</v>
       </c>
       <c r="D49" t="n">
-        <v>2002</v>
+        <v>2008</v>
       </c>
       <c r="E49" t="n">
-        <v>2002</v>
+        <v>2007</v>
       </c>
       <c r="F49" t="n">
-        <v>161.4475</v>
+        <v>175.437</v>
       </c>
       <c r="G49" t="n">
-        <v>-5024.06796833</v>
+        <v>-4055.95634859</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2166,22 +2166,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>1997</v>
+        <v>2001</v>
       </c>
       <c r="C50" t="n">
-        <v>1997</v>
+        <v>2001</v>
       </c>
       <c r="D50" t="n">
-        <v>1997</v>
+        <v>2001</v>
       </c>
       <c r="E50" t="n">
-        <v>1997</v>
+        <v>2001</v>
       </c>
       <c r="F50" t="n">
-        <v>42.7992</v>
+        <v>241.0922</v>
       </c>
       <c r="G50" t="n">
-        <v>-5066.86716833</v>
+        <v>-4297.04854859</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2202,22 +2202,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="C51" t="n">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="D51" t="n">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="E51" t="n">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="F51" t="n">
-        <v>102.466</v>
+        <v>73.5446</v>
       </c>
       <c r="G51" t="n">
-        <v>-4964.40116833</v>
+        <v>-4370.59314859</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2238,22 +2238,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>1998</v>
+        <v>2001</v>
       </c>
       <c r="C52" t="n">
-        <v>1998</v>
+        <v>2001</v>
       </c>
       <c r="D52" t="n">
-        <v>1998</v>
+        <v>2001</v>
       </c>
       <c r="E52" t="n">
-        <v>1998</v>
+        <v>2001</v>
       </c>
       <c r="F52" t="n">
-        <v>87.5737</v>
+        <v>200</v>
       </c>
       <c r="G52" t="n">
-        <v>-4964.40116833</v>
+        <v>-4170.59314859</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2274,22 +2274,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>1998</v>
+        <v>2001</v>
       </c>
       <c r="C53" t="n">
-        <v>1998</v>
+        <v>2001</v>
       </c>
       <c r="D53" t="n">
-        <v>1998</v>
+        <v>2001</v>
       </c>
       <c r="E53" t="n">
-        <v>1998</v>
+        <v>2001</v>
       </c>
       <c r="F53" t="n">
-        <v>39.0897</v>
+        <v>684.177</v>
       </c>
       <c r="G53" t="n">
-        <v>-4964.40116833</v>
+        <v>-4170.59314859</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2310,7 +2310,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>2003</v>
+        <v>2000</v>
       </c>
       <c r="C54" t="n">
         <v>2003</v>
@@ -2319,19 +2319,19 @@
         <v>2003</v>
       </c>
       <c r="E54" t="n">
-        <v>2003</v>
+        <v>2000</v>
       </c>
       <c r="F54" t="n">
-        <v>0.13</v>
+        <v>589.0821</v>
       </c>
       <c r="G54" t="n">
-        <v>-4964.271168329999</v>
+        <v>-3581.51104859</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
@@ -2346,28 +2346,28 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>1999</v>
+        <v>2007</v>
       </c>
       <c r="C55" t="n">
-        <v>1999</v>
+        <v>2002</v>
       </c>
       <c r="D55" t="n">
-        <v>1999</v>
+        <v>2007</v>
       </c>
       <c r="E55" t="n">
-        <v>1999</v>
+        <v>2002</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1527</v>
+        <v>294.3026</v>
       </c>
       <c r="G55" t="n">
-        <v>-4964.423868329999</v>
+        <v>-3875.81364859</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
@@ -2382,22 +2382,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>1998</v>
+        <v>2002</v>
       </c>
       <c r="C56" t="n">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="D56" t="n">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="E56" t="n">
-        <v>1998</v>
+        <v>2002</v>
       </c>
       <c r="F56" t="n">
-        <v>301</v>
+        <v>23.6139</v>
       </c>
       <c r="G56" t="n">
-        <v>-4663.423868329999</v>
+        <v>-3875.81364859</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2421,19 +2421,19 @@
         <v>2001</v>
       </c>
       <c r="C57" t="n">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="D57" t="n">
         <v>2001</v>
       </c>
       <c r="E57" t="n">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="F57" t="n">
-        <v>5</v>
+        <v>85.679</v>
       </c>
       <c r="G57" t="n">
-        <v>-4663.423868329999</v>
+        <v>-3961.49264859</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2454,28 +2454,28 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>2000</v>
+        <v>2004</v>
       </c>
       <c r="C58" t="n">
-        <v>2000</v>
+        <v>2004</v>
       </c>
       <c r="D58" t="n">
-        <v>2000</v>
+        <v>2004</v>
       </c>
       <c r="E58" t="n">
-        <v>2000</v>
+        <v>2004</v>
       </c>
       <c r="F58" t="n">
-        <v>95.0877</v>
+        <v>1524.1219</v>
       </c>
       <c r="G58" t="n">
-        <v>-4758.511568329999</v>
+        <v>-2437.37074859</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
@@ -2490,22 +2490,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>2000</v>
+        <v>2004</v>
       </c>
       <c r="C59" t="n">
-        <v>2000</v>
+        <v>2004</v>
       </c>
       <c r="D59" t="n">
-        <v>2000</v>
+        <v>2004</v>
       </c>
       <c r="E59" t="n">
-        <v>2000</v>
+        <v>2004</v>
       </c>
       <c r="F59" t="n">
-        <v>200</v>
+        <v>970.888</v>
       </c>
       <c r="G59" t="n">
-        <v>-4758.511568329999</v>
+        <v>-2437.37074859</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2526,28 +2526,28 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="C60" t="n">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="D60" t="n">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="E60" t="n">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="F60" t="n">
-        <v>50</v>
+        <v>93.614</v>
       </c>
       <c r="G60" t="n">
-        <v>-4758.511568329999</v>
+        <v>-2530.98474859</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
@@ -2562,28 +2562,28 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>1998</v>
+        <v>2001</v>
       </c>
       <c r="C61" t="n">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="D61" t="n">
-        <v>1998</v>
+        <v>2001</v>
       </c>
       <c r="E61" t="n">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="F61" t="n">
-        <v>42.5686</v>
+        <v>136.965</v>
       </c>
       <c r="G61" t="n">
-        <v>-4801.080168329999</v>
+        <v>-2667.94974859</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
@@ -2598,28 +2598,28 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>1998</v>
+        <v>2005</v>
       </c>
       <c r="C62" t="n">
-        <v>2000</v>
+        <v>2006</v>
       </c>
       <c r="D62" t="n">
-        <v>2000</v>
+        <v>2006</v>
       </c>
       <c r="E62" t="n">
-        <v>1998</v>
+        <v>2005</v>
       </c>
       <c r="F62" t="n">
-        <v>699.5955</v>
+        <v>483.1655</v>
       </c>
       <c r="G62" t="n">
-        <v>-4101.484668329998</v>
+        <v>-2184.78424859</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
@@ -2634,22 +2634,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>2001</v>
+        <v>2004</v>
       </c>
       <c r="C63" t="n">
-        <v>2001</v>
+        <v>2004</v>
       </c>
       <c r="D63" t="n">
-        <v>2001</v>
+        <v>2004</v>
       </c>
       <c r="E63" t="n">
-        <v>2001</v>
+        <v>2004</v>
       </c>
       <c r="F63" t="n">
-        <v>198.2865</v>
+        <v>90.3622</v>
       </c>
       <c r="G63" t="n">
-        <v>-3903.198168329998</v>
+        <v>-2275.14644859</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2670,28 +2670,28 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="C64" t="n">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="D64" t="n">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="E64" t="n">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="F64" t="n">
-        <v>407.5</v>
+        <v>7.04</v>
       </c>
       <c r="G64" t="n">
-        <v>-4310.698168329998</v>
+        <v>-2282.18644859</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
@@ -2706,22 +2706,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>1997</v>
+        <v>2000</v>
       </c>
       <c r="C65" t="n">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="D65" t="n">
-        <v>1997</v>
+        <v>2000</v>
       </c>
       <c r="E65" t="n">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="F65" t="n">
-        <v>3.0984</v>
+        <v>170.391</v>
       </c>
       <c r="G65" t="n">
-        <v>-4313.796568329998</v>
+        <v>-2452.57744859</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2742,22 +2742,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="C66" t="n">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="D66" t="n">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="E66" t="n">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="F66" t="n">
-        <v>200</v>
+        <v>129.5851</v>
       </c>
       <c r="G66" t="n">
-        <v>-4113.796568329998</v>
+        <v>-2582.16254859</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2778,22 +2778,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>2000</v>
+        <v>1996</v>
       </c>
       <c r="C67" t="n">
-        <v>2000</v>
+        <v>1993</v>
       </c>
       <c r="D67" t="n">
-        <v>2000</v>
+        <v>1996</v>
       </c>
       <c r="E67" t="n">
-        <v>2000</v>
+        <v>1993</v>
       </c>
       <c r="F67" t="n">
-        <v>27.7741</v>
+        <v>1444.0626</v>
       </c>
       <c r="G67" t="n">
-        <v>-4086.022468329998</v>
+        <v>-4026.225148590001</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2814,22 +2814,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>2000</v>
+        <v>1993</v>
       </c>
       <c r="C68" t="n">
-        <v>2004</v>
+        <v>1991</v>
       </c>
       <c r="D68" t="n">
-        <v>2004</v>
+        <v>1993</v>
       </c>
       <c r="E68" t="n">
-        <v>2000</v>
+        <v>1991</v>
       </c>
       <c r="F68" t="n">
-        <v>378.7749</v>
+        <v>20.42</v>
       </c>
       <c r="G68" t="n">
-        <v>-3707.247568329998</v>
+        <v>-4046.645148590001</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2850,22 +2850,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>2004</v>
+        <v>1991</v>
       </c>
       <c r="C69" t="n">
-        <v>2005</v>
+        <v>1991</v>
       </c>
       <c r="D69" t="n">
-        <v>2005</v>
+        <v>1991</v>
       </c>
       <c r="E69" t="n">
-        <v>2004</v>
+        <v>1991</v>
       </c>
       <c r="F69" t="n">
-        <v>348.772</v>
+        <v>33.7342</v>
       </c>
       <c r="G69" t="n">
-        <v>-3358.475568329998</v>
+        <v>-4046.645148590001</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2886,22 +2886,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>2005</v>
+        <v>1998</v>
       </c>
       <c r="C70" t="n">
-        <v>2010</v>
+        <v>1998</v>
       </c>
       <c r="D70" t="n">
-        <v>2010</v>
+        <v>1998</v>
       </c>
       <c r="E70" t="n">
-        <v>2005</v>
+        <v>1998</v>
       </c>
       <c r="F70" t="n">
-        <v>851</v>
+        <v>1.05105105</v>
       </c>
       <c r="G70" t="n">
-        <v>-2507.475568329998</v>
+        <v>-4045.594097540001</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2922,22 +2922,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>2004</v>
+        <v>1999</v>
       </c>
       <c r="C71" t="n">
-        <v>2012</v>
+        <v>1999</v>
       </c>
       <c r="D71" t="n">
-        <v>2012</v>
+        <v>1999</v>
       </c>
       <c r="E71" t="n">
-        <v>2004</v>
+        <v>1999</v>
       </c>
       <c r="F71" t="n">
-        <v>500.1</v>
+        <v>1</v>
       </c>
       <c r="G71" t="n">
-        <v>-2007.375568329998</v>
+        <v>-4044.594097540001</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2958,28 +2958,28 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>2007</v>
+        <v>1999</v>
       </c>
       <c r="C72" t="n">
-        <v>2007</v>
+        <v>1999</v>
       </c>
       <c r="D72" t="n">
-        <v>2007</v>
+        <v>1999</v>
       </c>
       <c r="E72" t="n">
-        <v>2007</v>
+        <v>1999</v>
       </c>
       <c r="F72" t="n">
-        <v>200</v>
+        <v>82.67100000000001</v>
       </c>
       <c r="G72" t="n">
-        <v>-2207.375568329998</v>
+        <v>-4044.594097540001</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
@@ -2994,28 +2994,28 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>2007</v>
+        <v>1997</v>
       </c>
       <c r="C73" t="n">
-        <v>2007</v>
+        <v>1997</v>
       </c>
       <c r="D73" t="n">
-        <v>2007</v>
+        <v>1997</v>
       </c>
       <c r="E73" t="n">
-        <v>2007</v>
+        <v>1997</v>
       </c>
       <c r="F73" t="n">
-        <v>100</v>
+        <v>2.6317</v>
       </c>
       <c r="G73" t="n">
-        <v>-2207.375568329998</v>
+        <v>-4047.225797540001</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
@@ -3030,28 +3030,28 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>2004</v>
+        <v>1997</v>
       </c>
       <c r="C74" t="n">
-        <v>2004</v>
+        <v>1997</v>
       </c>
       <c r="D74" t="n">
-        <v>2004</v>
+        <v>1997</v>
       </c>
       <c r="E74" t="n">
-        <v>2004</v>
+        <v>1997</v>
       </c>
       <c r="F74" t="n">
-        <v>100</v>
+        <v>2.70405608</v>
       </c>
       <c r="G74" t="n">
-        <v>-2307.375568329998</v>
+        <v>-4047.225797540001</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
@@ -3066,22 +3066,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>2004</v>
+        <v>1997</v>
       </c>
       <c r="C75" t="n">
-        <v>2009</v>
+        <v>1997</v>
       </c>
       <c r="D75" t="n">
-        <v>2012</v>
+        <v>1997</v>
       </c>
       <c r="E75" t="n">
-        <v>2004</v>
+        <v>1997</v>
       </c>
       <c r="F75" t="n">
-        <v>534.0048</v>
+        <v>13.7232</v>
       </c>
       <c r="G75" t="n">
-        <v>-1773.370768329998</v>
+        <v>-4047.225797540001</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3102,28 +3102,28 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>2009</v>
+        <v>1992</v>
       </c>
       <c r="C76" t="n">
-        <v>2017</v>
+        <v>1992</v>
       </c>
       <c r="D76" t="n">
-        <v>2017</v>
+        <v>1992</v>
       </c>
       <c r="E76" t="n">
-        <v>2009</v>
+        <v>1992</v>
       </c>
       <c r="F76" t="n">
-        <v>1050.9782</v>
+        <v>98</v>
       </c>
       <c r="G76" t="n">
-        <v>-722.3925683299981</v>
+        <v>-4145.225797540001</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
@@ -3138,28 +3138,28 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>2011</v>
+        <v>1991</v>
       </c>
       <c r="C77" t="n">
-        <v>2019</v>
+        <v>1991</v>
       </c>
       <c r="D77" t="n">
-        <v>2019</v>
+        <v>1991</v>
       </c>
       <c r="E77" t="n">
-        <v>2011</v>
+        <v>1991</v>
       </c>
       <c r="F77" t="n">
-        <v>45.9585</v>
+        <v>120</v>
       </c>
       <c r="G77" t="n">
-        <v>-676.4340683299981</v>
+        <v>-4265.225797540001</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
@@ -3174,28 +3174,28 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>2010</v>
+        <v>1991</v>
       </c>
       <c r="C78" t="n">
-        <v>2010</v>
+        <v>1991</v>
       </c>
       <c r="D78" t="n">
-        <v>2010</v>
+        <v>1991</v>
       </c>
       <c r="E78" t="n">
-        <v>2010</v>
+        <v>1991</v>
       </c>
       <c r="F78" t="n">
-        <v>12.39</v>
+        <v>6</v>
       </c>
       <c r="G78" t="n">
-        <v>-688.8240683299981</v>
+        <v>-4265.225797540001</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
@@ -3210,28 +3210,28 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>2010</v>
+        <v>1991</v>
       </c>
       <c r="C79" t="n">
-        <v>2012</v>
+        <v>1998</v>
       </c>
       <c r="D79" t="n">
-        <v>2012</v>
+        <v>1998</v>
       </c>
       <c r="E79" t="n">
-        <v>2010</v>
+        <v>1991</v>
       </c>
       <c r="F79" t="n">
-        <v>597</v>
+        <v>532.9772</v>
       </c>
       <c r="G79" t="n">
-        <v>-91.82406832999811</v>
+        <v>-3732.24859754</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
@@ -3246,28 +3246,28 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>2008</v>
+        <v>1997</v>
       </c>
       <c r="C80" t="n">
-        <v>2008</v>
+        <v>1997</v>
       </c>
       <c r="D80" t="n">
-        <v>2008</v>
+        <v>1997</v>
       </c>
       <c r="E80" t="n">
-        <v>2008</v>
+        <v>1997</v>
       </c>
       <c r="F80" t="n">
-        <v>29.6006</v>
+        <v>5.00751126</v>
       </c>
       <c r="G80" t="n">
-        <v>-121.4246683299981</v>
+        <v>-3737.2561088</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
@@ -3282,28 +3282,28 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>2005</v>
+        <v>1997</v>
       </c>
       <c r="C81" t="n">
-        <v>2006</v>
+        <v>1997</v>
       </c>
       <c r="D81" t="n">
-        <v>2006</v>
+        <v>1997</v>
       </c>
       <c r="E81" t="n">
-        <v>2005</v>
+        <v>1997</v>
       </c>
       <c r="F81" t="n">
-        <v>147.9342</v>
+        <v>37.5563</v>
       </c>
       <c r="G81" t="n">
-        <v>-269.3588683299981</v>
+        <v>-3737.2561088</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
@@ -3318,28 +3318,28 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>2009</v>
+        <v>1991</v>
       </c>
       <c r="C82" t="n">
-        <v>2009</v>
+        <v>1991</v>
       </c>
       <c r="D82" t="n">
-        <v>2009</v>
+        <v>1991</v>
       </c>
       <c r="E82" t="n">
-        <v>2009</v>
+        <v>1991</v>
       </c>
       <c r="F82" t="n">
-        <v>196.5255</v>
+        <v>26.2335</v>
       </c>
       <c r="G82" t="n">
-        <v>-72.83336832999814</v>
+        <v>-3763.4896088</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
@@ -3354,28 +3354,28 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>2008</v>
+        <v>1999</v>
       </c>
       <c r="C83" t="n">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="D83" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="E83" t="n">
-        <v>2008</v>
+        <v>1999</v>
       </c>
       <c r="F83" t="n">
-        <v>97</v>
+        <v>1059.5598</v>
       </c>
       <c r="G83" t="n">
-        <v>-169.8333683299981</v>
+        <v>-2703.9298088</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
@@ -3390,28 +3390,28 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>2008</v>
+        <v>2011</v>
       </c>
       <c r="C84" t="n">
-        <v>2008</v>
+        <v>2011</v>
       </c>
       <c r="D84" t="n">
-        <v>2008</v>
+        <v>2011</v>
       </c>
       <c r="E84" t="n">
-        <v>2008</v>
+        <v>2011</v>
       </c>
       <c r="F84" t="n">
-        <v>149.44</v>
+        <v>127.7</v>
       </c>
       <c r="G84" t="n">
-        <v>-169.8333683299981</v>
+        <v>-2576.2298088</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
@@ -3426,28 +3426,28 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>2008</v>
+        <v>2013</v>
       </c>
       <c r="C85" t="n">
-        <v>2008</v>
+        <v>2013</v>
       </c>
       <c r="D85" t="n">
-        <v>2008</v>
+        <v>2013</v>
       </c>
       <c r="E85" t="n">
-        <v>2008</v>
+        <v>2013</v>
       </c>
       <c r="F85" t="n">
-        <v>22.9525</v>
+        <v>79.4545</v>
       </c>
       <c r="G85" t="n">
-        <v>-169.8333683299981</v>
+        <v>-2496.7753088</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
@@ -3462,28 +3462,28 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
+        <v>2011</v>
+      </c>
+      <c r="C86" t="n">
         <v>2008</v>
       </c>
-      <c r="C86" t="n">
-        <v>2013</v>
-      </c>
       <c r="D86" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="E86" t="n">
         <v>2008</v>
       </c>
       <c r="F86" t="n">
-        <v>16.1906</v>
+        <v>1953.5813</v>
       </c>
       <c r="G86" t="n">
-        <v>-153.6427683299981</v>
+        <v>-4450.356608800001</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
@@ -3498,28 +3498,28 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="C87" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="D87" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="E87" t="n">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="F87" t="n">
-        <v>19.679</v>
+        <v>936.4347</v>
       </c>
       <c r="G87" t="n">
-        <v>-173.3217683299982</v>
+        <v>-3513.921908800001</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
@@ -3537,25 +3537,25 @@
         <v>2008</v>
       </c>
       <c r="C88" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="D88" t="n">
         <v>2008</v>
       </c>
       <c r="E88" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="F88" t="n">
-        <v>182.1572</v>
+        <v>203.7999</v>
       </c>
       <c r="G88" t="n">
-        <v>-173.3217683299982</v>
+        <v>-3717.721808800001</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
@@ -3570,28 +3570,28 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="C89" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="D89" t="n">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="E89" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="F89" t="n">
-        <v>214.711</v>
+        <v>196.5106</v>
       </c>
       <c r="G89" t="n">
-        <v>-173.3217683299982</v>
+        <v>-3717.721808800001</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
@@ -3606,28 +3606,28 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>2008</v>
+        <v>2011</v>
       </c>
       <c r="C90" t="n">
-        <v>2008</v>
+        <v>2011</v>
       </c>
       <c r="D90" t="n">
-        <v>2008</v>
+        <v>2011</v>
       </c>
       <c r="E90" t="n">
-        <v>2008</v>
+        <v>2011</v>
       </c>
       <c r="F90" t="n">
-        <v>82.86799999999999</v>
+        <v>0.1</v>
       </c>
       <c r="G90" t="n">
-        <v>-173.3217683299982</v>
+        <v>-3717.621808800001</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
@@ -3642,28 +3642,28 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>2008</v>
+        <v>2015</v>
       </c>
       <c r="C91" t="n">
-        <v>2008</v>
+        <v>2015</v>
       </c>
       <c r="D91" t="n">
-        <v>2008</v>
+        <v>2015</v>
       </c>
       <c r="E91" t="n">
-        <v>2008</v>
+        <v>2015</v>
       </c>
       <c r="F91" t="n">
-        <v>694.9</v>
+        <v>69.3168</v>
       </c>
       <c r="G91" t="n">
-        <v>-173.3217683299982</v>
+        <v>-3648.305008800001</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
@@ -3690,16 +3690,16 @@
         <v>2008</v>
       </c>
       <c r="F92" t="n">
-        <v>79</v>
+        <v>150</v>
       </c>
       <c r="G92" t="n">
-        <v>-173.3217683299982</v>
+        <v>-3798.305008800001</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
@@ -3714,28 +3714,28 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>2008</v>
+        <v>2017</v>
       </c>
       <c r="C93" t="n">
-        <v>2008</v>
+        <v>2018</v>
       </c>
       <c r="D93" t="n">
-        <v>2008</v>
+        <v>2018</v>
       </c>
       <c r="E93" t="n">
-        <v>2008</v>
+        <v>2017</v>
       </c>
       <c r="F93" t="n">
-        <v>223.1</v>
+        <v>144</v>
       </c>
       <c r="G93" t="n">
-        <v>-173.3217683299982</v>
+        <v>-3654.305008800001</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
@@ -3750,28 +3750,28 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="C94" t="n">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="D94" t="n">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="E94" t="n">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="F94" t="n">
-        <v>4</v>
+        <v>28.162</v>
       </c>
       <c r="G94" t="n">
-        <v>-173.3217683299982</v>
+        <v>-3682.467008800001</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
@@ -3786,28 +3786,28 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="C95" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="D95" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="E95" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="F95" t="n">
-        <v>75.2641</v>
+        <v>82.30200000000001</v>
       </c>
       <c r="G95" t="n">
-        <v>-173.3217683299982</v>
+        <v>-3764.769008800001</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
@@ -3822,28 +3822,28 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="C96" t="n">
-        <v>2000</v>
+        <v>2015</v>
       </c>
       <c r="D96" t="n">
-        <v>2008</v>
+        <v>2015</v>
       </c>
       <c r="E96" t="n">
-        <v>2000</v>
+        <v>2007</v>
       </c>
       <c r="F96" t="n">
-        <v>2549.5961</v>
+        <v>316.6206</v>
       </c>
       <c r="G96" t="n">
-        <v>-2722.917868329998</v>
+        <v>-3448.148408800001</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
@@ -3858,22 +3858,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>1997</v>
+        <v>2009</v>
       </c>
       <c r="C97" t="n">
-        <v>1997</v>
+        <v>2009</v>
       </c>
       <c r="D97" t="n">
-        <v>1997</v>
+        <v>2009</v>
       </c>
       <c r="E97" t="n">
-        <v>1997</v>
+        <v>2009</v>
       </c>
       <c r="F97" t="n">
-        <v>4.4804</v>
+        <v>1.0983</v>
       </c>
       <c r="G97" t="n">
-        <v>-2727.398268329998</v>
+        <v>-3449.246708800001</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3894,22 +3894,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>1995</v>
+        <v>2009</v>
       </c>
       <c r="C98" t="n">
-        <v>1995</v>
+        <v>2009</v>
       </c>
       <c r="D98" t="n">
-        <v>1995</v>
+        <v>2009</v>
       </c>
       <c r="E98" t="n">
-        <v>1995</v>
+        <v>2009</v>
       </c>
       <c r="F98" t="n">
-        <v>356.125</v>
+        <v>219.268</v>
       </c>
       <c r="G98" t="n">
-        <v>-3083.523268329998</v>
+        <v>-3449.246708800001</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3930,22 +3930,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>1996</v>
+        <v>2010</v>
       </c>
       <c r="C99" t="n">
-        <v>1996</v>
+        <v>2010</v>
       </c>
       <c r="D99" t="n">
-        <v>1996</v>
+        <v>2010</v>
       </c>
       <c r="E99" t="n">
-        <v>1996</v>
+        <v>2010</v>
       </c>
       <c r="F99" t="n">
-        <v>34.2765</v>
+        <v>234.5286</v>
       </c>
       <c r="G99" t="n">
-        <v>-3049.246768329998</v>
+        <v>-3214.718108800001</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3966,22 +3966,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>2002</v>
+        <v>2010</v>
       </c>
       <c r="C100" t="n">
-        <v>2002</v>
+        <v>2010</v>
       </c>
       <c r="D100" t="n">
-        <v>2002</v>
+        <v>2010</v>
       </c>
       <c r="E100" t="n">
-        <v>2002</v>
+        <v>2010</v>
       </c>
       <c r="F100" t="n">
-        <v>1</v>
+        <v>35.8208</v>
       </c>
       <c r="G100" t="n">
-        <v>-3048.246768329998</v>
+        <v>-3214.718108800001</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4002,22 +4002,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>2001</v>
+        <v>2010</v>
       </c>
       <c r="C101" t="n">
-        <v>1994</v>
+        <v>2010</v>
       </c>
       <c r="D101" t="n">
-        <v>2001</v>
+        <v>2010</v>
       </c>
       <c r="E101" t="n">
-        <v>1994</v>
+        <v>2010</v>
       </c>
       <c r="F101" t="n">
-        <v>933.3797</v>
+        <v>83.1384</v>
       </c>
       <c r="G101" t="n">
-        <v>-3981.626468329998</v>
+        <v>-3214.718108800001</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4038,22 +4038,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>2001</v>
+        <v>2004</v>
       </c>
       <c r="C102" t="n">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="D102" t="n">
-        <v>2001</v>
+        <v>2004</v>
       </c>
       <c r="E102" t="n">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="F102" t="n">
-        <v>29.1623</v>
+        <v>1175.6072</v>
       </c>
       <c r="G102" t="n">
-        <v>-3952.464168329998</v>
+        <v>-4390.3253088</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4074,22 +4074,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>2001</v>
+        <v>2012</v>
       </c>
       <c r="C103" t="n">
-        <v>2001</v>
+        <v>2016</v>
       </c>
       <c r="D103" t="n">
-        <v>2001</v>
+        <v>2016</v>
       </c>
       <c r="E103" t="n">
-        <v>2001</v>
+        <v>2012</v>
       </c>
       <c r="F103" t="n">
-        <v>18.6842</v>
+        <v>955.06994047</v>
       </c>
       <c r="G103" t="n">
-        <v>-3952.464168329998</v>
+        <v>-3435.25536833</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4110,28 +4110,28 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>1994</v>
+        <v>2003</v>
       </c>
       <c r="C104" t="n">
-        <v>1993</v>
+        <v>2003</v>
       </c>
       <c r="D104" t="n">
-        <v>1994</v>
+        <v>2003</v>
       </c>
       <c r="E104" t="n">
-        <v>1993</v>
+        <v>2003</v>
       </c>
       <c r="F104" t="n">
-        <v>324.1783</v>
+        <v>14.3447</v>
       </c>
       <c r="G104" t="n">
-        <v>-4276.642468329998</v>
+        <v>-3449.60006833</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
@@ -4146,22 +4146,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>1997</v>
+        <v>2002</v>
       </c>
       <c r="C105" t="n">
-        <v>1997</v>
+        <v>2001</v>
       </c>
       <c r="D105" t="n">
-        <v>1997</v>
+        <v>2002</v>
       </c>
       <c r="E105" t="n">
-        <v>1997</v>
+        <v>2001</v>
       </c>
       <c r="F105" t="n">
-        <v>96.3999</v>
+        <v>316.6108</v>
       </c>
       <c r="G105" t="n">
-        <v>-4180.242568329998</v>
+        <v>-3766.21086833</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4182,22 +4182,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>1993</v>
+        <v>2001</v>
       </c>
       <c r="C106" t="n">
-        <v>1993</v>
+        <v>2001</v>
       </c>
       <c r="D106" t="n">
-        <v>1993</v>
+        <v>2001</v>
       </c>
       <c r="E106" t="n">
-        <v>1993</v>
+        <v>2001</v>
       </c>
       <c r="F106" t="n">
-        <v>50</v>
+        <v>30.0842</v>
       </c>
       <c r="G106" t="n">
-        <v>-4230.242568329998</v>
+        <v>-3766.21086833</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4221,19 +4221,19 @@
         <v>2001</v>
       </c>
       <c r="C107" t="n">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="D107" t="n">
         <v>2001</v>
       </c>
       <c r="E107" t="n">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="F107" t="n">
-        <v>6.2093</v>
+        <v>1383.2054</v>
       </c>
       <c r="G107" t="n">
-        <v>-4224.033268329998</v>
+        <v>-5149.41626833</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4266,16 +4266,16 @@
         <v>2000</v>
       </c>
       <c r="F108" t="n">
-        <v>25.7318</v>
+        <v>635.5192</v>
       </c>
       <c r="G108" t="n">
-        <v>-4249.765068329997</v>
+        <v>-5149.41626833</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
@@ -4290,22 +4290,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="C109" t="n">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="D109" t="n">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="E109" t="n">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="F109" t="n">
-        <v>20.8636</v>
+        <v>5.9782</v>
       </c>
       <c r="G109" t="n">
-        <v>-4270.628668329997</v>
+        <v>-5149.41626833</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4326,22 +4326,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="C110" t="n">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="D110" t="n">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="E110" t="n">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="F110" t="n">
-        <v>15.202</v>
+        <v>12.8941</v>
       </c>
       <c r="G110" t="n">
-        <v>-4255.426668329997</v>
+        <v>-5149.41626833</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4362,22 +4362,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>2000</v>
+        <v>2002</v>
       </c>
       <c r="C111" t="n">
-        <v>2000</v>
+        <v>2002</v>
       </c>
       <c r="D111" t="n">
-        <v>2000</v>
+        <v>2002</v>
       </c>
       <c r="E111" t="n">
-        <v>2000</v>
+        <v>2002</v>
       </c>
       <c r="F111" t="n">
-        <v>41.4955</v>
+        <v>190.1593</v>
       </c>
       <c r="G111" t="n">
-        <v>-4213.931168329997</v>
+        <v>-4959.25696833</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4398,28 +4398,28 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>2000</v>
+        <v>2002</v>
       </c>
       <c r="C112" t="n">
-        <v>2000</v>
+        <v>2002</v>
       </c>
       <c r="D112" t="n">
-        <v>2000</v>
+        <v>2002</v>
       </c>
       <c r="E112" t="n">
-        <v>2000</v>
+        <v>2002</v>
       </c>
       <c r="F112" t="n">
-        <v>13.3925</v>
+        <v>282.8809</v>
       </c>
       <c r="G112" t="n">
-        <v>-4213.931168329997</v>
+        <v>-4959.25696833</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
@@ -4434,28 +4434,28 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>2000</v>
+        <v>2002</v>
       </c>
       <c r="C113" t="n">
-        <v>2000</v>
+        <v>2002</v>
       </c>
       <c r="D113" t="n">
-        <v>2000</v>
+        <v>2002</v>
       </c>
       <c r="E113" t="n">
-        <v>2000</v>
+        <v>2002</v>
       </c>
       <c r="F113" t="n">
-        <v>12.0533</v>
+        <v>30.7467</v>
       </c>
       <c r="G113" t="n">
-        <v>-4213.931168329997</v>
+        <v>-4959.25696833</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
@@ -4470,28 +4470,28 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="C114" t="n">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="D114" t="n">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="E114" t="n">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="F114" t="n">
-        <v>16.5894</v>
+        <v>57.937</v>
       </c>
       <c r="G114" t="n">
-        <v>-4230.520568329996</v>
+        <v>-5017.19396833</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
@@ -4506,28 +4506,28 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="C115" t="n">
-        <v>1995</v>
+        <v>2000</v>
       </c>
       <c r="D115" t="n">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="E115" t="n">
-        <v>1995</v>
+        <v>2000</v>
       </c>
       <c r="F115" t="n">
-        <v>468.421</v>
+        <v>79.1688</v>
       </c>
       <c r="G115" t="n">
-        <v>-4698.941568329997</v>
+        <v>-5017.19396833</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
@@ -4542,28 +4542,28 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="C116" t="n">
-        <v>1997</v>
+        <v>2000</v>
       </c>
       <c r="D116" t="n">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="E116" t="n">
-        <v>1997</v>
+        <v>2000</v>
       </c>
       <c r="F116" t="n">
-        <v>113.6099</v>
+        <v>298.7163</v>
       </c>
       <c r="G116" t="n">
-        <v>-4585.331668329996</v>
+        <v>-5017.19396833</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
@@ -4578,28 +4578,28 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="C117" t="n">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="D117" t="n">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="E117" t="n">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="F117" t="n">
-        <v>98.212</v>
+        <v>231.7795</v>
       </c>
       <c r="G117" t="n">
-        <v>-4487.119668329996</v>
+        <v>-5248.973468329999</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
@@ -4614,28 +4614,28 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>1994</v>
+        <v>2002</v>
       </c>
       <c r="C118" t="n">
-        <v>1992</v>
+        <v>2002</v>
       </c>
       <c r="D118" t="n">
-        <v>1994</v>
+        <v>2002</v>
       </c>
       <c r="E118" t="n">
-        <v>1992</v>
+        <v>2002</v>
       </c>
       <c r="F118" t="n">
-        <v>2499.1725</v>
+        <v>102.7</v>
       </c>
       <c r="G118" t="n">
-        <v>-6986.292168329996</v>
+        <v>-5146.27346833</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
@@ -4650,22 +4650,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>1993</v>
+        <v>1997</v>
       </c>
       <c r="C119" t="n">
-        <v>1993</v>
+        <v>1997</v>
       </c>
       <c r="D119" t="n">
-        <v>1993</v>
+        <v>1997</v>
       </c>
       <c r="E119" t="n">
-        <v>1993</v>
+        <v>1997</v>
       </c>
       <c r="F119" t="n">
-        <v>486.157</v>
+        <v>39.242</v>
       </c>
       <c r="G119" t="n">
-        <v>-6500.135168329995</v>
+        <v>-5185.51546833</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4686,7 +4686,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>1993</v>
+        <v>2002</v>
       </c>
       <c r="C120" t="n">
         <v>2002</v>
@@ -4695,13 +4695,13 @@
         <v>2002</v>
       </c>
       <c r="E120" t="n">
-        <v>1993</v>
+        <v>2002</v>
       </c>
       <c r="F120" t="n">
-        <v>1868.4807</v>
+        <v>161.4475</v>
       </c>
       <c r="G120" t="n">
-        <v>-4631.654468329995</v>
+        <v>-5024.06796833</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4722,22 +4722,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>1993</v>
+        <v>1997</v>
       </c>
       <c r="C121" t="n">
-        <v>1993</v>
+        <v>1997</v>
       </c>
       <c r="D121" t="n">
-        <v>1993</v>
+        <v>1997</v>
       </c>
       <c r="E121" t="n">
-        <v>1993</v>
+        <v>1997</v>
       </c>
       <c r="F121" t="n">
-        <v>67.5478</v>
+        <v>42.7992</v>
       </c>
       <c r="G121" t="n">
-        <v>-4699.202268329996</v>
+        <v>-5066.86716833</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4758,22 +4758,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>1993</v>
+        <v>1998</v>
       </c>
       <c r="C122" t="n">
-        <v>1991</v>
+        <v>1998</v>
       </c>
       <c r="D122" t="n">
-        <v>1993</v>
+        <v>1998</v>
       </c>
       <c r="E122" t="n">
-        <v>1991</v>
+        <v>1998</v>
       </c>
       <c r="F122" t="n">
-        <v>98.6191</v>
+        <v>102.466</v>
       </c>
       <c r="G122" t="n">
-        <v>-4797.821368329995</v>
+        <v>-4964.40116833</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4794,22 +4794,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>1990</v>
+        <v>1998</v>
       </c>
       <c r="C123" t="n">
-        <v>1990</v>
+        <v>1998</v>
       </c>
       <c r="D123" t="n">
-        <v>1991</v>
+        <v>1998</v>
       </c>
       <c r="E123" t="n">
-        <v>1990</v>
+        <v>1998</v>
       </c>
       <c r="F123" t="n">
-        <v>8939.282300000001</v>
+        <v>87.5737</v>
       </c>
       <c r="G123" t="n">
-        <v>-13737.10366833</v>
+        <v>-4964.40116833</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4830,22 +4830,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>1990</v>
+        <v>1998</v>
       </c>
       <c r="C124" t="n">
-        <v>1985</v>
+        <v>1998</v>
       </c>
       <c r="D124" t="n">
-        <v>1990</v>
+        <v>1998</v>
       </c>
       <c r="E124" t="n">
-        <v>1985</v>
+        <v>1998</v>
       </c>
       <c r="F124" t="n">
-        <v>1360.1573</v>
+        <v>39.0897</v>
       </c>
       <c r="G124" t="n">
-        <v>-15097.26096833</v>
+        <v>-4964.40116833</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4866,22 +4866,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>1985</v>
+        <v>2003</v>
       </c>
       <c r="C125" t="n">
-        <v>1983</v>
+        <v>2003</v>
       </c>
       <c r="D125" t="n">
-        <v>1985</v>
+        <v>2003</v>
       </c>
       <c r="E125" t="n">
-        <v>1983</v>
+        <v>2003</v>
       </c>
       <c r="F125" t="n">
-        <v>290.782</v>
+        <v>0.13</v>
       </c>
       <c r="G125" t="n">
-        <v>-15388.04296833</v>
+        <v>-4964.271168329999</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4902,22 +4902,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>1988</v>
+        <v>1999</v>
       </c>
       <c r="C126" t="n">
-        <v>1988</v>
+        <v>1999</v>
       </c>
       <c r="D126" t="n">
-        <v>1988</v>
+        <v>1999</v>
       </c>
       <c r="E126" t="n">
-        <v>1988</v>
+        <v>1999</v>
       </c>
       <c r="F126" t="n">
-        <v>198.9015</v>
+        <v>0.1527</v>
       </c>
       <c r="G126" t="n">
-        <v>-15189.14146833</v>
+        <v>-4964.423868329999</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4938,22 +4938,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>1983</v>
+        <v>1998</v>
       </c>
       <c r="C127" t="n">
-        <v>1988</v>
+        <v>2001</v>
       </c>
       <c r="D127" t="n">
-        <v>1988</v>
+        <v>2001</v>
       </c>
       <c r="E127" t="n">
-        <v>1983</v>
+        <v>1998</v>
       </c>
       <c r="F127" t="n">
-        <v>229.0576</v>
+        <v>301</v>
       </c>
       <c r="G127" t="n">
-        <v>-15189.14146833</v>
+        <v>-4663.423868329999</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4974,22 +4974,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>1983</v>
+        <v>2001</v>
       </c>
       <c r="C128" t="n">
-        <v>1983</v>
+        <v>2001</v>
       </c>
       <c r="D128" t="n">
-        <v>1983</v>
+        <v>2001</v>
       </c>
       <c r="E128" t="n">
-        <v>1983</v>
+        <v>2001</v>
       </c>
       <c r="F128" t="n">
-        <v>43.861</v>
+        <v>5</v>
       </c>
       <c r="G128" t="n">
-        <v>-15233.00246833</v>
+        <v>-4663.423868329999</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5010,22 +5010,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>1983</v>
+        <v>2000</v>
       </c>
       <c r="C129" t="n">
-        <v>1981</v>
+        <v>2000</v>
       </c>
       <c r="D129" t="n">
-        <v>1983</v>
+        <v>2000</v>
       </c>
       <c r="E129" t="n">
-        <v>1981</v>
+        <v>2000</v>
       </c>
       <c r="F129" t="n">
-        <v>500</v>
+        <v>95.0877</v>
       </c>
       <c r="G129" t="n">
-        <v>-15733.00246833</v>
+        <v>-4758.511568329999</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5046,22 +5046,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>1981</v>
+        <v>2000</v>
       </c>
       <c r="C130" t="n">
-        <v>1981</v>
+        <v>2000</v>
       </c>
       <c r="D130" t="n">
-        <v>1981</v>
+        <v>2000</v>
       </c>
       <c r="E130" t="n">
-        <v>1981</v>
+        <v>2000</v>
       </c>
       <c r="F130" t="n">
-        <v>24.8551</v>
+        <v>200</v>
       </c>
       <c r="G130" t="n">
-        <v>-15733.00246833</v>
+        <v>-4758.511568329999</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5082,22 +5082,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>1981</v>
+        <v>2000</v>
       </c>
       <c r="C131" t="n">
-        <v>1981</v>
+        <v>2000</v>
       </c>
       <c r="D131" t="n">
-        <v>1981</v>
+        <v>2000</v>
       </c>
       <c r="E131" t="n">
-        <v>1981</v>
+        <v>2000</v>
       </c>
       <c r="F131" t="n">
-        <v>41.6107</v>
+        <v>50</v>
       </c>
       <c r="G131" t="n">
-        <v>-15733.00246833</v>
+        <v>-4758.511568329999</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5118,126 +5118,2682 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
+        <v>1998</v>
+      </c>
+      <c r="C132" t="n">
+        <v>1998</v>
+      </c>
+      <c r="D132" t="n">
+        <v>1998</v>
+      </c>
+      <c r="E132" t="n">
+        <v>1998</v>
+      </c>
+      <c r="F132" t="n">
+        <v>42.5686</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-4801.080168329999</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>1998</v>
+      </c>
+      <c r="C133" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D133" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E133" t="n">
+        <v>1998</v>
+      </c>
+      <c r="F133" t="n">
+        <v>699.5955</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-4101.484668329998</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>2001</v>
+      </c>
+      <c r="C134" t="n">
+        <v>2001</v>
+      </c>
+      <c r="D134" t="n">
+        <v>2001</v>
+      </c>
+      <c r="E134" t="n">
+        <v>2001</v>
+      </c>
+      <c r="F134" t="n">
+        <v>198.2865</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-3903.198168329998</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>1998</v>
+      </c>
+      <c r="C135" t="n">
+        <v>1998</v>
+      </c>
+      <c r="D135" t="n">
+        <v>1998</v>
+      </c>
+      <c r="E135" t="n">
+        <v>1998</v>
+      </c>
+      <c r="F135" t="n">
+        <v>407.5</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-4310.698168329998</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>1997</v>
+      </c>
+      <c r="C136" t="n">
+        <v>1997</v>
+      </c>
+      <c r="D136" t="n">
+        <v>1997</v>
+      </c>
+      <c r="E136" t="n">
+        <v>1997</v>
+      </c>
+      <c r="F136" t="n">
+        <v>3.0984</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-4313.796568329998</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>1998</v>
+      </c>
+      <c r="C137" t="n">
+        <v>1998</v>
+      </c>
+      <c r="D137" t="n">
+        <v>1998</v>
+      </c>
+      <c r="E137" t="n">
+        <v>1998</v>
+      </c>
+      <c r="F137" t="n">
+        <v>200</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-4113.796568329998</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C138" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D138" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E138" t="n">
+        <v>2000</v>
+      </c>
+      <c r="F138" t="n">
+        <v>27.7741</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-4086.022468329998</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C139" t="n">
+        <v>2004</v>
+      </c>
+      <c r="D139" t="n">
+        <v>2004</v>
+      </c>
+      <c r="E139" t="n">
+        <v>2000</v>
+      </c>
+      <c r="F139" t="n">
+        <v>378.7749</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-3707.247568329998</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>2004</v>
+      </c>
+      <c r="C140" t="n">
+        <v>2005</v>
+      </c>
+      <c r="D140" t="n">
+        <v>2005</v>
+      </c>
+      <c r="E140" t="n">
+        <v>2004</v>
+      </c>
+      <c r="F140" t="n">
+        <v>348.772</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-3358.475568329998</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>2005</v>
+      </c>
+      <c r="C141" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D141" t="n">
+        <v>2010</v>
+      </c>
+      <c r="E141" t="n">
+        <v>2005</v>
+      </c>
+      <c r="F141" t="n">
+        <v>851</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-2507.475568329998</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>2004</v>
+      </c>
+      <c r="C142" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D142" t="n">
+        <v>2012</v>
+      </c>
+      <c r="E142" t="n">
+        <v>2004</v>
+      </c>
+      <c r="F142" t="n">
+        <v>500.1</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-2007.375568329998</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>2007</v>
+      </c>
+      <c r="C143" t="n">
+        <v>2007</v>
+      </c>
+      <c r="D143" t="n">
+        <v>2007</v>
+      </c>
+      <c r="E143" t="n">
+        <v>2007</v>
+      </c>
+      <c r="F143" t="n">
+        <v>200</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-2207.375568329998</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>2007</v>
+      </c>
+      <c r="C144" t="n">
+        <v>2007</v>
+      </c>
+      <c r="D144" t="n">
+        <v>2007</v>
+      </c>
+      <c r="E144" t="n">
+        <v>2007</v>
+      </c>
+      <c r="F144" t="n">
+        <v>100</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-2207.375568329998</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>2004</v>
+      </c>
+      <c r="C145" t="n">
+        <v>2004</v>
+      </c>
+      <c r="D145" t="n">
+        <v>2004</v>
+      </c>
+      <c r="E145" t="n">
+        <v>2004</v>
+      </c>
+      <c r="F145" t="n">
+        <v>100</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-2307.375568329998</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>2004</v>
+      </c>
+      <c r="C146" t="n">
+        <v>2009</v>
+      </c>
+      <c r="D146" t="n">
+        <v>2012</v>
+      </c>
+      <c r="E146" t="n">
+        <v>2004</v>
+      </c>
+      <c r="F146" t="n">
+        <v>534.0048</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-1773.370768329998</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>2009</v>
+      </c>
+      <c r="C147" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D147" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E147" t="n">
+        <v>2009</v>
+      </c>
+      <c r="F147" t="n">
+        <v>1050.9782</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-722.3925683299981</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>2011</v>
+      </c>
+      <c r="C148" t="n">
+        <v>2019</v>
+      </c>
+      <c r="D148" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E148" t="n">
+        <v>2011</v>
+      </c>
+      <c r="F148" t="n">
+        <v>45.9585</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-676.4340683299981</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>2010</v>
+      </c>
+      <c r="C149" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D149" t="n">
+        <v>2010</v>
+      </c>
+      <c r="E149" t="n">
+        <v>2010</v>
+      </c>
+      <c r="F149" t="n">
+        <v>12.39</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-688.8240683299981</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>1</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>2010</v>
+      </c>
+      <c r="C150" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D150" t="n">
+        <v>2012</v>
+      </c>
+      <c r="E150" t="n">
+        <v>2010</v>
+      </c>
+      <c r="F150" t="n">
+        <v>597</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-91.82406832999811</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>1</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>2008</v>
+      </c>
+      <c r="C151" t="n">
+        <v>2008</v>
+      </c>
+      <c r="D151" t="n">
+        <v>2008</v>
+      </c>
+      <c r="E151" t="n">
+        <v>2008</v>
+      </c>
+      <c r="F151" t="n">
+        <v>29.6006</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-121.4246683299981</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>1</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>2005</v>
+      </c>
+      <c r="C152" t="n">
+        <v>2006</v>
+      </c>
+      <c r="D152" t="n">
+        <v>2006</v>
+      </c>
+      <c r="E152" t="n">
+        <v>2005</v>
+      </c>
+      <c r="F152" t="n">
+        <v>147.9342</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-269.3588683299981</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>2009</v>
+      </c>
+      <c r="C153" t="n">
+        <v>2009</v>
+      </c>
+      <c r="D153" t="n">
+        <v>2009</v>
+      </c>
+      <c r="E153" t="n">
+        <v>2009</v>
+      </c>
+      <c r="F153" t="n">
+        <v>196.5255</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-72.83336832999814</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>2008</v>
+      </c>
+      <c r="C154" t="n">
+        <v>2008</v>
+      </c>
+      <c r="D154" t="n">
+        <v>2008</v>
+      </c>
+      <c r="E154" t="n">
+        <v>2008</v>
+      </c>
+      <c r="F154" t="n">
+        <v>97</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-169.8333683299981</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>2008</v>
+      </c>
+      <c r="C155" t="n">
+        <v>2008</v>
+      </c>
+      <c r="D155" t="n">
+        <v>2008</v>
+      </c>
+      <c r="E155" t="n">
+        <v>2008</v>
+      </c>
+      <c r="F155" t="n">
+        <v>149.44</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-169.8333683299981</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>1</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>2008</v>
+      </c>
+      <c r="C156" t="n">
+        <v>2008</v>
+      </c>
+      <c r="D156" t="n">
+        <v>2008</v>
+      </c>
+      <c r="E156" t="n">
+        <v>2008</v>
+      </c>
+      <c r="F156" t="n">
+        <v>22.9525</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-169.8333683299981</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>2008</v>
+      </c>
+      <c r="C157" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D157" t="n">
+        <v>2013</v>
+      </c>
+      <c r="E157" t="n">
+        <v>2008</v>
+      </c>
+      <c r="F157" t="n">
+        <v>16.1906</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-153.6427683299981</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>1</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>2008</v>
+      </c>
+      <c r="C158" t="n">
+        <v>2008</v>
+      </c>
+      <c r="D158" t="n">
+        <v>2008</v>
+      </c>
+      <c r="E158" t="n">
+        <v>2008</v>
+      </c>
+      <c r="F158" t="n">
+        <v>19.679</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-173.3217683299982</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>1</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>2008</v>
+      </c>
+      <c r="C159" t="n">
+        <v>2008</v>
+      </c>
+      <c r="D159" t="n">
+        <v>2008</v>
+      </c>
+      <c r="E159" t="n">
+        <v>2008</v>
+      </c>
+      <c r="F159" t="n">
+        <v>182.1572</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-173.3217683299982</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>1</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>2008</v>
+      </c>
+      <c r="C160" t="n">
+        <v>2008</v>
+      </c>
+      <c r="D160" t="n">
+        <v>2008</v>
+      </c>
+      <c r="E160" t="n">
+        <v>2008</v>
+      </c>
+      <c r="F160" t="n">
+        <v>214.711</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-173.3217683299982</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>1</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>2008</v>
+      </c>
+      <c r="C161" t="n">
+        <v>2008</v>
+      </c>
+      <c r="D161" t="n">
+        <v>2008</v>
+      </c>
+      <c r="E161" t="n">
+        <v>2008</v>
+      </c>
+      <c r="F161" t="n">
+        <v>82.86799999999999</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-173.3217683299982</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>1</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>2008</v>
+      </c>
+      <c r="C162" t="n">
+        <v>2008</v>
+      </c>
+      <c r="D162" t="n">
+        <v>2008</v>
+      </c>
+      <c r="E162" t="n">
+        <v>2008</v>
+      </c>
+      <c r="F162" t="n">
+        <v>694.9</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-173.3217683299982</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>1</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>2008</v>
+      </c>
+      <c r="C163" t="n">
+        <v>2008</v>
+      </c>
+      <c r="D163" t="n">
+        <v>2008</v>
+      </c>
+      <c r="E163" t="n">
+        <v>2008</v>
+      </c>
+      <c r="F163" t="n">
+        <v>79</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-173.3217683299982</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>1</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>2008</v>
+      </c>
+      <c r="C164" t="n">
+        <v>2008</v>
+      </c>
+      <c r="D164" t="n">
+        <v>2008</v>
+      </c>
+      <c r="E164" t="n">
+        <v>2008</v>
+      </c>
+      <c r="F164" t="n">
+        <v>223.1</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-173.3217683299982</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>1</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>2008</v>
+      </c>
+      <c r="C165" t="n">
+        <v>2008</v>
+      </c>
+      <c r="D165" t="n">
+        <v>2008</v>
+      </c>
+      <c r="E165" t="n">
+        <v>2008</v>
+      </c>
+      <c r="F165" t="n">
+        <v>4</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-173.3217683299982</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>1</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>2008</v>
+      </c>
+      <c r="C166" t="n">
+        <v>2008</v>
+      </c>
+      <c r="D166" t="n">
+        <v>2008</v>
+      </c>
+      <c r="E166" t="n">
+        <v>2008</v>
+      </c>
+      <c r="F166" t="n">
+        <v>75.2641</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-173.3217683299982</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>1</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>2008</v>
+      </c>
+      <c r="C167" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D167" t="n">
+        <v>2008</v>
+      </c>
+      <c r="E167" t="n">
+        <v>2000</v>
+      </c>
+      <c r="F167" t="n">
+        <v>2549.5961</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-2722.917868329998</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>1</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>1997</v>
+      </c>
+      <c r="C168" t="n">
+        <v>1997</v>
+      </c>
+      <c r="D168" t="n">
+        <v>1997</v>
+      </c>
+      <c r="E168" t="n">
+        <v>1997</v>
+      </c>
+      <c r="F168" t="n">
+        <v>4.4804</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-2727.398268329998</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>1</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>1995</v>
+      </c>
+      <c r="C169" t="n">
+        <v>1995</v>
+      </c>
+      <c r="D169" t="n">
+        <v>1995</v>
+      </c>
+      <c r="E169" t="n">
+        <v>1995</v>
+      </c>
+      <c r="F169" t="n">
+        <v>356.125</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-3083.523268329998</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>1996</v>
+      </c>
+      <c r="C170" t="n">
+        <v>1996</v>
+      </c>
+      <c r="D170" t="n">
+        <v>1996</v>
+      </c>
+      <c r="E170" t="n">
+        <v>1996</v>
+      </c>
+      <c r="F170" t="n">
+        <v>34.2765</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-3049.246768329998</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>2002</v>
+      </c>
+      <c r="C171" t="n">
+        <v>2002</v>
+      </c>
+      <c r="D171" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E171" t="n">
+        <v>2002</v>
+      </c>
+      <c r="F171" t="n">
+        <v>1</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-3048.246768329998</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>2001</v>
+      </c>
+      <c r="C172" t="n">
+        <v>1994</v>
+      </c>
+      <c r="D172" t="n">
+        <v>2001</v>
+      </c>
+      <c r="E172" t="n">
+        <v>1994</v>
+      </c>
+      <c r="F172" t="n">
+        <v>933.3797</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-3981.626468329998</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>2001</v>
+      </c>
+      <c r="C173" t="n">
+        <v>2001</v>
+      </c>
+      <c r="D173" t="n">
+        <v>2001</v>
+      </c>
+      <c r="E173" t="n">
+        <v>2001</v>
+      </c>
+      <c r="F173" t="n">
+        <v>29.1623</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-3952.464168329998</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>2001</v>
+      </c>
+      <c r="C174" t="n">
+        <v>2001</v>
+      </c>
+      <c r="D174" t="n">
+        <v>2001</v>
+      </c>
+      <c r="E174" t="n">
+        <v>2001</v>
+      </c>
+      <c r="F174" t="n">
+        <v>18.6842</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-3952.464168329998</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>1994</v>
+      </c>
+      <c r="C175" t="n">
+        <v>1993</v>
+      </c>
+      <c r="D175" t="n">
+        <v>1994</v>
+      </c>
+      <c r="E175" t="n">
+        <v>1993</v>
+      </c>
+      <c r="F175" t="n">
+        <v>324.1783</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-4276.642468329998</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>1997</v>
+      </c>
+      <c r="C176" t="n">
+        <v>1997</v>
+      </c>
+      <c r="D176" t="n">
+        <v>1997</v>
+      </c>
+      <c r="E176" t="n">
+        <v>1997</v>
+      </c>
+      <c r="F176" t="n">
+        <v>96.3999</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-4180.242568329998</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>1993</v>
+      </c>
+      <c r="C177" t="n">
+        <v>1993</v>
+      </c>
+      <c r="D177" t="n">
+        <v>1993</v>
+      </c>
+      <c r="E177" t="n">
+        <v>1993</v>
+      </c>
+      <c r="F177" t="n">
+        <v>50</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-4230.242568329998</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>2001</v>
+      </c>
+      <c r="C178" t="n">
+        <v>2001</v>
+      </c>
+      <c r="D178" t="n">
+        <v>2001</v>
+      </c>
+      <c r="E178" t="n">
+        <v>2001</v>
+      </c>
+      <c r="F178" t="n">
+        <v>6.2093</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-4224.033268329998</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C179" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D179" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E179" t="n">
+        <v>2000</v>
+      </c>
+      <c r="F179" t="n">
+        <v>25.7318</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-4249.765068329997</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>1998</v>
+      </c>
+      <c r="C180" t="n">
+        <v>1998</v>
+      </c>
+      <c r="D180" t="n">
+        <v>1998</v>
+      </c>
+      <c r="E180" t="n">
+        <v>1998</v>
+      </c>
+      <c r="F180" t="n">
+        <v>20.8636</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-4270.628668329997</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>1999</v>
+      </c>
+      <c r="C181" t="n">
+        <v>1999</v>
+      </c>
+      <c r="D181" t="n">
+        <v>1999</v>
+      </c>
+      <c r="E181" t="n">
+        <v>1999</v>
+      </c>
+      <c r="F181" t="n">
+        <v>15.202</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-4255.426668329997</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C182" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D182" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E182" t="n">
+        <v>2000</v>
+      </c>
+      <c r="F182" t="n">
+        <v>41.4955</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-4213.931168329997</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C183" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D183" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E183" t="n">
+        <v>2000</v>
+      </c>
+      <c r="F183" t="n">
+        <v>13.3925</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-4213.931168329997</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C184" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D184" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E184" t="n">
+        <v>2000</v>
+      </c>
+      <c r="F184" t="n">
+        <v>12.0533</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-4213.931168329997</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>1999</v>
+      </c>
+      <c r="C185" t="n">
+        <v>1998</v>
+      </c>
+      <c r="D185" t="n">
+        <v>1999</v>
+      </c>
+      <c r="E185" t="n">
+        <v>1998</v>
+      </c>
+      <c r="F185" t="n">
+        <v>16.5894</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-4230.520568329996</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>1998</v>
+      </c>
+      <c r="C186" t="n">
+        <v>1995</v>
+      </c>
+      <c r="D186" t="n">
+        <v>1998</v>
+      </c>
+      <c r="E186" t="n">
+        <v>1995</v>
+      </c>
+      <c r="F186" t="n">
+        <v>468.421</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-4698.941568329997</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>1998</v>
+      </c>
+      <c r="C187" t="n">
+        <v>1997</v>
+      </c>
+      <c r="D187" t="n">
+        <v>1998</v>
+      </c>
+      <c r="E187" t="n">
+        <v>1997</v>
+      </c>
+      <c r="F187" t="n">
+        <v>113.6099</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-4585.331668329996</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>1998</v>
+      </c>
+      <c r="C188" t="n">
+        <v>1998</v>
+      </c>
+      <c r="D188" t="n">
+        <v>1998</v>
+      </c>
+      <c r="E188" t="n">
+        <v>1998</v>
+      </c>
+      <c r="F188" t="n">
+        <v>98.212</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-4487.119668329996</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>1994</v>
+      </c>
+      <c r="C189" t="n">
+        <v>1992</v>
+      </c>
+      <c r="D189" t="n">
+        <v>1994</v>
+      </c>
+      <c r="E189" t="n">
+        <v>1992</v>
+      </c>
+      <c r="F189" t="n">
+        <v>2499.1725</v>
+      </c>
+      <c r="G189" t="n">
+        <v>-6986.292168329996</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>1993</v>
+      </c>
+      <c r="C190" t="n">
+        <v>1993</v>
+      </c>
+      <c r="D190" t="n">
+        <v>1993</v>
+      </c>
+      <c r="E190" t="n">
+        <v>1993</v>
+      </c>
+      <c r="F190" t="n">
+        <v>486.157</v>
+      </c>
+      <c r="G190" t="n">
+        <v>-6500.135168329995</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>1993</v>
+      </c>
+      <c r="C191" t="n">
+        <v>2002</v>
+      </c>
+      <c r="D191" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E191" t="n">
+        <v>1993</v>
+      </c>
+      <c r="F191" t="n">
+        <v>1868.4807</v>
+      </c>
+      <c r="G191" t="n">
+        <v>-4631.654468329995</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>1993</v>
+      </c>
+      <c r="C192" t="n">
+        <v>1993</v>
+      </c>
+      <c r="D192" t="n">
+        <v>1993</v>
+      </c>
+      <c r="E192" t="n">
+        <v>1993</v>
+      </c>
+      <c r="F192" t="n">
+        <v>67.5478</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-4699.202268329996</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>1993</v>
+      </c>
+      <c r="C193" t="n">
+        <v>1991</v>
+      </c>
+      <c r="D193" t="n">
+        <v>1993</v>
+      </c>
+      <c r="E193" t="n">
+        <v>1991</v>
+      </c>
+      <c r="F193" t="n">
+        <v>98.6191</v>
+      </c>
+      <c r="G193" t="n">
+        <v>-4797.821368329995</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>1990</v>
+      </c>
+      <c r="C194" t="n">
+        <v>1990</v>
+      </c>
+      <c r="D194" t="n">
+        <v>1991</v>
+      </c>
+      <c r="E194" t="n">
+        <v>1990</v>
+      </c>
+      <c r="F194" t="n">
+        <v>8939.282300000001</v>
+      </c>
+      <c r="G194" t="n">
+        <v>-13737.10366833</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="N194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>1990</v>
+      </c>
+      <c r="C195" t="n">
+        <v>1985</v>
+      </c>
+      <c r="D195" t="n">
+        <v>1990</v>
+      </c>
+      <c r="E195" t="n">
+        <v>1985</v>
+      </c>
+      <c r="F195" t="n">
+        <v>1360.1573</v>
+      </c>
+      <c r="G195" t="n">
+        <v>-15097.26096833</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>1985</v>
+      </c>
+      <c r="C196" t="n">
+        <v>1983</v>
+      </c>
+      <c r="D196" t="n">
+        <v>1985</v>
+      </c>
+      <c r="E196" t="n">
+        <v>1983</v>
+      </c>
+      <c r="F196" t="n">
+        <v>290.782</v>
+      </c>
+      <c r="G196" t="n">
+        <v>-15388.04296833</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>1988</v>
+      </c>
+      <c r="C197" t="n">
+        <v>1988</v>
+      </c>
+      <c r="D197" t="n">
+        <v>1988</v>
+      </c>
+      <c r="E197" t="n">
+        <v>1988</v>
+      </c>
+      <c r="F197" t="n">
+        <v>198.9015</v>
+      </c>
+      <c r="G197" t="n">
+        <v>-15189.14146833</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="N197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>1983</v>
+      </c>
+      <c r="C198" t="n">
+        <v>1988</v>
+      </c>
+      <c r="D198" t="n">
+        <v>1988</v>
+      </c>
+      <c r="E198" t="n">
+        <v>1983</v>
+      </c>
+      <c r="F198" t="n">
+        <v>229.0576</v>
+      </c>
+      <c r="G198" t="n">
+        <v>-15189.14146833</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+      <c r="N198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>1983</v>
+      </c>
+      <c r="C199" t="n">
+        <v>1983</v>
+      </c>
+      <c r="D199" t="n">
+        <v>1983</v>
+      </c>
+      <c r="E199" t="n">
+        <v>1983</v>
+      </c>
+      <c r="F199" t="n">
+        <v>43.861</v>
+      </c>
+      <c r="G199" t="n">
+        <v>-15233.00246833</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="N199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>1983</v>
+      </c>
+      <c r="C200" t="n">
         <v>1981</v>
       </c>
-      <c r="C132" t="n">
+      <c r="D200" t="n">
+        <v>1983</v>
+      </c>
+      <c r="E200" t="n">
+        <v>1981</v>
+      </c>
+      <c r="F200" t="n">
+        <v>500</v>
+      </c>
+      <c r="G200" t="n">
+        <v>-15733.00246833</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="N200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>1981</v>
+      </c>
+      <c r="C201" t="n">
+        <v>1981</v>
+      </c>
+      <c r="D201" t="n">
+        <v>1981</v>
+      </c>
+      <c r="E201" t="n">
+        <v>1981</v>
+      </c>
+      <c r="F201" t="n">
+        <v>24.8551</v>
+      </c>
+      <c r="G201" t="n">
+        <v>-15733.00246833</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+      <c r="N201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>1981</v>
+      </c>
+      <c r="C202" t="n">
+        <v>1981</v>
+      </c>
+      <c r="D202" t="n">
+        <v>1981</v>
+      </c>
+      <c r="E202" t="n">
+        <v>1981</v>
+      </c>
+      <c r="F202" t="n">
+        <v>41.6107</v>
+      </c>
+      <c r="G202" t="n">
+        <v>-15733.00246833</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+      <c r="N202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>1981</v>
+      </c>
+      <c r="C203" t="n">
         <v>1977</v>
       </c>
-      <c r="D132" t="n">
+      <c r="D203" t="n">
         <v>1981</v>
       </c>
-      <c r="E132" t="n">
+      <c r="E203" t="n">
         <v>1976</v>
       </c>
-      <c r="F132" t="n">
+      <c r="F203" t="n">
         <v>1001.0887</v>
       </c>
-      <c r="G132" t="n">
+      <c r="G203" t="n">
         <v>-16734.09116833</v>
       </c>
-      <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="n">
+      <c r="H203" t="n">
+        <v>1</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="n">
         <v>1981</v>
       </c>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+      <c r="N203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
         <v>1974</v>
       </c>
-      <c r="C133" t="n">
+      <c r="C204" t="n">
         <v>1977</v>
       </c>
-      <c r="D133" t="n">
+      <c r="D204" t="n">
         <v>1977</v>
       </c>
-      <c r="E133" t="n">
+      <c r="E204" t="n">
         <v>1974</v>
       </c>
-      <c r="F133" t="n">
+      <c r="F204" t="n">
         <v>554.9767000000001</v>
       </c>
-      <c r="G133" t="n">
+      <c r="G204" t="n">
         <v>-16734.09116833</v>
       </c>
-      <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="n">
+      <c r="H204" t="n">
+        <v>1</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="n">
         <v>1977</v>
       </c>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+      <c r="N204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
         <v>1976</v>
       </c>
-      <c r="C134" t="n">
+      <c r="C205" t="n">
         <v>1976</v>
       </c>
-      <c r="D134" t="n">
+      <c r="D205" t="n">
         <v>1976</v>
       </c>
-      <c r="E134" t="n">
+      <c r="E205" t="n">
         <v>1976</v>
       </c>
-      <c r="F134" t="n">
+      <c r="F205" t="n">
         <v>24.1493</v>
       </c>
-      <c r="G134" t="n">
+      <c r="G205" t="n">
         <v>-16758.24046833</v>
       </c>
-      <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="n">
+      <c r="H205" t="n">
+        <v>1</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="n">
         <v>1977</v>
       </c>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="M205" t="n">
+        <v>1</v>
+      </c>
+      <c r="N205" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-19 BackTest QTUM.xlsx
+++ b/BackTest/2019-10-19 BackTest QTUM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N205"/>
+  <dimension ref="A1:M205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1464,18 +1375,15 @@
         <v>-2643.20034859</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1500,18 +1408,15 @@
         <v>-2643.20034859</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1536,18 +1441,15 @@
         <v>-2643.20034859</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1572,18 +1474,15 @@
         <v>-2643.20034859</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1608,18 +1507,15 @@
         <v>-2513.34354859</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1644,18 +1540,15 @@
         <v>-2546.95964859</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1680,18 +1573,15 @@
         <v>-2546.95964859</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>1</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1752,18 +1639,15 @@
         <v>-2600.17864859</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>1</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>1</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>1</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>1</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>1</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>1</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>1</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>1</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>1</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>1</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2364,18 +2200,15 @@
         <v>-3875.81364859</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2796,18 +2596,15 @@
         <v>-4026.225148590001</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2631,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2664,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2697,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2940,18 +2728,15 @@
         <v>-4044.594097540001</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3048,18 +2827,15 @@
         <v>-4047.225797540001</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3084,18 +2860,15 @@
         <v>-4047.225797540001</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3120,18 +2893,15 @@
         <v>-4145.225797540001</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +2928,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +2961,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3228,18 +2992,15 @@
         <v>-3732.24859754</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3264,18 +3025,15 @@
         <v>-3737.2561088</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3300,18 +3058,15 @@
         <v>-3737.2561088</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3336,18 +3091,15 @@
         <v>-3763.4896088</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3372,18 +3124,15 @@
         <v>-2703.9298088</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3408,18 +3157,15 @@
         <v>-2576.2298088</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3192,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3480,18 +3223,15 @@
         <v>-4450.356608800001</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3258,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3552,18 +3289,15 @@
         <v>-3717.721808800001</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3324,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3626,16 +3357,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3662,16 +3390,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,16 +3423,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3734,16 +3456,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3770,16 +3489,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3806,16 +3522,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3842,16 +3555,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3878,16 +3588,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3914,16 +3621,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3950,16 +3654,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3986,16 +3687,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4022,16 +3720,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4058,16 +3753,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4094,16 +3786,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4130,16 +3819,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4166,16 +3852,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4202,16 +3885,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4238,16 +3918,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4274,16 +3951,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4310,16 +3984,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4346,16 +4017,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4380,18 +4048,15 @@
         <v>-4959.25696833</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4416,18 +4081,15 @@
         <v>-4959.25696833</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4454,16 +4116,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4490,16 +4149,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4526,16 +4182,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4562,16 +4215,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4598,16 +4248,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4634,16 +4281,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4670,16 +4314,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4706,16 +4347,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4742,16 +4380,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4778,16 +4413,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4814,16 +4446,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4850,16 +4479,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4886,16 +4512,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4922,16 +4545,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4958,16 +4578,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4994,16 +4611,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5030,16 +4644,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5066,16 +4677,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5102,16 +4710,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5138,16 +4743,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5174,16 +4776,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5210,16 +4809,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5246,16 +4842,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5282,16 +4875,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5318,16 +4908,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5354,16 +4941,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5390,16 +4974,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5426,16 +5007,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5462,16 +5040,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5498,16 +5073,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5532,18 +5104,15 @@
         <v>-2207.375568329998</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5570,16 +5139,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5606,16 +5172,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5642,16 +5205,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5678,16 +5238,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5714,16 +5271,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5748,18 +5302,15 @@
         <v>-688.8240683299981</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5784,18 +5335,15 @@
         <v>-91.82406832999811</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5820,18 +5368,15 @@
         <v>-121.4246683299981</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5856,18 +5401,15 @@
         <v>-269.3588683299981</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5894,16 +5436,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5930,16 +5469,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5966,16 +5502,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>1</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6002,16 +5535,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6038,16 +5568,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>1</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6074,16 +5601,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>1</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6110,16 +5634,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>1</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6146,16 +5667,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>1</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6182,16 +5700,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>1</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6218,16 +5733,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>1</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6254,16 +5766,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>1</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6290,16 +5799,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>1</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6326,16 +5832,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>1</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6362,16 +5865,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>1</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6398,16 +5898,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>1</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6434,16 +5931,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>1</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6470,16 +5964,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6506,16 +5997,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6542,16 +6030,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6578,16 +6063,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6612,18 +6094,15 @@
         <v>-3952.464168329998</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6650,16 +6129,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6686,16 +6162,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6720,18 +6193,15 @@
         <v>-4180.242568329998</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6756,18 +6226,15 @@
         <v>-4230.242568329998</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6794,16 +6261,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6830,16 +6294,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6866,16 +6327,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6902,16 +6360,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6938,16 +6393,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6974,16 +6426,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7010,16 +6459,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7046,16 +6492,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7082,16 +6525,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7118,16 +6558,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7154,16 +6591,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7190,16 +6624,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7226,16 +6657,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7262,16 +6690,13 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7298,16 +6723,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7334,16 +6756,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7370,16 +6789,13 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7406,16 +6822,13 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7442,16 +6855,13 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7478,16 +6888,13 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7514,16 +6921,13 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7550,16 +6954,13 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7586,16 +6987,13 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7622,16 +7020,13 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7656,18 +7051,19 @@
         <v>-15733.00246833</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="n">
-        <v>0</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
+        <v>1981</v>
+      </c>
+      <c r="J202" t="n">
+        <v>1981</v>
+      </c>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7692,24 +7088,23 @@
         <v>-16734.09116833</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I203" t="n">
-        <v>0</v>
+        <v>1981</v>
       </c>
       <c r="J203" t="n">
         <v>1981</v>
       </c>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr">
+      <c r="K203" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7734,24 +7129,23 @@
         <v>-16734.09116833</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I204" t="n">
-        <v>0</v>
+        <v>1977</v>
       </c>
       <c r="J204" t="n">
-        <v>1977</v>
-      </c>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr">
+        <v>1981</v>
+      </c>
+      <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7776,26 +7170,25 @@
         <v>-16758.24046833</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I205" t="n">
-        <v>0</v>
+        <v>1977</v>
       </c>
       <c r="J205" t="n">
-        <v>1977</v>
-      </c>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr">
+        <v>1981</v>
+      </c>
+      <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-19 BackTest QTUM.xlsx
+++ b/BackTest/2019-10-19 BackTest QTUM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1375,7 +1375,7 @@
         <v>-2643.20034859</v>
       </c>
       <c r="H30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-2643.20034859</v>
       </c>
       <c r="H31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-2643.20034859</v>
       </c>
       <c r="H32" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-2643.20034859</v>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-2513.34354859</v>
       </c>
       <c r="H34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-2546.95964859</v>
       </c>
       <c r="H35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-2546.95964859</v>
       </c>
       <c r="H36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-2617.68994859</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-2600.17864859</v>
       </c>
       <c r="H38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-2763.71864859</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-2763.71864859</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-2840.91554859</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-2956.71094859</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-2845.81234859</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-2845.81234859</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-4231.39334859</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-4055.95634859</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-4297.04854859</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-4370.59314859</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-4170.59314859</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-4170.59314859</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-3581.51104859</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-3875.81364859</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-3875.81364859</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-3961.49264859</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-2437.37074859</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-2437.37074859</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-2530.98474859</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-2667.94974859</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-2275.14644859</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-2282.18644859</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-4026.225148590001</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-4046.645148590001</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-4044.594097540001</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-4047.225797540001</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-4047.225797540001</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-4145.225797540001</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-3732.24859754</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-3737.2561088</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-3737.2561088</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-3763.4896088</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-2703.9298088</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-2576.2298088</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-4450.356608800001</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-3717.721808800001</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-3766.21086833</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-5149.41626833</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-5149.41626833</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-5149.41626833</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-5149.41626833</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-4959.25696833</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-4959.25696833</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-4959.25696833</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-2207.375568329998</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-688.8240683299981</v>
       </c>
       <c r="H149" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-91.82406832999811</v>
       </c>
       <c r="H150" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-121.4246683299981</v>
       </c>
       <c r="H151" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-269.3588683299981</v>
       </c>
       <c r="H152" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-173.3217683299982</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-173.3217683299982</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-173.3217683299982</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-173.3217683299982</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-173.3217683299982</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-173.3217683299982</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-2722.917868329998</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-2727.398268329998</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-3083.523268329998</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-3049.246768329998</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-3048.246768329998</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-3981.626468329998</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-3952.464168329998</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-3952.464168329998</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-4276.642468329998</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-4180.242568329998</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-4230.242568329998</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-4224.033268329998</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-4249.765068329997</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-4270.628668329997</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-4255.426668329997</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-4213.931168329997</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-4213.931168329997</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-4213.931168329997</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-4230.520568329996</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-4698.941568329997</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-4585.331668329996</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-4487.119668329996</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-6986.292168329996</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-6500.135168329995</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-4631.654468329995</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-4699.202268329996</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-4797.821368329995</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7051,14 +7051,10 @@
         <v>-15733.00246833</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
-      </c>
-      <c r="I202" t="n">
-        <v>1981</v>
-      </c>
-      <c r="J202" t="n">
-        <v>1981</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
@@ -7088,60 +7084,50 @@
         <v>-16734.09116833</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
-      </c>
-      <c r="I203" t="n">
-        <v>1981</v>
-      </c>
-      <c r="J203" t="n">
-        <v>1981</v>
-      </c>
-      <c r="K203" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>1974</v>
+      </c>
+      <c r="C204" t="n">
+        <v>1977</v>
+      </c>
+      <c r="D204" t="n">
+        <v>1977</v>
+      </c>
+      <c r="E204" t="n">
+        <v>1974</v>
+      </c>
+      <c r="F204" t="n">
+        <v>554.9767000000001</v>
+      </c>
+      <c r="G204" t="n">
+        <v>-16734.09116833</v>
+      </c>
+      <c r="H204" t="n">
+        <v>1</v>
+      </c>
+      <c r="I204" t="n">
+        <v>1977</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>1974</v>
-      </c>
-      <c r="C204" t="n">
-        <v>1977</v>
-      </c>
-      <c r="D204" t="n">
-        <v>1977</v>
-      </c>
-      <c r="E204" t="n">
-        <v>1974</v>
-      </c>
-      <c r="F204" t="n">
-        <v>554.9767000000001</v>
-      </c>
-      <c r="G204" t="n">
-        <v>-16734.09116833</v>
-      </c>
-      <c r="H204" t="n">
-        <v>2</v>
-      </c>
-      <c r="I204" t="n">
-        <v>1977</v>
-      </c>
-      <c r="J204" t="n">
-        <v>1981</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7170,14 +7156,12 @@
         <v>-16758.24046833</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I205" t="n">
         <v>1977</v>
       </c>
-      <c r="J205" t="n">
-        <v>1981</v>
-      </c>
+      <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7189,6 +7173,6 @@
       <c r="M205" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-19 BackTest QTUM.xlsx
+++ b/BackTest/2019-10-19 BackTest QTUM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1507,7 +1507,7 @@
         <v>-2513.34354859</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-2546.95964859</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-2546.95964859</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-2617.68994859</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-2600.17864859</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-2763.71864859</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-2763.71864859</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-2840.91554859</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-2956.71094859</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-2845.81234859</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-2845.81234859</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-4231.39334859</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-4055.95634859</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-4297.04854859</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-4370.59314859</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-4170.59314859</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-4170.59314859</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-3875.81364859</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-3875.81364859</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-3961.49264859</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-2437.37074859</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-2530.98474859</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-2667.94974859</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-2275.14644859</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-2282.18644859</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-4026.225148590001</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-4046.645148590001</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-4145.225797540001</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-3766.21086833</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-5149.41626833</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-5149.41626833</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-5149.41626833</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-5149.41626833</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-4959.25696833</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-4959.25696833</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-4959.25696833</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-5017.19396833</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-5248.973468329999</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-5146.27346833</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-173.3217683299982</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-173.3217683299982</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-173.3217683299982</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-173.3217683299982</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-173.3217683299982</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-173.3217683299982</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-2722.917868329998</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-2727.398268329998</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-3083.523268329998</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-3049.246768329998</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-3048.246768329998</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-3981.626468329998</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-3952.464168329998</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-3952.464168329998</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-4276.642468329998</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-4180.242568329998</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-4230.242568329998</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-4224.033268329998</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-4249.765068329997</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-4270.628668329997</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-4255.426668329997</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-4213.931168329997</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-4213.931168329997</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-4213.931168329997</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-4230.520568329996</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-4698.941568329997</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-4585.331668329996</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-4487.119668329996</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-6986.292168329996</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-6500.135168329995</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-4631.654468329995</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-4699.202268329996</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-4797.821368329995</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7173,6 +7173,6 @@
       <c r="M205" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-19 BackTest QTUM.xlsx
+++ b/BackTest/2019-10-19 BackTest QTUM.xlsx
@@ -1540,7 +1540,7 @@
         <v>-2546.95964859</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-2546.95964859</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-2617.68994859</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-2600.17864859</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-2763.71864859</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-2763.71864859</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-2840.91554859</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-2845.81234859</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-2871.87434859</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-2871.87434859</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-3581.51104859</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-2437.37074859</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-5017.19396833</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-5248.973468329999</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-5146.27346833</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-676.4340683299981</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-688.8240683299981</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-121.4246683299981</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-153.6427683299981</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-173.3217683299982</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-173.3217683299982</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-173.3217683299982</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-173.3217683299982</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-173.3217683299982</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-173.3217683299982</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-173.3217683299982</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-173.3217683299982</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-2722.917868329998</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -7117,17 +7117,11 @@
         <v>-16734.09116833</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
-      </c>
-      <c r="I204" t="n">
-        <v>1977</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7161,12 +7155,10 @@
       <c r="I205" t="n">
         <v>1977</v>
       </c>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="n">
+        <v>1977</v>
+      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-19 BackTest QTUM.xlsx
+++ b/BackTest/2019-10-19 BackTest QTUM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M205"/>
+  <dimension ref="A1:L205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>25.2231</v>
       </c>
       <c r="G2" t="n">
-        <v>-3587.326200000001</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>19.2502</v>
       </c>
       <c r="G3" t="n">
-        <v>-3587.326200000001</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>45.0629</v>
       </c>
       <c r="G4" t="n">
-        <v>-3587.326200000001</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>346.27</v>
       </c>
       <c r="G5" t="n">
-        <v>-3587.326200000001</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>87.718</v>
       </c>
       <c r="G6" t="n">
-        <v>-3499.608200000001</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>507.0422</v>
       </c>
       <c r="G7" t="n">
-        <v>-4006.650400000001</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>271.673</v>
       </c>
       <c r="G8" t="n">
-        <v>-3734.977400000001</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>10.1179</v>
       </c>
       <c r="G9" t="n">
-        <v>-3734.977400000001</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>78.188</v>
       </c>
       <c r="G10" t="n">
-        <v>-3734.977400000001</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>507.2252</v>
       </c>
       <c r="G11" t="n">
-        <v>-4242.202600000001</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>1022.9731</v>
       </c>
       <c r="G12" t="n">
-        <v>-3219.2295</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>185</v>
       </c>
       <c r="G13" t="n">
-        <v>-3404.2295</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>1310.9365</v>
       </c>
       <c r="G14" t="n">
-        <v>-3404.2295</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>2956.057</v>
       </c>
       <c r="G15" t="n">
-        <v>-448.1725000000006</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>149.0807</v>
       </c>
       <c r="G16" t="n">
-        <v>-597.2532000000006</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>133.5986</v>
       </c>
       <c r="G17" t="n">
-        <v>-730.8518000000006</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>75.98439999999999</v>
       </c>
       <c r="G18" t="n">
-        <v>-806.8362000000006</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>550.0939</v>
       </c>
       <c r="G19" t="n">
-        <v>-1356.9301</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>127.7986</v>
       </c>
       <c r="G20" t="n">
-        <v>-1229.1315</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>1744.369</v>
       </c>
       <c r="G21" t="n">
-        <v>-2973.5005</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>10.0901</v>
       </c>
       <c r="G22" t="n">
-        <v>-2963.4104</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>22.2283</v>
       </c>
       <c r="G23" t="n">
-        <v>-2963.4104</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>184.1731</v>
       </c>
       <c r="G24" t="n">
-        <v>-2779.2373</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>149.1</v>
       </c>
       <c r="G25" t="n">
-        <v>-2779.2373</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>149.1</v>
       </c>
       <c r="G26" t="n">
-        <v>-2779.2373</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>18.8985</v>
       </c>
       <c r="G27" t="n">
-        <v>-2779.2373</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>24.1526</v>
       </c>
       <c r="G28" t="n">
-        <v>-2803.3899</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>160.18955141</v>
       </c>
       <c r="G29" t="n">
-        <v>-2643.20034859</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>179.7114</v>
       </c>
       <c r="G30" t="n">
-        <v>-2643.20034859</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>173.525</v>
       </c>
       <c r="G31" t="n">
-        <v>-2643.20034859</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>90.756</v>
       </c>
       <c r="G32" t="n">
-        <v>-2643.20034859</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>2478.1505</v>
       </c>
       <c r="G33" t="n">
-        <v>-2643.20034859</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>129.8568</v>
       </c>
       <c r="G34" t="n">
-        <v>-2513.34354859</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>33.6161</v>
       </c>
       <c r="G35" t="n">
-        <v>-2546.95964859</v>
-      </c>
-      <c r="H35" t="n">
         <v>2</v>
       </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>2.5566</v>
       </c>
       <c r="G36" t="n">
-        <v>-2546.95964859</v>
-      </c>
-      <c r="H36" t="n">
         <v>2</v>
       </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>70.7303</v>
       </c>
       <c r="G37" t="n">
-        <v>-2617.68994859</v>
-      </c>
-      <c r="H37" t="n">
         <v>2</v>
       </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>17.5113</v>
       </c>
       <c r="G38" t="n">
-        <v>-2600.17864859</v>
-      </c>
-      <c r="H38" t="n">
         <v>2</v>
       </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>163.54</v>
       </c>
       <c r="G39" t="n">
-        <v>-2763.71864859</v>
-      </c>
-      <c r="H39" t="n">
         <v>2</v>
       </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>44.89</v>
       </c>
       <c r="G40" t="n">
-        <v>-2763.71864859</v>
-      </c>
-      <c r="H40" t="n">
         <v>2</v>
       </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>77.1969</v>
       </c>
       <c r="G41" t="n">
-        <v>-2840.91554859</v>
-      </c>
-      <c r="H41" t="n">
         <v>2</v>
       </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>115.7954</v>
       </c>
       <c r="G42" t="n">
-        <v>-2956.71094859</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>110.8986</v>
       </c>
       <c r="G43" t="n">
-        <v>-2845.81234859</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>83.5446</v>
       </c>
       <c r="G44" t="n">
-        <v>-2845.81234859</v>
-      </c>
-      <c r="H44" t="n">
         <v>2</v>
       </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>26.062</v>
       </c>
       <c r="G45" t="n">
-        <v>-2871.87434859</v>
-      </c>
-      <c r="H45" t="n">
         <v>2</v>
       </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>12.4892</v>
       </c>
       <c r="G46" t="n">
-        <v>-2871.87434859</v>
-      </c>
-      <c r="H46" t="n">
         <v>2</v>
       </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>24.7883</v>
       </c>
       <c r="G47" t="n">
-        <v>-2871.87434859</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>1359.519</v>
       </c>
       <c r="G48" t="n">
-        <v>-4231.39334859</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>175.437</v>
       </c>
       <c r="G49" t="n">
-        <v>-4055.95634859</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>241.0922</v>
       </c>
       <c r="G50" t="n">
-        <v>-4297.04854859</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>73.5446</v>
       </c>
       <c r="G51" t="n">
-        <v>-4370.59314859</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>200</v>
       </c>
       <c r="G52" t="n">
-        <v>-4170.59314859</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>684.177</v>
       </c>
       <c r="G53" t="n">
-        <v>-4170.59314859</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>589.0821</v>
       </c>
       <c r="G54" t="n">
-        <v>-3581.51104859</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>294.3026</v>
       </c>
       <c r="G55" t="n">
-        <v>-3875.81364859</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>23.6139</v>
       </c>
       <c r="G56" t="n">
-        <v>-3875.81364859</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>85.679</v>
       </c>
       <c r="G57" t="n">
-        <v>-3961.49264859</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>1524.1219</v>
       </c>
       <c r="G58" t="n">
-        <v>-2437.37074859</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>970.888</v>
       </c>
       <c r="G59" t="n">
-        <v>-2437.37074859</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>93.614</v>
       </c>
       <c r="G60" t="n">
-        <v>-2530.98474859</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>136.965</v>
       </c>
       <c r="G61" t="n">
-        <v>-2667.94974859</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>483.1655</v>
       </c>
       <c r="G62" t="n">
-        <v>-2184.78424859</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>90.3622</v>
       </c>
       <c r="G63" t="n">
-        <v>-2275.14644859</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>7.04</v>
       </c>
       <c r="G64" t="n">
-        <v>-2282.18644859</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>170.391</v>
       </c>
       <c r="G65" t="n">
-        <v>-2452.57744859</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>129.5851</v>
       </c>
       <c r="G66" t="n">
-        <v>-2582.16254859</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>1444.0626</v>
       </c>
       <c r="G67" t="n">
-        <v>-4026.225148590001</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>20.42</v>
       </c>
       <c r="G68" t="n">
-        <v>-4046.645148590001</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>33.7342</v>
       </c>
       <c r="G69" t="n">
-        <v>-4046.645148590001</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>1.05105105</v>
       </c>
       <c r="G70" t="n">
-        <v>-4045.594097540001</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>1</v>
       </c>
       <c r="G71" t="n">
-        <v>-4044.594097540001</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>82.67100000000001</v>
       </c>
       <c r="G72" t="n">
-        <v>-4044.594097540001</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>2.6317</v>
       </c>
       <c r="G73" t="n">
-        <v>-4047.225797540001</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>2.70405608</v>
       </c>
       <c r="G74" t="n">
-        <v>-4047.225797540001</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>13.7232</v>
       </c>
       <c r="G75" t="n">
-        <v>-4047.225797540001</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,15 @@
         <v>98</v>
       </c>
       <c r="G76" t="n">
-        <v>-4145.225797540001</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2693,15 @@
         <v>120</v>
       </c>
       <c r="G77" t="n">
-        <v>-4265.225797540001</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2723,15 @@
         <v>6</v>
       </c>
       <c r="G78" t="n">
-        <v>-4265.225797540001</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2753,15 @@
         <v>532.9772</v>
       </c>
       <c r="G79" t="n">
-        <v>-3732.24859754</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2783,15 @@
         <v>5.00751126</v>
       </c>
       <c r="G80" t="n">
-        <v>-3737.2561088</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2813,15 @@
         <v>37.5563</v>
       </c>
       <c r="G81" t="n">
-        <v>-3737.2561088</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2843,15 @@
         <v>26.2335</v>
       </c>
       <c r="G82" t="n">
-        <v>-3763.4896088</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2873,15 @@
         <v>1059.5598</v>
       </c>
       <c r="G83" t="n">
-        <v>-2703.9298088</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2903,15 @@
         <v>127.7</v>
       </c>
       <c r="G84" t="n">
-        <v>-2576.2298088</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2933,15 @@
         <v>79.4545</v>
       </c>
       <c r="G85" t="n">
-        <v>-2496.7753088</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2963,15 @@
         <v>1953.5813</v>
       </c>
       <c r="G86" t="n">
-        <v>-4450.356608800001</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +2993,15 @@
         <v>936.4347</v>
       </c>
       <c r="G87" t="n">
-        <v>-3513.921908800001</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3023,15 @@
         <v>203.7999</v>
       </c>
       <c r="G88" t="n">
-        <v>-3717.721808800001</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3053,15 @@
         <v>196.5106</v>
       </c>
       <c r="G89" t="n">
-        <v>-3717.721808800001</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3083,15 @@
         <v>0.1</v>
       </c>
       <c r="G90" t="n">
-        <v>-3717.621808800001</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3113,15 @@
         <v>69.3168</v>
       </c>
       <c r="G91" t="n">
-        <v>-3648.305008800001</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3143,15 @@
         <v>150</v>
       </c>
       <c r="G92" t="n">
-        <v>-3798.305008800001</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3173,15 @@
         <v>144</v>
       </c>
       <c r="G93" t="n">
-        <v>-3654.305008800001</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3203,15 @@
         <v>28.162</v>
       </c>
       <c r="G94" t="n">
-        <v>-3682.467008800001</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3233,15 @@
         <v>82.30200000000001</v>
       </c>
       <c r="G95" t="n">
-        <v>-3764.769008800001</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3263,15 @@
         <v>316.6206</v>
       </c>
       <c r="G96" t="n">
-        <v>-3448.148408800001</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3293,15 @@
         <v>1.0983</v>
       </c>
       <c r="G97" t="n">
-        <v>-3449.246708800001</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3323,15 @@
         <v>219.268</v>
       </c>
       <c r="G98" t="n">
-        <v>-3449.246708800001</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3353,15 @@
         <v>234.5286</v>
       </c>
       <c r="G99" t="n">
-        <v>-3214.718108800001</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3383,15 @@
         <v>35.8208</v>
       </c>
       <c r="G100" t="n">
-        <v>-3214.718108800001</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3413,15 @@
         <v>83.1384</v>
       </c>
       <c r="G101" t="n">
-        <v>-3214.718108800001</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3443,15 @@
         <v>1175.6072</v>
       </c>
       <c r="G102" t="n">
-        <v>-4390.3253088</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3473,15 @@
         <v>955.06994047</v>
       </c>
       <c r="G103" t="n">
-        <v>-3435.25536833</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3503,15 @@
         <v>14.3447</v>
       </c>
       <c r="G104" t="n">
-        <v>-3449.60006833</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3533,15 @@
         <v>316.6108</v>
       </c>
       <c r="G105" t="n">
-        <v>-3766.21086833</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3563,15 @@
         <v>30.0842</v>
       </c>
       <c r="G106" t="n">
-        <v>-3766.21086833</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3593,15 @@
         <v>1383.2054</v>
       </c>
       <c r="G107" t="n">
-        <v>-5149.41626833</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3623,15 @@
         <v>635.5192</v>
       </c>
       <c r="G108" t="n">
-        <v>-5149.41626833</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3653,15 @@
         <v>5.9782</v>
       </c>
       <c r="G109" t="n">
-        <v>-5149.41626833</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3683,15 @@
         <v>12.8941</v>
       </c>
       <c r="G110" t="n">
-        <v>-5149.41626833</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3713,15 @@
         <v>190.1593</v>
       </c>
       <c r="G111" t="n">
-        <v>-4959.25696833</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3743,15 @@
         <v>282.8809</v>
       </c>
       <c r="G112" t="n">
-        <v>-4959.25696833</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3773,15 @@
         <v>30.7467</v>
       </c>
       <c r="G113" t="n">
-        <v>-4959.25696833</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3803,15 @@
         <v>57.937</v>
       </c>
       <c r="G114" t="n">
-        <v>-5017.19396833</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3833,15 @@
         <v>79.1688</v>
       </c>
       <c r="G115" t="n">
-        <v>-5017.19396833</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +3863,15 @@
         <v>298.7163</v>
       </c>
       <c r="G116" t="n">
-        <v>-5017.19396833</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +3893,15 @@
         <v>231.7795</v>
       </c>
       <c r="G117" t="n">
-        <v>-5248.973468329999</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +3923,15 @@
         <v>102.7</v>
       </c>
       <c r="G118" t="n">
-        <v>-5146.27346833</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +3953,15 @@
         <v>39.242</v>
       </c>
       <c r="G119" t="n">
-        <v>-5185.51546833</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +3983,15 @@
         <v>161.4475</v>
       </c>
       <c r="G120" t="n">
-        <v>-5024.06796833</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4013,15 @@
         <v>42.7992</v>
       </c>
       <c r="G121" t="n">
-        <v>-5066.86716833</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4043,15 @@
         <v>102.466</v>
       </c>
       <c r="G122" t="n">
-        <v>-4964.40116833</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4073,15 @@
         <v>87.5737</v>
       </c>
       <c r="G123" t="n">
-        <v>-4964.40116833</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4103,15 @@
         <v>39.0897</v>
       </c>
       <c r="G124" t="n">
-        <v>-4964.40116833</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4133,15 @@
         <v>0.13</v>
       </c>
       <c r="G125" t="n">
-        <v>-4964.271168329999</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4163,15 @@
         <v>0.1527</v>
       </c>
       <c r="G126" t="n">
-        <v>-4964.423868329999</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4193,15 @@
         <v>301</v>
       </c>
       <c r="G127" t="n">
-        <v>-4663.423868329999</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4223,15 @@
         <v>5</v>
       </c>
       <c r="G128" t="n">
-        <v>-4663.423868329999</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4253,15 @@
         <v>95.0877</v>
       </c>
       <c r="G129" t="n">
-        <v>-4758.511568329999</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4283,15 @@
         <v>200</v>
       </c>
       <c r="G130" t="n">
-        <v>-4758.511568329999</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4313,15 @@
         <v>50</v>
       </c>
       <c r="G131" t="n">
-        <v>-4758.511568329999</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4343,15 @@
         <v>42.5686</v>
       </c>
       <c r="G132" t="n">
-        <v>-4801.080168329999</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4373,15 @@
         <v>699.5955</v>
       </c>
       <c r="G133" t="n">
-        <v>-4101.484668329998</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4403,15 @@
         <v>198.2865</v>
       </c>
       <c r="G134" t="n">
-        <v>-3903.198168329998</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4433,15 @@
         <v>407.5</v>
       </c>
       <c r="G135" t="n">
-        <v>-4310.698168329998</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4463,15 @@
         <v>3.0984</v>
       </c>
       <c r="G136" t="n">
-        <v>-4313.796568329998</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +4493,15 @@
         <v>200</v>
       </c>
       <c r="G137" t="n">
-        <v>-4113.796568329998</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +4523,15 @@
         <v>27.7741</v>
       </c>
       <c r="G138" t="n">
-        <v>-4086.022468329998</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +4553,15 @@
         <v>378.7749</v>
       </c>
       <c r="G139" t="n">
-        <v>-3707.247568329998</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +4583,15 @@
         <v>348.772</v>
       </c>
       <c r="G140" t="n">
-        <v>-3358.475568329998</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +4613,15 @@
         <v>851</v>
       </c>
       <c r="G141" t="n">
-        <v>-2507.475568329998</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,18 +4643,15 @@
         <v>500.1</v>
       </c>
       <c r="G142" t="n">
-        <v>-2007.375568329998</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5101,18 +4673,15 @@
         <v>200</v>
       </c>
       <c r="G143" t="n">
-        <v>-2207.375568329998</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5134,18 +4703,15 @@
         <v>100</v>
       </c>
       <c r="G144" t="n">
-        <v>-2207.375568329998</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5167,18 +4733,15 @@
         <v>100</v>
       </c>
       <c r="G145" t="n">
-        <v>-2307.375568329998</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5200,18 +4763,15 @@
         <v>534.0048</v>
       </c>
       <c r="G146" t="n">
-        <v>-1773.370768329998</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5233,18 +4793,15 @@
         <v>1050.9782</v>
       </c>
       <c r="G147" t="n">
-        <v>-722.3925683299981</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5266,18 +4823,15 @@
         <v>45.9585</v>
       </c>
       <c r="G148" t="n">
-        <v>-676.4340683299981</v>
-      </c>
-      <c r="H148" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5299,18 +4853,15 @@
         <v>12.39</v>
       </c>
       <c r="G149" t="n">
-        <v>-688.8240683299981</v>
-      </c>
-      <c r="H149" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5332,18 +4883,15 @@
         <v>597</v>
       </c>
       <c r="G150" t="n">
-        <v>-91.82406832999811</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5365,18 +4913,15 @@
         <v>29.6006</v>
       </c>
       <c r="G151" t="n">
-        <v>-121.4246683299981</v>
-      </c>
-      <c r="H151" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5398,18 +4943,15 @@
         <v>147.9342</v>
       </c>
       <c r="G152" t="n">
-        <v>-269.3588683299981</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5431,18 +4973,15 @@
         <v>196.5255</v>
       </c>
       <c r="G153" t="n">
-        <v>-72.83336832999814</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5464,18 +5003,15 @@
         <v>97</v>
       </c>
       <c r="G154" t="n">
-        <v>-169.8333683299981</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5497,18 +5033,15 @@
         <v>149.44</v>
       </c>
       <c r="G155" t="n">
-        <v>-169.8333683299981</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5530,18 +5063,15 @@
         <v>22.9525</v>
       </c>
       <c r="G156" t="n">
-        <v>-169.8333683299981</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5563,18 +5093,15 @@
         <v>16.1906</v>
       </c>
       <c r="G157" t="n">
-        <v>-153.6427683299981</v>
-      </c>
-      <c r="H157" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5596,18 +5123,15 @@
         <v>19.679</v>
       </c>
       <c r="G158" t="n">
-        <v>-173.3217683299982</v>
-      </c>
-      <c r="H158" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5629,18 +5153,15 @@
         <v>182.1572</v>
       </c>
       <c r="G159" t="n">
-        <v>-173.3217683299982</v>
-      </c>
-      <c r="H159" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5662,18 +5183,15 @@
         <v>214.711</v>
       </c>
       <c r="G160" t="n">
-        <v>-173.3217683299982</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5695,18 +5213,15 @@
         <v>82.86799999999999</v>
       </c>
       <c r="G161" t="n">
-        <v>-173.3217683299982</v>
-      </c>
-      <c r="H161" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5728,18 +5243,15 @@
         <v>694.9</v>
       </c>
       <c r="G162" t="n">
-        <v>-173.3217683299982</v>
-      </c>
-      <c r="H162" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5761,18 +5273,15 @@
         <v>79</v>
       </c>
       <c r="G163" t="n">
-        <v>-173.3217683299982</v>
-      </c>
-      <c r="H163" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5794,18 +5303,15 @@
         <v>223.1</v>
       </c>
       <c r="G164" t="n">
-        <v>-173.3217683299982</v>
-      </c>
-      <c r="H164" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5827,18 +5333,15 @@
         <v>4</v>
       </c>
       <c r="G165" t="n">
-        <v>-173.3217683299982</v>
-      </c>
-      <c r="H165" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5860,18 +5363,15 @@
         <v>75.2641</v>
       </c>
       <c r="G166" t="n">
-        <v>-173.3217683299982</v>
-      </c>
-      <c r="H166" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5893,18 +5393,15 @@
         <v>2549.5961</v>
       </c>
       <c r="G167" t="n">
-        <v>-2722.917868329998</v>
-      </c>
-      <c r="H167" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5926,18 +5423,15 @@
         <v>4.4804</v>
       </c>
       <c r="G168" t="n">
-        <v>-2727.398268329998</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -5959,18 +5453,15 @@
         <v>356.125</v>
       </c>
       <c r="G169" t="n">
-        <v>-3083.523268329998</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -5992,18 +5483,15 @@
         <v>34.2765</v>
       </c>
       <c r="G170" t="n">
-        <v>-3049.246768329998</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6025,18 +5513,15 @@
         <v>1</v>
       </c>
       <c r="G171" t="n">
-        <v>-3048.246768329998</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6058,18 +5543,15 @@
         <v>933.3797</v>
       </c>
       <c r="G172" t="n">
-        <v>-3981.626468329998</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6091,18 +5573,15 @@
         <v>29.1623</v>
       </c>
       <c r="G173" t="n">
-        <v>-3952.464168329998</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6124,18 +5603,15 @@
         <v>18.6842</v>
       </c>
       <c r="G174" t="n">
-        <v>-3952.464168329998</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6157,18 +5633,15 @@
         <v>324.1783</v>
       </c>
       <c r="G175" t="n">
-        <v>-4276.642468329998</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6190,18 +5663,15 @@
         <v>96.3999</v>
       </c>
       <c r="G176" t="n">
-        <v>-4180.242568329998</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6223,18 +5693,15 @@
         <v>50</v>
       </c>
       <c r="G177" t="n">
-        <v>-4230.242568329998</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6256,18 +5723,15 @@
         <v>6.2093</v>
       </c>
       <c r="G178" t="n">
-        <v>-4224.033268329998</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6289,18 +5753,15 @@
         <v>25.7318</v>
       </c>
       <c r="G179" t="n">
-        <v>-4249.765068329997</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6322,18 +5783,15 @@
         <v>20.8636</v>
       </c>
       <c r="G180" t="n">
-        <v>-4270.628668329997</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6355,18 +5813,15 @@
         <v>15.202</v>
       </c>
       <c r="G181" t="n">
-        <v>-4255.426668329997</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6388,18 +5843,15 @@
         <v>41.4955</v>
       </c>
       <c r="G182" t="n">
-        <v>-4213.931168329997</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6421,18 +5873,15 @@
         <v>13.3925</v>
       </c>
       <c r="G183" t="n">
-        <v>-4213.931168329997</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6454,18 +5903,15 @@
         <v>12.0533</v>
       </c>
       <c r="G184" t="n">
-        <v>-4213.931168329997</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6487,18 +5933,15 @@
         <v>16.5894</v>
       </c>
       <c r="G185" t="n">
-        <v>-4230.520568329996</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6520,18 +5963,15 @@
         <v>468.421</v>
       </c>
       <c r="G186" t="n">
-        <v>-4698.941568329997</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6553,18 +5993,15 @@
         <v>113.6099</v>
       </c>
       <c r="G187" t="n">
-        <v>-4585.331668329996</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6586,18 +6023,15 @@
         <v>98.212</v>
       </c>
       <c r="G188" t="n">
-        <v>-4487.119668329996</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6619,18 +6053,15 @@
         <v>2499.1725</v>
       </c>
       <c r="G189" t="n">
-        <v>-6986.292168329996</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6652,18 +6083,15 @@
         <v>486.157</v>
       </c>
       <c r="G190" t="n">
-        <v>-6500.135168329995</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6685,18 +6113,15 @@
         <v>1868.4807</v>
       </c>
       <c r="G191" t="n">
-        <v>-4631.654468329995</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6718,18 +6143,15 @@
         <v>67.5478</v>
       </c>
       <c r="G192" t="n">
-        <v>-4699.202268329996</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6751,18 +6173,15 @@
         <v>98.6191</v>
       </c>
       <c r="G193" t="n">
-        <v>-4797.821368329995</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -6784,18 +6203,15 @@
         <v>8939.282300000001</v>
       </c>
       <c r="G194" t="n">
-        <v>-13737.10366833</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -6817,18 +6233,15 @@
         <v>1360.1573</v>
       </c>
       <c r="G195" t="n">
-        <v>-15097.26096833</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -6850,18 +6263,15 @@
         <v>290.782</v>
       </c>
       <c r="G196" t="n">
-        <v>-15388.04296833</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -6883,18 +6293,15 @@
         <v>198.9015</v>
       </c>
       <c r="G197" t="n">
-        <v>-15189.14146833</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -6916,18 +6323,15 @@
         <v>229.0576</v>
       </c>
       <c r="G198" t="n">
-        <v>-15189.14146833</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -6949,18 +6353,15 @@
         <v>43.861</v>
       </c>
       <c r="G199" t="n">
-        <v>-15233.00246833</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -6982,18 +6383,15 @@
         <v>500</v>
       </c>
       <c r="G200" t="n">
-        <v>-15733.00246833</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7015,18 +6413,15 @@
         <v>24.8551</v>
       </c>
       <c r="G201" t="n">
-        <v>-15733.00246833</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7048,18 +6443,15 @@
         <v>41.6107</v>
       </c>
       <c r="G202" t="n">
-        <v>-15733.00246833</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7081,18 +6473,15 @@
         <v>1001.0887</v>
       </c>
       <c r="G203" t="n">
-        <v>-16734.09116833</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7114,18 +6503,21 @@
         <v>554.9767000000001</v>
       </c>
       <c r="G204" t="n">
-        <v>-16734.09116833</v>
+        <v>1</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>1977</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7147,22 +6539,21 @@
         <v>24.1493</v>
       </c>
       <c r="G205" t="n">
-        <v>-16758.24046833</v>
+        <v>1</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
-      </c>
-      <c r="I205" t="n">
         <v>1977</v>
       </c>
-      <c r="J205" t="n">
-        <v>1977</v>
-      </c>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
